--- a/Excel/Carga DB Postgres/Ingreso - cargado.xlsx
+++ b/Excel/Carga DB Postgres/Ingreso - cargado.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="18915" windowHeight="7995"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="18912" windowHeight="7992"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="350">
   <si>
     <t>idingreso</t>
   </si>
@@ -133,6 +133,939 @@
   </si>
   <si>
     <t>S/D</t>
+  </si>
+  <si>
+    <t>BNT109</t>
+  </si>
+  <si>
+    <t>NGB091</t>
+  </si>
+  <si>
+    <t>KSI649</t>
+  </si>
+  <si>
+    <t>RBU029</t>
+  </si>
+  <si>
+    <t>GWU953</t>
+  </si>
+  <si>
+    <t>EOL333</t>
+  </si>
+  <si>
+    <t>IUU992</t>
+  </si>
+  <si>
+    <t>B1129857</t>
+  </si>
+  <si>
+    <t>SMF389</t>
+  </si>
+  <si>
+    <t>LOY554</t>
+  </si>
+  <si>
+    <t>BCF528</t>
+  </si>
+  <si>
+    <t>DCW771</t>
+  </si>
+  <si>
+    <t>EXQ608</t>
+  </si>
+  <si>
+    <t>TMR067</t>
+  </si>
+  <si>
+    <t>FWX735</t>
+  </si>
+  <si>
+    <t>DWE363</t>
+  </si>
+  <si>
+    <t>GCQ259</t>
+  </si>
+  <si>
+    <t>AIR244</t>
+  </si>
+  <si>
+    <t>DWK537</t>
+  </si>
+  <si>
+    <t>DQL013</t>
+  </si>
+  <si>
+    <t>ETS515</t>
+  </si>
+  <si>
+    <t>BLH780</t>
+  </si>
+  <si>
+    <t>HIY224</t>
+  </si>
+  <si>
+    <t>XDY554</t>
+  </si>
+  <si>
+    <t>GLH235</t>
+  </si>
+  <si>
+    <t>S/P</t>
+  </si>
+  <si>
+    <t>B1995958</t>
+  </si>
+  <si>
+    <t>FPZ678</t>
+  </si>
+  <si>
+    <t>AFO356</t>
+  </si>
+  <si>
+    <t>XJO880</t>
+  </si>
+  <si>
+    <t>IYC662</t>
+  </si>
+  <si>
+    <t>GMJ607</t>
+  </si>
+  <si>
+    <t>RJI873</t>
+  </si>
+  <si>
+    <t>HUL241</t>
+  </si>
+  <si>
+    <t>B176739</t>
+  </si>
+  <si>
+    <t>SOR645</t>
+  </si>
+  <si>
+    <t>RUW241</t>
+  </si>
+  <si>
+    <t>NHR941</t>
+  </si>
+  <si>
+    <t>CSK477</t>
+  </si>
+  <si>
+    <t>GBS595</t>
+  </si>
+  <si>
+    <t>IPD987</t>
+  </si>
+  <si>
+    <t>BSS698</t>
+  </si>
+  <si>
+    <t>GPH823</t>
+  </si>
+  <si>
+    <t>UBX027</t>
+  </si>
+  <si>
+    <t>EHH836</t>
+  </si>
+  <si>
+    <t>BWM125</t>
+  </si>
+  <si>
+    <t>BVN547</t>
+  </si>
+  <si>
+    <t>IBB591</t>
+  </si>
+  <si>
+    <t>MHA986</t>
+  </si>
+  <si>
+    <t>FKM275</t>
+  </si>
+  <si>
+    <t>NBE991</t>
+  </si>
+  <si>
+    <t>JHQ700</t>
+  </si>
+  <si>
+    <t>MTI983</t>
+  </si>
+  <si>
+    <t>FVX801</t>
+  </si>
+  <si>
+    <t>MYN884</t>
+  </si>
+  <si>
+    <t>OFB273</t>
+  </si>
+  <si>
+    <t>VTP794</t>
+  </si>
+  <si>
+    <t>KZM827</t>
+  </si>
+  <si>
+    <t>JFF722</t>
+  </si>
+  <si>
+    <t>OAO454</t>
+  </si>
+  <si>
+    <t>JLT900</t>
+  </si>
+  <si>
+    <t>PBI295</t>
+  </si>
+  <si>
+    <t>NOD864</t>
+  </si>
+  <si>
+    <t>MBH127</t>
+  </si>
+  <si>
+    <t>DSL994</t>
+  </si>
+  <si>
+    <t>NUV754</t>
+  </si>
+  <si>
+    <t>IGL601</t>
+  </si>
+  <si>
+    <t>AA452NK</t>
+  </si>
+  <si>
+    <t>FJK984</t>
+  </si>
+  <si>
+    <t>FZI671</t>
+  </si>
+  <si>
+    <t>HZG960</t>
+  </si>
+  <si>
+    <t>EQV186</t>
+  </si>
+  <si>
+    <t>BAT358</t>
+  </si>
+  <si>
+    <t>JWE492</t>
+  </si>
+  <si>
+    <t>IFS740</t>
+  </si>
+  <si>
+    <t>TMO523</t>
+  </si>
+  <si>
+    <t>JJL393</t>
+  </si>
+  <si>
+    <t>ETO380</t>
+  </si>
+  <si>
+    <t>MMF162</t>
+  </si>
+  <si>
+    <t>ADC093</t>
+  </si>
+  <si>
+    <t>GIC683</t>
+  </si>
+  <si>
+    <t>OOS819</t>
+  </si>
+  <si>
+    <t>GWR097</t>
+  </si>
+  <si>
+    <t>FUQ358</t>
+  </si>
+  <si>
+    <t>HMY590</t>
+  </si>
+  <si>
+    <t>FTU417</t>
+  </si>
+  <si>
+    <t>HDR691</t>
+  </si>
+  <si>
+    <t>OTU604</t>
+  </si>
+  <si>
+    <t>JRC743</t>
+  </si>
+  <si>
+    <t>AA132KP</t>
+  </si>
+  <si>
+    <t>GMD556</t>
+  </si>
+  <si>
+    <t>DYQ661</t>
+  </si>
+  <si>
+    <t>CEF575</t>
+  </si>
+  <si>
+    <t>ALK169</t>
+  </si>
+  <si>
+    <t>NZG254</t>
+  </si>
+  <si>
+    <t>PPZ770</t>
+  </si>
+  <si>
+    <t>OMA638</t>
+  </si>
+  <si>
+    <t>LHY570</t>
+  </si>
+  <si>
+    <t>JKD834</t>
+  </si>
+  <si>
+    <t>PEUGEOT</t>
+  </si>
+  <si>
+    <t>FIAT</t>
+  </si>
+  <si>
+    <t>VW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIAT </t>
+  </si>
+  <si>
+    <t>FORD</t>
+  </si>
+  <si>
+    <t>CITROEN</t>
+  </si>
+  <si>
+    <t>AUDI</t>
+  </si>
+  <si>
+    <t>CHEVROLET</t>
+  </si>
+  <si>
+    <t>RENAULT</t>
+  </si>
+  <si>
+    <t>SUZUKI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HONDA </t>
+  </si>
+  <si>
+    <t>HONDA</t>
+  </si>
+  <si>
+    <t>VALIANT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORD </t>
+  </si>
+  <si>
+    <t>NISSAN</t>
+  </si>
+  <si>
+    <t>DAEWOO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RENAULT </t>
+  </si>
+  <si>
+    <t>GMC</t>
+  </si>
+  <si>
+    <t>HYUNDAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEVROLET </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOYOTA </t>
+  </si>
+  <si>
+    <t>SIENA</t>
+  </si>
+  <si>
+    <t>GOL</t>
+  </si>
+  <si>
+    <t>DUNA</t>
+  </si>
+  <si>
+    <t>CORSA</t>
+  </si>
+  <si>
+    <t>BORA</t>
+  </si>
+  <si>
+    <t>KA</t>
+  </si>
+  <si>
+    <t>2CV</t>
+  </si>
+  <si>
+    <t>ECOSPORT</t>
+  </si>
+  <si>
+    <t>ORION</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>SAVEIRO</t>
+  </si>
+  <si>
+    <t>PALIO</t>
+  </si>
+  <si>
+    <t>ASTRA</t>
+  </si>
+  <si>
+    <t>PIONTER</t>
+  </si>
+  <si>
+    <t>MEGANE</t>
+  </si>
+  <si>
+    <t>FUN</t>
+  </si>
+  <si>
+    <t>CIVIC</t>
+  </si>
+  <si>
+    <t>CHEVY</t>
+  </si>
+  <si>
+    <t>SIERRA</t>
+  </si>
+  <si>
+    <t>CR-V</t>
+  </si>
+  <si>
+    <t>TAUNUS</t>
+  </si>
+  <si>
+    <t>XSARA</t>
+  </si>
+  <si>
+    <t>UNO</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>GALAXY</t>
+  </si>
+  <si>
+    <t>SENTRA</t>
+  </si>
+  <si>
+    <t>IDEA</t>
+  </si>
+  <si>
+    <t>ESCORT</t>
+  </si>
+  <si>
+    <t>CHEVETTE</t>
+  </si>
+  <si>
+    <t>ELANTRA</t>
+  </si>
+  <si>
+    <t>CLASSIC</t>
+  </si>
+  <si>
+    <t>COROLLA</t>
+  </si>
+  <si>
+    <t>AVEO</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>VOYAGE</t>
+  </si>
+  <si>
+    <t>KANGOO</t>
+  </si>
+  <si>
+    <t>VERSA</t>
+  </si>
+  <si>
+    <t>DUSTER</t>
+  </si>
+  <si>
+    <t>SURAN</t>
+  </si>
+  <si>
+    <t>FIORINO</t>
+  </si>
+  <si>
+    <t>CELTA</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>BERLINGO</t>
+  </si>
+  <si>
+    <t>DS3</t>
+  </si>
+  <si>
+    <t>PARTNER</t>
+  </si>
+  <si>
+    <t>AGILE</t>
+  </si>
+  <si>
+    <t>BRAVA</t>
+  </si>
+  <si>
+    <t>HR-V</t>
+  </si>
+  <si>
+    <t>CLIO</t>
+  </si>
+  <si>
+    <t>FIESTA</t>
+  </si>
+  <si>
+    <t>2017-06-18-16:34:45</t>
+  </si>
+  <si>
+    <t>2017-09-01-17:32:24</t>
+  </si>
+  <si>
+    <t>2017-07-14-11:25:16</t>
+  </si>
+  <si>
+    <t>2017-10-01-07:45:03</t>
+  </si>
+  <si>
+    <t>2017-03-19-15:45:04</t>
+  </si>
+  <si>
+    <t>2017-05-14-21:35:42</t>
+  </si>
+  <si>
+    <t>2017-04-26-18:55:06</t>
+  </si>
+  <si>
+    <t>2017-09-24-16:22:07</t>
+  </si>
+  <si>
+    <t>2017-02-12-10:15:08</t>
+  </si>
+  <si>
+    <t>2017-03-26-19:12:09</t>
+  </si>
+  <si>
+    <t>2017-06-29-19:56:10</t>
+  </si>
+  <si>
+    <t>2017-08-07-13:45:11</t>
+  </si>
+  <si>
+    <t>2017-04-17-18:36:12</t>
+  </si>
+  <si>
+    <t>2017-09-09-11:06:13</t>
+  </si>
+  <si>
+    <t>2017-10-03-13:08:14</t>
+  </si>
+  <si>
+    <t>2017-01-19-22:16:15</t>
+  </si>
+  <si>
+    <t>2017-04-29-16:05:16</t>
+  </si>
+  <si>
+    <t>2017-05-04-13:26:17</t>
+  </si>
+  <si>
+    <t>2017-07-14-20:05:18</t>
+  </si>
+  <si>
+    <t>2017-04-16-19:26:23</t>
+  </si>
+  <si>
+    <t>2017-02-23-18:22:20</t>
+  </si>
+  <si>
+    <t>2017-01-26-15:05:21</t>
+  </si>
+  <si>
+    <t>2017-02-14-13:08:26</t>
+  </si>
+  <si>
+    <t>2017-03-29-19:53:23</t>
+  </si>
+  <si>
+    <t>2017-04-18-08:05:24</t>
+  </si>
+  <si>
+    <t>2017-05-13-16:35:25</t>
+  </si>
+  <si>
+    <t>2017-06-19-18:56:28</t>
+  </si>
+  <si>
+    <t>2017-09-14-13:55:19</t>
+  </si>
+  <si>
+    <t>2017-08-01-13:24:45</t>
+  </si>
+  <si>
+    <t>2017-07-16-18:45:29</t>
+  </si>
+  <si>
+    <t>2017-04-16-11:55:16</t>
+  </si>
+  <si>
+    <t>2017-06-24-02:55:21</t>
+  </si>
+  <si>
+    <t>2017-03-16-26:31:12</t>
+  </si>
+  <si>
+    <t>2017-03-19-16:55:33</t>
+  </si>
+  <si>
+    <t>2017-05-12-13:55:26</t>
+  </si>
+  <si>
+    <t>2017-09-25-09:05:35</t>
+  </si>
+  <si>
+    <t>2017-07-19-18:35:32</t>
+  </si>
+  <si>
+    <t>2017-06-14-12:08:39</t>
+  </si>
+  <si>
+    <t>2017-02-25-13:55:32</t>
+  </si>
+  <si>
+    <t>2017-04-14-15:05:45</t>
+  </si>
+  <si>
+    <t>2017-09-18-18:45:15</t>
+  </si>
+  <si>
+    <t>2017-08-25-18:55:43</t>
+  </si>
+  <si>
+    <t>2017-01-12-13:25:16</t>
+  </si>
+  <si>
+    <t>2017-03-26-16:55:42</t>
+  </si>
+  <si>
+    <t>2017-06-05-13:26:46</t>
+  </si>
+  <si>
+    <t>2017-07-16-18:45:55</t>
+  </si>
+  <si>
+    <t>2017-08-29-13:59:48</t>
+  </si>
+  <si>
+    <t>2017-09-03-16:33:46</t>
+  </si>
+  <si>
+    <t>2017-10-08-16:35:48</t>
+  </si>
+  <si>
+    <t>2017-01-13-11:26:35</t>
+  </si>
+  <si>
+    <t>2017-03-15-19:25:50</t>
+  </si>
+  <si>
+    <t>2017-05-30-16:35:55</t>
+  </si>
+  <si>
+    <t>2017-06-14-16:07:55</t>
+  </si>
+  <si>
+    <t>2017-07-03-18:22:23</t>
+  </si>
+  <si>
+    <t>2017-08-03-16:25:53</t>
+  </si>
+  <si>
+    <t>2017-08-03-18:35:22</t>
+  </si>
+  <si>
+    <t>2017-08-03-19:26:56</t>
+  </si>
+  <si>
+    <t>2017-08-14-16:35:45</t>
+  </si>
+  <si>
+    <t>2017-09-12-16:35:58</t>
+  </si>
+  <si>
+    <t>2017-09-12-18:05:15</t>
+  </si>
+  <si>
+    <t>2017-09-12-18:45:20</t>
+  </si>
+  <si>
+    <t>2017-09-12-19:35:53</t>
+  </si>
+  <si>
+    <t>2017-09-13-15:05:22</t>
+  </si>
+  <si>
+    <t>2017-09-14-14:05:13</t>
+  </si>
+  <si>
+    <t>2017-02-15-16:36:24</t>
+  </si>
+  <si>
+    <t>2017-04-23-18:55:23</t>
+  </si>
+  <si>
+    <t>2017-04-26-11:25:56</t>
+  </si>
+  <si>
+    <t>2017-05-01-13:05:21</t>
+  </si>
+  <si>
+    <t>2017-06-28-17:25:32</t>
+  </si>
+  <si>
+    <t>2017-06-24-08:05:26</t>
+  </si>
+  <si>
+    <t>2017-06-20-16:25:24</t>
+  </si>
+  <si>
+    <t>2017-09-19-16:29:15</t>
+  </si>
+  <si>
+    <t>2017-04-06-19:15:12</t>
+  </si>
+  <si>
+    <t>2017-06-03-16:21:16</t>
+  </si>
+  <si>
+    <t>2017-07-22-16:45:26</t>
+  </si>
+  <si>
+    <t>2017-07-24-19:15:25</t>
+  </si>
+  <si>
+    <t>2017-05-13-16:15:29</t>
+  </si>
+  <si>
+    <t>2017-03-19-17:55:26</t>
+  </si>
+  <si>
+    <t>2017-04-19-16:16:45</t>
+  </si>
+  <si>
+    <t>2017-08-04-18:45:12</t>
+  </si>
+  <si>
+    <t>2017-10-07-19:35:25</t>
+  </si>
+  <si>
+    <t>2017-09-07-18:45:12</t>
+  </si>
+  <si>
+    <t>2017-09-26-19:25:14</t>
+  </si>
+  <si>
+    <t>2017-04-19-15:53:45</t>
+  </si>
+  <si>
+    <t>2017-05-16-16:55:13</t>
+  </si>
+  <si>
+    <t>2017-07-19-16:35:46</t>
+  </si>
+  <si>
+    <t>2017-04-26-11:05:27</t>
+  </si>
+  <si>
+    <t>2017-01-23-16:46:13</t>
+  </si>
+  <si>
+    <t>2017-01-26-18:35:26</t>
+  </si>
+  <si>
+    <t>2017-02-09-11:46:13</t>
+  </si>
+  <si>
+    <t>2017-02-28-16:31:36</t>
+  </si>
+  <si>
+    <t>2017-06-27-11:45:39</t>
+  </si>
+  <si>
+    <t>2017-07-26-22:05:16</t>
+  </si>
+  <si>
+    <t>2017-08-22-16:45:26</t>
+  </si>
+  <si>
+    <t>2017-05-02-16:22:16</t>
+  </si>
+  <si>
+    <t>2017-06-30-11:22:46</t>
+  </si>
+  <si>
+    <t>2017-01-04-12:35:16</t>
+  </si>
+  <si>
+    <t>2017-04-25-16:55:53</t>
+  </si>
+  <si>
+    <t>2017-09-29-18:45:46</t>
+  </si>
+  <si>
+    <t>DOC</t>
+  </si>
+  <si>
+    <t>EST.PROHIBIDO</t>
+  </si>
+  <si>
+    <t>ALCOHOLEMIA</t>
+  </si>
+  <si>
+    <t>PLACA</t>
+  </si>
+  <si>
+    <t>ABANDONADO</t>
+  </si>
+  <si>
+    <t>UBER</t>
+  </si>
+  <si>
+    <t>ESTUPEFACIENTES</t>
+  </si>
+  <si>
+    <t>Z0021777</t>
+  </si>
+  <si>
+    <t>Cabrera</t>
+  </si>
+  <si>
+    <t>Gorriti</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Lavalle</t>
+  </si>
+  <si>
+    <t>Zelaya</t>
+  </si>
+  <si>
+    <t>Larrea</t>
+  </si>
+  <si>
+    <t>Arenales</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Juncal</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Ayacucho</t>
+  </si>
+  <si>
+    <t>Riobamba</t>
+  </si>
+  <si>
+    <t>Galileo</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Arce</t>
+  </si>
+  <si>
+    <t>Olleros</t>
+  </si>
+  <si>
+    <t>Guido</t>
+  </si>
+  <si>
+    <t>Alvear</t>
+  </si>
+  <si>
+    <t>Montevideo</t>
+  </si>
+  <si>
+    <t>Lima</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Saavedra</t>
+  </si>
+  <si>
+    <t>Carlos Calvo</t>
+  </si>
+  <si>
+    <t>Solis</t>
+  </si>
+  <si>
+    <t>Catamarca</t>
+  </si>
+  <si>
+    <t>Castro</t>
+  </si>
+  <si>
+    <t>Sarmiento</t>
+  </si>
+  <si>
+    <t>Humahuaca</t>
+  </si>
+  <si>
+    <t>Gurruchaga</t>
+  </si>
+  <si>
+    <t>Serrano</t>
+  </si>
+  <si>
+    <t>Uriarte</t>
   </si>
 </sst>
 </file>
@@ -168,8 +1101,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,26 +1405,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Y92" sqref="Y91:Y92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" customWidth="1"/>
-    <col min="13" max="13" width="25.85546875" customWidth="1"/>
-    <col min="14" max="14" width="19.85546875" customWidth="1"/>
-    <col min="15" max="16" width="20.85546875" customWidth="1"/>
-    <col min="20" max="20" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="21.44140625" customWidth="1"/>
+    <col min="12" max="12" width="19.5546875" customWidth="1"/>
+    <col min="13" max="13" width="25.88671875" customWidth="1"/>
+    <col min="14" max="14" width="19.88671875" customWidth="1"/>
+    <col min="15" max="16" width="20.88671875" customWidth="1"/>
+    <col min="20" max="20" width="19.6640625" customWidth="1"/>
     <col min="23" max="23" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -590,24 +1529,57 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="1">
+        <v>405</v>
       </c>
       <c r="H2" t="s">
         <v>31</v>
       </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>310</v>
+      </c>
+      <c r="M2" t="s">
+        <v>318</v>
+      </c>
+      <c r="O2" t="s">
+        <v>334</v>
+      </c>
+      <c r="P2" t="s">
+        <v>324</v>
+      </c>
       <c r="Q2">
         <f ca="1">RANDBETWEEN(100,10000)</f>
-        <v>751</v>
+        <v>9703</v>
       </c>
       <c r="R2">
         <f ca="1">RANDBETWEEN(1,153)</f>
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="S2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB2">
@@ -625,26 +1597,62 @@
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>211</v>
+      </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" ca="1" si="0">RANDBETWEEN(1,10)</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D66" ca="1" si="1">RANDBETWEEN(1,5)</f>
         <v>3</v>
       </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="H3" t="s">
         <v>32</v>
       </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>310</v>
+      </c>
+      <c r="M3" t="s">
+        <v>319</v>
+      </c>
+      <c r="O3" t="s">
+        <v>335</v>
+      </c>
+      <c r="P3" t="s">
+        <v>325</v>
+      </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q66" ca="1" si="2">RANDBETWEEN(100,10000)</f>
-        <v>2605</v>
+        <v>3242</v>
       </c>
       <c r="R3">
         <f t="shared" ref="R3:R66" ca="1" si="3">RANDBETWEEN(1,153)</f>
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB3">
@@ -652,7 +1660,7 @@
       </c>
       <c r="AC3">
         <f t="shared" ref="AC3:AC66" ca="1" si="4">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD3">
         <v>1</v>
@@ -662,26 +1670,62 @@
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>212</v>
+      </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H4" t="s">
         <v>33</v>
       </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>311</v>
+      </c>
+      <c r="M4" t="s">
+        <v>320</v>
+      </c>
+      <c r="O4" t="s">
+        <v>336</v>
+      </c>
+      <c r="P4" t="s">
+        <v>326</v>
+      </c>
       <c r="Q4">
         <f t="shared" ca="1" si="2"/>
-        <v>6111</v>
+        <v>7362</v>
       </c>
       <c r="R4">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="S4" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA4" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB4">
@@ -699,26 +1743,62 @@
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>213</v>
+      </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="H5" t="s">
         <v>34</v>
       </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5" t="s">
+        <v>310</v>
+      </c>
+      <c r="M5" t="s">
+        <v>321</v>
+      </c>
+      <c r="O5" t="s">
+        <v>337</v>
+      </c>
+      <c r="P5" t="s">
+        <v>327</v>
+      </c>
       <c r="Q5">
         <f t="shared" ca="1" si="2"/>
-        <v>8357</v>
+        <v>2764</v>
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="3"/>
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="S5" t="s">
+        <v>38</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA5" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB5">
@@ -726,7 +1806,7 @@
       </c>
       <c r="AC5">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD5">
         <v>1</v>
@@ -736,26 +1816,62 @@
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>214</v>
+      </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="H6" t="s">
         <v>35</v>
       </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6" t="s">
+        <v>310</v>
+      </c>
+      <c r="M6" t="s">
+        <v>322</v>
+      </c>
+      <c r="O6" t="s">
+        <v>338</v>
+      </c>
+      <c r="P6" t="s">
+        <v>328</v>
+      </c>
       <c r="Q6">
         <f t="shared" ca="1" si="2"/>
-        <v>2497</v>
+        <v>5251</v>
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="S6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA6" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB6">
@@ -773,26 +1889,62 @@
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>215</v>
+      </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="H7" t="s">
         <v>36</v>
       </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7" t="s">
+        <v>310</v>
+      </c>
+      <c r="M7" t="s">
+        <v>323</v>
+      </c>
+      <c r="O7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P7" t="s">
+        <v>329</v>
+      </c>
       <c r="Q7">
         <f t="shared" ca="1" si="2"/>
-        <v>768</v>
+        <v>2912</v>
       </c>
       <c r="R7">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="S7" t="s">
+        <v>38</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA7" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB7">
@@ -800,7 +1952,7 @@
       </c>
       <c r="AC7">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD7">
         <v>1</v>
@@ -810,26 +1962,62 @@
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>216</v>
+      </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="H8" t="s">
         <v>37</v>
       </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8" t="s">
+        <v>311</v>
+      </c>
+      <c r="M8" t="s">
+        <v>324</v>
+      </c>
+      <c r="O8" t="s">
+        <v>340</v>
+      </c>
+      <c r="P8" t="s">
+        <v>330</v>
+      </c>
       <c r="Q8">
         <f t="shared" ca="1" si="2"/>
-        <v>3818</v>
+        <v>8414</v>
       </c>
       <c r="R8">
         <f t="shared" ca="1" si="3"/>
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="S8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA8" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB8">
@@ -837,7 +2025,7 @@
       </c>
       <c r="AC8">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD8">
         <v>1</v>
@@ -847,26 +2035,62 @@
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>217</v>
+      </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
         <v>8</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="H9" t="s">
         <v>31</v>
       </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+      <c r="L9" t="s">
+        <v>310</v>
+      </c>
+      <c r="M9" t="s">
+        <v>325</v>
+      </c>
+      <c r="O9" t="s">
+        <v>341</v>
+      </c>
+      <c r="P9" t="s">
+        <v>331</v>
+      </c>
       <c r="Q9">
         <f t="shared" ca="1" si="2"/>
-        <v>3801</v>
+        <v>5944</v>
       </c>
       <c r="R9">
         <f t="shared" ca="1" si="3"/>
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="S9" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB9">
@@ -874,7 +2098,7 @@
       </c>
       <c r="AC9">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD9">
         <v>1</v>
@@ -884,26 +2108,62 @@
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>218</v>
+      </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" s="1">
+        <v>504</v>
       </c>
       <c r="H10" t="s">
         <v>32</v>
       </c>
+      <c r="J10">
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <v>9</v>
+      </c>
+      <c r="L10" t="s">
+        <v>311</v>
+      </c>
+      <c r="M10" t="s">
+        <v>326</v>
+      </c>
+      <c r="O10" t="s">
+        <v>342</v>
+      </c>
+      <c r="P10" t="s">
+        <v>332</v>
+      </c>
       <c r="Q10">
         <f t="shared" ca="1" si="2"/>
-        <v>4310</v>
+        <v>8003</v>
       </c>
       <c r="R10">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="S10" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA10" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB10">
@@ -921,26 +2181,62 @@
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>219</v>
+      </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="H11" t="s">
         <v>33</v>
       </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11" t="s">
+        <v>310</v>
+      </c>
+      <c r="M11" t="s">
+        <v>327</v>
+      </c>
+      <c r="O11" t="s">
+        <v>343</v>
+      </c>
+      <c r="P11" t="s">
+        <v>333</v>
+      </c>
       <c r="Q11">
         <f t="shared" ca="1" si="2"/>
-        <v>938</v>
+        <v>4139</v>
       </c>
       <c r="R11">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="S11" t="s">
+        <v>38</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA11" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB11">
@@ -948,7 +2244,7 @@
       </c>
       <c r="AC11">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD11">
         <v>1</v>
@@ -958,26 +2254,62 @@
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>220</v>
+      </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="H12" t="s">
         <v>34</v>
       </c>
+      <c r="J12">
+        <v>11</v>
+      </c>
+      <c r="K12">
+        <v>11</v>
+      </c>
+      <c r="L12" t="s">
+        <v>311</v>
+      </c>
+      <c r="M12" t="s">
+        <v>328</v>
+      </c>
+      <c r="O12" t="s">
+        <v>344</v>
+      </c>
+      <c r="P12" t="s">
+        <v>334</v>
+      </c>
       <c r="Q12">
         <f t="shared" ca="1" si="2"/>
-        <v>5856</v>
+        <v>8500</v>
       </c>
       <c r="R12">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="S12" t="s">
+        <v>38</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA12" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB12">
@@ -995,26 +2327,62 @@
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>221</v>
+      </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="H13" t="s">
         <v>36</v>
       </c>
+      <c r="J13">
+        <v>12</v>
+      </c>
+      <c r="K13">
+        <v>12</v>
+      </c>
+      <c r="L13" t="s">
+        <v>310</v>
+      </c>
+      <c r="M13" t="s">
+        <v>329</v>
+      </c>
+      <c r="O13" t="s">
+        <v>345</v>
+      </c>
+      <c r="P13" t="s">
+        <v>335</v>
+      </c>
       <c r="Q13">
         <f t="shared" ca="1" si="2"/>
-        <v>4734</v>
+        <v>5805</v>
       </c>
       <c r="R13">
         <f t="shared" ca="1" si="3"/>
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="S13" t="s">
+        <v>38</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA13" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB13">
@@ -1032,26 +2400,62 @@
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>222</v>
+      </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="H14" t="s">
         <v>37</v>
       </c>
+      <c r="J14">
+        <v>13</v>
+      </c>
+      <c r="K14">
+        <v>13</v>
+      </c>
+      <c r="L14" t="s">
+        <v>312</v>
+      </c>
+      <c r="M14" t="s">
+        <v>330</v>
+      </c>
+      <c r="O14" t="s">
+        <v>346</v>
+      </c>
+      <c r="P14" t="s">
+        <v>336</v>
+      </c>
       <c r="Q14">
         <f t="shared" ca="1" si="2"/>
-        <v>1644</v>
+        <v>4534</v>
       </c>
       <c r="R14">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="S14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA14" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB14">
@@ -1069,26 +2473,62 @@
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15" t="s">
+        <v>223</v>
+      </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" s="1">
+        <v>505</v>
       </c>
       <c r="H15" t="s">
         <v>31</v>
       </c>
+      <c r="J15">
+        <v>14</v>
+      </c>
+      <c r="K15">
+        <v>14</v>
+      </c>
+      <c r="L15" t="s">
+        <v>311</v>
+      </c>
+      <c r="M15" t="s">
+        <v>331</v>
+      </c>
+      <c r="O15" t="s">
+        <v>347</v>
+      </c>
+      <c r="P15" t="s">
+        <v>337</v>
+      </c>
       <c r="Q15">
         <f t="shared" ca="1" si="2"/>
-        <v>8614</v>
+        <v>1139</v>
       </c>
       <c r="R15">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="S15" t="s">
+        <v>38</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA15" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB15">
@@ -1106,26 +2546,62 @@
       <c r="A16">
         <v>15</v>
       </c>
+      <c r="B16" t="s">
+        <v>224</v>
+      </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="H16" t="s">
         <v>32</v>
       </c>
+      <c r="J16">
+        <v>15</v>
+      </c>
+      <c r="K16">
+        <v>15</v>
+      </c>
+      <c r="L16" t="s">
+        <v>311</v>
+      </c>
+      <c r="M16" t="s">
+        <v>332</v>
+      </c>
+      <c r="O16" t="s">
+        <v>348</v>
+      </c>
+      <c r="P16" t="s">
+        <v>338</v>
+      </c>
       <c r="Q16">
         <f t="shared" ca="1" si="2"/>
-        <v>8690</v>
+        <v>5371</v>
       </c>
       <c r="R16">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="S16" t="s">
+        <v>38</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA16" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB16">
@@ -1143,26 +2619,62 @@
       <c r="A17">
         <v>16</v>
       </c>
+      <c r="B17" t="s">
+        <v>225</v>
+      </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="H17" t="s">
         <v>33</v>
       </c>
+      <c r="J17">
+        <v>16</v>
+      </c>
+      <c r="K17">
+        <v>16</v>
+      </c>
+      <c r="L17" t="s">
+        <v>311</v>
+      </c>
+      <c r="M17" t="s">
+        <v>333</v>
+      </c>
+      <c r="O17" t="s">
+        <v>349</v>
+      </c>
+      <c r="P17" t="s">
+        <v>339</v>
+      </c>
       <c r="Q17">
         <f t="shared" ca="1" si="2"/>
-        <v>326</v>
+        <v>2999</v>
       </c>
       <c r="R17">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="S17" t="s">
+        <v>38</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB17">
@@ -1170,7 +2682,7 @@
       </c>
       <c r="AC17">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD17">
         <v>1</v>
@@ -1180,26 +2692,62 @@
       <c r="A18">
         <v>17</v>
       </c>
+      <c r="B18" t="s">
+        <v>226</v>
+      </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="H18" t="s">
         <v>34</v>
       </c>
+      <c r="J18">
+        <v>17</v>
+      </c>
+      <c r="K18">
+        <v>17</v>
+      </c>
+      <c r="L18" t="s">
+        <v>310</v>
+      </c>
+      <c r="M18" t="s">
+        <v>334</v>
+      </c>
+      <c r="O18" t="s">
+        <v>318</v>
+      </c>
+      <c r="P18" t="s">
+        <v>340</v>
+      </c>
       <c r="Q18">
         <f t="shared" ca="1" si="2"/>
-        <v>6054</v>
+        <v>8907</v>
       </c>
       <c r="R18">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="S18" t="s">
+        <v>38</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB18">
@@ -1207,7 +2755,7 @@
       </c>
       <c r="AC18">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD18">
         <v>1</v>
@@ -1217,26 +2765,62 @@
       <c r="A19">
         <v>18</v>
       </c>
+      <c r="B19" t="s">
+        <v>227</v>
+      </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="H19" t="s">
         <v>36</v>
       </c>
+      <c r="J19">
+        <v>18</v>
+      </c>
+      <c r="K19">
+        <v>18</v>
+      </c>
+      <c r="L19" t="s">
+        <v>310</v>
+      </c>
+      <c r="M19" t="s">
+        <v>335</v>
+      </c>
+      <c r="O19" t="s">
+        <v>319</v>
+      </c>
+      <c r="P19" t="s">
+        <v>341</v>
+      </c>
       <c r="Q19">
         <f t="shared" ca="1" si="2"/>
-        <v>1474</v>
+        <v>6965</v>
       </c>
       <c r="R19">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="S19" t="s">
+        <v>38</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA19" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB19">
@@ -1244,7 +2828,7 @@
       </c>
       <c r="AC19">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD19">
         <v>1</v>
@@ -1254,26 +2838,62 @@
       <c r="A20">
         <v>19</v>
       </c>
+      <c r="B20" t="s">
+        <v>228</v>
+      </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="H20" t="s">
         <v>37</v>
       </c>
+      <c r="J20">
+        <v>19</v>
+      </c>
+      <c r="K20">
+        <v>19</v>
+      </c>
+      <c r="L20" t="s">
+        <v>313</v>
+      </c>
+      <c r="M20" t="s">
+        <v>336</v>
+      </c>
+      <c r="O20" t="s">
+        <v>320</v>
+      </c>
+      <c r="P20" t="s">
+        <v>342</v>
+      </c>
       <c r="Q20">
         <f t="shared" ca="1" si="2"/>
-        <v>3696</v>
+        <v>8469</v>
       </c>
       <c r="R20">
         <f t="shared" ca="1" si="3"/>
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="S20" t="s">
+        <v>38</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA20" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB20">
@@ -1291,26 +2911,62 @@
       <c r="A21">
         <v>20</v>
       </c>
+      <c r="B21" t="s">
+        <v>229</v>
+      </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="1">
+        <v>306</v>
       </c>
       <c r="H21" t="s">
         <v>34</v>
       </c>
+      <c r="J21">
+        <v>20</v>
+      </c>
+      <c r="K21">
+        <v>20</v>
+      </c>
+      <c r="L21" t="s">
+        <v>310</v>
+      </c>
+      <c r="M21" t="s">
+        <v>337</v>
+      </c>
+      <c r="O21" t="s">
+        <v>321</v>
+      </c>
+      <c r="P21" t="s">
+        <v>343</v>
+      </c>
       <c r="Q21">
         <f t="shared" ca="1" si="2"/>
-        <v>9903</v>
+        <v>8655</v>
       </c>
       <c r="R21">
         <f t="shared" ca="1" si="3"/>
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="S21" t="s">
+        <v>38</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB21">
@@ -1328,26 +2984,62 @@
       <c r="A22">
         <v>21</v>
       </c>
+      <c r="B22" t="s">
+        <v>230</v>
+      </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="H22" t="s">
         <v>31</v>
       </c>
+      <c r="J22">
+        <v>21</v>
+      </c>
+      <c r="K22">
+        <v>21</v>
+      </c>
+      <c r="L22" t="s">
+        <v>311</v>
+      </c>
+      <c r="M22" t="s">
+        <v>338</v>
+      </c>
+      <c r="O22" t="s">
+        <v>322</v>
+      </c>
+      <c r="P22" t="s">
+        <v>344</v>
+      </c>
       <c r="Q22">
         <f t="shared" ca="1" si="2"/>
-        <v>3655</v>
+        <v>3500</v>
       </c>
       <c r="R22">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="S22" t="s">
+        <v>38</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA22" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB22">
@@ -1355,7 +3047,7 @@
       </c>
       <c r="AC22">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD22">
         <v>1</v>
@@ -1365,26 +3057,62 @@
       <c r="A23">
         <v>22</v>
       </c>
+      <c r="B23" t="s">
+        <v>231</v>
+      </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" t="s">
+        <v>148</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="H23" t="s">
         <v>32</v>
       </c>
+      <c r="J23">
+        <v>22</v>
+      </c>
+      <c r="K23">
+        <v>22</v>
+      </c>
+      <c r="L23" t="s">
+        <v>311</v>
+      </c>
+      <c r="M23" t="s">
+        <v>339</v>
+      </c>
+      <c r="O23" t="s">
+        <v>323</v>
+      </c>
+      <c r="P23" t="s">
+        <v>345</v>
+      </c>
       <c r="Q23">
         <f t="shared" ca="1" si="2"/>
-        <v>4052</v>
+        <v>2308</v>
       </c>
       <c r="R23">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="S23" t="s">
+        <v>38</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA23" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB23">
@@ -1402,26 +3130,62 @@
       <c r="A24">
         <v>23</v>
       </c>
+      <c r="B24" t="s">
+        <v>232</v>
+      </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" t="s">
+        <v>145</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="H24" t="s">
         <v>33</v>
       </c>
+      <c r="J24">
+        <v>23</v>
+      </c>
+      <c r="K24">
+        <v>23</v>
+      </c>
+      <c r="L24" t="s">
+        <v>310</v>
+      </c>
+      <c r="M24" t="s">
+        <v>340</v>
+      </c>
+      <c r="O24" t="s">
+        <v>324</v>
+      </c>
+      <c r="P24" t="s">
+        <v>346</v>
+      </c>
       <c r="Q24">
         <f t="shared" ca="1" si="2"/>
-        <v>6470</v>
+        <v>461</v>
       </c>
       <c r="R24">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="S24" t="s">
+        <v>38</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA24" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB24">
@@ -1429,7 +3193,7 @@
       </c>
       <c r="AC24">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD24">
         <v>1</v>
@@ -1439,26 +3203,62 @@
       <c r="A25">
         <v>24</v>
       </c>
+      <c r="B25" t="s">
+        <v>233</v>
+      </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25" s="1">
+        <v>600</v>
       </c>
       <c r="H25" t="s">
         <v>34</v>
       </c>
+      <c r="J25">
+        <v>24</v>
+      </c>
+      <c r="K25">
+        <v>24</v>
+      </c>
+      <c r="L25" t="s">
+        <v>311</v>
+      </c>
+      <c r="M25" t="s">
+        <v>341</v>
+      </c>
+      <c r="O25" t="s">
+        <v>325</v>
+      </c>
+      <c r="P25" t="s">
+        <v>347</v>
+      </c>
       <c r="Q25">
         <f t="shared" ca="1" si="2"/>
-        <v>4780</v>
+        <v>9073</v>
       </c>
       <c r="R25">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="S25" t="s">
+        <v>38</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA25" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB25">
@@ -1476,26 +3276,62 @@
       <c r="A26">
         <v>25</v>
       </c>
+      <c r="B26" t="s">
+        <v>234</v>
+      </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" t="s">
+        <v>139</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="H26" t="s">
         <v>36</v>
       </c>
+      <c r="J26">
+        <v>25</v>
+      </c>
+      <c r="K26">
+        <v>25</v>
+      </c>
+      <c r="L26" t="s">
+        <v>314</v>
+      </c>
+      <c r="M26" t="s">
+        <v>342</v>
+      </c>
+      <c r="O26" t="s">
+        <v>326</v>
+      </c>
+      <c r="P26" t="s">
+        <v>348</v>
+      </c>
       <c r="Q26">
         <f t="shared" ca="1" si="2"/>
-        <v>9017</v>
+        <v>307</v>
       </c>
       <c r="R26">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="S26" t="s">
+        <v>38</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA26" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB26">
@@ -1503,7 +3339,7 @@
       </c>
       <c r="AC26">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD26">
         <v>1</v>
@@ -1513,26 +3349,62 @@
       <c r="A27">
         <v>26</v>
       </c>
+      <c r="B27" t="s">
+        <v>235</v>
+      </c>
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" t="s">
+        <v>145</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="H27" t="s">
         <v>37</v>
       </c>
+      <c r="J27">
+        <v>26</v>
+      </c>
+      <c r="K27">
+        <v>26</v>
+      </c>
+      <c r="L27" t="s">
+        <v>314</v>
+      </c>
+      <c r="M27" t="s">
+        <v>343</v>
+      </c>
+      <c r="O27" t="s">
+        <v>327</v>
+      </c>
+      <c r="P27" t="s">
+        <v>349</v>
+      </c>
       <c r="Q27">
         <f t="shared" ca="1" si="2"/>
-        <v>4049</v>
+        <v>896</v>
       </c>
       <c r="R27">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="S27" t="s">
+        <v>38</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA27" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB27">
@@ -1550,26 +3422,62 @@
       <c r="A28">
         <v>27</v>
       </c>
+      <c r="B28" t="s">
+        <v>236</v>
+      </c>
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" t="s">
+        <v>142</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="H28" t="s">
         <v>31</v>
       </c>
+      <c r="J28">
+        <v>27</v>
+      </c>
+      <c r="K28">
+        <v>27</v>
+      </c>
+      <c r="L28" t="s">
+        <v>314</v>
+      </c>
+      <c r="M28" t="s">
+        <v>344</v>
+      </c>
+      <c r="O28" t="s">
+        <v>328</v>
+      </c>
+      <c r="P28" t="s">
+        <v>318</v>
+      </c>
       <c r="Q28">
         <f t="shared" ca="1" si="2"/>
-        <v>9868</v>
+        <v>6671</v>
       </c>
       <c r="R28">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="S28" t="s">
+        <v>38</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA28" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB28">
@@ -1577,7 +3485,7 @@
       </c>
       <c r="AC28">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD28">
         <v>1</v>
@@ -1587,26 +3495,62 @@
       <c r="A29">
         <v>28</v>
       </c>
+      <c r="B29" t="s">
+        <v>237</v>
+      </c>
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" t="s">
+        <v>149</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="H29" t="s">
         <v>32</v>
       </c>
+      <c r="J29">
+        <v>28</v>
+      </c>
+      <c r="K29">
+        <v>28</v>
+      </c>
+      <c r="L29" t="s">
+        <v>310</v>
+      </c>
+      <c r="M29" t="s">
+        <v>345</v>
+      </c>
+      <c r="O29" t="s">
+        <v>329</v>
+      </c>
+      <c r="P29" t="s">
+        <v>319</v>
+      </c>
       <c r="Q29">
         <f t="shared" ca="1" si="2"/>
-        <v>5232</v>
+        <v>3445</v>
       </c>
       <c r="R29">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="S29" t="s">
+        <v>38</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA29" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB29">
@@ -1624,26 +3568,62 @@
       <c r="A30">
         <v>29</v>
       </c>
+      <c r="B30" t="s">
+        <v>238</v>
+      </c>
       <c r="C30">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" t="s">
+        <v>138</v>
+      </c>
+      <c r="G30" s="1">
+        <v>504</v>
       </c>
       <c r="H30" t="s">
         <v>33</v>
       </c>
+      <c r="J30">
+        <v>29</v>
+      </c>
+      <c r="K30">
+        <v>29</v>
+      </c>
+      <c r="L30" t="s">
+        <v>314</v>
+      </c>
+      <c r="M30" t="s">
+        <v>346</v>
+      </c>
+      <c r="O30" t="s">
+        <v>330</v>
+      </c>
+      <c r="P30" t="s">
+        <v>320</v>
+      </c>
       <c r="Q30">
         <f t="shared" ca="1" si="2"/>
-        <v>6585</v>
+        <v>6443</v>
       </c>
       <c r="R30">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="S30" t="s">
+        <v>38</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA30" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB30">
@@ -1661,26 +3641,59 @@
       <c r="A31">
         <v>30</v>
       </c>
+      <c r="B31" t="s">
+        <v>239</v>
+      </c>
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" t="s">
+        <v>142</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="H31" t="s">
         <v>34</v>
       </c>
+      <c r="K31">
+        <v>30</v>
+      </c>
+      <c r="L31" t="s">
+        <v>314</v>
+      </c>
+      <c r="M31" t="s">
+        <v>347</v>
+      </c>
+      <c r="O31" t="s">
+        <v>331</v>
+      </c>
+      <c r="P31" t="s">
+        <v>321</v>
+      </c>
       <c r="Q31">
         <f t="shared" ca="1" si="2"/>
-        <v>8043</v>
+        <v>9297</v>
       </c>
       <c r="R31">
         <f t="shared" ca="1" si="3"/>
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="S31" t="s">
+        <v>38</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA31" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB31">
@@ -1698,26 +3711,59 @@
       <c r="A32">
         <v>31</v>
       </c>
+      <c r="B32" t="s">
+        <v>240</v>
+      </c>
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="H32" t="s">
         <v>36</v>
       </c>
+      <c r="K32">
+        <v>31</v>
+      </c>
+      <c r="L32" t="s">
+        <v>314</v>
+      </c>
+      <c r="M32" t="s">
+        <v>348</v>
+      </c>
+      <c r="O32" t="s">
+        <v>332</v>
+      </c>
+      <c r="P32" t="s">
+        <v>322</v>
+      </c>
       <c r="Q32">
         <f t="shared" ca="1" si="2"/>
-        <v>5537</v>
+        <v>890</v>
       </c>
       <c r="R32">
         <f t="shared" ca="1" si="3"/>
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="S32" t="s">
+        <v>38</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA32" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB32">
@@ -1725,7 +3771,7 @@
       </c>
       <c r="AC32">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD32">
         <v>1</v>
@@ -1735,26 +3781,59 @@
       <c r="A33">
         <v>32</v>
       </c>
+      <c r="B33" t="s">
+        <v>241</v>
+      </c>
       <c r="C33">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" t="s">
+        <v>139</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="H33" t="s">
         <v>37</v>
       </c>
+      <c r="K33">
+        <v>32</v>
+      </c>
+      <c r="L33" t="s">
+        <v>312</v>
+      </c>
+      <c r="M33" t="s">
+        <v>349</v>
+      </c>
+      <c r="O33" t="s">
+        <v>333</v>
+      </c>
+      <c r="P33" t="s">
+        <v>323</v>
+      </c>
       <c r="Q33">
         <f t="shared" ca="1" si="2"/>
-        <v>5238</v>
+        <v>2044</v>
       </c>
       <c r="R33">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="S33" t="s">
+        <v>38</v>
+      </c>
+      <c r="T33" s="1">
+        <v>16552688</v>
+      </c>
+      <c r="AA33" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB33">
@@ -1772,26 +3851,59 @@
       <c r="A34">
         <v>33</v>
       </c>
+      <c r="B34" t="s">
+        <v>242</v>
+      </c>
       <c r="C34">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" t="s">
+        <v>146</v>
+      </c>
+      <c r="G34" s="1">
+        <v>21</v>
       </c>
       <c r="H34" t="s">
         <v>34</v>
       </c>
+      <c r="K34">
+        <v>33</v>
+      </c>
+      <c r="L34" t="s">
+        <v>310</v>
+      </c>
+      <c r="M34" t="s">
+        <v>318</v>
+      </c>
+      <c r="O34" t="s">
+        <v>334</v>
+      </c>
+      <c r="P34" t="s">
+        <v>324</v>
+      </c>
       <c r="Q34">
         <f t="shared" ca="1" si="2"/>
-        <v>4515</v>
+        <v>5212</v>
       </c>
       <c r="R34">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="S34" t="s">
+        <v>38</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA34" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB34">
@@ -1809,26 +3921,59 @@
       <c r="A35">
         <v>34</v>
       </c>
+      <c r="B35" t="s">
+        <v>243</v>
+      </c>
       <c r="C35">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" t="s">
+        <v>143</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="H35" t="s">
         <v>31</v>
       </c>
+      <c r="K35">
+        <v>34</v>
+      </c>
+      <c r="L35" t="s">
+        <v>310</v>
+      </c>
+      <c r="M35" t="s">
+        <v>319</v>
+      </c>
+      <c r="O35" t="s">
+        <v>335</v>
+      </c>
+      <c r="P35" t="s">
+        <v>325</v>
+      </c>
       <c r="Q35">
         <f t="shared" ca="1" si="2"/>
-        <v>7929</v>
+        <v>2126</v>
       </c>
       <c r="R35">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="S35" t="s">
+        <v>38</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA35" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB35">
@@ -1846,26 +3991,59 @@
       <c r="A36">
         <v>35</v>
       </c>
+      <c r="B36" t="s">
+        <v>244</v>
+      </c>
       <c r="C36">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" t="s">
+        <v>150</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="H36" t="s">
         <v>32</v>
       </c>
+      <c r="K36">
+        <v>35</v>
+      </c>
+      <c r="L36" t="s">
+        <v>314</v>
+      </c>
+      <c r="M36" t="s">
+        <v>320</v>
+      </c>
+      <c r="O36" t="s">
+        <v>336</v>
+      </c>
+      <c r="P36" t="s">
+        <v>326</v>
+      </c>
       <c r="Q36">
         <f t="shared" ca="1" si="2"/>
-        <v>5075</v>
+        <v>9197</v>
       </c>
       <c r="R36">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="S36" t="s">
+        <v>38</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA36" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB36">
@@ -1883,26 +4061,59 @@
       <c r="A37">
         <v>36</v>
       </c>
+      <c r="B37" t="s">
+        <v>245</v>
+      </c>
       <c r="C37">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" t="s">
+        <v>151</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="H37" t="s">
         <v>33</v>
       </c>
+      <c r="K37">
+        <v>36</v>
+      </c>
+      <c r="L37" t="s">
+        <v>314</v>
+      </c>
+      <c r="M37" t="s">
+        <v>321</v>
+      </c>
+      <c r="O37" t="s">
+        <v>337</v>
+      </c>
+      <c r="P37" t="s">
+        <v>327</v>
+      </c>
       <c r="Q37">
         <f t="shared" ca="1" si="2"/>
-        <v>3167</v>
+        <v>917</v>
       </c>
       <c r="R37">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="S37" t="s">
+        <v>38</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA37" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB37">
@@ -1910,7 +4121,7 @@
       </c>
       <c r="AC37">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD37">
         <v>1</v>
@@ -1920,26 +4131,59 @@
       <c r="A38">
         <v>37</v>
       </c>
+      <c r="B38" t="s">
+        <v>246</v>
+      </c>
       <c r="C38">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38" t="s">
+        <v>152</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="H38" t="s">
         <v>34</v>
       </c>
+      <c r="K38">
+        <v>37</v>
+      </c>
+      <c r="L38" t="s">
+        <v>314</v>
+      </c>
+      <c r="M38" t="s">
+        <v>322</v>
+      </c>
+      <c r="O38" t="s">
+        <v>338</v>
+      </c>
+      <c r="P38" t="s">
+        <v>328</v>
+      </c>
       <c r="Q38">
         <f t="shared" ca="1" si="2"/>
-        <v>2661</v>
+        <v>4072</v>
       </c>
       <c r="R38">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="S38" t="s">
+        <v>38</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA38" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB38">
@@ -1957,26 +4201,59 @@
       <c r="A39">
         <v>38</v>
       </c>
+      <c r="B39" t="s">
+        <v>247</v>
+      </c>
       <c r="C39">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
+        <v>141</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="H39" t="s">
         <v>36</v>
       </c>
+      <c r="K39">
+        <v>38</v>
+      </c>
+      <c r="L39" t="s">
+        <v>310</v>
+      </c>
+      <c r="M39" t="s">
+        <v>323</v>
+      </c>
+      <c r="O39" t="s">
+        <v>339</v>
+      </c>
+      <c r="P39" t="s">
+        <v>329</v>
+      </c>
       <c r="Q39">
         <f t="shared" ca="1" si="2"/>
-        <v>3063</v>
+        <v>7373</v>
       </c>
       <c r="R39">
         <f t="shared" ca="1" si="3"/>
-        <v>146</v>
+        <v>85</v>
       </c>
       <c r="S39" t="s">
+        <v>38</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA39" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB39">
@@ -1994,26 +4271,59 @@
       <c r="A40">
         <v>39</v>
       </c>
+      <c r="B40" t="s">
+        <v>248</v>
+      </c>
       <c r="C40">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="E40" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="H40" t="s">
         <v>37</v>
       </c>
+      <c r="K40">
+        <v>39</v>
+      </c>
+      <c r="L40" t="s">
+        <v>314</v>
+      </c>
+      <c r="M40" t="s">
+        <v>324</v>
+      </c>
+      <c r="O40" t="s">
+        <v>340</v>
+      </c>
+      <c r="P40" t="s">
+        <v>330</v>
+      </c>
       <c r="Q40">
         <f t="shared" ca="1" si="2"/>
-        <v>1966</v>
+        <v>8197</v>
       </c>
       <c r="R40">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="S40" t="s">
+        <v>38</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA40" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB40">
@@ -2021,7 +4331,7 @@
       </c>
       <c r="AC40">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD40">
         <v>1</v>
@@ -2031,26 +4341,59 @@
       <c r="A41">
         <v>40</v>
       </c>
+      <c r="B41" t="s">
+        <v>249</v>
+      </c>
       <c r="C41">
         <f t="shared" ca="1" si="0"/>
         <v>10</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" t="s">
+        <v>140</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H41" t="s">
         <v>34</v>
       </c>
+      <c r="K41">
+        <v>40</v>
+      </c>
+      <c r="L41" t="s">
+        <v>310</v>
+      </c>
+      <c r="M41" t="s">
+        <v>325</v>
+      </c>
+      <c r="O41" t="s">
+        <v>341</v>
+      </c>
+      <c r="P41" t="s">
+        <v>331</v>
+      </c>
       <c r="Q41">
         <f t="shared" ca="1" si="2"/>
-        <v>1765</v>
+        <v>228</v>
       </c>
       <c r="R41">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="S41" t="s">
+        <v>38</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA41" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB41">
@@ -2058,7 +4401,7 @@
       </c>
       <c r="AC41">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD41">
         <v>1</v>
@@ -2068,26 +4411,59 @@
       <c r="A42">
         <v>41</v>
       </c>
+      <c r="B42" t="s">
+        <v>250</v>
+      </c>
       <c r="C42">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" t="s">
+        <v>140</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H42" t="s">
         <v>31</v>
       </c>
+      <c r="K42">
+        <v>41</v>
+      </c>
+      <c r="L42" t="s">
+        <v>310</v>
+      </c>
+      <c r="M42" t="s">
+        <v>326</v>
+      </c>
+      <c r="O42" t="s">
+        <v>342</v>
+      </c>
+      <c r="P42" t="s">
+        <v>332</v>
+      </c>
       <c r="Q42">
         <f t="shared" ca="1" si="2"/>
-        <v>1345</v>
+        <v>9512</v>
       </c>
       <c r="R42">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="S42" t="s">
+        <v>38</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA42" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB42">
@@ -2105,26 +4481,59 @@
       <c r="A43">
         <v>42</v>
       </c>
+      <c r="B43" t="s">
+        <v>251</v>
+      </c>
       <c r="C43">
         <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E43" t="s">
+        <v>79</v>
+      </c>
+      <c r="F43" t="s">
+        <v>151</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="H43" t="s">
         <v>32</v>
       </c>
+      <c r="K43">
+        <v>42</v>
+      </c>
+      <c r="L43" t="s">
+        <v>310</v>
+      </c>
+      <c r="M43" t="s">
+        <v>327</v>
+      </c>
+      <c r="O43" t="s">
+        <v>343</v>
+      </c>
+      <c r="P43" t="s">
+        <v>333</v>
+      </c>
       <c r="Q43">
         <f t="shared" ca="1" si="2"/>
-        <v>2648</v>
+        <v>8434</v>
       </c>
       <c r="R43">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="S43" t="s">
+        <v>38</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA43" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB43">
@@ -2132,7 +4541,7 @@
       </c>
       <c r="AC43">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD43">
         <v>1</v>
@@ -2142,26 +4551,59 @@
       <c r="A44">
         <v>43</v>
       </c>
+      <c r="B44" t="s">
+        <v>252</v>
+      </c>
       <c r="C44">
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E44" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" t="s">
+        <v>153</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="H44" t="s">
         <v>33</v>
       </c>
+      <c r="K44">
+        <v>43</v>
+      </c>
+      <c r="L44" t="s">
+        <v>314</v>
+      </c>
+      <c r="M44" t="s">
+        <v>328</v>
+      </c>
+      <c r="O44" t="s">
+        <v>344</v>
+      </c>
+      <c r="P44" t="s">
+        <v>334</v>
+      </c>
       <c r="Q44">
         <f t="shared" ca="1" si="2"/>
-        <v>6199</v>
+        <v>1446</v>
       </c>
       <c r="R44">
         <f t="shared" ca="1" si="3"/>
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="S44" t="s">
+        <v>38</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA44" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB44">
@@ -2169,7 +4611,7 @@
       </c>
       <c r="AC44">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD44">
         <v>1</v>
@@ -2179,26 +4621,59 @@
       <c r="A45">
         <v>44</v>
       </c>
+      <c r="B45" t="s">
+        <v>253</v>
+      </c>
       <c r="C45">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
+      <c r="E45" t="s">
+        <v>81</v>
+      </c>
+      <c r="F45" t="s">
+        <v>154</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="H45" t="s">
         <v>34</v>
       </c>
+      <c r="K45">
+        <v>44</v>
+      </c>
+      <c r="L45" t="s">
+        <v>310</v>
+      </c>
+      <c r="M45" t="s">
+        <v>329</v>
+      </c>
+      <c r="O45" t="s">
+        <v>345</v>
+      </c>
+      <c r="P45" t="s">
+        <v>335</v>
+      </c>
       <c r="Q45">
         <f t="shared" ca="1" si="2"/>
-        <v>7174</v>
+        <v>2686</v>
       </c>
       <c r="R45">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="S45" t="s">
+        <v>38</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA45" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB45">
@@ -2206,7 +4681,7 @@
       </c>
       <c r="AC45">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD45">
         <v>1</v>
@@ -2216,26 +4691,59 @@
       <c r="A46">
         <v>45</v>
       </c>
+      <c r="B46" t="s">
+        <v>254</v>
+      </c>
       <c r="C46">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="E46" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46" t="s">
+        <v>155</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="H46" t="s">
         <v>36</v>
       </c>
+      <c r="K46">
+        <v>45</v>
+      </c>
+      <c r="L46" t="s">
+        <v>314</v>
+      </c>
+      <c r="M46" t="s">
+        <v>330</v>
+      </c>
+      <c r="O46" t="s">
+        <v>346</v>
+      </c>
+      <c r="P46" t="s">
+        <v>336</v>
+      </c>
       <c r="Q46">
         <f t="shared" ca="1" si="2"/>
-        <v>6880</v>
+        <v>8980</v>
       </c>
       <c r="R46">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="S46" t="s">
+        <v>38</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA46" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB46">
@@ -2243,7 +4751,7 @@
       </c>
       <c r="AC46">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD46">
         <v>1</v>
@@ -2253,26 +4761,59 @@
       <c r="A47">
         <v>46</v>
       </c>
+      <c r="B47" t="s">
+        <v>255</v>
+      </c>
       <c r="C47">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>83</v>
+      </c>
+      <c r="F47" t="s">
+        <v>151</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="H47" t="s">
         <v>37</v>
       </c>
+      <c r="K47">
+        <v>46</v>
+      </c>
+      <c r="L47" t="s">
+        <v>310</v>
+      </c>
+      <c r="M47" t="s">
+        <v>331</v>
+      </c>
+      <c r="O47" t="s">
+        <v>347</v>
+      </c>
+      <c r="P47" t="s">
+        <v>337</v>
+      </c>
       <c r="Q47">
         <f t="shared" ca="1" si="2"/>
-        <v>6936</v>
+        <v>1223</v>
       </c>
       <c r="R47">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="S47" t="s">
+        <v>38</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA47" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB47">
@@ -2290,26 +4831,59 @@
       <c r="A48">
         <v>47</v>
       </c>
+      <c r="B48" t="s">
+        <v>256</v>
+      </c>
       <c r="C48">
         <f t="shared" ca="1" si="0"/>
         <v>8</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="E48" t="s">
+        <v>84</v>
+      </c>
+      <c r="F48" t="s">
+        <v>156</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="H48" t="s">
         <v>34</v>
       </c>
+      <c r="K48">
+        <v>47</v>
+      </c>
+      <c r="L48" t="s">
+        <v>310</v>
+      </c>
+      <c r="M48" t="s">
+        <v>332</v>
+      </c>
+      <c r="O48" t="s">
+        <v>348</v>
+      </c>
+      <c r="P48" t="s">
+        <v>338</v>
+      </c>
       <c r="Q48">
         <f t="shared" ca="1" si="2"/>
-        <v>2040</v>
+        <v>9270</v>
       </c>
       <c r="R48">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="S48" t="s">
+        <v>38</v>
+      </c>
+      <c r="T48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA48" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB48">
@@ -2317,7 +4891,7 @@
       </c>
       <c r="AC48">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD48">
         <v>1</v>
@@ -2327,26 +4901,59 @@
       <c r="A49">
         <v>48</v>
       </c>
+      <c r="B49" t="s">
+        <v>257</v>
+      </c>
       <c r="C49">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="E49" t="s">
+        <v>85</v>
+      </c>
+      <c r="F49" t="s">
+        <v>154</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="H49" t="s">
         <v>31</v>
       </c>
+      <c r="K49">
+        <v>48</v>
+      </c>
+      <c r="L49" t="s">
+        <v>310</v>
+      </c>
+      <c r="M49" t="s">
+        <v>333</v>
+      </c>
+      <c r="O49" t="s">
+        <v>349</v>
+      </c>
+      <c r="P49" t="s">
+        <v>339</v>
+      </c>
       <c r="Q49">
         <f t="shared" ca="1" si="2"/>
-        <v>1097</v>
+        <v>5652</v>
       </c>
       <c r="R49">
         <f t="shared" ca="1" si="3"/>
-        <v>146</v>
+        <v>42</v>
       </c>
       <c r="S49" t="s">
+        <v>38</v>
+      </c>
+      <c r="T49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA49" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB49">
@@ -2354,7 +4961,7 @@
       </c>
       <c r="AC49">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD49">
         <v>1</v>
@@ -2364,26 +4971,59 @@
       <c r="A50">
         <v>49</v>
       </c>
+      <c r="B50" t="s">
+        <v>258</v>
+      </c>
       <c r="C50">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>86</v>
+      </c>
+      <c r="F50" t="s">
+        <v>157</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="H50" t="s">
         <v>36</v>
       </c>
+      <c r="K50">
+        <v>49</v>
+      </c>
+      <c r="L50" t="s">
+        <v>310</v>
+      </c>
+      <c r="M50" t="s">
+        <v>334</v>
+      </c>
+      <c r="O50" t="s">
+        <v>318</v>
+      </c>
+      <c r="P50" t="s">
+        <v>340</v>
+      </c>
       <c r="Q50">
         <f t="shared" ca="1" si="2"/>
-        <v>6034</v>
+        <v>1915</v>
       </c>
       <c r="R50">
         <f t="shared" ca="1" si="3"/>
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="S50" t="s">
+        <v>38</v>
+      </c>
+      <c r="T50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA50" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB50">
@@ -2401,26 +5041,59 @@
       <c r="A51">
         <v>50</v>
       </c>
+      <c r="B51" t="s">
+        <v>259</v>
+      </c>
       <c r="C51">
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>87</v>
+      </c>
+      <c r="F51" t="s">
+        <v>145</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="H51" t="s">
         <v>37</v>
       </c>
+      <c r="K51">
+        <v>50</v>
+      </c>
+      <c r="L51" t="s">
+        <v>310</v>
+      </c>
+      <c r="M51" t="s">
+        <v>335</v>
+      </c>
+      <c r="O51" t="s">
+        <v>319</v>
+      </c>
+      <c r="P51" t="s">
+        <v>341</v>
+      </c>
       <c r="Q51">
         <f t="shared" ca="1" si="2"/>
-        <v>6969</v>
+        <v>4784</v>
       </c>
       <c r="R51">
         <f t="shared" ca="1" si="3"/>
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="S51" t="s">
+        <v>38</v>
+      </c>
+      <c r="T51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA51" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB51">
@@ -2428,7 +5101,7 @@
       </c>
       <c r="AC51">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD51">
         <v>1</v>
@@ -2438,26 +5111,59 @@
       <c r="A52">
         <v>51</v>
       </c>
+      <c r="B52" t="s">
+        <v>260</v>
+      </c>
       <c r="C52">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E52" t="s">
+        <v>88</v>
+      </c>
+      <c r="F52" t="s">
+        <v>139</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="H52" t="s">
         <v>34</v>
       </c>
+      <c r="K52">
+        <v>51</v>
+      </c>
+      <c r="L52" t="s">
+        <v>310</v>
+      </c>
+      <c r="M52" t="s">
+        <v>336</v>
+      </c>
+      <c r="O52" t="s">
+        <v>320</v>
+      </c>
+      <c r="P52" t="s">
+        <v>342</v>
+      </c>
       <c r="Q52">
         <f t="shared" ca="1" si="2"/>
-        <v>2985</v>
+        <v>8945</v>
       </c>
       <c r="R52">
         <f t="shared" ca="1" si="3"/>
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="S52" t="s">
+        <v>38</v>
+      </c>
+      <c r="T52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA52" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB52">
@@ -2475,26 +5181,59 @@
       <c r="A53">
         <v>52</v>
       </c>
+      <c r="B53" t="s">
+        <v>261</v>
+      </c>
       <c r="C53">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="E53" t="s">
+        <v>89</v>
+      </c>
+      <c r="F53" t="s">
+        <v>158</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="H53" t="s">
         <v>31</v>
       </c>
+      <c r="K53">
+        <v>52</v>
+      </c>
+      <c r="L53" t="s">
+        <v>310</v>
+      </c>
+      <c r="M53" t="s">
+        <v>337</v>
+      </c>
+      <c r="O53" t="s">
+        <v>321</v>
+      </c>
+      <c r="P53" t="s">
+        <v>343</v>
+      </c>
       <c r="Q53">
         <f t="shared" ca="1" si="2"/>
-        <v>5057</v>
+        <v>8547</v>
       </c>
       <c r="R53">
         <f t="shared" ca="1" si="3"/>
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="S53" t="s">
+        <v>38</v>
+      </c>
+      <c r="T53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA53" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB53">
@@ -2502,7 +5241,7 @@
       </c>
       <c r="AC53">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD53">
         <v>1</v>
@@ -2512,26 +5251,59 @@
       <c r="A54">
         <v>53</v>
       </c>
+      <c r="B54" t="s">
+        <v>262</v>
+      </c>
       <c r="C54">
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E54" t="s">
+        <v>90</v>
+      </c>
+      <c r="F54" t="s">
+        <v>157</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="H54" t="s">
         <v>32</v>
       </c>
+      <c r="K54">
+        <v>53</v>
+      </c>
+      <c r="L54" t="s">
+        <v>310</v>
+      </c>
+      <c r="M54" t="s">
+        <v>338</v>
+      </c>
+      <c r="O54" t="s">
+        <v>322</v>
+      </c>
+      <c r="P54" t="s">
+        <v>344</v>
+      </c>
       <c r="Q54">
         <f t="shared" ca="1" si="2"/>
-        <v>3526</v>
+        <v>6515</v>
       </c>
       <c r="R54">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="S54" t="s">
+        <v>38</v>
+      </c>
+      <c r="T54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA54" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB54">
@@ -2539,7 +5311,7 @@
       </c>
       <c r="AC54">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD54">
         <v>1</v>
@@ -2549,26 +5321,59 @@
       <c r="A55">
         <v>54</v>
       </c>
+      <c r="B55" t="s">
+        <v>263</v>
+      </c>
       <c r="C55">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>91</v>
+      </c>
+      <c r="F55" t="s">
+        <v>140</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="H55" t="s">
         <v>33</v>
       </c>
+      <c r="K55">
+        <v>54</v>
+      </c>
+      <c r="L55" t="s">
+        <v>310</v>
+      </c>
+      <c r="M55" t="s">
+        <v>339</v>
+      </c>
+      <c r="O55" t="s">
+        <v>323</v>
+      </c>
+      <c r="P55" t="s">
+        <v>345</v>
+      </c>
       <c r="Q55">
         <f t="shared" ca="1" si="2"/>
-        <v>7868</v>
+        <v>5463</v>
       </c>
       <c r="R55">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="S55" t="s">
+        <v>38</v>
+      </c>
+      <c r="T55" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA55" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB55">
@@ -2586,26 +5391,59 @@
       <c r="A56">
         <v>55</v>
       </c>
+      <c r="B56" t="s">
+        <v>264</v>
+      </c>
       <c r="C56">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>92</v>
+      </c>
+      <c r="F56" t="s">
+        <v>144</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="H56" t="s">
         <v>34</v>
       </c>
+      <c r="K56">
+        <v>55</v>
+      </c>
+      <c r="L56" t="s">
+        <v>310</v>
+      </c>
+      <c r="M56" t="s">
+        <v>340</v>
+      </c>
+      <c r="O56" t="s">
+        <v>324</v>
+      </c>
+      <c r="P56" t="s">
+        <v>346</v>
+      </c>
       <c r="Q56">
         <f t="shared" ca="1" si="2"/>
-        <v>7481</v>
+        <v>2409</v>
       </c>
       <c r="R56">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="S56" t="s">
+        <v>38</v>
+      </c>
+      <c r="T56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA56" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB56">
@@ -2623,27 +5461,60 @@
       <c r="A57">
         <v>56</v>
       </c>
+      <c r="B57" t="s">
+        <v>265</v>
+      </c>
       <c r="C57">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>93</v>
+      </c>
+      <c r="F57" t="s">
+        <v>138</v>
+      </c>
+      <c r="G57" s="1">
+        <v>208</v>
       </c>
       <c r="H57" t="s">
         <v>36</v>
       </c>
+      <c r="K57">
+        <v>56</v>
+      </c>
+      <c r="L57" t="s">
+        <v>312</v>
+      </c>
+      <c r="M57" t="s">
+        <v>341</v>
+      </c>
+      <c r="O57" t="s">
+        <v>325</v>
+      </c>
+      <c r="P57" t="s">
+        <v>347</v>
+      </c>
       <c r="Q57">
         <f t="shared" ca="1" si="2"/>
-        <v>7999</v>
+        <v>8219</v>
       </c>
       <c r="R57">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S57" t="s">
         <v>38</v>
+      </c>
+      <c r="T57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA57" s="2">
+        <v>25278</v>
       </c>
       <c r="AB57">
         <v>1</v>
@@ -2660,26 +5531,59 @@
       <c r="A58">
         <v>57</v>
       </c>
+      <c r="B58" t="s">
+        <v>266</v>
+      </c>
       <c r="C58">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="E58" t="s">
+        <v>94</v>
+      </c>
+      <c r="F58" t="s">
+        <v>139</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="H58" t="s">
         <v>37</v>
       </c>
+      <c r="K58">
+        <v>57</v>
+      </c>
+      <c r="L58" t="s">
+        <v>310</v>
+      </c>
+      <c r="M58" t="s">
+        <v>342</v>
+      </c>
+      <c r="O58" t="s">
+        <v>326</v>
+      </c>
+      <c r="P58" t="s">
+        <v>348</v>
+      </c>
       <c r="Q58">
         <f t="shared" ca="1" si="2"/>
-        <v>9847</v>
+        <v>4472</v>
       </c>
       <c r="R58">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="S58" t="s">
+        <v>38</v>
+      </c>
+      <c r="T58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA58" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB58">
@@ -2687,7 +5591,7 @@
       </c>
       <c r="AC58">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD58">
         <v>1</v>
@@ -2697,26 +5601,59 @@
       <c r="A59">
         <v>58</v>
       </c>
+      <c r="B59" t="s">
+        <v>267</v>
+      </c>
       <c r="C59">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E59" t="s">
+        <v>95</v>
+      </c>
+      <c r="F59" t="s">
+        <v>139</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1500</v>
       </c>
       <c r="H59" t="s">
         <v>34</v>
       </c>
+      <c r="K59">
+        <v>58</v>
+      </c>
+      <c r="L59" t="s">
+        <v>314</v>
+      </c>
+      <c r="M59" t="s">
+        <v>343</v>
+      </c>
+      <c r="O59" t="s">
+        <v>327</v>
+      </c>
+      <c r="P59" t="s">
+        <v>349</v>
+      </c>
       <c r="Q59">
         <f t="shared" ca="1" si="2"/>
-        <v>8974</v>
+        <v>2211</v>
       </c>
       <c r="R59">
         <f t="shared" ca="1" si="3"/>
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="S59" t="s">
+        <v>38</v>
+      </c>
+      <c r="T59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA59" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB59">
@@ -2734,26 +5671,59 @@
       <c r="A60">
         <v>59</v>
       </c>
+      <c r="B60" t="s">
+        <v>268</v>
+      </c>
       <c r="C60">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>96</v>
+      </c>
+      <c r="F60" t="s">
+        <v>143</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="H60" t="s">
         <v>31</v>
       </c>
+      <c r="K60">
+        <v>59</v>
+      </c>
+      <c r="L60" t="s">
+        <v>311</v>
+      </c>
+      <c r="M60" t="s">
+        <v>344</v>
+      </c>
+      <c r="O60" t="s">
+        <v>328</v>
+      </c>
+      <c r="P60" t="s">
+        <v>318</v>
+      </c>
       <c r="Q60">
         <f t="shared" ca="1" si="2"/>
-        <v>3459</v>
+        <v>9421</v>
       </c>
       <c r="R60">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="S60" t="s">
+        <v>38</v>
+      </c>
+      <c r="T60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA60" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB60">
@@ -2761,7 +5731,7 @@
       </c>
       <c r="AC60">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD60">
         <v>1</v>
@@ -2771,26 +5741,59 @@
       <c r="A61">
         <v>60</v>
       </c>
+      <c r="B61" t="s">
+        <v>269</v>
+      </c>
       <c r="C61">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
+      <c r="E61" t="s">
+        <v>97</v>
+      </c>
+      <c r="F61" t="s">
+        <v>140</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="H61" t="s">
         <v>36</v>
       </c>
+      <c r="K61">
+        <v>60</v>
+      </c>
+      <c r="L61" t="s">
+        <v>310</v>
+      </c>
+      <c r="M61" t="s">
+        <v>345</v>
+      </c>
+      <c r="O61" t="s">
+        <v>329</v>
+      </c>
+      <c r="P61" t="s">
+        <v>319</v>
+      </c>
       <c r="Q61">
         <f t="shared" ca="1" si="2"/>
-        <v>1840</v>
+        <v>8493</v>
       </c>
       <c r="R61">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="S61" t="s">
+        <v>38</v>
+      </c>
+      <c r="T61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA61" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB61">
@@ -2808,26 +5811,59 @@
       <c r="A62">
         <v>61</v>
       </c>
+      <c r="B62" t="s">
+        <v>270</v>
+      </c>
       <c r="C62">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E62" t="s">
+        <v>98</v>
+      </c>
+      <c r="F62" t="s">
+        <v>146</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="H62" t="s">
         <v>34</v>
       </c>
+      <c r="K62">
+        <v>61</v>
+      </c>
+      <c r="L62" t="s">
+        <v>310</v>
+      </c>
+      <c r="M62" t="s">
+        <v>346</v>
+      </c>
+      <c r="O62" t="s">
+        <v>330</v>
+      </c>
+      <c r="P62" t="s">
+        <v>320</v>
+      </c>
       <c r="Q62">
         <f t="shared" ca="1" si="2"/>
-        <v>9215</v>
+        <v>3292</v>
       </c>
       <c r="R62">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="S62" t="s">
+        <v>38</v>
+      </c>
+      <c r="T62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA62" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB62">
@@ -2845,26 +5881,59 @@
       <c r="A63">
         <v>62</v>
       </c>
+      <c r="B63" t="s">
+        <v>271</v>
+      </c>
       <c r="C63">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>99</v>
+      </c>
+      <c r="F63" t="s">
+        <v>145</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="H63" t="s">
         <v>36</v>
       </c>
+      <c r="K63">
+        <v>62</v>
+      </c>
+      <c r="L63" t="s">
+        <v>310</v>
+      </c>
+      <c r="M63" t="s">
+        <v>347</v>
+      </c>
+      <c r="O63" t="s">
+        <v>331</v>
+      </c>
+      <c r="P63" t="s">
+        <v>321</v>
+      </c>
       <c r="Q63">
         <f t="shared" ca="1" si="2"/>
-        <v>7587</v>
+        <v>4875</v>
       </c>
       <c r="R63">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="S63" t="s">
+        <v>38</v>
+      </c>
+      <c r="T63" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA63" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB63">
@@ -2872,7 +5941,7 @@
       </c>
       <c r="AC63">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD63">
         <v>1</v>
@@ -2882,26 +5951,59 @@
       <c r="A64">
         <v>63</v>
       </c>
+      <c r="B64" t="s">
+        <v>272</v>
+      </c>
       <c r="C64">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E64" t="s">
+        <v>100</v>
+      </c>
+      <c r="F64" t="s">
+        <v>142</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="H64" t="s">
         <v>37</v>
       </c>
+      <c r="K64">
+        <v>63</v>
+      </c>
+      <c r="L64" t="s">
+        <v>310</v>
+      </c>
+      <c r="M64" t="s">
+        <v>348</v>
+      </c>
+      <c r="O64" t="s">
+        <v>332</v>
+      </c>
+      <c r="P64" t="s">
+        <v>322</v>
+      </c>
       <c r="Q64">
         <f t="shared" ca="1" si="2"/>
-        <v>9716</v>
+        <v>5323</v>
       </c>
       <c r="R64">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="S64" t="s">
+        <v>38</v>
+      </c>
+      <c r="T64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA64" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB64">
@@ -2919,26 +6021,59 @@
       <c r="A65">
         <v>64</v>
       </c>
+      <c r="B65" t="s">
+        <v>273</v>
+      </c>
       <c r="C65">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E65" t="s">
+        <v>101</v>
+      </c>
+      <c r="F65" t="s">
+        <v>152</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="H65" t="s">
         <v>31</v>
       </c>
+      <c r="K65">
+        <v>64</v>
+      </c>
+      <c r="L65" t="s">
+        <v>310</v>
+      </c>
+      <c r="M65" t="s">
+        <v>349</v>
+      </c>
+      <c r="O65" t="s">
+        <v>333</v>
+      </c>
+      <c r="P65" t="s">
+        <v>323</v>
+      </c>
       <c r="Q65">
         <f t="shared" ca="1" si="2"/>
-        <v>2833</v>
+        <v>894</v>
       </c>
       <c r="R65">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="S65" t="s">
+        <v>38</v>
+      </c>
+      <c r="T65" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA65" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB65">
@@ -2946,7 +6081,7 @@
       </c>
       <c r="AC65">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD65">
         <v>1</v>
@@ -2956,26 +6091,59 @@
       <c r="A66">
         <v>65</v>
       </c>
+      <c r="B66" t="s">
+        <v>274</v>
+      </c>
       <c r="C66">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="E66" t="s">
+        <v>102</v>
+      </c>
+      <c r="F66" t="s">
+        <v>146</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="H66" t="s">
         <v>32</v>
       </c>
+      <c r="K66">
+        <v>65</v>
+      </c>
+      <c r="L66" t="s">
+        <v>310</v>
+      </c>
+      <c r="M66" t="s">
+        <v>318</v>
+      </c>
+      <c r="O66" t="s">
+        <v>334</v>
+      </c>
+      <c r="P66" t="s">
+        <v>324</v>
+      </c>
       <c r="Q66">
         <f t="shared" ca="1" si="2"/>
-        <v>974</v>
+        <v>5735</v>
       </c>
       <c r="R66">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="S66" t="s">
+        <v>38</v>
+      </c>
+      <c r="T66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA66" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB66">
@@ -2993,26 +6161,59 @@
       <c r="A67">
         <v>66</v>
       </c>
+      <c r="B67" t="s">
+        <v>275</v>
+      </c>
       <c r="C67">
         <f t="shared" ref="C67:C101" ca="1" si="5">RANDBETWEEN(1,10)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D67">
         <f t="shared" ref="D67:D101" ca="1" si="6">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>103</v>
+      </c>
+      <c r="F67" t="s">
+        <v>140</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H67" t="s">
         <v>33</v>
       </c>
+      <c r="K67">
+        <v>66</v>
+      </c>
+      <c r="L67" t="s">
+        <v>310</v>
+      </c>
+      <c r="M67" t="s">
+        <v>319</v>
+      </c>
+      <c r="O67" t="s">
+        <v>335</v>
+      </c>
+      <c r="P67" t="s">
+        <v>325</v>
+      </c>
       <c r="Q67">
         <f t="shared" ref="Q67:Q101" ca="1" si="7">RANDBETWEEN(100,10000)</f>
-        <v>3370</v>
+        <v>2614</v>
       </c>
       <c r="R67">
         <f t="shared" ref="R67:R101" ca="1" si="8">RANDBETWEEN(1,153)</f>
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="S67" t="s">
+        <v>38</v>
+      </c>
+      <c r="T67" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA67" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB67">
@@ -3030,26 +6231,59 @@
       <c r="A68">
         <v>67</v>
       </c>
+      <c r="B68" t="s">
+        <v>276</v>
+      </c>
       <c r="C68">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
+      <c r="E68" t="s">
+        <v>104</v>
+      </c>
+      <c r="F68" t="s">
+        <v>139</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="H68" t="s">
         <v>34</v>
       </c>
+      <c r="K68">
+        <v>67</v>
+      </c>
+      <c r="L68" t="s">
+        <v>310</v>
+      </c>
+      <c r="M68" t="s">
+        <v>320</v>
+      </c>
+      <c r="O68" t="s">
+        <v>336</v>
+      </c>
+      <c r="P68" t="s">
+        <v>326</v>
+      </c>
       <c r="Q68">
         <f t="shared" ca="1" si="7"/>
-        <v>6183</v>
+        <v>6331</v>
       </c>
       <c r="R68">
         <f t="shared" ca="1" si="8"/>
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="S68" t="s">
+        <v>38</v>
+      </c>
+      <c r="T68" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA68" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB68">
@@ -3057,7 +6291,7 @@
       </c>
       <c r="AC68">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD68">
         <v>1</v>
@@ -3067,26 +6301,59 @@
       <c r="A69">
         <v>68</v>
       </c>
+      <c r="B69" t="s">
+        <v>277</v>
+      </c>
       <c r="C69">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E69" t="s">
+        <v>105</v>
+      </c>
+      <c r="F69" t="s">
+        <v>141</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="H69" t="s">
         <v>36</v>
       </c>
+      <c r="K69">
+        <v>68</v>
+      </c>
+      <c r="L69" t="s">
+        <v>310</v>
+      </c>
+      <c r="M69" t="s">
+        <v>321</v>
+      </c>
+      <c r="O69" t="s">
+        <v>337</v>
+      </c>
+      <c r="P69" t="s">
+        <v>327</v>
+      </c>
       <c r="Q69">
         <f t="shared" ca="1" si="7"/>
-        <v>7257</v>
+        <v>7973</v>
       </c>
       <c r="R69">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="S69" t="s">
+        <v>38</v>
+      </c>
+      <c r="T69" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA69" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB69">
@@ -3094,7 +6361,7 @@
       </c>
       <c r="AC69">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD69">
         <v>1</v>
@@ -3104,26 +6371,59 @@
       <c r="A70">
         <v>69</v>
       </c>
+      <c r="B70" t="s">
+        <v>278</v>
+      </c>
       <c r="C70">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="E70" t="s">
+        <v>106</v>
+      </c>
+      <c r="F70" t="s">
+        <v>138</v>
+      </c>
+      <c r="G70" s="1">
+        <v>208</v>
       </c>
       <c r="H70" t="s">
         <v>37</v>
       </c>
+      <c r="K70">
+        <v>69</v>
+      </c>
+      <c r="L70" t="s">
+        <v>315</v>
+      </c>
+      <c r="M70" t="s">
+        <v>322</v>
+      </c>
+      <c r="O70" t="s">
+        <v>338</v>
+      </c>
+      <c r="P70" t="s">
+        <v>328</v>
+      </c>
       <c r="Q70">
         <f t="shared" ca="1" si="7"/>
-        <v>7405</v>
+        <v>8472</v>
       </c>
       <c r="R70">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="S70" t="s">
+        <v>38</v>
+      </c>
+      <c r="T70" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA70" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB70">
@@ -3131,7 +6431,7 @@
       </c>
       <c r="AC70">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD70">
         <v>1</v>
@@ -3141,26 +6441,59 @@
       <c r="A71">
         <v>70</v>
       </c>
+      <c r="B71" t="s">
+        <v>279</v>
+      </c>
       <c r="C71">
         <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>107</v>
+      </c>
+      <c r="F71" t="s">
+        <v>145</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="H71" t="s">
         <v>34</v>
       </c>
+      <c r="K71">
+        <v>70</v>
+      </c>
+      <c r="L71" t="s">
+        <v>310</v>
+      </c>
+      <c r="M71" t="s">
+        <v>323</v>
+      </c>
+      <c r="O71" t="s">
+        <v>339</v>
+      </c>
+      <c r="P71" t="s">
+        <v>329</v>
+      </c>
       <c r="Q71">
         <f t="shared" ca="1" si="7"/>
-        <v>5720</v>
+        <v>4862</v>
       </c>
       <c r="R71">
         <f t="shared" ca="1" si="8"/>
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="S71" t="s">
+        <v>38</v>
+      </c>
+      <c r="T71" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA71" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB71">
@@ -3178,26 +6511,59 @@
       <c r="A72">
         <v>71</v>
       </c>
+      <c r="B72" t="s">
+        <v>280</v>
+      </c>
       <c r="C72">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
+      <c r="E72" t="s">
+        <v>108</v>
+      </c>
+      <c r="F72" t="s">
+        <v>140</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="H72" t="s">
         <v>31</v>
       </c>
+      <c r="K72">
+        <v>71</v>
+      </c>
+      <c r="L72" t="s">
+        <v>310</v>
+      </c>
+      <c r="M72" t="s">
+        <v>324</v>
+      </c>
+      <c r="O72" t="s">
+        <v>340</v>
+      </c>
+      <c r="P72" t="s">
+        <v>330</v>
+      </c>
       <c r="Q72">
         <f t="shared" ca="1" si="7"/>
-        <v>2024</v>
+        <v>7092</v>
       </c>
       <c r="R72">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="S72" t="s">
+        <v>38</v>
+      </c>
+      <c r="T72" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA72" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB72">
@@ -3205,7 +6571,7 @@
       </c>
       <c r="AC72">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD72">
         <v>1</v>
@@ -3215,27 +6581,60 @@
       <c r="A73">
         <v>72</v>
       </c>
+      <c r="B73" t="s">
+        <v>281</v>
+      </c>
       <c r="C73">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E73" t="s">
+        <v>109</v>
+      </c>
+      <c r="F73" t="s">
+        <v>139</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="H73" t="s">
         <v>32</v>
       </c>
+      <c r="K73">
+        <v>72</v>
+      </c>
+      <c r="L73" t="s">
+        <v>312</v>
+      </c>
+      <c r="M73" t="s">
+        <v>325</v>
+      </c>
+      <c r="O73" t="s">
+        <v>341</v>
+      </c>
+      <c r="P73" t="s">
+        <v>331</v>
+      </c>
       <c r="Q73">
         <f t="shared" ca="1" si="7"/>
-        <v>4750</v>
+        <v>9853</v>
       </c>
       <c r="R73">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="S73" t="s">
         <v>38</v>
+      </c>
+      <c r="T73" s="1">
+        <v>12246</v>
+      </c>
+      <c r="AA73" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="AB73">
         <v>1</v>
@@ -3252,26 +6651,59 @@
       <c r="A74">
         <v>73</v>
       </c>
+      <c r="B74" t="s">
+        <v>282</v>
+      </c>
       <c r="C74">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
+      <c r="E74" t="s">
+        <v>110</v>
+      </c>
+      <c r="F74" t="s">
+        <v>139</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="H74" t="s">
         <v>33</v>
       </c>
+      <c r="K74">
+        <v>73</v>
+      </c>
+      <c r="L74" t="s">
+        <v>310</v>
+      </c>
+      <c r="M74" t="s">
+        <v>326</v>
+      </c>
+      <c r="O74" t="s">
+        <v>342</v>
+      </c>
+      <c r="P74" t="s">
+        <v>332</v>
+      </c>
       <c r="Q74">
         <f t="shared" ca="1" si="7"/>
-        <v>5879</v>
+        <v>6793</v>
       </c>
       <c r="R74">
         <f t="shared" ca="1" si="8"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="S74" t="s">
+        <v>38</v>
+      </c>
+      <c r="T74" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA74" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB74">
@@ -3279,7 +6711,7 @@
       </c>
       <c r="AC74">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD74">
         <v>1</v>
@@ -3289,26 +6721,56 @@
       <c r="A75">
         <v>74</v>
       </c>
+      <c r="B75" t="s">
+        <v>283</v>
+      </c>
       <c r="C75">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
+      <c r="E75" t="s">
+        <v>111</v>
+      </c>
+      <c r="F75" t="s">
+        <v>145</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="H75" t="s">
         <v>34</v>
       </c>
+      <c r="L75" t="s">
+        <v>310</v>
+      </c>
+      <c r="M75" t="s">
+        <v>327</v>
+      </c>
+      <c r="O75" t="s">
+        <v>343</v>
+      </c>
+      <c r="P75" t="s">
+        <v>333</v>
+      </c>
       <c r="Q75">
         <f t="shared" ca="1" si="7"/>
-        <v>7122</v>
+        <v>6350</v>
       </c>
       <c r="R75">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="S75" t="s">
+        <v>38</v>
+      </c>
+      <c r="T75" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA75" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB75">
@@ -3326,26 +6788,56 @@
       <c r="A76">
         <v>75</v>
       </c>
+      <c r="B76" t="s">
+        <v>284</v>
+      </c>
       <c r="C76">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>112</v>
+      </c>
+      <c r="F76" t="s">
+        <v>147</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="H76" t="s">
         <v>36</v>
       </c>
+      <c r="L76" t="s">
+        <v>311</v>
+      </c>
+      <c r="M76" t="s">
+        <v>328</v>
+      </c>
+      <c r="O76" t="s">
+        <v>344</v>
+      </c>
+      <c r="P76" t="s">
+        <v>334</v>
+      </c>
       <c r="Q76">
         <f t="shared" ca="1" si="7"/>
-        <v>5063</v>
+        <v>1411</v>
       </c>
       <c r="R76">
         <f t="shared" ca="1" si="8"/>
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="S76" t="s">
+        <v>38</v>
+      </c>
+      <c r="T76" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA76" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB76">
@@ -3353,7 +6845,7 @@
       </c>
       <c r="AC76">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD76">
         <v>1</v>
@@ -3363,26 +6855,56 @@
       <c r="A77">
         <v>76</v>
       </c>
+      <c r="B77" t="s">
+        <v>285</v>
+      </c>
       <c r="C77">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>113</v>
+      </c>
+      <c r="F77" t="s">
+        <v>143</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="H77" t="s">
         <v>37</v>
       </c>
+      <c r="L77" t="s">
+        <v>310</v>
+      </c>
+      <c r="M77" t="s">
+        <v>329</v>
+      </c>
+      <c r="O77" t="s">
+        <v>345</v>
+      </c>
+      <c r="P77" t="s">
+        <v>335</v>
+      </c>
       <c r="Q77">
         <f t="shared" ca="1" si="7"/>
-        <v>1229</v>
+        <v>9394</v>
       </c>
       <c r="R77">
         <f t="shared" ca="1" si="8"/>
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="S77" t="s">
+        <v>38</v>
+      </c>
+      <c r="T77" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA77" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB77">
@@ -3400,26 +6922,56 @@
       <c r="A78">
         <v>77</v>
       </c>
+      <c r="B78" t="s">
+        <v>286</v>
+      </c>
       <c r="C78">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E78" t="s">
+        <v>114</v>
+      </c>
+      <c r="F78" t="s">
+        <v>141</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="H78" t="s">
         <v>34</v>
       </c>
+      <c r="L78" t="s">
+        <v>310</v>
+      </c>
+      <c r="M78" t="s">
+        <v>330</v>
+      </c>
+      <c r="O78" t="s">
+        <v>346</v>
+      </c>
+      <c r="P78" t="s">
+        <v>336</v>
+      </c>
       <c r="Q78">
         <f t="shared" ca="1" si="7"/>
-        <v>6042</v>
+        <v>1853</v>
       </c>
       <c r="R78">
         <f t="shared" ca="1" si="8"/>
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="S78" t="s">
+        <v>38</v>
+      </c>
+      <c r="T78" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA78" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB78">
@@ -3427,7 +6979,7 @@
       </c>
       <c r="AC78">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD78">
         <v>1</v>
@@ -3437,26 +6989,56 @@
       <c r="A79">
         <v>78</v>
       </c>
+      <c r="B79" t="s">
+        <v>287</v>
+      </c>
       <c r="C79">
         <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="E79" t="s">
+        <v>115</v>
+      </c>
+      <c r="F79" t="s">
+        <v>139</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="H79" t="s">
         <v>31</v>
       </c>
+      <c r="L79" t="s">
+        <v>310</v>
+      </c>
+      <c r="M79" t="s">
+        <v>331</v>
+      </c>
+      <c r="O79" t="s">
+        <v>347</v>
+      </c>
+      <c r="P79" t="s">
+        <v>337</v>
+      </c>
       <c r="Q79">
         <f t="shared" ca="1" si="7"/>
-        <v>9077</v>
+        <v>7567</v>
       </c>
       <c r="R79">
         <f t="shared" ca="1" si="8"/>
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="S79" t="s">
+        <v>38</v>
+      </c>
+      <c r="T79" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA79" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB79">
@@ -3464,7 +7046,7 @@
       </c>
       <c r="AC79">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD79">
         <v>1</v>
@@ -3474,26 +7056,56 @@
       <c r="A80">
         <v>79</v>
       </c>
+      <c r="B80" t="s">
+        <v>288</v>
+      </c>
       <c r="C80">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="E80" t="s">
+        <v>116</v>
+      </c>
+      <c r="F80" t="s">
+        <v>139</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="H80" t="s">
         <v>32</v>
       </c>
+      <c r="L80" t="s">
+        <v>310</v>
+      </c>
+      <c r="M80" t="s">
+        <v>332</v>
+      </c>
+      <c r="O80" t="s">
+        <v>348</v>
+      </c>
+      <c r="P80" t="s">
+        <v>338</v>
+      </c>
       <c r="Q80">
         <f t="shared" ca="1" si="7"/>
-        <v>8760</v>
+        <v>9586</v>
       </c>
       <c r="R80">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="S80" t="s">
+        <v>38</v>
+      </c>
+      <c r="T80" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA80" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB80">
@@ -3501,7 +7113,7 @@
       </c>
       <c r="AC80">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD80">
         <v>1</v>
@@ -3511,26 +7123,56 @@
       <c r="A81">
         <v>80</v>
       </c>
+      <c r="B81" t="s">
+        <v>289</v>
+      </c>
       <c r="C81">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E81" t="s">
+        <v>117</v>
+      </c>
+      <c r="F81" t="s">
+        <v>145</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="H81" t="s">
         <v>33</v>
       </c>
+      <c r="L81" t="s">
+        <v>310</v>
+      </c>
+      <c r="M81" t="s">
+        <v>333</v>
+      </c>
+      <c r="O81" t="s">
+        <v>349</v>
+      </c>
+      <c r="P81" t="s">
+        <v>339</v>
+      </c>
       <c r="Q81">
         <f t="shared" ca="1" si="7"/>
-        <v>4580</v>
+        <v>668</v>
       </c>
       <c r="R81">
         <f t="shared" ca="1" si="8"/>
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="S81" t="s">
+        <v>38</v>
+      </c>
+      <c r="T81" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA81" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB81">
@@ -3548,26 +7190,56 @@
       <c r="A82">
         <v>81</v>
       </c>
+      <c r="B82" t="s">
+        <v>290</v>
+      </c>
       <c r="C82">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>118</v>
+      </c>
+      <c r="F82" t="s">
+        <v>146</v>
+      </c>
+      <c r="G82" s="1">
+        <v>9</v>
       </c>
       <c r="H82" t="s">
         <v>34</v>
       </c>
+      <c r="L82" t="s">
+        <v>310</v>
+      </c>
+      <c r="M82" t="s">
+        <v>334</v>
+      </c>
+      <c r="O82" t="s">
+        <v>318</v>
+      </c>
+      <c r="P82" t="s">
+        <v>340</v>
+      </c>
       <c r="Q82">
         <f t="shared" ca="1" si="7"/>
-        <v>2380</v>
+        <v>807</v>
       </c>
       <c r="R82">
         <f t="shared" ca="1" si="8"/>
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="S82" t="s">
+        <v>38</v>
+      </c>
+      <c r="T82" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA82" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB82">
@@ -3575,7 +7247,7 @@
       </c>
       <c r="AC82">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD82">
         <v>1</v>
@@ -3585,26 +7257,56 @@
       <c r="A83">
         <v>82</v>
       </c>
+      <c r="B83" t="s">
+        <v>291</v>
+      </c>
       <c r="C83">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="E83" t="s">
+        <v>119</v>
+      </c>
+      <c r="F83" t="s">
+        <v>138</v>
+      </c>
+      <c r="G83" s="1">
+        <v>206</v>
       </c>
       <c r="H83" t="s">
         <v>36</v>
       </c>
+      <c r="L83" t="s">
+        <v>310</v>
+      </c>
+      <c r="M83" t="s">
+        <v>335</v>
+      </c>
+      <c r="O83" t="s">
+        <v>319</v>
+      </c>
+      <c r="P83" t="s">
+        <v>341</v>
+      </c>
       <c r="Q83">
         <f t="shared" ca="1" si="7"/>
-        <v>3262</v>
+        <v>9058</v>
       </c>
       <c r="R83">
         <f t="shared" ca="1" si="8"/>
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="S83" t="s">
+        <v>38</v>
+      </c>
+      <c r="T83" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA83" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB83">
@@ -3622,26 +7324,56 @@
       <c r="A84">
         <v>83</v>
       </c>
+      <c r="B84" t="s">
+        <v>292</v>
+      </c>
       <c r="C84">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
+      <c r="E84" t="s">
+        <v>120</v>
+      </c>
+      <c r="F84" t="s">
+        <v>140</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="H84" t="s">
         <v>37</v>
       </c>
+      <c r="L84" t="s">
+        <v>310</v>
+      </c>
+      <c r="M84" t="s">
+        <v>336</v>
+      </c>
+      <c r="O84" t="s">
+        <v>320</v>
+      </c>
+      <c r="P84" t="s">
+        <v>342</v>
+      </c>
       <c r="Q84">
         <f t="shared" ca="1" si="7"/>
-        <v>971</v>
+        <v>3977</v>
       </c>
       <c r="R84">
         <f t="shared" ca="1" si="8"/>
-        <v>151</v>
+        <v>4</v>
       </c>
       <c r="S84" t="s">
+        <v>38</v>
+      </c>
+      <c r="T84" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA84" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB84">
@@ -3649,7 +7381,7 @@
       </c>
       <c r="AC84">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD84">
         <v>1</v>
@@ -3659,26 +7391,56 @@
       <c r="A85">
         <v>84</v>
       </c>
+      <c r="B85" t="s">
+        <v>293</v>
+      </c>
       <c r="C85">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E85" t="s">
+        <v>121</v>
+      </c>
+      <c r="F85" t="s">
+        <v>138</v>
+      </c>
+      <c r="G85" s="1">
+        <v>206</v>
       </c>
       <c r="H85" t="s">
         <v>34</v>
       </c>
+      <c r="L85" t="s">
+        <v>316</v>
+      </c>
+      <c r="M85" t="s">
+        <v>337</v>
+      </c>
+      <c r="O85" t="s">
+        <v>321</v>
+      </c>
+      <c r="P85" t="s">
+        <v>343</v>
+      </c>
       <c r="Q85">
         <f t="shared" ca="1" si="7"/>
-        <v>1942</v>
+        <v>9596</v>
       </c>
       <c r="R85">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S85" t="s">
+        <v>38</v>
+      </c>
+      <c r="T85" s="1">
+        <v>15011</v>
+      </c>
+      <c r="AA85" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB85">
@@ -3696,26 +7458,56 @@
       <c r="A86">
         <v>85</v>
       </c>
+      <c r="B86" t="s">
+        <v>294</v>
+      </c>
       <c r="C86">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="E86" t="s">
+        <v>122</v>
+      </c>
+      <c r="F86" t="s">
+        <v>143</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="H86" t="s">
         <v>31</v>
       </c>
+      <c r="L86" t="s">
+        <v>310</v>
+      </c>
+      <c r="M86" t="s">
+        <v>338</v>
+      </c>
+      <c r="O86" t="s">
+        <v>322</v>
+      </c>
+      <c r="P86" t="s">
+        <v>344</v>
+      </c>
       <c r="Q86">
         <f t="shared" ca="1" si="7"/>
-        <v>4441</v>
+        <v>7345</v>
       </c>
       <c r="R86">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="S86" t="s">
+        <v>38</v>
+      </c>
+      <c r="T86" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA86" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB86">
@@ -3733,26 +7525,56 @@
       <c r="A87">
         <v>86</v>
       </c>
+      <c r="B87" t="s">
+        <v>295</v>
+      </c>
       <c r="C87">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>123</v>
+      </c>
+      <c r="F87" t="s">
+        <v>138</v>
+      </c>
+      <c r="G87" s="1">
+        <v>307</v>
       </c>
       <c r="H87" t="s">
         <v>36</v>
       </c>
+      <c r="L87" t="s">
+        <v>310</v>
+      </c>
+      <c r="M87" t="s">
+        <v>339</v>
+      </c>
+      <c r="O87" t="s">
+        <v>323</v>
+      </c>
+      <c r="P87" t="s">
+        <v>345</v>
+      </c>
       <c r="Q87">
         <f t="shared" ca="1" si="7"/>
-        <v>6157</v>
+        <v>6060</v>
       </c>
       <c r="R87">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="S87" t="s">
+        <v>38</v>
+      </c>
+      <c r="T87" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA87" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB87">
@@ -3760,7 +7582,7 @@
       </c>
       <c r="AC87">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD87">
         <v>1</v>
@@ -3770,26 +7592,56 @@
       <c r="A88">
         <v>87</v>
       </c>
+      <c r="B88" t="s">
+        <v>296</v>
+      </c>
       <c r="C88">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E88" t="s">
+        <v>124</v>
+      </c>
+      <c r="F88" t="s">
+        <v>145</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="H88" t="s">
         <v>37</v>
       </c>
+      <c r="L88" t="s">
+        <v>310</v>
+      </c>
+      <c r="M88" t="s">
+        <v>340</v>
+      </c>
+      <c r="O88" t="s">
+        <v>324</v>
+      </c>
+      <c r="P88" t="s">
+        <v>346</v>
+      </c>
       <c r="Q88">
         <f t="shared" ca="1" si="7"/>
-        <v>2224</v>
+        <v>7193</v>
       </c>
       <c r="R88">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="S88" t="s">
+        <v>38</v>
+      </c>
+      <c r="T88" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA88" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB88">
@@ -3807,34 +7659,64 @@
       <c r="A89">
         <v>88</v>
       </c>
+      <c r="B89" t="s">
+        <v>297</v>
+      </c>
       <c r="C89">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="E89" t="s">
+        <v>125</v>
+      </c>
+      <c r="F89" t="s">
+        <v>138</v>
+      </c>
+      <c r="G89" s="1">
+        <v>207</v>
       </c>
       <c r="H89" t="s">
         <v>34</v>
       </c>
+      <c r="L89" t="s">
+        <v>312</v>
+      </c>
+      <c r="M89" t="s">
+        <v>341</v>
+      </c>
+      <c r="O89" t="s">
+        <v>325</v>
+      </c>
+      <c r="P89" t="s">
+        <v>347</v>
+      </c>
       <c r="Q89">
         <f t="shared" ca="1" si="7"/>
-        <v>7492</v>
+        <v>7880</v>
       </c>
       <c r="R89">
         <f t="shared" ca="1" si="8"/>
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="S89" t="s">
         <v>38</v>
+      </c>
+      <c r="T89" s="1">
+        <v>27610</v>
+      </c>
+      <c r="AA89" s="2">
+        <v>29825</v>
       </c>
       <c r="AB89">
         <v>1</v>
       </c>
       <c r="AC89">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD89">
         <v>1</v>
@@ -3844,26 +7726,56 @@
       <c r="A90">
         <v>89</v>
       </c>
+      <c r="B90" t="s">
+        <v>298</v>
+      </c>
       <c r="C90">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="E90" t="s">
+        <v>126</v>
+      </c>
+      <c r="F90" t="s">
+        <v>143</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="H90" t="s">
         <v>31</v>
       </c>
+      <c r="L90" t="s">
+        <v>312</v>
+      </c>
+      <c r="M90" t="s">
+        <v>342</v>
+      </c>
+      <c r="O90" t="s">
+        <v>326</v>
+      </c>
+      <c r="P90" t="s">
+        <v>348</v>
+      </c>
       <c r="Q90">
         <f t="shared" ca="1" si="7"/>
-        <v>932</v>
+        <v>644</v>
       </c>
       <c r="R90">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="S90" t="s">
+        <v>38</v>
+      </c>
+      <c r="T90" s="1">
+        <v>27609</v>
+      </c>
+      <c r="AA90" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB90">
@@ -3881,26 +7793,56 @@
       <c r="A91">
         <v>90</v>
       </c>
+      <c r="B91" t="s">
+        <v>299</v>
+      </c>
       <c r="C91">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
+      <c r="E91" t="s">
+        <v>127</v>
+      </c>
+      <c r="F91" t="s">
+        <v>138</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="H91" t="s">
         <v>32</v>
       </c>
+      <c r="L91" t="s">
+        <v>310</v>
+      </c>
+      <c r="M91" t="s">
+        <v>343</v>
+      </c>
+      <c r="O91" t="s">
+        <v>327</v>
+      </c>
+      <c r="P91" t="s">
+        <v>349</v>
+      </c>
       <c r="Q91">
         <f t="shared" ca="1" si="7"/>
-        <v>7781</v>
+        <v>4081</v>
       </c>
       <c r="R91">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="S91" t="s">
+        <v>38</v>
+      </c>
+      <c r="T91" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA91" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB91">
@@ -3908,7 +7850,7 @@
       </c>
       <c r="AC91">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD91">
         <v>1</v>
@@ -3918,26 +7860,56 @@
       <c r="A92">
         <v>91</v>
       </c>
+      <c r="B92" t="s">
+        <v>300</v>
+      </c>
       <c r="C92">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E92" t="s">
+        <v>128</v>
+      </c>
+      <c r="F92" t="s">
+        <v>145</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="H92" t="s">
         <v>33</v>
       </c>
+      <c r="L92" t="s">
+        <v>316</v>
+      </c>
+      <c r="M92" t="s">
+        <v>344</v>
+      </c>
+      <c r="O92" t="s">
+        <v>328</v>
+      </c>
+      <c r="P92" t="s">
+        <v>318</v>
+      </c>
       <c r="Q92">
         <f t="shared" ca="1" si="7"/>
-        <v>9605</v>
+        <v>2656</v>
       </c>
       <c r="R92">
         <f t="shared" ca="1" si="8"/>
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="S92" t="s">
+        <v>38</v>
+      </c>
+      <c r="T92" s="1">
+        <v>27752</v>
+      </c>
+      <c r="AA92" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB92">
@@ -3955,26 +7927,56 @@
       <c r="A93">
         <v>92</v>
       </c>
+      <c r="B93" t="s">
+        <v>301</v>
+      </c>
       <c r="C93">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="E93" t="s">
+        <v>129</v>
+      </c>
+      <c r="F93" t="s">
+        <v>142</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="H93" t="s">
         <v>34</v>
       </c>
+      <c r="L93" t="s">
+        <v>310</v>
+      </c>
+      <c r="M93" t="s">
+        <v>345</v>
+      </c>
+      <c r="O93" t="s">
+        <v>329</v>
+      </c>
+      <c r="P93" t="s">
+        <v>319</v>
+      </c>
       <c r="Q93">
         <f t="shared" ca="1" si="7"/>
-        <v>3518</v>
+        <v>197</v>
       </c>
       <c r="R93">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="S93" t="s">
+        <v>38</v>
+      </c>
+      <c r="T93" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA93" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB93">
@@ -3992,26 +7994,56 @@
       <c r="A94">
         <v>93</v>
       </c>
+      <c r="B94" t="s">
+        <v>302</v>
+      </c>
       <c r="C94">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E94" t="s">
+        <v>130</v>
+      </c>
+      <c r="F94" t="s">
+        <v>139</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="H94" t="s">
         <v>36</v>
       </c>
+      <c r="L94" t="s">
+        <v>314</v>
+      </c>
+      <c r="M94" t="s">
+        <v>346</v>
+      </c>
+      <c r="O94" t="s">
+        <v>330</v>
+      </c>
+      <c r="P94" t="s">
+        <v>320</v>
+      </c>
       <c r="Q94">
         <f t="shared" ca="1" si="7"/>
-        <v>6007</v>
+        <v>2942</v>
       </c>
       <c r="R94">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="S94" t="s">
+        <v>38</v>
+      </c>
+      <c r="T94" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA94" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB94">
@@ -4029,26 +8061,56 @@
       <c r="A95">
         <v>94</v>
       </c>
+      <c r="B95" t="s">
+        <v>303</v>
+      </c>
       <c r="C95">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
+      <c r="E95" t="s">
+        <v>131</v>
+      </c>
+      <c r="F95" t="s">
+        <v>139</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="H95" t="s">
         <v>37</v>
       </c>
+      <c r="L95" t="s">
+        <v>310</v>
+      </c>
+      <c r="M95" t="s">
+        <v>347</v>
+      </c>
+      <c r="O95" t="s">
+        <v>331</v>
+      </c>
+      <c r="P95" t="s">
+        <v>321</v>
+      </c>
       <c r="Q95">
         <f t="shared" ca="1" si="7"/>
-        <v>8128</v>
+        <v>280</v>
       </c>
       <c r="R95">
         <f t="shared" ca="1" si="8"/>
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="S95" t="s">
+        <v>38</v>
+      </c>
+      <c r="T95" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA95" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB95">
@@ -4056,7 +8118,7 @@
       </c>
       <c r="AC95">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD95">
         <v>1</v>
@@ -4066,26 +8128,56 @@
       <c r="A96">
         <v>95</v>
       </c>
+      <c r="B96" t="s">
+        <v>304</v>
+      </c>
       <c r="C96">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="E96" t="s">
+        <v>132</v>
+      </c>
+      <c r="F96" t="s">
+        <v>146</v>
+      </c>
+      <c r="G96" s="1">
+        <v>19</v>
       </c>
       <c r="H96" t="s">
         <v>34</v>
       </c>
+      <c r="L96" t="s">
+        <v>310</v>
+      </c>
+      <c r="M96" t="s">
+        <v>348</v>
+      </c>
+      <c r="O96" t="s">
+        <v>332</v>
+      </c>
+      <c r="P96" t="s">
+        <v>322</v>
+      </c>
       <c r="Q96">
         <f t="shared" ca="1" si="7"/>
-        <v>5896</v>
+        <v>9459</v>
       </c>
       <c r="R96">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="S96" t="s">
+        <v>38</v>
+      </c>
+      <c r="T96" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA96" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB96">
@@ -4093,7 +8185,7 @@
       </c>
       <c r="AC96">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD96">
         <v>1</v>
@@ -4103,34 +8195,64 @@
       <c r="A97">
         <v>96</v>
       </c>
+      <c r="B97" t="s">
+        <v>305</v>
+      </c>
       <c r="C97">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="E97" t="s">
+        <v>133</v>
+      </c>
+      <c r="F97" t="s">
+        <v>138</v>
+      </c>
+      <c r="G97" s="1">
+        <v>208</v>
       </c>
       <c r="H97" t="s">
         <v>31</v>
       </c>
+      <c r="L97" t="s">
+        <v>310</v>
+      </c>
+      <c r="M97" t="s">
+        <v>349</v>
+      </c>
+      <c r="O97" t="s">
+        <v>333</v>
+      </c>
+      <c r="P97" t="s">
+        <v>323</v>
+      </c>
       <c r="Q97">
         <f t="shared" ca="1" si="7"/>
-        <v>1467</v>
+        <v>6152</v>
       </c>
       <c r="R97">
         <f t="shared" ca="1" si="8"/>
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="S97" t="s">
         <v>38</v>
+      </c>
+      <c r="T97" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA97" s="2">
+        <v>47544</v>
       </c>
       <c r="AB97">
         <v>1</v>
       </c>
       <c r="AC97">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD97">
         <v>1</v>
@@ -4140,26 +8262,56 @@
       <c r="A98">
         <v>97</v>
       </c>
+      <c r="B98" t="s">
+        <v>306</v>
+      </c>
       <c r="C98">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>134</v>
+      </c>
+      <c r="F98" t="s">
+        <v>149</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="H98" t="s">
         <v>36</v>
       </c>
+      <c r="L98" t="s">
+        <v>310</v>
+      </c>
+      <c r="M98" t="s">
+        <v>334</v>
+      </c>
+      <c r="O98" t="s">
+        <v>337</v>
+      </c>
+      <c r="P98" t="s">
+        <v>328</v>
+      </c>
       <c r="Q98">
         <f t="shared" ca="1" si="7"/>
-        <v>1476</v>
+        <v>5815</v>
       </c>
       <c r="R98">
         <f t="shared" ca="1" si="8"/>
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="S98" t="s">
+        <v>38</v>
+      </c>
+      <c r="T98" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA98" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB98">
@@ -4167,7 +8319,7 @@
       </c>
       <c r="AC98">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD98">
         <v>1</v>
@@ -4177,27 +8329,57 @@
       <c r="A99">
         <v>98</v>
       </c>
+      <c r="B99" t="s">
+        <v>307</v>
+      </c>
       <c r="C99">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="6"/>
         <v>5</v>
       </c>
+      <c r="E99" t="s">
+        <v>135</v>
+      </c>
+      <c r="F99" t="s">
+        <v>146</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="H99" t="s">
         <v>34</v>
       </c>
+      <c r="L99" t="s">
+        <v>312</v>
+      </c>
+      <c r="M99" t="s">
+        <v>335</v>
+      </c>
+      <c r="O99" t="s">
+        <v>338</v>
+      </c>
+      <c r="P99" t="s">
+        <v>329</v>
+      </c>
       <c r="Q99">
         <f t="shared" ca="1" si="7"/>
-        <v>4720</v>
+        <v>6592</v>
       </c>
       <c r="R99">
         <f t="shared" ca="1" si="8"/>
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="S99" t="s">
         <v>38</v>
+      </c>
+      <c r="T99" s="1">
+        <v>27622</v>
+      </c>
+      <c r="AA99" s="2">
+        <v>29901</v>
       </c>
       <c r="AB99">
         <v>1</v>
@@ -4214,34 +8396,64 @@
       <c r="A100">
         <v>99</v>
       </c>
+      <c r="B100" t="s">
+        <v>308</v>
+      </c>
       <c r="C100">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E100" t="s">
+        <v>136</v>
+      </c>
+      <c r="F100" t="s">
+        <v>140</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H100" t="s">
         <v>36</v>
       </c>
+      <c r="L100" t="s">
+        <v>312</v>
+      </c>
+      <c r="M100" t="s">
+        <v>336</v>
+      </c>
+      <c r="O100" t="s">
+        <v>339</v>
+      </c>
+      <c r="P100" t="s">
+        <v>330</v>
+      </c>
       <c r="Q100">
         <f t="shared" ca="1" si="7"/>
-        <v>4388</v>
+        <v>7380</v>
       </c>
       <c r="R100">
         <f t="shared" ca="1" si="8"/>
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="S100" t="s">
         <v>38</v>
+      </c>
+      <c r="T100" s="1">
+        <v>27365</v>
+      </c>
+      <c r="AA100" s="2">
+        <v>30462</v>
       </c>
       <c r="AB100">
         <v>1</v>
       </c>
       <c r="AC100">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD100">
         <v>1</v>
@@ -4251,27 +8463,57 @@
       <c r="A101">
         <v>100</v>
       </c>
+      <c r="B101" t="s">
+        <v>309</v>
+      </c>
       <c r="C101">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="E101" t="s">
+        <v>137</v>
+      </c>
+      <c r="F101" t="s">
+        <v>142</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="H101" t="s">
         <v>37</v>
       </c>
+      <c r="L101" t="s">
+        <v>312</v>
+      </c>
+      <c r="M101" t="s">
+        <v>327</v>
+      </c>
+      <c r="O101" t="s">
+        <v>340</v>
+      </c>
+      <c r="P101" t="s">
+        <v>331</v>
+      </c>
       <c r="Q101">
         <f t="shared" ca="1" si="7"/>
-        <v>6715</v>
+        <v>3475</v>
       </c>
       <c r="R101">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="S101" t="s">
         <v>38</v>
+      </c>
+      <c r="T101" s="1">
+        <v>23067</v>
+      </c>
+      <c r="AA101" s="2">
+        <v>30454</v>
       </c>
       <c r="AB101">
         <v>1</v>
@@ -4295,7 +8537,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4307,7 +8549,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/Carga DB Postgres/Ingreso - cargado.xlsx
+++ b/Excel/Carga DB Postgres/Ingreso - cargado.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="350">
   <si>
     <t>idingreso</t>
   </si>
@@ -1405,8 +1405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Y92" sqref="Y91:Y92"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1529,11 +1529,11 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
@@ -1559,6 +1559,9 @@
       <c r="M2" t="s">
         <v>318</v>
       </c>
+      <c r="N2" t="s">
+        <v>38</v>
+      </c>
       <c r="O2" t="s">
         <v>334</v>
       </c>
@@ -1567,16 +1570,19 @@
       </c>
       <c r="Q2">
         <f ca="1">RANDBETWEEN(100,10000)</f>
-        <v>9703</v>
+        <v>5171</v>
       </c>
       <c r="R2">
         <f ca="1">RANDBETWEEN(1,153)</f>
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="S2" t="s">
         <v>38</v>
       </c>
       <c r="T2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z2" t="s">
         <v>38</v>
       </c>
       <c r="AA2" s="2" t="s">
@@ -1587,7 +1593,7 @@
       </c>
       <c r="AC2">
         <f ca="1">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD2">
         <v>1</v>
@@ -1602,11 +1608,11 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" ca="1" si="0">RANDBETWEEN(1,10)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D66" ca="1" si="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
         <v>40</v>
@@ -1632,6 +1638,9 @@
       <c r="M3" t="s">
         <v>319</v>
       </c>
+      <c r="N3" t="s">
+        <v>38</v>
+      </c>
       <c r="O3" t="s">
         <v>335</v>
       </c>
@@ -1640,16 +1649,19 @@
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q66" ca="1" si="2">RANDBETWEEN(100,10000)</f>
-        <v>3242</v>
+        <v>1864</v>
       </c>
       <c r="R3">
         <f t="shared" ref="R3:R66" ca="1" si="3">RANDBETWEEN(1,153)</f>
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="S3" t="s">
         <v>38</v>
       </c>
       <c r="T3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z3" t="s">
         <v>38</v>
       </c>
       <c r="AA3" s="2" t="s">
@@ -1675,11 +1687,11 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>41</v>
@@ -1705,6 +1717,9 @@
       <c r="M4" t="s">
         <v>320</v>
       </c>
+      <c r="N4" t="s">
+        <v>38</v>
+      </c>
       <c r="O4" t="s">
         <v>336</v>
       </c>
@@ -1713,16 +1728,19 @@
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="2"/>
-        <v>7362</v>
+        <v>3144</v>
       </c>
       <c r="R4">
         <f t="shared" ca="1" si="3"/>
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="S4" t="s">
         <v>38</v>
       </c>
       <c r="T4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z4" t="s">
         <v>38</v>
       </c>
       <c r="AA4" s="2" t="s">
@@ -1733,7 +1751,7 @@
       </c>
       <c r="AC4">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD4">
         <v>1</v>
@@ -1748,11 +1766,11 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
         <v>42</v>
@@ -1778,6 +1796,9 @@
       <c r="M5" t="s">
         <v>321</v>
       </c>
+      <c r="N5" t="s">
+        <v>38</v>
+      </c>
       <c r="O5" t="s">
         <v>337</v>
       </c>
@@ -1786,16 +1807,19 @@
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="2"/>
-        <v>2764</v>
+        <v>3227</v>
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="S5" t="s">
         <v>38</v>
       </c>
       <c r="T5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z5" t="s">
         <v>38</v>
       </c>
       <c r="AA5" s="2" t="s">
@@ -1806,7 +1830,7 @@
       </c>
       <c r="AC5">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD5">
         <v>1</v>
@@ -1825,7 +1849,7 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>43</v>
@@ -1851,6 +1875,9 @@
       <c r="M6" t="s">
         <v>322</v>
       </c>
+      <c r="N6" t="s">
+        <v>38</v>
+      </c>
       <c r="O6" t="s">
         <v>338</v>
       </c>
@@ -1859,16 +1886,19 @@
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="2"/>
-        <v>5251</v>
+        <v>4592</v>
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="S6" t="s">
         <v>38</v>
       </c>
       <c r="T6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z6" t="s">
         <v>38</v>
       </c>
       <c r="AA6" s="2" t="s">
@@ -1894,11 +1924,11 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
         <v>44</v>
@@ -1924,6 +1954,9 @@
       <c r="M7" t="s">
         <v>323</v>
       </c>
+      <c r="N7" t="s">
+        <v>38</v>
+      </c>
       <c r="O7" t="s">
         <v>339</v>
       </c>
@@ -1932,16 +1965,19 @@
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="2"/>
-        <v>2912</v>
+        <v>3581</v>
       </c>
       <c r="R7">
         <f t="shared" ca="1" si="3"/>
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="S7" t="s">
         <v>38</v>
       </c>
       <c r="T7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z7" t="s">
         <v>38</v>
       </c>
       <c r="AA7" s="2" t="s">
@@ -1967,11 +2003,11 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
         <v>45</v>
@@ -1997,6 +2033,9 @@
       <c r="M8" t="s">
         <v>324</v>
       </c>
+      <c r="N8" t="s">
+        <v>38</v>
+      </c>
       <c r="O8" t="s">
         <v>340</v>
       </c>
@@ -2005,16 +2044,19 @@
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="2"/>
-        <v>8414</v>
+        <v>1903</v>
       </c>
       <c r="R8">
         <f t="shared" ca="1" si="3"/>
-        <v>131</v>
+        <v>5</v>
       </c>
       <c r="S8" t="s">
         <v>38</v>
       </c>
       <c r="T8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z8" t="s">
         <v>38</v>
       </c>
       <c r="AA8" s="2" t="s">
@@ -2040,11 +2082,11 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
         <v>46</v>
@@ -2070,6 +2112,9 @@
       <c r="M9" t="s">
         <v>325</v>
       </c>
+      <c r="N9" t="s">
+        <v>38</v>
+      </c>
       <c r="O9" t="s">
         <v>341</v>
       </c>
@@ -2078,16 +2123,19 @@
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="2"/>
-        <v>5944</v>
+        <v>7497</v>
       </c>
       <c r="R9">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="S9" t="s">
         <v>38</v>
       </c>
       <c r="T9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z9" t="s">
         <v>38</v>
       </c>
       <c r="AA9" s="2" t="s">
@@ -2098,7 +2146,7 @@
       </c>
       <c r="AC9">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD9">
         <v>1</v>
@@ -2113,7 +2161,7 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
@@ -2143,6 +2191,9 @@
       <c r="M10" t="s">
         <v>326</v>
       </c>
+      <c r="N10" t="s">
+        <v>38</v>
+      </c>
       <c r="O10" t="s">
         <v>342</v>
       </c>
@@ -2151,16 +2202,19 @@
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="2"/>
-        <v>8003</v>
+        <v>6207</v>
       </c>
       <c r="R10">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="S10" t="s">
         <v>38</v>
       </c>
       <c r="T10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z10" t="s">
         <v>38</v>
       </c>
       <c r="AA10" s="2" t="s">
@@ -2186,11 +2240,11 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
         <v>48</v>
@@ -2216,6 +2270,9 @@
       <c r="M11" t="s">
         <v>327</v>
       </c>
+      <c r="N11" t="s">
+        <v>38</v>
+      </c>
       <c r="O11" t="s">
         <v>343</v>
       </c>
@@ -2224,16 +2281,19 @@
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="2"/>
-        <v>4139</v>
+        <v>8256</v>
       </c>
       <c r="R11">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="S11" t="s">
         <v>38</v>
       </c>
       <c r="T11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z11" t="s">
         <v>38</v>
       </c>
       <c r="AA11" s="2" t="s">
@@ -2244,7 +2304,7 @@
       </c>
       <c r="AC11">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD11">
         <v>1</v>
@@ -2259,7 +2319,7 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
@@ -2289,6 +2349,9 @@
       <c r="M12" t="s">
         <v>328</v>
       </c>
+      <c r="N12" t="s">
+        <v>38</v>
+      </c>
       <c r="O12" t="s">
         <v>344</v>
       </c>
@@ -2297,16 +2360,19 @@
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="2"/>
-        <v>8500</v>
+        <v>6084</v>
       </c>
       <c r="R12">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="S12" t="s">
         <v>38</v>
       </c>
       <c r="T12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z12" t="s">
         <v>38</v>
       </c>
       <c r="AA12" s="2" t="s">
@@ -2317,7 +2383,7 @@
       </c>
       <c r="AC12">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD12">
         <v>1</v>
@@ -2332,11 +2398,11 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E13" t="s">
         <v>50</v>
@@ -2362,6 +2428,9 @@
       <c r="M13" t="s">
         <v>329</v>
       </c>
+      <c r="N13" t="s">
+        <v>38</v>
+      </c>
       <c r="O13" t="s">
         <v>345</v>
       </c>
@@ -2370,16 +2439,19 @@
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="2"/>
-        <v>5805</v>
+        <v>4620</v>
       </c>
       <c r="R13">
         <f t="shared" ca="1" si="3"/>
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="S13" t="s">
         <v>38</v>
       </c>
       <c r="T13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z13" t="s">
         <v>38</v>
       </c>
       <c r="AA13" s="2" t="s">
@@ -2405,7 +2477,7 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="1"/>
@@ -2435,6 +2507,9 @@
       <c r="M14" t="s">
         <v>330</v>
       </c>
+      <c r="N14" t="s">
+        <v>38</v>
+      </c>
       <c r="O14" t="s">
         <v>346</v>
       </c>
@@ -2443,16 +2518,19 @@
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="2"/>
-        <v>4534</v>
+        <v>7272</v>
       </c>
       <c r="R14">
         <f t="shared" ca="1" si="3"/>
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="S14" t="s">
         <v>38</v>
       </c>
       <c r="T14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z14" t="s">
         <v>38</v>
       </c>
       <c r="AA14" s="2" t="s">
@@ -2478,11 +2556,11 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15" t="s">
         <v>52</v>
@@ -2508,6 +2586,9 @@
       <c r="M15" t="s">
         <v>331</v>
       </c>
+      <c r="N15" t="s">
+        <v>38</v>
+      </c>
       <c r="O15" t="s">
         <v>347</v>
       </c>
@@ -2516,16 +2597,19 @@
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="2"/>
-        <v>1139</v>
+        <v>8338</v>
       </c>
       <c r="R15">
         <f t="shared" ca="1" si="3"/>
-        <v>119</v>
+        <v>5</v>
       </c>
       <c r="S15" t="s">
         <v>38</v>
       </c>
       <c r="T15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z15" t="s">
         <v>38</v>
       </c>
       <c r="AA15" s="2" t="s">
@@ -2551,11 +2635,11 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E16" t="s">
         <v>53</v>
@@ -2581,6 +2665,9 @@
       <c r="M16" t="s">
         <v>332</v>
       </c>
+      <c r="N16" t="s">
+        <v>38</v>
+      </c>
       <c r="O16" t="s">
         <v>348</v>
       </c>
@@ -2589,16 +2676,19 @@
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="2"/>
-        <v>5371</v>
+        <v>6958</v>
       </c>
       <c r="R16">
         <f t="shared" ca="1" si="3"/>
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="S16" t="s">
         <v>38</v>
       </c>
       <c r="T16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z16" t="s">
         <v>38</v>
       </c>
       <c r="AA16" s="2" t="s">
@@ -2609,7 +2699,7 @@
       </c>
       <c r="AC16">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD16">
         <v>1</v>
@@ -2624,7 +2714,7 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
@@ -2654,6 +2744,9 @@
       <c r="M17" t="s">
         <v>333</v>
       </c>
+      <c r="N17" t="s">
+        <v>38</v>
+      </c>
       <c r="O17" t="s">
         <v>349</v>
       </c>
@@ -2662,16 +2755,19 @@
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="2"/>
-        <v>2999</v>
+        <v>3949</v>
       </c>
       <c r="R17">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="S17" t="s">
         <v>38</v>
       </c>
       <c r="T17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z17" t="s">
         <v>38</v>
       </c>
       <c r="AA17" s="2" t="s">
@@ -2697,7 +2793,7 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
@@ -2727,6 +2823,9 @@
       <c r="M18" t="s">
         <v>334</v>
       </c>
+      <c r="N18" t="s">
+        <v>38</v>
+      </c>
       <c r="O18" t="s">
         <v>318</v>
       </c>
@@ -2735,16 +2834,19 @@
       </c>
       <c r="Q18">
         <f t="shared" ca="1" si="2"/>
-        <v>8907</v>
+        <v>9652</v>
       </c>
       <c r="R18">
         <f t="shared" ca="1" si="3"/>
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="S18" t="s">
         <v>38</v>
       </c>
       <c r="T18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z18" t="s">
         <v>38</v>
       </c>
       <c r="AA18" s="2" t="s">
@@ -2755,7 +2857,7 @@
       </c>
       <c r="AC18">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD18">
         <v>1</v>
@@ -2770,11 +2872,11 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19" t="s">
         <v>56</v>
@@ -2800,6 +2902,9 @@
       <c r="M19" t="s">
         <v>335</v>
       </c>
+      <c r="N19" t="s">
+        <v>38</v>
+      </c>
       <c r="O19" t="s">
         <v>319</v>
       </c>
@@ -2808,16 +2913,19 @@
       </c>
       <c r="Q19">
         <f t="shared" ca="1" si="2"/>
-        <v>6965</v>
+        <v>881</v>
       </c>
       <c r="R19">
         <f t="shared" ca="1" si="3"/>
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="S19" t="s">
         <v>38</v>
       </c>
       <c r="T19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z19" t="s">
         <v>38</v>
       </c>
       <c r="AA19" s="2" t="s">
@@ -2843,11 +2951,11 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E20" t="s">
         <v>57</v>
@@ -2873,6 +2981,9 @@
       <c r="M20" t="s">
         <v>336</v>
       </c>
+      <c r="N20" t="s">
+        <v>38</v>
+      </c>
       <c r="O20" t="s">
         <v>320</v>
       </c>
@@ -2881,16 +2992,19 @@
       </c>
       <c r="Q20">
         <f t="shared" ca="1" si="2"/>
-        <v>8469</v>
+        <v>9806</v>
       </c>
       <c r="R20">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="S20" t="s">
         <v>38</v>
       </c>
       <c r="T20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z20" t="s">
         <v>38</v>
       </c>
       <c r="AA20" s="2" t="s">
@@ -2901,7 +3015,7 @@
       </c>
       <c r="AC20">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD20">
         <v>1</v>
@@ -2916,7 +3030,7 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
@@ -2946,6 +3060,9 @@
       <c r="M21" t="s">
         <v>337</v>
       </c>
+      <c r="N21" t="s">
+        <v>38</v>
+      </c>
       <c r="O21" t="s">
         <v>321</v>
       </c>
@@ -2954,16 +3071,19 @@
       </c>
       <c r="Q21">
         <f t="shared" ca="1" si="2"/>
-        <v>8655</v>
+        <v>870</v>
       </c>
       <c r="R21">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="S21" t="s">
         <v>38</v>
       </c>
       <c r="T21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z21" t="s">
         <v>38</v>
       </c>
       <c r="AA21" s="2" t="s">
@@ -2989,11 +3109,11 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E22" t="s">
         <v>59</v>
@@ -3019,6 +3139,9 @@
       <c r="M22" t="s">
         <v>338</v>
       </c>
+      <c r="N22" t="s">
+        <v>38</v>
+      </c>
       <c r="O22" t="s">
         <v>322</v>
       </c>
@@ -3027,16 +3150,19 @@
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="2"/>
-        <v>3500</v>
+        <v>3372</v>
       </c>
       <c r="R22">
         <f t="shared" ca="1" si="3"/>
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="S22" t="s">
         <v>38</v>
       </c>
       <c r="T22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z22" t="s">
         <v>38</v>
       </c>
       <c r="AA22" s="2" t="s">
@@ -3047,7 +3173,7 @@
       </c>
       <c r="AC22">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD22">
         <v>1</v>
@@ -3066,7 +3192,7 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
         <v>60</v>
@@ -3092,6 +3218,9 @@
       <c r="M23" t="s">
         <v>339</v>
       </c>
+      <c r="N23" t="s">
+        <v>38</v>
+      </c>
       <c r="O23" t="s">
         <v>323</v>
       </c>
@@ -3100,16 +3229,19 @@
       </c>
       <c r="Q23">
         <f t="shared" ca="1" si="2"/>
-        <v>2308</v>
+        <v>6380</v>
       </c>
       <c r="R23">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="S23" t="s">
         <v>38</v>
       </c>
       <c r="T23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z23" t="s">
         <v>38</v>
       </c>
       <c r="AA23" s="2" t="s">
@@ -3135,11 +3267,11 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24" t="s">
         <v>61</v>
@@ -3165,6 +3297,9 @@
       <c r="M24" t="s">
         <v>340</v>
       </c>
+      <c r="N24" t="s">
+        <v>38</v>
+      </c>
       <c r="O24" t="s">
         <v>324</v>
       </c>
@@ -3173,16 +3308,19 @@
       </c>
       <c r="Q24">
         <f t="shared" ca="1" si="2"/>
-        <v>461</v>
+        <v>6432</v>
       </c>
       <c r="R24">
         <f t="shared" ca="1" si="3"/>
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="S24" t="s">
         <v>38</v>
       </c>
       <c r="T24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z24" t="s">
         <v>38</v>
       </c>
       <c r="AA24" s="2" t="s">
@@ -3208,7 +3346,7 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
@@ -3238,6 +3376,9 @@
       <c r="M25" t="s">
         <v>341</v>
       </c>
+      <c r="N25" t="s">
+        <v>38</v>
+      </c>
       <c r="O25" t="s">
         <v>325</v>
       </c>
@@ -3246,16 +3387,19 @@
       </c>
       <c r="Q25">
         <f t="shared" ca="1" si="2"/>
-        <v>9073</v>
+        <v>1477</v>
       </c>
       <c r="R25">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="S25" t="s">
         <v>38</v>
       </c>
       <c r="T25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z25" t="s">
         <v>38</v>
       </c>
       <c r="AA25" s="2" t="s">
@@ -3266,7 +3410,7 @@
       </c>
       <c r="AC25">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD25">
         <v>1</v>
@@ -3281,11 +3425,11 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E26" t="s">
         <v>63</v>
@@ -3311,6 +3455,9 @@
       <c r="M26" t="s">
         <v>342</v>
       </c>
+      <c r="N26" t="s">
+        <v>38</v>
+      </c>
       <c r="O26" t="s">
         <v>326</v>
       </c>
@@ -3319,16 +3466,19 @@
       </c>
       <c r="Q26">
         <f t="shared" ca="1" si="2"/>
-        <v>307</v>
+        <v>2139</v>
       </c>
       <c r="R26">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="S26" t="s">
         <v>38</v>
       </c>
       <c r="T26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z26" t="s">
         <v>38</v>
       </c>
       <c r="AA26" s="2" t="s">
@@ -3354,11 +3504,11 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E27" t="s">
         <v>64</v>
@@ -3384,6 +3534,9 @@
       <c r="M27" t="s">
         <v>343</v>
       </c>
+      <c r="N27" t="s">
+        <v>38</v>
+      </c>
       <c r="O27" t="s">
         <v>327</v>
       </c>
@@ -3392,16 +3545,19 @@
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="2"/>
-        <v>896</v>
+        <v>8341</v>
       </c>
       <c r="R27">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="S27" t="s">
         <v>38</v>
       </c>
       <c r="T27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z27" t="s">
         <v>38</v>
       </c>
       <c r="AA27" s="2" t="s">
@@ -3427,11 +3583,11 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E28" t="s">
         <v>65</v>
@@ -3457,6 +3613,9 @@
       <c r="M28" t="s">
         <v>344</v>
       </c>
+      <c r="N28" t="s">
+        <v>38</v>
+      </c>
       <c r="O28" t="s">
         <v>328</v>
       </c>
@@ -3465,16 +3624,19 @@
       </c>
       <c r="Q28">
         <f t="shared" ca="1" si="2"/>
-        <v>6671</v>
+        <v>5568</v>
       </c>
       <c r="R28">
         <f t="shared" ca="1" si="3"/>
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="S28" t="s">
         <v>38</v>
       </c>
       <c r="T28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z28" t="s">
         <v>38</v>
       </c>
       <c r="AA28" s="2" t="s">
@@ -3485,7 +3647,7 @@
       </c>
       <c r="AC28">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD28">
         <v>1</v>
@@ -3500,11 +3662,11 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E29" t="s">
         <v>66</v>
@@ -3530,6 +3692,9 @@
       <c r="M29" t="s">
         <v>345</v>
       </c>
+      <c r="N29" t="s">
+        <v>38</v>
+      </c>
       <c r="O29" t="s">
         <v>329</v>
       </c>
@@ -3538,16 +3703,19 @@
       </c>
       <c r="Q29">
         <f t="shared" ca="1" si="2"/>
-        <v>3445</v>
+        <v>3601</v>
       </c>
       <c r="R29">
         <f t="shared" ca="1" si="3"/>
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="S29" t="s">
         <v>38</v>
       </c>
       <c r="T29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z29" t="s">
         <v>38</v>
       </c>
       <c r="AA29" s="2" t="s">
@@ -3558,7 +3726,7 @@
       </c>
       <c r="AC29">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD29">
         <v>1</v>
@@ -3577,7 +3745,7 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E30" t="s">
         <v>67</v>
@@ -3603,6 +3771,9 @@
       <c r="M30" t="s">
         <v>346</v>
       </c>
+      <c r="N30" t="s">
+        <v>38</v>
+      </c>
       <c r="O30" t="s">
         <v>330</v>
       </c>
@@ -3611,16 +3782,19 @@
       </c>
       <c r="Q30">
         <f t="shared" ca="1" si="2"/>
-        <v>6443</v>
+        <v>2314</v>
       </c>
       <c r="R30">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="S30" t="s">
         <v>38</v>
       </c>
       <c r="T30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z30" t="s">
         <v>38</v>
       </c>
       <c r="AA30" s="2" t="s">
@@ -3646,7 +3820,7 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="1"/>
@@ -3673,6 +3847,9 @@
       <c r="M31" t="s">
         <v>347</v>
       </c>
+      <c r="N31" t="s">
+        <v>38</v>
+      </c>
       <c r="O31" t="s">
         <v>331</v>
       </c>
@@ -3681,16 +3858,19 @@
       </c>
       <c r="Q31">
         <f t="shared" ca="1" si="2"/>
-        <v>9297</v>
+        <v>235</v>
       </c>
       <c r="R31">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="S31" t="s">
         <v>38</v>
       </c>
       <c r="T31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z31" t="s">
         <v>38</v>
       </c>
       <c r="AA31" s="2" t="s">
@@ -3716,7 +3896,7 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="1"/>
@@ -3743,6 +3923,9 @@
       <c r="M32" t="s">
         <v>348</v>
       </c>
+      <c r="N32" t="s">
+        <v>38</v>
+      </c>
       <c r="O32" t="s">
         <v>332</v>
       </c>
@@ -3751,16 +3934,19 @@
       </c>
       <c r="Q32">
         <f t="shared" ca="1" si="2"/>
-        <v>890</v>
+        <v>849</v>
       </c>
       <c r="R32">
         <f t="shared" ca="1" si="3"/>
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="S32" t="s">
         <v>38</v>
       </c>
       <c r="T32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z32" t="s">
         <v>38</v>
       </c>
       <c r="AA32" s="2" t="s">
@@ -3790,7 +3976,7 @@
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E33" t="s">
         <v>70</v>
@@ -3813,6 +3999,9 @@
       <c r="M33" t="s">
         <v>349</v>
       </c>
+      <c r="N33" t="s">
+        <v>38</v>
+      </c>
       <c r="O33" t="s">
         <v>333</v>
       </c>
@@ -3821,11 +4010,11 @@
       </c>
       <c r="Q33">
         <f t="shared" ca="1" si="2"/>
-        <v>2044</v>
+        <v>8533</v>
       </c>
       <c r="R33">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="S33" t="s">
         <v>38</v>
@@ -3833,6 +4022,9 @@
       <c r="T33" s="1">
         <v>16552688</v>
       </c>
+      <c r="Z33" t="s">
+        <v>38</v>
+      </c>
       <c r="AA33" s="2" t="s">
         <v>38</v>
       </c>
@@ -3841,7 +4033,7 @@
       </c>
       <c r="AC33">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD33">
         <v>1</v>
@@ -3856,11 +4048,11 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E34" t="s">
         <v>71</v>
@@ -3883,6 +4075,9 @@
       <c r="M34" t="s">
         <v>318</v>
       </c>
+      <c r="N34" t="s">
+        <v>38</v>
+      </c>
       <c r="O34" t="s">
         <v>334</v>
       </c>
@@ -3891,16 +4086,19 @@
       </c>
       <c r="Q34">
         <f t="shared" ca="1" si="2"/>
-        <v>5212</v>
+        <v>1739</v>
       </c>
       <c r="R34">
         <f t="shared" ca="1" si="3"/>
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S34" t="s">
         <v>38</v>
       </c>
       <c r="T34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z34" t="s">
         <v>38</v>
       </c>
       <c r="AA34" s="2" t="s">
@@ -3926,11 +4124,11 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E35" t="s">
         <v>72</v>
@@ -3953,6 +4151,9 @@
       <c r="M35" t="s">
         <v>319</v>
       </c>
+      <c r="N35" t="s">
+        <v>38</v>
+      </c>
       <c r="O35" t="s">
         <v>335</v>
       </c>
@@ -3961,16 +4162,19 @@
       </c>
       <c r="Q35">
         <f t="shared" ca="1" si="2"/>
-        <v>2126</v>
+        <v>6452</v>
       </c>
       <c r="R35">
         <f t="shared" ca="1" si="3"/>
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="S35" t="s">
         <v>38</v>
       </c>
       <c r="T35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z35" t="s">
         <v>38</v>
       </c>
       <c r="AA35" s="2" t="s">
@@ -3996,7 +4200,7 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="1"/>
@@ -4023,6 +4227,9 @@
       <c r="M36" t="s">
         <v>320</v>
       </c>
+      <c r="N36" t="s">
+        <v>38</v>
+      </c>
       <c r="O36" t="s">
         <v>336</v>
       </c>
@@ -4031,16 +4238,19 @@
       </c>
       <c r="Q36">
         <f t="shared" ca="1" si="2"/>
-        <v>9197</v>
+        <v>5427</v>
       </c>
       <c r="R36">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="S36" t="s">
         <v>38</v>
       </c>
       <c r="T36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z36" t="s">
         <v>38</v>
       </c>
       <c r="AA36" s="2" t="s">
@@ -4066,11 +4276,11 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E37" t="s">
         <v>74</v>
@@ -4093,6 +4303,9 @@
       <c r="M37" t="s">
         <v>321</v>
       </c>
+      <c r="N37" t="s">
+        <v>38</v>
+      </c>
       <c r="O37" t="s">
         <v>337</v>
       </c>
@@ -4101,16 +4314,19 @@
       </c>
       <c r="Q37">
         <f t="shared" ca="1" si="2"/>
-        <v>917</v>
+        <v>1444</v>
       </c>
       <c r="R37">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>135</v>
       </c>
       <c r="S37" t="s">
         <v>38</v>
       </c>
       <c r="T37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z37" t="s">
         <v>38</v>
       </c>
       <c r="AA37" s="2" t="s">
@@ -4121,7 +4337,7 @@
       </c>
       <c r="AC37">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD37">
         <v>1</v>
@@ -4136,11 +4352,11 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E38" t="s">
         <v>75</v>
@@ -4163,6 +4379,9 @@
       <c r="M38" t="s">
         <v>322</v>
       </c>
+      <c r="N38" t="s">
+        <v>38</v>
+      </c>
       <c r="O38" t="s">
         <v>338</v>
       </c>
@@ -4171,16 +4390,19 @@
       </c>
       <c r="Q38">
         <f t="shared" ca="1" si="2"/>
-        <v>4072</v>
+        <v>3339</v>
       </c>
       <c r="R38">
         <f t="shared" ca="1" si="3"/>
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="S38" t="s">
         <v>38</v>
       </c>
       <c r="T38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z38" t="s">
         <v>38</v>
       </c>
       <c r="AA38" s="2" t="s">
@@ -4206,11 +4428,11 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E39" t="s">
         <v>76</v>
@@ -4233,6 +4455,9 @@
       <c r="M39" t="s">
         <v>323</v>
       </c>
+      <c r="N39" t="s">
+        <v>38</v>
+      </c>
       <c r="O39" t="s">
         <v>339</v>
       </c>
@@ -4241,16 +4466,19 @@
       </c>
       <c r="Q39">
         <f t="shared" ca="1" si="2"/>
-        <v>7373</v>
+        <v>6250</v>
       </c>
       <c r="R39">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="S39" t="s">
         <v>38</v>
       </c>
       <c r="T39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z39" t="s">
         <v>38</v>
       </c>
       <c r="AA39" s="2" t="s">
@@ -4276,7 +4504,7 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="1"/>
@@ -4303,6 +4531,9 @@
       <c r="M40" t="s">
         <v>324</v>
       </c>
+      <c r="N40" t="s">
+        <v>38</v>
+      </c>
       <c r="O40" t="s">
         <v>340</v>
       </c>
@@ -4311,16 +4542,19 @@
       </c>
       <c r="Q40">
         <f t="shared" ca="1" si="2"/>
-        <v>8197</v>
+        <v>6738</v>
       </c>
       <c r="R40">
         <f t="shared" ca="1" si="3"/>
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="S40" t="s">
         <v>38</v>
       </c>
       <c r="T40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z40" t="s">
         <v>38</v>
       </c>
       <c r="AA40" s="2" t="s">
@@ -4346,11 +4580,11 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E41" t="s">
         <v>77</v>
@@ -4373,6 +4607,9 @@
       <c r="M41" t="s">
         <v>325</v>
       </c>
+      <c r="N41" t="s">
+        <v>38</v>
+      </c>
       <c r="O41" t="s">
         <v>341</v>
       </c>
@@ -4381,16 +4618,19 @@
       </c>
       <c r="Q41">
         <f t="shared" ca="1" si="2"/>
-        <v>228</v>
+        <v>3983</v>
       </c>
       <c r="R41">
         <f t="shared" ca="1" si="3"/>
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="S41" t="s">
         <v>38</v>
       </c>
       <c r="T41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z41" t="s">
         <v>38</v>
       </c>
       <c r="AA41" s="2" t="s">
@@ -4420,7 +4660,7 @@
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E42" t="s">
         <v>78</v>
@@ -4443,6 +4683,9 @@
       <c r="M42" t="s">
         <v>326</v>
       </c>
+      <c r="N42" t="s">
+        <v>38</v>
+      </c>
       <c r="O42" t="s">
         <v>342</v>
       </c>
@@ -4451,16 +4694,19 @@
       </c>
       <c r="Q42">
         <f t="shared" ca="1" si="2"/>
-        <v>9512</v>
+        <v>7630</v>
       </c>
       <c r="R42">
         <f t="shared" ca="1" si="3"/>
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="S42" t="s">
         <v>38</v>
       </c>
       <c r="T42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z42" t="s">
         <v>38</v>
       </c>
       <c r="AA42" s="2" t="s">
@@ -4486,7 +4732,7 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="1"/>
@@ -4513,6 +4759,9 @@
       <c r="M43" t="s">
         <v>327</v>
       </c>
+      <c r="N43" t="s">
+        <v>38</v>
+      </c>
       <c r="O43" t="s">
         <v>343</v>
       </c>
@@ -4521,16 +4770,19 @@
       </c>
       <c r="Q43">
         <f t="shared" ca="1" si="2"/>
-        <v>8434</v>
+        <v>449</v>
       </c>
       <c r="R43">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="S43" t="s">
         <v>38</v>
       </c>
       <c r="T43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z43" t="s">
         <v>38</v>
       </c>
       <c r="AA43" s="2" t="s">
@@ -4556,7 +4808,7 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="1"/>
@@ -4583,6 +4835,9 @@
       <c r="M44" t="s">
         <v>328</v>
       </c>
+      <c r="N44" t="s">
+        <v>38</v>
+      </c>
       <c r="O44" t="s">
         <v>344</v>
       </c>
@@ -4591,16 +4846,19 @@
       </c>
       <c r="Q44">
         <f t="shared" ca="1" si="2"/>
-        <v>1446</v>
+        <v>9137</v>
       </c>
       <c r="R44">
         <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="S44" t="s">
         <v>38</v>
       </c>
       <c r="T44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z44" t="s">
         <v>38</v>
       </c>
       <c r="AA44" s="2" t="s">
@@ -4611,7 +4869,7 @@
       </c>
       <c r="AC44">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD44">
         <v>1</v>
@@ -4626,11 +4884,11 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E45" t="s">
         <v>81</v>
@@ -4653,6 +4911,9 @@
       <c r="M45" t="s">
         <v>329</v>
       </c>
+      <c r="N45" t="s">
+        <v>38</v>
+      </c>
       <c r="O45" t="s">
         <v>345</v>
       </c>
@@ -4661,16 +4922,19 @@
       </c>
       <c r="Q45">
         <f t="shared" ca="1" si="2"/>
-        <v>2686</v>
+        <v>2110</v>
       </c>
       <c r="R45">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="S45" t="s">
         <v>38</v>
       </c>
       <c r="T45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z45" t="s">
         <v>38</v>
       </c>
       <c r="AA45" s="2" t="s">
@@ -4696,11 +4960,11 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E46" t="s">
         <v>82</v>
@@ -4723,6 +4987,9 @@
       <c r="M46" t="s">
         <v>330</v>
       </c>
+      <c r="N46" t="s">
+        <v>38</v>
+      </c>
       <c r="O46" t="s">
         <v>346</v>
       </c>
@@ -4731,16 +4998,19 @@
       </c>
       <c r="Q46">
         <f t="shared" ca="1" si="2"/>
-        <v>8980</v>
+        <v>5299</v>
       </c>
       <c r="R46">
         <f t="shared" ca="1" si="3"/>
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="S46" t="s">
         <v>38</v>
       </c>
       <c r="T46" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z46" t="s">
         <v>38</v>
       </c>
       <c r="AA46" s="2" t="s">
@@ -4770,7 +5040,7 @@
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E47" t="s">
         <v>83</v>
@@ -4793,6 +5063,9 @@
       <c r="M47" t="s">
         <v>331</v>
       </c>
+      <c r="N47" t="s">
+        <v>38</v>
+      </c>
       <c r="O47" t="s">
         <v>347</v>
       </c>
@@ -4801,16 +5074,19 @@
       </c>
       <c r="Q47">
         <f t="shared" ca="1" si="2"/>
-        <v>1223</v>
+        <v>7512</v>
       </c>
       <c r="R47">
         <f t="shared" ca="1" si="3"/>
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="S47" t="s">
         <v>38</v>
       </c>
       <c r="T47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z47" t="s">
         <v>38</v>
       </c>
       <c r="AA47" s="2" t="s">
@@ -4821,7 +5097,7 @@
       </c>
       <c r="AC47">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD47">
         <v>1</v>
@@ -4836,11 +5112,11 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E48" t="s">
         <v>84</v>
@@ -4863,6 +5139,9 @@
       <c r="M48" t="s">
         <v>332</v>
       </c>
+      <c r="N48" t="s">
+        <v>38</v>
+      </c>
       <c r="O48" t="s">
         <v>348</v>
       </c>
@@ -4871,16 +5150,19 @@
       </c>
       <c r="Q48">
         <f t="shared" ca="1" si="2"/>
-        <v>9270</v>
+        <v>1288</v>
       </c>
       <c r="R48">
         <f t="shared" ca="1" si="3"/>
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="S48" t="s">
         <v>38</v>
       </c>
       <c r="T48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z48" t="s">
         <v>38</v>
       </c>
       <c r="AA48" s="2" t="s">
@@ -4933,6 +5215,9 @@
       <c r="M49" t="s">
         <v>333</v>
       </c>
+      <c r="N49" t="s">
+        <v>38</v>
+      </c>
       <c r="O49" t="s">
         <v>349</v>
       </c>
@@ -4941,16 +5226,19 @@
       </c>
       <c r="Q49">
         <f t="shared" ca="1" si="2"/>
-        <v>5652</v>
+        <v>5859</v>
       </c>
       <c r="R49">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="S49" t="s">
         <v>38</v>
       </c>
       <c r="T49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z49" t="s">
         <v>38</v>
       </c>
       <c r="AA49" s="2" t="s">
@@ -4961,7 +5249,7 @@
       </c>
       <c r="AC49">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD49">
         <v>1</v>
@@ -4976,7 +5264,7 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="1"/>
@@ -5003,6 +5291,9 @@
       <c r="M50" t="s">
         <v>334</v>
       </c>
+      <c r="N50" t="s">
+        <v>38</v>
+      </c>
       <c r="O50" t="s">
         <v>318</v>
       </c>
@@ -5011,16 +5302,19 @@
       </c>
       <c r="Q50">
         <f t="shared" ca="1" si="2"/>
-        <v>1915</v>
+        <v>3083</v>
       </c>
       <c r="R50">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="S50" t="s">
         <v>38</v>
       </c>
       <c r="T50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z50" t="s">
         <v>38</v>
       </c>
       <c r="AA50" s="2" t="s">
@@ -5031,7 +5325,7 @@
       </c>
       <c r="AC50">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD50">
         <v>1</v>
@@ -5046,11 +5340,11 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51" t="s">
         <v>87</v>
@@ -5073,6 +5367,9 @@
       <c r="M51" t="s">
         <v>335</v>
       </c>
+      <c r="N51" t="s">
+        <v>38</v>
+      </c>
       <c r="O51" t="s">
         <v>319</v>
       </c>
@@ -5081,16 +5378,19 @@
       </c>
       <c r="Q51">
         <f t="shared" ca="1" si="2"/>
-        <v>4784</v>
+        <v>8783</v>
       </c>
       <c r="R51">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="S51" t="s">
         <v>38</v>
       </c>
       <c r="T51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z51" t="s">
         <v>38</v>
       </c>
       <c r="AA51" s="2" t="s">
@@ -5101,7 +5401,7 @@
       </c>
       <c r="AC51">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD51">
         <v>1</v>
@@ -5116,11 +5416,11 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E52" t="s">
         <v>88</v>
@@ -5143,6 +5443,9 @@
       <c r="M52" t="s">
         <v>336</v>
       </c>
+      <c r="N52" t="s">
+        <v>38</v>
+      </c>
       <c r="O52" t="s">
         <v>320</v>
       </c>
@@ -5151,16 +5454,19 @@
       </c>
       <c r="Q52">
         <f t="shared" ca="1" si="2"/>
-        <v>8945</v>
+        <v>4090</v>
       </c>
       <c r="R52">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="S52" t="s">
         <v>38</v>
       </c>
       <c r="T52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z52" t="s">
         <v>38</v>
       </c>
       <c r="AA52" s="2" t="s">
@@ -5213,6 +5519,9 @@
       <c r="M53" t="s">
         <v>337</v>
       </c>
+      <c r="N53" t="s">
+        <v>38</v>
+      </c>
       <c r="O53" t="s">
         <v>321</v>
       </c>
@@ -5221,16 +5530,19 @@
       </c>
       <c r="Q53">
         <f t="shared" ca="1" si="2"/>
-        <v>8547</v>
+        <v>462</v>
       </c>
       <c r="R53">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="S53" t="s">
         <v>38</v>
       </c>
       <c r="T53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z53" t="s">
         <v>38</v>
       </c>
       <c r="AA53" s="2" t="s">
@@ -5256,11 +5568,11 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E54" t="s">
         <v>90</v>
@@ -5283,6 +5595,9 @@
       <c r="M54" t="s">
         <v>338</v>
       </c>
+      <c r="N54" t="s">
+        <v>38</v>
+      </c>
       <c r="O54" t="s">
         <v>322</v>
       </c>
@@ -5291,16 +5606,19 @@
       </c>
       <c r="Q54">
         <f t="shared" ca="1" si="2"/>
-        <v>6515</v>
+        <v>4040</v>
       </c>
       <c r="R54">
         <f t="shared" ca="1" si="3"/>
-        <v>136</v>
+        <v>34</v>
       </c>
       <c r="S54" t="s">
         <v>38</v>
       </c>
       <c r="T54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z54" t="s">
         <v>38</v>
       </c>
       <c r="AA54" s="2" t="s">
@@ -5311,7 +5629,7 @@
       </c>
       <c r="AC54">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD54">
         <v>1</v>
@@ -5326,11 +5644,11 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E55" t="s">
         <v>91</v>
@@ -5353,6 +5671,9 @@
       <c r="M55" t="s">
         <v>339</v>
       </c>
+      <c r="N55" t="s">
+        <v>38</v>
+      </c>
       <c r="O55" t="s">
         <v>323</v>
       </c>
@@ -5361,16 +5682,19 @@
       </c>
       <c r="Q55">
         <f t="shared" ca="1" si="2"/>
-        <v>5463</v>
+        <v>6051</v>
       </c>
       <c r="R55">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="S55" t="s">
         <v>38</v>
       </c>
       <c r="T55" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z55" t="s">
         <v>38</v>
       </c>
       <c r="AA55" s="2" t="s">
@@ -5396,11 +5720,11 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E56" t="s">
         <v>92</v>
@@ -5423,6 +5747,9 @@
       <c r="M56" t="s">
         <v>340</v>
       </c>
+      <c r="N56" t="s">
+        <v>38</v>
+      </c>
       <c r="O56" t="s">
         <v>324</v>
       </c>
@@ -5431,16 +5758,19 @@
       </c>
       <c r="Q56">
         <f t="shared" ca="1" si="2"/>
-        <v>2409</v>
+        <v>5897</v>
       </c>
       <c r="R56">
         <f t="shared" ca="1" si="3"/>
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="S56" t="s">
         <v>38</v>
       </c>
       <c r="T56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z56" t="s">
         <v>38</v>
       </c>
       <c r="AA56" s="2" t="s">
@@ -5451,7 +5781,7 @@
       </c>
       <c r="AC56">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD56">
         <v>1</v>
@@ -5466,11 +5796,11 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E57" t="s">
         <v>93</v>
@@ -5493,6 +5823,9 @@
       <c r="M57" t="s">
         <v>341</v>
       </c>
+      <c r="N57" t="s">
+        <v>38</v>
+      </c>
       <c r="O57" t="s">
         <v>325</v>
       </c>
@@ -5501,16 +5834,19 @@
       </c>
       <c r="Q57">
         <f t="shared" ca="1" si="2"/>
-        <v>8219</v>
+        <v>4968</v>
       </c>
       <c r="R57">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="S57" t="s">
         <v>38</v>
       </c>
       <c r="T57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z57" t="s">
         <v>38</v>
       </c>
       <c r="AA57" s="2">
@@ -5536,11 +5872,11 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E58" t="s">
         <v>94</v>
@@ -5563,6 +5899,9 @@
       <c r="M58" t="s">
         <v>342</v>
       </c>
+      <c r="N58" t="s">
+        <v>38</v>
+      </c>
       <c r="O58" t="s">
         <v>326</v>
       </c>
@@ -5571,16 +5910,19 @@
       </c>
       <c r="Q58">
         <f t="shared" ca="1" si="2"/>
-        <v>4472</v>
+        <v>1474</v>
       </c>
       <c r="R58">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="S58" t="s">
         <v>38</v>
       </c>
       <c r="T58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z58" t="s">
         <v>38</v>
       </c>
       <c r="AA58" s="2" t="s">
@@ -5606,7 +5948,7 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="1"/>
@@ -5633,6 +5975,9 @@
       <c r="M59" t="s">
         <v>343</v>
       </c>
+      <c r="N59" t="s">
+        <v>38</v>
+      </c>
       <c r="O59" t="s">
         <v>327</v>
       </c>
@@ -5641,16 +5986,19 @@
       </c>
       <c r="Q59">
         <f t="shared" ca="1" si="2"/>
-        <v>2211</v>
+        <v>1723</v>
       </c>
       <c r="R59">
         <f t="shared" ca="1" si="3"/>
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="S59" t="s">
         <v>38</v>
       </c>
       <c r="T59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z59" t="s">
         <v>38</v>
       </c>
       <c r="AA59" s="2" t="s">
@@ -5676,11 +6024,11 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E60" t="s">
         <v>96</v>
@@ -5703,6 +6051,9 @@
       <c r="M60" t="s">
         <v>344</v>
       </c>
+      <c r="N60" t="s">
+        <v>38</v>
+      </c>
       <c r="O60" t="s">
         <v>328</v>
       </c>
@@ -5711,16 +6062,19 @@
       </c>
       <c r="Q60">
         <f t="shared" ca="1" si="2"/>
-        <v>9421</v>
+        <v>874</v>
       </c>
       <c r="R60">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="S60" t="s">
         <v>38</v>
       </c>
       <c r="T60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z60" t="s">
         <v>38</v>
       </c>
       <c r="AA60" s="2" t="s">
@@ -5731,7 +6085,7 @@
       </c>
       <c r="AC60">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD60">
         <v>1</v>
@@ -5746,11 +6100,11 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E61" t="s">
         <v>97</v>
@@ -5773,6 +6127,9 @@
       <c r="M61" t="s">
         <v>345</v>
       </c>
+      <c r="N61" t="s">
+        <v>38</v>
+      </c>
       <c r="O61" t="s">
         <v>329</v>
       </c>
@@ -5781,16 +6138,19 @@
       </c>
       <c r="Q61">
         <f t="shared" ca="1" si="2"/>
-        <v>8493</v>
+        <v>652</v>
       </c>
       <c r="R61">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="S61" t="s">
         <v>38</v>
       </c>
       <c r="T61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z61" t="s">
         <v>38</v>
       </c>
       <c r="AA61" s="2" t="s">
@@ -5801,7 +6161,7 @@
       </c>
       <c r="AC61">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD61">
         <v>1</v>
@@ -5816,11 +6176,11 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E62" t="s">
         <v>98</v>
@@ -5843,6 +6203,9 @@
       <c r="M62" t="s">
         <v>346</v>
       </c>
+      <c r="N62" t="s">
+        <v>38</v>
+      </c>
       <c r="O62" t="s">
         <v>330</v>
       </c>
@@ -5851,16 +6214,19 @@
       </c>
       <c r="Q62">
         <f t="shared" ca="1" si="2"/>
-        <v>3292</v>
+        <v>5101</v>
       </c>
       <c r="R62">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="S62" t="s">
         <v>38</v>
       </c>
       <c r="T62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z62" t="s">
         <v>38</v>
       </c>
       <c r="AA62" s="2" t="s">
@@ -5886,11 +6252,11 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E63" t="s">
         <v>99</v>
@@ -5913,6 +6279,9 @@
       <c r="M63" t="s">
         <v>347</v>
       </c>
+      <c r="N63" t="s">
+        <v>38</v>
+      </c>
       <c r="O63" t="s">
         <v>331</v>
       </c>
@@ -5921,16 +6290,19 @@
       </c>
       <c r="Q63">
         <f t="shared" ca="1" si="2"/>
-        <v>4875</v>
+        <v>8339</v>
       </c>
       <c r="R63">
         <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="S63" t="s">
         <v>38</v>
       </c>
       <c r="T63" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z63" t="s">
         <v>38</v>
       </c>
       <c r="AA63" s="2" t="s">
@@ -5941,7 +6313,7 @@
       </c>
       <c r="AC63">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD63">
         <v>1</v>
@@ -5956,11 +6328,11 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E64" t="s">
         <v>100</v>
@@ -5983,6 +6355,9 @@
       <c r="M64" t="s">
         <v>348</v>
       </c>
+      <c r="N64" t="s">
+        <v>38</v>
+      </c>
       <c r="O64" t="s">
         <v>332</v>
       </c>
@@ -5991,16 +6366,19 @@
       </c>
       <c r="Q64">
         <f t="shared" ca="1" si="2"/>
-        <v>5323</v>
+        <v>865</v>
       </c>
       <c r="R64">
         <f t="shared" ca="1" si="3"/>
-        <v>139</v>
+        <v>42</v>
       </c>
       <c r="S64" t="s">
         <v>38</v>
       </c>
       <c r="T64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z64" t="s">
         <v>38</v>
       </c>
       <c r="AA64" s="2" t="s">
@@ -6011,7 +6389,7 @@
       </c>
       <c r="AC64">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD64">
         <v>1</v>
@@ -6026,11 +6404,11 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E65" t="s">
         <v>101</v>
@@ -6053,6 +6431,9 @@
       <c r="M65" t="s">
         <v>349</v>
       </c>
+      <c r="N65" t="s">
+        <v>38</v>
+      </c>
       <c r="O65" t="s">
         <v>333</v>
       </c>
@@ -6061,7 +6442,7 @@
       </c>
       <c r="Q65">
         <f t="shared" ca="1" si="2"/>
-        <v>894</v>
+        <v>9700</v>
       </c>
       <c r="R65">
         <f t="shared" ca="1" si="3"/>
@@ -6073,6 +6454,9 @@
       <c r="T65" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="Z65" t="s">
+        <v>38</v>
+      </c>
       <c r="AA65" s="2" t="s">
         <v>38</v>
       </c>
@@ -6081,7 +6465,7 @@
       </c>
       <c r="AC65">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD65">
         <v>1</v>
@@ -6096,11 +6480,11 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E66" t="s">
         <v>102</v>
@@ -6123,6 +6507,9 @@
       <c r="M66" t="s">
         <v>318</v>
       </c>
+      <c r="N66" t="s">
+        <v>38</v>
+      </c>
       <c r="O66" t="s">
         <v>334</v>
       </c>
@@ -6131,16 +6518,19 @@
       </c>
       <c r="Q66">
         <f t="shared" ca="1" si="2"/>
-        <v>5735</v>
+        <v>4519</v>
       </c>
       <c r="R66">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="S66" t="s">
         <v>38</v>
       </c>
       <c r="T66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z66" t="s">
         <v>38</v>
       </c>
       <c r="AA66" s="2" t="s">
@@ -6151,7 +6541,7 @@
       </c>
       <c r="AC66">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD66">
         <v>1</v>
@@ -6166,11 +6556,11 @@
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C101" ca="1" si="5">RANDBETWEEN(1,10)</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D67">
         <f t="shared" ref="D67:D101" ca="1" si="6">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E67" t="s">
         <v>103</v>
@@ -6193,6 +6583,9 @@
       <c r="M67" t="s">
         <v>319</v>
       </c>
+      <c r="N67" t="s">
+        <v>38</v>
+      </c>
       <c r="O67" t="s">
         <v>335</v>
       </c>
@@ -6201,16 +6594,19 @@
       </c>
       <c r="Q67">
         <f t="shared" ref="Q67:Q101" ca="1" si="7">RANDBETWEEN(100,10000)</f>
-        <v>2614</v>
+        <v>4881</v>
       </c>
       <c r="R67">
         <f t="shared" ref="R67:R101" ca="1" si="8">RANDBETWEEN(1,153)</f>
-        <v>152</v>
+        <v>51</v>
       </c>
       <c r="S67" t="s">
         <v>38</v>
       </c>
       <c r="T67" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z67" t="s">
         <v>38</v>
       </c>
       <c r="AA67" s="2" t="s">
@@ -6221,7 +6617,7 @@
       </c>
       <c r="AC67">
         <f t="shared" ref="AC67:AC101" ca="1" si="9">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD67">
         <v>1</v>
@@ -6240,7 +6636,7 @@
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E68" t="s">
         <v>104</v>
@@ -6263,6 +6659,9 @@
       <c r="M68" t="s">
         <v>320</v>
       </c>
+      <c r="N68" t="s">
+        <v>38</v>
+      </c>
       <c r="O68" t="s">
         <v>336</v>
       </c>
@@ -6271,16 +6670,19 @@
       </c>
       <c r="Q68">
         <f t="shared" ca="1" si="7"/>
-        <v>6331</v>
+        <v>8906</v>
       </c>
       <c r="R68">
         <f t="shared" ca="1" si="8"/>
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="S68" t="s">
         <v>38</v>
       </c>
       <c r="T68" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z68" t="s">
         <v>38</v>
       </c>
       <c r="AA68" s="2" t="s">
@@ -6291,7 +6693,7 @@
       </c>
       <c r="AC68">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD68">
         <v>1</v>
@@ -6306,11 +6708,11 @@
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E69" t="s">
         <v>105</v>
@@ -6333,6 +6735,9 @@
       <c r="M69" t="s">
         <v>321</v>
       </c>
+      <c r="N69" t="s">
+        <v>38</v>
+      </c>
       <c r="O69" t="s">
         <v>337</v>
       </c>
@@ -6341,16 +6746,19 @@
       </c>
       <c r="Q69">
         <f t="shared" ca="1" si="7"/>
-        <v>7973</v>
+        <v>2670</v>
       </c>
       <c r="R69">
         <f t="shared" ca="1" si="8"/>
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="S69" t="s">
         <v>38</v>
       </c>
       <c r="T69" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z69" t="s">
         <v>38</v>
       </c>
       <c r="AA69" s="2" t="s">
@@ -6361,7 +6769,7 @@
       </c>
       <c r="AC69">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD69">
         <v>1</v>
@@ -6376,7 +6784,7 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="6"/>
@@ -6403,6 +6811,9 @@
       <c r="M70" t="s">
         <v>322</v>
       </c>
+      <c r="N70" t="s">
+        <v>38</v>
+      </c>
       <c r="O70" t="s">
         <v>338</v>
       </c>
@@ -6411,7 +6822,7 @@
       </c>
       <c r="Q70">
         <f t="shared" ca="1" si="7"/>
-        <v>8472</v>
+        <v>9122</v>
       </c>
       <c r="R70">
         <f t="shared" ca="1" si="8"/>
@@ -6423,6 +6834,9 @@
       <c r="T70" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="Z70" t="s">
+        <v>38</v>
+      </c>
       <c r="AA70" s="2" t="s">
         <v>38</v>
       </c>
@@ -6431,7 +6845,7 @@
       </c>
       <c r="AC70">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD70">
         <v>1</v>
@@ -6446,7 +6860,7 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="6"/>
@@ -6473,6 +6887,9 @@
       <c r="M71" t="s">
         <v>323</v>
       </c>
+      <c r="N71" t="s">
+        <v>38</v>
+      </c>
       <c r="O71" t="s">
         <v>339</v>
       </c>
@@ -6481,16 +6898,19 @@
       </c>
       <c r="Q71">
         <f t="shared" ca="1" si="7"/>
-        <v>4862</v>
+        <v>2955</v>
       </c>
       <c r="R71">
         <f t="shared" ca="1" si="8"/>
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="S71" t="s">
         <v>38</v>
       </c>
       <c r="T71" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z71" t="s">
         <v>38</v>
       </c>
       <c r="AA71" s="2" t="s">
@@ -6520,7 +6940,7 @@
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E72" t="s">
         <v>108</v>
@@ -6543,6 +6963,9 @@
       <c r="M72" t="s">
         <v>324</v>
       </c>
+      <c r="N72" t="s">
+        <v>38</v>
+      </c>
       <c r="O72" t="s">
         <v>340</v>
       </c>
@@ -6551,16 +6974,19 @@
       </c>
       <c r="Q72">
         <f t="shared" ca="1" si="7"/>
-        <v>7092</v>
+        <v>9059</v>
       </c>
       <c r="R72">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="S72" t="s">
         <v>38</v>
       </c>
       <c r="T72" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z72" t="s">
         <v>38</v>
       </c>
       <c r="AA72" s="2" t="s">
@@ -6586,7 +7012,7 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="6"/>
@@ -6613,6 +7039,9 @@
       <c r="M73" t="s">
         <v>325</v>
       </c>
+      <c r="N73" t="s">
+        <v>38</v>
+      </c>
       <c r="O73" t="s">
         <v>341</v>
       </c>
@@ -6621,17 +7050,20 @@
       </c>
       <c r="Q73">
         <f t="shared" ca="1" si="7"/>
-        <v>9853</v>
+        <v>4124</v>
       </c>
       <c r="R73">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="S73" t="s">
         <v>38</v>
       </c>
       <c r="T73" s="1">
         <v>12246</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>38</v>
       </c>
       <c r="AA73" s="2" t="s">
         <v>317</v>
@@ -6656,11 +7088,11 @@
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E74" t="s">
         <v>110</v>
@@ -6683,6 +7115,9 @@
       <c r="M74" t="s">
         <v>326</v>
       </c>
+      <c r="N74" t="s">
+        <v>38</v>
+      </c>
       <c r="O74" t="s">
         <v>342</v>
       </c>
@@ -6691,16 +7126,19 @@
       </c>
       <c r="Q74">
         <f t="shared" ca="1" si="7"/>
-        <v>6793</v>
+        <v>4781</v>
       </c>
       <c r="R74">
         <f t="shared" ca="1" si="8"/>
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="S74" t="s">
         <v>38</v>
       </c>
       <c r="T74" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z74" t="s">
         <v>38</v>
       </c>
       <c r="AA74" s="2" t="s">
@@ -6726,11 +7164,11 @@
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E75" t="s">
         <v>111</v>
@@ -6750,6 +7188,9 @@
       <c r="M75" t="s">
         <v>327</v>
       </c>
+      <c r="N75" t="s">
+        <v>38</v>
+      </c>
       <c r="O75" t="s">
         <v>343</v>
       </c>
@@ -6758,16 +7199,19 @@
       </c>
       <c r="Q75">
         <f t="shared" ca="1" si="7"/>
-        <v>6350</v>
+        <v>6395</v>
       </c>
       <c r="R75">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="S75" t="s">
         <v>38</v>
       </c>
       <c r="T75" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z75" t="s">
         <v>38</v>
       </c>
       <c r="AA75" s="2" t="s">
@@ -6793,11 +7237,11 @@
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E76" t="s">
         <v>112</v>
@@ -6817,6 +7261,9 @@
       <c r="M76" t="s">
         <v>328</v>
       </c>
+      <c r="N76" t="s">
+        <v>38</v>
+      </c>
       <c r="O76" t="s">
         <v>344</v>
       </c>
@@ -6825,16 +7272,19 @@
       </c>
       <c r="Q76">
         <f t="shared" ca="1" si="7"/>
-        <v>1411</v>
+        <v>5966</v>
       </c>
       <c r="R76">
         <f t="shared" ca="1" si="8"/>
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="S76" t="s">
         <v>38</v>
       </c>
       <c r="T76" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z76" t="s">
         <v>38</v>
       </c>
       <c r="AA76" s="2" t="s">
@@ -6845,7 +7295,7 @@
       </c>
       <c r="AC76">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD76">
         <v>1</v>
@@ -6860,11 +7310,11 @@
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E77" t="s">
         <v>113</v>
@@ -6884,6 +7334,9 @@
       <c r="M77" t="s">
         <v>329</v>
       </c>
+      <c r="N77" t="s">
+        <v>38</v>
+      </c>
       <c r="O77" t="s">
         <v>345</v>
       </c>
@@ -6892,16 +7345,19 @@
       </c>
       <c r="Q77">
         <f t="shared" ca="1" si="7"/>
-        <v>9394</v>
+        <v>9509</v>
       </c>
       <c r="R77">
         <f t="shared" ca="1" si="8"/>
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="S77" t="s">
         <v>38</v>
       </c>
       <c r="T77" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z77" t="s">
         <v>38</v>
       </c>
       <c r="AA77" s="2" t="s">
@@ -6927,11 +7383,11 @@
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E78" t="s">
         <v>114</v>
@@ -6951,6 +7407,9 @@
       <c r="M78" t="s">
         <v>330</v>
       </c>
+      <c r="N78" t="s">
+        <v>38</v>
+      </c>
       <c r="O78" t="s">
         <v>346</v>
       </c>
@@ -6959,16 +7418,19 @@
       </c>
       <c r="Q78">
         <f t="shared" ca="1" si="7"/>
-        <v>1853</v>
+        <v>762</v>
       </c>
       <c r="R78">
         <f t="shared" ca="1" si="8"/>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="S78" t="s">
         <v>38</v>
       </c>
       <c r="T78" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z78" t="s">
         <v>38</v>
       </c>
       <c r="AA78" s="2" t="s">
@@ -6994,11 +7456,11 @@
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E79" t="s">
         <v>115</v>
@@ -7018,6 +7480,9 @@
       <c r="M79" t="s">
         <v>331</v>
       </c>
+      <c r="N79" t="s">
+        <v>38</v>
+      </c>
       <c r="O79" t="s">
         <v>347</v>
       </c>
@@ -7026,16 +7491,19 @@
       </c>
       <c r="Q79">
         <f t="shared" ca="1" si="7"/>
-        <v>7567</v>
+        <v>6078</v>
       </c>
       <c r="R79">
         <f t="shared" ca="1" si="8"/>
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="S79" t="s">
         <v>38</v>
       </c>
       <c r="T79" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z79" t="s">
         <v>38</v>
       </c>
       <c r="AA79" s="2" t="s">
@@ -7061,7 +7529,7 @@
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="6"/>
@@ -7085,6 +7553,9 @@
       <c r="M80" t="s">
         <v>332</v>
       </c>
+      <c r="N80" t="s">
+        <v>38</v>
+      </c>
       <c r="O80" t="s">
         <v>348</v>
       </c>
@@ -7093,16 +7564,19 @@
       </c>
       <c r="Q80">
         <f t="shared" ca="1" si="7"/>
-        <v>9586</v>
+        <v>7319</v>
       </c>
       <c r="R80">
         <f t="shared" ca="1" si="8"/>
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="S80" t="s">
         <v>38</v>
       </c>
       <c r="T80" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z80" t="s">
         <v>38</v>
       </c>
       <c r="AA80" s="2" t="s">
@@ -7128,7 +7602,7 @@
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="6"/>
@@ -7152,6 +7626,9 @@
       <c r="M81" t="s">
         <v>333</v>
       </c>
+      <c r="N81" t="s">
+        <v>38</v>
+      </c>
       <c r="O81" t="s">
         <v>349</v>
       </c>
@@ -7160,16 +7637,19 @@
       </c>
       <c r="Q81">
         <f t="shared" ca="1" si="7"/>
-        <v>668</v>
+        <v>9788</v>
       </c>
       <c r="R81">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="S81" t="s">
         <v>38</v>
       </c>
       <c r="T81" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z81" t="s">
         <v>38</v>
       </c>
       <c r="AA81" s="2" t="s">
@@ -7180,7 +7660,7 @@
       </c>
       <c r="AC81">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD81">
         <v>1</v>
@@ -7195,11 +7675,11 @@
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E82" t="s">
         <v>118</v>
@@ -7219,6 +7699,9 @@
       <c r="M82" t="s">
         <v>334</v>
       </c>
+      <c r="N82" t="s">
+        <v>38</v>
+      </c>
       <c r="O82" t="s">
         <v>318</v>
       </c>
@@ -7227,16 +7710,19 @@
       </c>
       <c r="Q82">
         <f t="shared" ca="1" si="7"/>
-        <v>807</v>
+        <v>2272</v>
       </c>
       <c r="R82">
         <f t="shared" ca="1" si="8"/>
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="S82" t="s">
         <v>38</v>
       </c>
       <c r="T82" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z82" t="s">
         <v>38</v>
       </c>
       <c r="AA82" s="2" t="s">
@@ -7262,11 +7748,11 @@
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E83" t="s">
         <v>119</v>
@@ -7286,6 +7772,9 @@
       <c r="M83" t="s">
         <v>335</v>
       </c>
+      <c r="N83" t="s">
+        <v>38</v>
+      </c>
       <c r="O83" t="s">
         <v>319</v>
       </c>
@@ -7294,16 +7783,19 @@
       </c>
       <c r="Q83">
         <f t="shared" ca="1" si="7"/>
-        <v>9058</v>
+        <v>7723</v>
       </c>
       <c r="R83">
         <f t="shared" ca="1" si="8"/>
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="S83" t="s">
         <v>38</v>
       </c>
       <c r="T83" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z83" t="s">
         <v>38</v>
       </c>
       <c r="AA83" s="2" t="s">
@@ -7314,7 +7806,7 @@
       </c>
       <c r="AC83">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD83">
         <v>1</v>
@@ -7329,11 +7821,11 @@
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E84" t="s">
         <v>120</v>
@@ -7353,6 +7845,9 @@
       <c r="M84" t="s">
         <v>336</v>
       </c>
+      <c r="N84" t="s">
+        <v>38</v>
+      </c>
       <c r="O84" t="s">
         <v>320</v>
       </c>
@@ -7361,16 +7856,19 @@
       </c>
       <c r="Q84">
         <f t="shared" ca="1" si="7"/>
-        <v>3977</v>
+        <v>5746</v>
       </c>
       <c r="R84">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>145</v>
       </c>
       <c r="S84" t="s">
         <v>38</v>
       </c>
       <c r="T84" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z84" t="s">
         <v>38</v>
       </c>
       <c r="AA84" s="2" t="s">
@@ -7381,7 +7879,7 @@
       </c>
       <c r="AC84">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD84">
         <v>1</v>
@@ -7396,11 +7894,11 @@
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E85" t="s">
         <v>121</v>
@@ -7420,6 +7918,9 @@
       <c r="M85" t="s">
         <v>337</v>
       </c>
+      <c r="N85" t="s">
+        <v>38</v>
+      </c>
       <c r="O85" t="s">
         <v>321</v>
       </c>
@@ -7428,17 +7929,20 @@
       </c>
       <c r="Q85">
         <f t="shared" ca="1" si="7"/>
-        <v>9596</v>
+        <v>6702</v>
       </c>
       <c r="R85">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="S85" t="s">
         <v>38</v>
       </c>
       <c r="T85" s="1">
         <v>15011</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>38</v>
       </c>
       <c r="AA85" s="2" t="s">
         <v>38</v>
@@ -7463,11 +7967,11 @@
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E86" t="s">
         <v>122</v>
@@ -7487,6 +7991,9 @@
       <c r="M86" t="s">
         <v>338</v>
       </c>
+      <c r="N86" t="s">
+        <v>38</v>
+      </c>
       <c r="O86" t="s">
         <v>322</v>
       </c>
@@ -7495,16 +8002,19 @@
       </c>
       <c r="Q86">
         <f t="shared" ca="1" si="7"/>
-        <v>7345</v>
+        <v>1764</v>
       </c>
       <c r="R86">
         <f t="shared" ca="1" si="8"/>
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="S86" t="s">
         <v>38</v>
       </c>
       <c r="T86" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z86" t="s">
         <v>38</v>
       </c>
       <c r="AA86" s="2" t="s">
@@ -7530,7 +8040,7 @@
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="6"/>
@@ -7554,6 +8064,9 @@
       <c r="M87" t="s">
         <v>339</v>
       </c>
+      <c r="N87" t="s">
+        <v>38</v>
+      </c>
       <c r="O87" t="s">
         <v>323</v>
       </c>
@@ -7562,16 +8075,19 @@
       </c>
       <c r="Q87">
         <f t="shared" ca="1" si="7"/>
-        <v>6060</v>
+        <v>8659</v>
       </c>
       <c r="R87">
         <f t="shared" ca="1" si="8"/>
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="S87" t="s">
         <v>38</v>
       </c>
       <c r="T87" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z87" t="s">
         <v>38</v>
       </c>
       <c r="AA87" s="2" t="s">
@@ -7582,7 +8098,7 @@
       </c>
       <c r="AC87">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD87">
         <v>1</v>
@@ -7597,7 +8113,7 @@
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="6"/>
@@ -7621,6 +8137,9 @@
       <c r="M88" t="s">
         <v>340</v>
       </c>
+      <c r="N88" t="s">
+        <v>38</v>
+      </c>
       <c r="O88" t="s">
         <v>324</v>
       </c>
@@ -7629,16 +8148,19 @@
       </c>
       <c r="Q88">
         <f t="shared" ca="1" si="7"/>
-        <v>7193</v>
+        <v>8396</v>
       </c>
       <c r="R88">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="S88" t="s">
         <v>38</v>
       </c>
       <c r="T88" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z88" t="s">
         <v>38</v>
       </c>
       <c r="AA88" s="2" t="s">
@@ -7649,7 +8171,7 @@
       </c>
       <c r="AC88">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD88">
         <v>1</v>
@@ -7664,11 +8186,11 @@
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E89" t="s">
         <v>125</v>
@@ -7688,6 +8210,9 @@
       <c r="M89" t="s">
         <v>341</v>
       </c>
+      <c r="N89" t="s">
+        <v>38</v>
+      </c>
       <c r="O89" t="s">
         <v>325</v>
       </c>
@@ -7696,11 +8221,11 @@
       </c>
       <c r="Q89">
         <f t="shared" ca="1" si="7"/>
-        <v>7880</v>
+        <v>2577</v>
       </c>
       <c r="R89">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="S89" t="s">
         <v>38</v>
@@ -7708,6 +8233,9 @@
       <c r="T89" s="1">
         <v>27610</v>
       </c>
+      <c r="Z89" t="s">
+        <v>38</v>
+      </c>
       <c r="AA89" s="2">
         <v>29825</v>
       </c>
@@ -7716,7 +8244,7 @@
       </c>
       <c r="AC89">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD89">
         <v>1</v>
@@ -7731,11 +8259,11 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E90" t="s">
         <v>126</v>
@@ -7755,6 +8283,9 @@
       <c r="M90" t="s">
         <v>342</v>
       </c>
+      <c r="N90" t="s">
+        <v>38</v>
+      </c>
       <c r="O90" t="s">
         <v>326</v>
       </c>
@@ -7763,17 +8294,20 @@
       </c>
       <c r="Q90">
         <f t="shared" ca="1" si="7"/>
-        <v>644</v>
+        <v>3454</v>
       </c>
       <c r="R90">
         <f t="shared" ca="1" si="8"/>
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="S90" t="s">
         <v>38</v>
       </c>
       <c r="T90" s="1">
         <v>27609</v>
+      </c>
+      <c r="Z90" t="s">
+        <v>38</v>
       </c>
       <c r="AA90" s="2" t="s">
         <v>38</v>
@@ -7798,11 +8332,11 @@
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E91" t="s">
         <v>127</v>
@@ -7822,6 +8356,9 @@
       <c r="M91" t="s">
         <v>343</v>
       </c>
+      <c r="N91" t="s">
+        <v>38</v>
+      </c>
       <c r="O91" t="s">
         <v>327</v>
       </c>
@@ -7830,16 +8367,19 @@
       </c>
       <c r="Q91">
         <f t="shared" ca="1" si="7"/>
-        <v>4081</v>
+        <v>3746</v>
       </c>
       <c r="R91">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="S91" t="s">
         <v>38</v>
       </c>
       <c r="T91" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z91" t="s">
         <v>38</v>
       </c>
       <c r="AA91" s="2" t="s">
@@ -7850,7 +8390,7 @@
       </c>
       <c r="AC91">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD91">
         <v>1</v>
@@ -7865,11 +8405,11 @@
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E92" t="s">
         <v>128</v>
@@ -7889,6 +8429,9 @@
       <c r="M92" t="s">
         <v>344</v>
       </c>
+      <c r="N92" t="s">
+        <v>38</v>
+      </c>
       <c r="O92" t="s">
         <v>328</v>
       </c>
@@ -7897,17 +8440,20 @@
       </c>
       <c r="Q92">
         <f t="shared" ca="1" si="7"/>
-        <v>2656</v>
+        <v>1750</v>
       </c>
       <c r="R92">
         <f t="shared" ca="1" si="8"/>
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="S92" t="s">
         <v>38</v>
       </c>
       <c r="T92" s="1">
         <v>27752</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>38</v>
       </c>
       <c r="AA92" s="2" t="s">
         <v>38</v>
@@ -7932,11 +8478,11 @@
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E93" t="s">
         <v>129</v>
@@ -7956,6 +8502,9 @@
       <c r="M93" t="s">
         <v>345</v>
       </c>
+      <c r="N93" t="s">
+        <v>38</v>
+      </c>
       <c r="O93" t="s">
         <v>329</v>
       </c>
@@ -7964,16 +8513,19 @@
       </c>
       <c r="Q93">
         <f t="shared" ca="1" si="7"/>
-        <v>197</v>
+        <v>2711</v>
       </c>
       <c r="R93">
         <f t="shared" ca="1" si="8"/>
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="S93" t="s">
         <v>38</v>
       </c>
       <c r="T93" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z93" t="s">
         <v>38</v>
       </c>
       <c r="AA93" s="2" t="s">
@@ -7999,11 +8551,11 @@
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E94" t="s">
         <v>130</v>
@@ -8023,6 +8575,9 @@
       <c r="M94" t="s">
         <v>346</v>
       </c>
+      <c r="N94" t="s">
+        <v>38</v>
+      </c>
       <c r="O94" t="s">
         <v>330</v>
       </c>
@@ -8031,16 +8586,19 @@
       </c>
       <c r="Q94">
         <f t="shared" ca="1" si="7"/>
-        <v>2942</v>
+        <v>6608</v>
       </c>
       <c r="R94">
         <f t="shared" ca="1" si="8"/>
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="S94" t="s">
         <v>38</v>
       </c>
       <c r="T94" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z94" t="s">
         <v>38</v>
       </c>
       <c r="AA94" s="2" t="s">
@@ -8051,7 +8609,7 @@
       </c>
       <c r="AC94">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD94">
         <v>1</v>
@@ -8066,11 +8624,11 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E95" t="s">
         <v>131</v>
@@ -8090,6 +8648,9 @@
       <c r="M95" t="s">
         <v>347</v>
       </c>
+      <c r="N95" t="s">
+        <v>38</v>
+      </c>
       <c r="O95" t="s">
         <v>331</v>
       </c>
@@ -8098,16 +8659,19 @@
       </c>
       <c r="Q95">
         <f t="shared" ca="1" si="7"/>
-        <v>280</v>
+        <v>9691</v>
       </c>
       <c r="R95">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="S95" t="s">
         <v>38</v>
       </c>
       <c r="T95" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z95" t="s">
         <v>38</v>
       </c>
       <c r="AA95" s="2" t="s">
@@ -8133,11 +8697,11 @@
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E96" t="s">
         <v>132</v>
@@ -8157,6 +8721,9 @@
       <c r="M96" t="s">
         <v>348</v>
       </c>
+      <c r="N96" t="s">
+        <v>38</v>
+      </c>
       <c r="O96" t="s">
         <v>332</v>
       </c>
@@ -8165,16 +8732,19 @@
       </c>
       <c r="Q96">
         <f t="shared" ca="1" si="7"/>
-        <v>9459</v>
+        <v>6471</v>
       </c>
       <c r="R96">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="S96" t="s">
         <v>38</v>
       </c>
       <c r="T96" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z96" t="s">
         <v>38</v>
       </c>
       <c r="AA96" s="2" t="s">
@@ -8185,7 +8755,7 @@
       </c>
       <c r="AC96">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD96">
         <v>1</v>
@@ -8200,7 +8770,7 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="6"/>
@@ -8224,6 +8794,9 @@
       <c r="M97" t="s">
         <v>349</v>
       </c>
+      <c r="N97" t="s">
+        <v>38</v>
+      </c>
       <c r="O97" t="s">
         <v>333</v>
       </c>
@@ -8232,16 +8805,19 @@
       </c>
       <c r="Q97">
         <f t="shared" ca="1" si="7"/>
-        <v>6152</v>
+        <v>793</v>
       </c>
       <c r="R97">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="S97" t="s">
         <v>38</v>
       </c>
       <c r="T97" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z97" t="s">
         <v>38</v>
       </c>
       <c r="AA97" s="2">
@@ -8252,7 +8828,7 @@
       </c>
       <c r="AC97">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD97">
         <v>1</v>
@@ -8267,11 +8843,11 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E98" t="s">
         <v>134</v>
@@ -8291,6 +8867,9 @@
       <c r="M98" t="s">
         <v>334</v>
       </c>
+      <c r="N98" t="s">
+        <v>38</v>
+      </c>
       <c r="O98" t="s">
         <v>337</v>
       </c>
@@ -8299,16 +8878,19 @@
       </c>
       <c r="Q98">
         <f t="shared" ca="1" si="7"/>
-        <v>5815</v>
+        <v>5608</v>
       </c>
       <c r="R98">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="S98" t="s">
         <v>38</v>
       </c>
       <c r="T98" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z98" t="s">
         <v>38</v>
       </c>
       <c r="AA98" s="2" t="s">
@@ -8319,7 +8901,7 @@
       </c>
       <c r="AC98">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD98">
         <v>1</v>
@@ -8334,11 +8916,11 @@
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E99" t="s">
         <v>135</v>
@@ -8358,6 +8940,9 @@
       <c r="M99" t="s">
         <v>335</v>
       </c>
+      <c r="N99" t="s">
+        <v>38</v>
+      </c>
       <c r="O99" t="s">
         <v>338</v>
       </c>
@@ -8366,11 +8951,11 @@
       </c>
       <c r="Q99">
         <f t="shared" ca="1" si="7"/>
-        <v>6592</v>
+        <v>2103</v>
       </c>
       <c r="R99">
         <f t="shared" ca="1" si="8"/>
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="S99" t="s">
         <v>38</v>
@@ -8378,6 +8963,9 @@
       <c r="T99" s="1">
         <v>27622</v>
       </c>
+      <c r="Z99" t="s">
+        <v>38</v>
+      </c>
       <c r="AA99" s="2">
         <v>29901</v>
       </c>
@@ -8386,7 +8974,7 @@
       </c>
       <c r="AC99">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD99">
         <v>1</v>
@@ -8401,11 +8989,11 @@
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E100" t="s">
         <v>136</v>
@@ -8425,6 +9013,9 @@
       <c r="M100" t="s">
         <v>336</v>
       </c>
+      <c r="N100" t="s">
+        <v>38</v>
+      </c>
       <c r="O100" t="s">
         <v>339</v>
       </c>
@@ -8433,17 +9024,20 @@
       </c>
       <c r="Q100">
         <f t="shared" ca="1" si="7"/>
-        <v>7380</v>
+        <v>5168</v>
       </c>
       <c r="R100">
         <f t="shared" ca="1" si="8"/>
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="S100" t="s">
         <v>38</v>
       </c>
       <c r="T100" s="1">
         <v>27365</v>
+      </c>
+      <c r="Z100" t="s">
+        <v>38</v>
       </c>
       <c r="AA100" s="2">
         <v>30462</v>
@@ -8468,7 +9062,7 @@
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="6"/>
@@ -8492,6 +9086,9 @@
       <c r="M101" t="s">
         <v>327</v>
       </c>
+      <c r="N101" t="s">
+        <v>38</v>
+      </c>
       <c r="O101" t="s">
         <v>340</v>
       </c>
@@ -8500,11 +9097,11 @@
       </c>
       <c r="Q101">
         <f t="shared" ca="1" si="7"/>
-        <v>3475</v>
+        <v>5942</v>
       </c>
       <c r="R101">
         <f t="shared" ca="1" si="8"/>
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="S101" t="s">
         <v>38</v>
@@ -8512,6 +9109,9 @@
       <c r="T101" s="1">
         <v>23067</v>
       </c>
+      <c r="Z101" t="s">
+        <v>38</v>
+      </c>
       <c r="AA101" s="2">
         <v>30454</v>
       </c>
@@ -8520,7 +9120,7 @@
       </c>
       <c r="AC101">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD101">
         <v>1</v>

--- a/Excel/Carga DB Postgres/Ingreso - cargado.xlsx
+++ b/Excel/Carga DB Postgres/Ingreso - cargado.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -1405,8 +1405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AF17" sqref="AF17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1528,12 +1528,10 @@
         <v>30</v>
       </c>
       <c r="C2">
-        <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
@@ -1569,12 +1567,10 @@
         <v>324</v>
       </c>
       <c r="Q2">
-        <f ca="1">RANDBETWEEN(100,10000)</f>
-        <v>5171</v>
+        <v>2925</v>
       </c>
       <c r="R2">
-        <f ca="1">RANDBETWEEN(1,153)</f>
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="S2" t="s">
         <v>38</v>
@@ -1592,7 +1588,6 @@
         <v>1</v>
       </c>
       <c r="AC2">
-        <f ca="1">RANDBETWEEN(1,2)</f>
         <v>2</v>
       </c>
       <c r="AD2">
@@ -1607,12 +1602,10 @@
         <v>211</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C66" ca="1" si="0">RANDBETWEEN(1,10)</f>
         <v>7</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" ca="1" si="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>40</v>
@@ -1648,12 +1641,10 @@
         <v>325</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q66" ca="1" si="2">RANDBETWEEN(100,10000)</f>
-        <v>1864</v>
+        <v>8079</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R66" ca="1" si="3">RANDBETWEEN(1,153)</f>
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="S3" t="s">
         <v>38</v>
@@ -1671,7 +1662,6 @@
         <v>1</v>
       </c>
       <c r="AC3">
-        <f t="shared" ref="AC3:AC66" ca="1" si="4">RANDBETWEEN(1,2)</f>
         <v>1</v>
       </c>
       <c r="AD3">
@@ -1686,12 +1676,10 @@
         <v>212</v>
       </c>
       <c r="C4">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
         <v>41</v>
@@ -1727,12 +1715,10 @@
         <v>326</v>
       </c>
       <c r="Q4">
-        <f t="shared" ca="1" si="2"/>
-        <v>3144</v>
+        <v>4096</v>
       </c>
       <c r="R4">
-        <f t="shared" ca="1" si="3"/>
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="S4" t="s">
         <v>38</v>
@@ -1750,8 +1736,7 @@
         <v>1</v>
       </c>
       <c r="AC4">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD4">
         <v>1</v>
@@ -1765,12 +1750,10 @@
         <v>213</v>
       </c>
       <c r="C5">
-        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D5">
         <v>5</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
       </c>
       <c r="E5" t="s">
         <v>42</v>
@@ -1806,12 +1789,10 @@
         <v>327</v>
       </c>
       <c r="Q5">
-        <f t="shared" ca="1" si="2"/>
-        <v>3227</v>
+        <v>9184</v>
       </c>
       <c r="R5">
-        <f t="shared" ca="1" si="3"/>
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="S5" t="s">
         <v>38</v>
@@ -1829,8 +1810,7 @@
         <v>1</v>
       </c>
       <c r="AC5">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD5">
         <v>1</v>
@@ -1844,12 +1824,10 @@
         <v>214</v>
       </c>
       <c r="C6">
-        <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
       <c r="D6">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
         <v>43</v>
@@ -1885,12 +1863,10 @@
         <v>328</v>
       </c>
       <c r="Q6">
-        <f t="shared" ca="1" si="2"/>
-        <v>4592</v>
+        <v>2649</v>
       </c>
       <c r="R6">
-        <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="S6" t="s">
         <v>38</v>
@@ -1908,8 +1884,7 @@
         <v>1</v>
       </c>
       <c r="AC6">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD6">
         <v>1</v>
@@ -1923,12 +1898,10 @@
         <v>215</v>
       </c>
       <c r="C7">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
         <v>44</v>
@@ -1964,12 +1937,10 @@
         <v>329</v>
       </c>
       <c r="Q7">
-        <f t="shared" ca="1" si="2"/>
-        <v>3581</v>
+        <v>4478</v>
       </c>
       <c r="R7">
-        <f t="shared" ca="1" si="3"/>
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="S7" t="s">
         <v>38</v>
@@ -1987,7 +1958,6 @@
         <v>1</v>
       </c>
       <c r="AC7">
-        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="AD7">
@@ -2002,12 +1972,10 @@
         <v>216</v>
       </c>
       <c r="C8">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
         <v>45</v>
@@ -2043,12 +2011,10 @@
         <v>330</v>
       </c>
       <c r="Q8">
-        <f t="shared" ca="1" si="2"/>
-        <v>1903</v>
+        <v>5773</v>
       </c>
       <c r="R8">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="S8" t="s">
         <v>38</v>
@@ -2066,8 +2032,7 @@
         <v>1</v>
       </c>
       <c r="AC8">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD8">
         <v>1</v>
@@ -2081,12 +2046,10 @@
         <v>217</v>
       </c>
       <c r="C9">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
         <v>46</v>
@@ -2122,12 +2085,10 @@
         <v>331</v>
       </c>
       <c r="Q9">
-        <f t="shared" ca="1" si="2"/>
-        <v>7497</v>
+        <v>3840</v>
       </c>
       <c r="R9">
-        <f t="shared" ca="1" si="3"/>
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="S9" t="s">
         <v>38</v>
@@ -2145,8 +2106,7 @@
         <v>1</v>
       </c>
       <c r="AC9">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD9">
         <v>1</v>
@@ -2160,12 +2120,10 @@
         <v>218</v>
       </c>
       <c r="C10">
-        <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
       <c r="D10">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
         <v>47</v>
@@ -2201,12 +2159,10 @@
         <v>332</v>
       </c>
       <c r="Q10">
-        <f t="shared" ca="1" si="2"/>
-        <v>6207</v>
+        <v>7265</v>
       </c>
       <c r="R10">
-        <f t="shared" ca="1" si="3"/>
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="S10" t="s">
         <v>38</v>
@@ -2224,7 +2180,6 @@
         <v>1</v>
       </c>
       <c r="AC10">
-        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="AD10">
@@ -2239,12 +2194,10 @@
         <v>219</v>
       </c>
       <c r="C11">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
         <v>48</v>
@@ -2280,12 +2233,10 @@
         <v>333</v>
       </c>
       <c r="Q11">
-        <f t="shared" ca="1" si="2"/>
-        <v>8256</v>
+        <v>6502</v>
       </c>
       <c r="R11">
-        <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="S11" t="s">
         <v>38</v>
@@ -2303,7 +2254,6 @@
         <v>1</v>
       </c>
       <c r="AC11">
-        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="AD11">
@@ -2318,12 +2268,10 @@
         <v>220</v>
       </c>
       <c r="C12">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" t="s">
         <v>49</v>
@@ -2359,12 +2307,10 @@
         <v>334</v>
       </c>
       <c r="Q12">
-        <f t="shared" ca="1" si="2"/>
-        <v>6084</v>
+        <v>1401</v>
       </c>
       <c r="R12">
-        <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S12" t="s">
         <v>38</v>
@@ -2382,8 +2328,7 @@
         <v>1</v>
       </c>
       <c r="AC12">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD12">
         <v>1</v>
@@ -2397,11 +2342,9 @@
         <v>221</v>
       </c>
       <c r="C13">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
       <c r="E13" t="s">
@@ -2438,12 +2381,10 @@
         <v>335</v>
       </c>
       <c r="Q13">
-        <f t="shared" ca="1" si="2"/>
-        <v>4620</v>
+        <v>8971</v>
       </c>
       <c r="R13">
-        <f t="shared" ca="1" si="3"/>
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="S13" t="s">
         <v>38</v>
@@ -2461,7 +2402,6 @@
         <v>1</v>
       </c>
       <c r="AC13">
-        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="AD13">
@@ -2476,12 +2416,10 @@
         <v>222</v>
       </c>
       <c r="C14">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
         <v>51</v>
@@ -2517,12 +2455,10 @@
         <v>336</v>
       </c>
       <c r="Q14">
-        <f t="shared" ca="1" si="2"/>
-        <v>7272</v>
+        <v>7639</v>
       </c>
       <c r="R14">
-        <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="S14" t="s">
         <v>38</v>
@@ -2540,7 +2476,6 @@
         <v>1</v>
       </c>
       <c r="AC14">
-        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="AD14">
@@ -2555,11 +2490,9 @@
         <v>223</v>
       </c>
       <c r="C15">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
       <c r="E15" t="s">
@@ -2596,12 +2529,10 @@
         <v>337</v>
       </c>
       <c r="Q15">
-        <f t="shared" ca="1" si="2"/>
-        <v>8338</v>
+        <v>8889</v>
       </c>
       <c r="R15">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="S15" t="s">
         <v>38</v>
@@ -2619,7 +2550,6 @@
         <v>1</v>
       </c>
       <c r="AC15">
-        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="AD15">
@@ -2634,12 +2564,10 @@
         <v>224</v>
       </c>
       <c r="C16">
-        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D16">
         <v>5</v>
-      </c>
-      <c r="D16">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
       </c>
       <c r="E16" t="s">
         <v>53</v>
@@ -2675,12 +2603,10 @@
         <v>338</v>
       </c>
       <c r="Q16">
-        <f t="shared" ca="1" si="2"/>
-        <v>6958</v>
+        <v>1805</v>
       </c>
       <c r="R16">
-        <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="S16" t="s">
         <v>38</v>
@@ -2698,7 +2624,6 @@
         <v>1</v>
       </c>
       <c r="AC16">
-        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="AD16">
@@ -2713,11 +2638,9 @@
         <v>225</v>
       </c>
       <c r="C17">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
       <c r="E17" t="s">
@@ -2754,12 +2677,10 @@
         <v>339</v>
       </c>
       <c r="Q17">
-        <f t="shared" ca="1" si="2"/>
-        <v>3949</v>
+        <v>4770</v>
       </c>
       <c r="R17">
-        <f t="shared" ca="1" si="3"/>
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="S17" t="s">
         <v>38</v>
@@ -2777,7 +2698,6 @@
         <v>1</v>
       </c>
       <c r="AC17">
-        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="AD17">
@@ -2792,12 +2712,10 @@
         <v>226</v>
       </c>
       <c r="C18">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
         <v>55</v>
@@ -2833,12 +2751,10 @@
         <v>340</v>
       </c>
       <c r="Q18">
-        <f t="shared" ca="1" si="2"/>
-        <v>9652</v>
+        <v>9056</v>
       </c>
       <c r="R18">
-        <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="S18" t="s">
         <v>38</v>
@@ -2856,7 +2772,6 @@
         <v>1</v>
       </c>
       <c r="AC18">
-        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="AD18">
@@ -2871,11 +2786,9 @@
         <v>227</v>
       </c>
       <c r="C19">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
       <c r="E19" t="s">
@@ -2912,12 +2825,10 @@
         <v>341</v>
       </c>
       <c r="Q19">
-        <f t="shared" ca="1" si="2"/>
-        <v>881</v>
+        <v>8312</v>
       </c>
       <c r="R19">
-        <f t="shared" ca="1" si="3"/>
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="S19" t="s">
         <v>38</v>
@@ -2935,8 +2846,7 @@
         <v>1</v>
       </c>
       <c r="AC19">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD19">
         <v>1</v>
@@ -2950,12 +2860,10 @@
         <v>228</v>
       </c>
       <c r="C20">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D20">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20" t="s">
         <v>57</v>
@@ -2991,12 +2899,10 @@
         <v>342</v>
       </c>
       <c r="Q20">
-        <f t="shared" ca="1" si="2"/>
-        <v>9806</v>
+        <v>3234</v>
       </c>
       <c r="R20">
-        <f t="shared" ca="1" si="3"/>
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="S20" t="s">
         <v>38</v>
@@ -3014,7 +2920,6 @@
         <v>1</v>
       </c>
       <c r="AC20">
-        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="AD20">
@@ -3029,11 +2934,9 @@
         <v>229</v>
       </c>
       <c r="C21">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D21">
-        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
       <c r="E21" t="s">
@@ -3070,12 +2973,10 @@
         <v>343</v>
       </c>
       <c r="Q21">
-        <f t="shared" ca="1" si="2"/>
-        <v>870</v>
+        <v>5335</v>
       </c>
       <c r="R21">
-        <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="S21" t="s">
         <v>38</v>
@@ -3093,7 +2994,6 @@
         <v>1</v>
       </c>
       <c r="AC21">
-        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="AD21">
@@ -3108,12 +3008,10 @@
         <v>230</v>
       </c>
       <c r="C22">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E22" t="s">
         <v>59</v>
@@ -3149,12 +3047,10 @@
         <v>344</v>
       </c>
       <c r="Q22">
-        <f t="shared" ca="1" si="2"/>
-        <v>3372</v>
+        <v>9505</v>
       </c>
       <c r="R22">
-        <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="S22" t="s">
         <v>38</v>
@@ -3172,8 +3068,7 @@
         <v>1</v>
       </c>
       <c r="AC22">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD22">
         <v>1</v>
@@ -3187,12 +3082,10 @@
         <v>231</v>
       </c>
       <c r="C23">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D23">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" t="s">
         <v>60</v>
@@ -3228,12 +3121,10 @@
         <v>345</v>
       </c>
       <c r="Q23">
-        <f t="shared" ca="1" si="2"/>
-        <v>6380</v>
+        <v>8804</v>
       </c>
       <c r="R23">
-        <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="S23" t="s">
         <v>38</v>
@@ -3251,7 +3142,6 @@
         <v>1</v>
       </c>
       <c r="AC23">
-        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="AD23">
@@ -3266,11 +3156,9 @@
         <v>232</v>
       </c>
       <c r="C24">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D24">
-        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
       <c r="E24" t="s">
@@ -3307,12 +3195,10 @@
         <v>346</v>
       </c>
       <c r="Q24">
-        <f t="shared" ca="1" si="2"/>
-        <v>6432</v>
+        <v>5582</v>
       </c>
       <c r="R24">
-        <f t="shared" ca="1" si="3"/>
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="S24" t="s">
         <v>38</v>
@@ -3330,8 +3216,7 @@
         <v>1</v>
       </c>
       <c r="AC24">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD24">
         <v>1</v>
@@ -3345,12 +3230,10 @@
         <v>233</v>
       </c>
       <c r="C25">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D25">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E25" t="s">
         <v>62</v>
@@ -3386,12 +3269,10 @@
         <v>347</v>
       </c>
       <c r="Q25">
-        <f t="shared" ca="1" si="2"/>
-        <v>1477</v>
+        <v>6722</v>
       </c>
       <c r="R25">
-        <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="S25" t="s">
         <v>38</v>
@@ -3409,8 +3290,7 @@
         <v>1</v>
       </c>
       <c r="AC25">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD25">
         <v>1</v>
@@ -3424,12 +3304,10 @@
         <v>234</v>
       </c>
       <c r="C26">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D26">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E26" t="s">
         <v>63</v>
@@ -3465,12 +3343,10 @@
         <v>348</v>
       </c>
       <c r="Q26">
-        <f t="shared" ca="1" si="2"/>
-        <v>2139</v>
+        <v>1520</v>
       </c>
       <c r="R26">
-        <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="S26" t="s">
         <v>38</v>
@@ -3488,7 +3364,6 @@
         <v>1</v>
       </c>
       <c r="AC26">
-        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="AD26">
@@ -3503,12 +3378,10 @@
         <v>235</v>
       </c>
       <c r="C27">
-        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D27">
         <v>5</v>
-      </c>
-      <c r="D27">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
       </c>
       <c r="E27" t="s">
         <v>64</v>
@@ -3544,12 +3417,10 @@
         <v>349</v>
       </c>
       <c r="Q27">
-        <f t="shared" ca="1" si="2"/>
-        <v>8341</v>
+        <v>6821</v>
       </c>
       <c r="R27">
-        <f t="shared" ca="1" si="3"/>
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="S27" t="s">
         <v>38</v>
@@ -3567,7 +3438,6 @@
         <v>1</v>
       </c>
       <c r="AC27">
-        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="AD27">
@@ -3582,11 +3452,9 @@
         <v>236</v>
       </c>
       <c r="C28">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="E28" t="s">
@@ -3623,12 +3491,10 @@
         <v>318</v>
       </c>
       <c r="Q28">
-        <f t="shared" ca="1" si="2"/>
-        <v>5568</v>
+        <v>1544</v>
       </c>
       <c r="R28">
-        <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="S28" t="s">
         <v>38</v>
@@ -3646,7 +3512,6 @@
         <v>1</v>
       </c>
       <c r="AC28">
-        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="AD28">
@@ -3661,12 +3526,10 @@
         <v>237</v>
       </c>
       <c r="C29">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E29" t="s">
         <v>66</v>
@@ -3702,12 +3565,10 @@
         <v>319</v>
       </c>
       <c r="Q29">
-        <f t="shared" ca="1" si="2"/>
-        <v>3601</v>
+        <v>8355</v>
       </c>
       <c r="R29">
-        <f t="shared" ca="1" si="3"/>
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="S29" t="s">
         <v>38</v>
@@ -3725,8 +3586,7 @@
         <v>1</v>
       </c>
       <c r="AC29">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD29">
         <v>1</v>
@@ -3740,12 +3600,10 @@
         <v>238</v>
       </c>
       <c r="C30">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" t="s">
         <v>67</v>
@@ -3781,12 +3639,10 @@
         <v>320</v>
       </c>
       <c r="Q30">
-        <f t="shared" ca="1" si="2"/>
-        <v>2314</v>
+        <v>666</v>
       </c>
       <c r="R30">
-        <f t="shared" ca="1" si="3"/>
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="S30" t="s">
         <v>38</v>
@@ -3804,7 +3660,6 @@
         <v>1</v>
       </c>
       <c r="AC30">
-        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="AD30">
@@ -3819,12 +3674,10 @@
         <v>239</v>
       </c>
       <c r="C31">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E31" t="s">
         <v>68</v>
@@ -3838,6 +3691,9 @@
       <c r="H31" t="s">
         <v>34</v>
       </c>
+      <c r="J31">
+        <v>30</v>
+      </c>
       <c r="K31">
         <v>30</v>
       </c>
@@ -3857,12 +3713,10 @@
         <v>321</v>
       </c>
       <c r="Q31">
-        <f t="shared" ca="1" si="2"/>
-        <v>235</v>
+        <v>2393</v>
       </c>
       <c r="R31">
-        <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="S31" t="s">
         <v>38</v>
@@ -3880,8 +3734,7 @@
         <v>1</v>
       </c>
       <c r="AC31">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD31">
         <v>1</v>
@@ -3895,12 +3748,10 @@
         <v>240</v>
       </c>
       <c r="C32">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D32">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E32" t="s">
         <v>69</v>
@@ -3914,6 +3765,9 @@
       <c r="H32" t="s">
         <v>36</v>
       </c>
+      <c r="J32">
+        <v>31</v>
+      </c>
       <c r="K32">
         <v>31</v>
       </c>
@@ -3933,12 +3787,10 @@
         <v>322</v>
       </c>
       <c r="Q32">
-        <f t="shared" ca="1" si="2"/>
-        <v>849</v>
+        <v>1571</v>
       </c>
       <c r="R32">
-        <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="S32" t="s">
         <v>38</v>
@@ -3956,8 +3808,7 @@
         <v>1</v>
       </c>
       <c r="AC32">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD32">
         <v>1</v>
@@ -3971,12 +3822,10 @@
         <v>241</v>
       </c>
       <c r="C33">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D33">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" t="s">
         <v>70</v>
@@ -3990,6 +3839,9 @@
       <c r="H33" t="s">
         <v>37</v>
       </c>
+      <c r="J33">
+        <v>32</v>
+      </c>
       <c r="K33">
         <v>32</v>
       </c>
@@ -4009,12 +3861,10 @@
         <v>323</v>
       </c>
       <c r="Q33">
-        <f t="shared" ca="1" si="2"/>
-        <v>8533</v>
+        <v>4615</v>
       </c>
       <c r="R33">
-        <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="S33" t="s">
         <v>38</v>
@@ -4032,8 +3882,7 @@
         <v>1</v>
       </c>
       <c r="AC33">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD33">
         <v>1</v>
@@ -4047,11 +3896,9 @@
         <v>242</v>
       </c>
       <c r="C34">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D34">
-        <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
       <c r="E34" t="s">
@@ -4066,6 +3913,9 @@
       <c r="H34" t="s">
         <v>34</v>
       </c>
+      <c r="J34">
+        <v>33</v>
+      </c>
       <c r="K34">
         <v>33</v>
       </c>
@@ -4085,12 +3935,10 @@
         <v>324</v>
       </c>
       <c r="Q34">
-        <f t="shared" ca="1" si="2"/>
-        <v>1739</v>
+        <v>6033</v>
       </c>
       <c r="R34">
-        <f t="shared" ca="1" si="3"/>
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="S34" t="s">
         <v>38</v>
@@ -4108,8 +3956,7 @@
         <v>1</v>
       </c>
       <c r="AC34">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD34">
         <v>1</v>
@@ -4123,11 +3970,9 @@
         <v>243</v>
       </c>
       <c r="C35">
-        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
       <c r="D35">
-        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="E35" t="s">
@@ -4142,6 +3987,9 @@
       <c r="H35" t="s">
         <v>31</v>
       </c>
+      <c r="J35">
+        <v>34</v>
+      </c>
       <c r="K35">
         <v>34</v>
       </c>
@@ -4161,12 +4009,10 @@
         <v>325</v>
       </c>
       <c r="Q35">
-        <f t="shared" ca="1" si="2"/>
-        <v>6452</v>
+        <v>3322</v>
       </c>
       <c r="R35">
-        <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="S35" t="s">
         <v>38</v>
@@ -4184,7 +4030,6 @@
         <v>1</v>
       </c>
       <c r="AC35">
-        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="AD35">
@@ -4199,12 +4044,10 @@
         <v>244</v>
       </c>
       <c r="C36">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E36" t="s">
         <v>73</v>
@@ -4218,6 +4061,9 @@
       <c r="H36" t="s">
         <v>32</v>
       </c>
+      <c r="J36">
+        <v>35</v>
+      </c>
       <c r="K36">
         <v>35</v>
       </c>
@@ -4237,12 +4083,10 @@
         <v>326</v>
       </c>
       <c r="Q36">
-        <f t="shared" ca="1" si="2"/>
-        <v>5427</v>
+        <v>2250</v>
       </c>
       <c r="R36">
-        <f t="shared" ca="1" si="3"/>
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="S36" t="s">
         <v>38</v>
@@ -4260,8 +4104,7 @@
         <v>1</v>
       </c>
       <c r="AC36">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD36">
         <v>1</v>
@@ -4275,12 +4118,10 @@
         <v>245</v>
       </c>
       <c r="C37">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" t="s">
         <v>74</v>
@@ -4294,6 +4135,9 @@
       <c r="H37" t="s">
         <v>33</v>
       </c>
+      <c r="J37">
+        <v>36</v>
+      </c>
       <c r="K37">
         <v>36</v>
       </c>
@@ -4313,12 +4157,10 @@
         <v>327</v>
       </c>
       <c r="Q37">
-        <f t="shared" ca="1" si="2"/>
-        <v>1444</v>
+        <v>1348</v>
       </c>
       <c r="R37">
-        <f t="shared" ca="1" si="3"/>
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="S37" t="s">
         <v>38</v>
@@ -4336,7 +4178,6 @@
         <v>1</v>
       </c>
       <c r="AC37">
-        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="AD37">
@@ -4351,11 +4192,9 @@
         <v>246</v>
       </c>
       <c r="C38">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38">
-        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
       <c r="E38" t="s">
@@ -4370,6 +4209,9 @@
       <c r="H38" t="s">
         <v>34</v>
       </c>
+      <c r="J38">
+        <v>37</v>
+      </c>
       <c r="K38">
         <v>37</v>
       </c>
@@ -4389,12 +4231,10 @@
         <v>328</v>
       </c>
       <c r="Q38">
-        <f t="shared" ca="1" si="2"/>
-        <v>3339</v>
+        <v>6378</v>
       </c>
       <c r="R38">
-        <f t="shared" ca="1" si="3"/>
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="S38" t="s">
         <v>38</v>
@@ -4412,7 +4252,6 @@
         <v>1</v>
       </c>
       <c r="AC38">
-        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="AD38">
@@ -4427,12 +4266,10 @@
         <v>247</v>
       </c>
       <c r="C39">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D39">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E39" t="s">
         <v>76</v>
@@ -4446,6 +4283,9 @@
       <c r="H39" t="s">
         <v>36</v>
       </c>
+      <c r="J39">
+        <v>38</v>
+      </c>
       <c r="K39">
         <v>38</v>
       </c>
@@ -4465,12 +4305,10 @@
         <v>329</v>
       </c>
       <c r="Q39">
-        <f t="shared" ca="1" si="2"/>
-        <v>6250</v>
+        <v>146</v>
       </c>
       <c r="R39">
-        <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="S39" t="s">
         <v>38</v>
@@ -4488,7 +4326,6 @@
         <v>1</v>
       </c>
       <c r="AC39">
-        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="AD39">
@@ -4503,11 +4340,9 @@
         <v>248</v>
       </c>
       <c r="C40">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D40">
-        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
       <c r="E40" t="s">
@@ -4522,6 +4357,9 @@
       <c r="H40" t="s">
         <v>37</v>
       </c>
+      <c r="J40">
+        <v>39</v>
+      </c>
       <c r="K40">
         <v>39</v>
       </c>
@@ -4541,12 +4379,10 @@
         <v>330</v>
       </c>
       <c r="Q40">
-        <f t="shared" ca="1" si="2"/>
-        <v>6738</v>
+        <v>8087</v>
       </c>
       <c r="R40">
-        <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="S40" t="s">
         <v>38</v>
@@ -4564,7 +4400,6 @@
         <v>1</v>
       </c>
       <c r="AC40">
-        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="AD40">
@@ -4579,12 +4414,10 @@
         <v>249</v>
       </c>
       <c r="C41">
-        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="D41">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E41" t="s">
         <v>77</v>
@@ -4598,6 +4431,9 @@
       <c r="H41" t="s">
         <v>34</v>
       </c>
+      <c r="J41">
+        <v>40</v>
+      </c>
       <c r="K41">
         <v>40</v>
       </c>
@@ -4617,12 +4453,10 @@
         <v>331</v>
       </c>
       <c r="Q41">
-        <f t="shared" ca="1" si="2"/>
-        <v>3983</v>
+        <v>9558</v>
       </c>
       <c r="R41">
-        <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="S41" t="s">
         <v>38</v>
@@ -4640,7 +4474,6 @@
         <v>1</v>
       </c>
       <c r="AC41">
-        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="AD41">
@@ -4655,12 +4488,10 @@
         <v>250</v>
       </c>
       <c r="C42">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D42">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E42" t="s">
         <v>78</v>
@@ -4674,6 +4505,9 @@
       <c r="H42" t="s">
         <v>31</v>
       </c>
+      <c r="J42">
+        <v>41</v>
+      </c>
       <c r="K42">
         <v>41</v>
       </c>
@@ -4693,12 +4527,10 @@
         <v>332</v>
       </c>
       <c r="Q42">
-        <f t="shared" ca="1" si="2"/>
-        <v>7630</v>
+        <v>1343</v>
       </c>
       <c r="R42">
-        <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="S42" t="s">
         <v>38</v>
@@ -4716,7 +4548,6 @@
         <v>1</v>
       </c>
       <c r="AC42">
-        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="AD42">
@@ -4731,11 +4562,9 @@
         <v>251</v>
       </c>
       <c r="C43">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43">
-        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
       <c r="E43" t="s">
@@ -4750,6 +4579,9 @@
       <c r="H43" t="s">
         <v>32</v>
       </c>
+      <c r="J43">
+        <v>42</v>
+      </c>
       <c r="K43">
         <v>42</v>
       </c>
@@ -4769,12 +4601,10 @@
         <v>333</v>
       </c>
       <c r="Q43">
-        <f t="shared" ca="1" si="2"/>
-        <v>449</v>
+        <v>6174</v>
       </c>
       <c r="R43">
-        <f t="shared" ca="1" si="3"/>
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="S43" t="s">
         <v>38</v>
@@ -4792,8 +4622,7 @@
         <v>1</v>
       </c>
       <c r="AC43">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD43">
         <v>1</v>
@@ -4807,11 +4636,9 @@
         <v>252</v>
       </c>
       <c r="C44">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D44">
-        <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
       <c r="E44" t="s">
@@ -4826,6 +4653,9 @@
       <c r="H44" t="s">
         <v>33</v>
       </c>
+      <c r="J44">
+        <v>43</v>
+      </c>
       <c r="K44">
         <v>43</v>
       </c>
@@ -4845,12 +4675,10 @@
         <v>334</v>
       </c>
       <c r="Q44">
-        <f t="shared" ca="1" si="2"/>
-        <v>9137</v>
+        <v>7850</v>
       </c>
       <c r="R44">
-        <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="S44" t="s">
         <v>38</v>
@@ -4868,7 +4696,6 @@
         <v>1</v>
       </c>
       <c r="AC44">
-        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="AD44">
@@ -4883,11 +4710,9 @@
         <v>253</v>
       </c>
       <c r="C45">
-        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
       <c r="D45">
-        <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
       <c r="E45" t="s">
@@ -4902,6 +4727,9 @@
       <c r="H45" t="s">
         <v>34</v>
       </c>
+      <c r="J45">
+        <v>44</v>
+      </c>
       <c r="K45">
         <v>44</v>
       </c>
@@ -4921,12 +4749,10 @@
         <v>335</v>
       </c>
       <c r="Q45">
-        <f t="shared" ca="1" si="2"/>
-        <v>2110</v>
+        <v>9940</v>
       </c>
       <c r="R45">
-        <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="S45" t="s">
         <v>38</v>
@@ -4944,7 +4770,6 @@
         <v>1</v>
       </c>
       <c r="AC45">
-        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="AD45">
@@ -4959,12 +4784,10 @@
         <v>254</v>
       </c>
       <c r="C46">
-        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D46">
         <v>4</v>
-      </c>
-      <c r="D46">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
       </c>
       <c r="E46" t="s">
         <v>82</v>
@@ -4978,6 +4801,9 @@
       <c r="H46" t="s">
         <v>36</v>
       </c>
+      <c r="J46">
+        <v>45</v>
+      </c>
       <c r="K46">
         <v>45</v>
       </c>
@@ -4997,12 +4823,10 @@
         <v>336</v>
       </c>
       <c r="Q46">
-        <f t="shared" ca="1" si="2"/>
-        <v>5299</v>
+        <v>6399</v>
       </c>
       <c r="R46">
-        <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="S46" t="s">
         <v>38</v>
@@ -5020,7 +4844,6 @@
         <v>1</v>
       </c>
       <c r="AC46">
-        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="AD46">
@@ -5035,12 +4858,10 @@
         <v>255</v>
       </c>
       <c r="C47">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D47">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E47" t="s">
         <v>83</v>
@@ -5054,6 +4875,9 @@
       <c r="H47" t="s">
         <v>37</v>
       </c>
+      <c r="J47">
+        <v>46</v>
+      </c>
       <c r="K47">
         <v>46</v>
       </c>
@@ -5073,12 +4897,10 @@
         <v>337</v>
       </c>
       <c r="Q47">
-        <f t="shared" ca="1" si="2"/>
-        <v>7512</v>
+        <v>5143</v>
       </c>
       <c r="R47">
-        <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="S47" t="s">
         <v>38</v>
@@ -5096,8 +4918,7 @@
         <v>1</v>
       </c>
       <c r="AC47">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD47">
         <v>1</v>
@@ -5111,12 +4932,10 @@
         <v>256</v>
       </c>
       <c r="C48">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D48">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E48" t="s">
         <v>84</v>
@@ -5130,6 +4949,9 @@
       <c r="H48" t="s">
         <v>34</v>
       </c>
+      <c r="J48">
+        <v>47</v>
+      </c>
       <c r="K48">
         <v>47</v>
       </c>
@@ -5149,12 +4971,10 @@
         <v>338</v>
       </c>
       <c r="Q48">
-        <f t="shared" ca="1" si="2"/>
-        <v>1288</v>
+        <v>2240</v>
       </c>
       <c r="R48">
-        <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>148</v>
       </c>
       <c r="S48" t="s">
         <v>38</v>
@@ -5172,7 +4992,6 @@
         <v>1</v>
       </c>
       <c r="AC48">
-        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="AD48">
@@ -5187,12 +5006,10 @@
         <v>257</v>
       </c>
       <c r="C49">
-        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="D49">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E49" t="s">
         <v>85</v>
@@ -5206,6 +5023,9 @@
       <c r="H49" t="s">
         <v>31</v>
       </c>
+      <c r="J49">
+        <v>48</v>
+      </c>
       <c r="K49">
         <v>48</v>
       </c>
@@ -5225,12 +5045,10 @@
         <v>339</v>
       </c>
       <c r="Q49">
-        <f t="shared" ca="1" si="2"/>
-        <v>5859</v>
+        <v>7674</v>
       </c>
       <c r="R49">
-        <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S49" t="s">
         <v>38</v>
@@ -5248,7 +5066,6 @@
         <v>1</v>
       </c>
       <c r="AC49">
-        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="AD49">
@@ -5263,12 +5080,10 @@
         <v>258</v>
       </c>
       <c r="C50">
-        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D50">
         <v>2</v>
-      </c>
-      <c r="D50">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
       </c>
       <c r="E50" t="s">
         <v>86</v>
@@ -5282,6 +5097,9 @@
       <c r="H50" t="s">
         <v>36</v>
       </c>
+      <c r="J50">
+        <v>49</v>
+      </c>
       <c r="K50">
         <v>49</v>
       </c>
@@ -5301,12 +5119,10 @@
         <v>340</v>
       </c>
       <c r="Q50">
-        <f t="shared" ca="1" si="2"/>
-        <v>3083</v>
+        <v>4405</v>
       </c>
       <c r="R50">
-        <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="S50" t="s">
         <v>38</v>
@@ -5324,7 +5140,6 @@
         <v>1</v>
       </c>
       <c r="AC50">
-        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="AD50">
@@ -5339,12 +5154,10 @@
         <v>259</v>
       </c>
       <c r="C51">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D51">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E51" t="s">
         <v>87</v>
@@ -5358,6 +5171,9 @@
       <c r="H51" t="s">
         <v>37</v>
       </c>
+      <c r="J51">
+        <v>50</v>
+      </c>
       <c r="K51">
         <v>50</v>
       </c>
@@ -5377,12 +5193,10 @@
         <v>341</v>
       </c>
       <c r="Q51">
-        <f t="shared" ca="1" si="2"/>
-        <v>8783</v>
+        <v>865</v>
       </c>
       <c r="R51">
-        <f t="shared" ca="1" si="3"/>
-        <v>138</v>
+        <v>1</v>
       </c>
       <c r="S51" t="s">
         <v>38</v>
@@ -5400,7 +5214,6 @@
         <v>1</v>
       </c>
       <c r="AC51">
-        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="AD51">
@@ -5415,12 +5228,10 @@
         <v>260</v>
       </c>
       <c r="C52">
-        <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
       <c r="D52">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E52" t="s">
         <v>88</v>
@@ -5434,6 +5245,9 @@
       <c r="H52" t="s">
         <v>34</v>
       </c>
+      <c r="J52">
+        <v>51</v>
+      </c>
       <c r="K52">
         <v>51</v>
       </c>
@@ -5453,12 +5267,10 @@
         <v>342</v>
       </c>
       <c r="Q52">
-        <f t="shared" ca="1" si="2"/>
-        <v>4090</v>
+        <v>4925</v>
       </c>
       <c r="R52">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="S52" t="s">
         <v>38</v>
@@ -5476,7 +5288,6 @@
         <v>1</v>
       </c>
       <c r="AC52">
-        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="AD52">
@@ -5491,12 +5302,10 @@
         <v>261</v>
       </c>
       <c r="C53">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D53">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E53" t="s">
         <v>89</v>
@@ -5510,6 +5319,9 @@
       <c r="H53" t="s">
         <v>31</v>
       </c>
+      <c r="J53">
+        <v>52</v>
+      </c>
       <c r="K53">
         <v>52</v>
       </c>
@@ -5529,12 +5341,10 @@
         <v>343</v>
       </c>
       <c r="Q53">
-        <f t="shared" ca="1" si="2"/>
-        <v>462</v>
+        <v>2482</v>
       </c>
       <c r="R53">
-        <f t="shared" ca="1" si="3"/>
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="S53" t="s">
         <v>38</v>
@@ -5552,7 +5362,6 @@
         <v>1</v>
       </c>
       <c r="AC53">
-        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="AD53">
@@ -5567,12 +5376,10 @@
         <v>262</v>
       </c>
       <c r="C54">
-        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D54">
         <v>2</v>
-      </c>
-      <c r="D54">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
       </c>
       <c r="E54" t="s">
         <v>90</v>
@@ -5586,6 +5393,9 @@
       <c r="H54" t="s">
         <v>32</v>
       </c>
+      <c r="J54">
+        <v>53</v>
+      </c>
       <c r="K54">
         <v>53</v>
       </c>
@@ -5605,12 +5415,10 @@
         <v>344</v>
       </c>
       <c r="Q54">
-        <f t="shared" ca="1" si="2"/>
-        <v>4040</v>
+        <v>9413</v>
       </c>
       <c r="R54">
-        <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="S54" t="s">
         <v>38</v>
@@ -5628,8 +5436,7 @@
         <v>1</v>
       </c>
       <c r="AC54">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD54">
         <v>1</v>
@@ -5643,12 +5450,10 @@
         <v>263</v>
       </c>
       <c r="C55">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D55">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E55" t="s">
         <v>91</v>
@@ -5662,6 +5467,9 @@
       <c r="H55" t="s">
         <v>33</v>
       </c>
+      <c r="J55">
+        <v>54</v>
+      </c>
       <c r="K55">
         <v>54</v>
       </c>
@@ -5681,12 +5489,10 @@
         <v>345</v>
       </c>
       <c r="Q55">
-        <f t="shared" ca="1" si="2"/>
-        <v>6051</v>
+        <v>9559</v>
       </c>
       <c r="R55">
-        <f t="shared" ca="1" si="3"/>
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="S55" t="s">
         <v>38</v>
@@ -5704,8 +5510,7 @@
         <v>1</v>
       </c>
       <c r="AC55">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD55">
         <v>1</v>
@@ -5719,12 +5524,10 @@
         <v>264</v>
       </c>
       <c r="C56">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D56">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E56" t="s">
         <v>92</v>
@@ -5738,6 +5541,9 @@
       <c r="H56" t="s">
         <v>34</v>
       </c>
+      <c r="J56">
+        <v>55</v>
+      </c>
       <c r="K56">
         <v>55</v>
       </c>
@@ -5757,12 +5563,10 @@
         <v>346</v>
       </c>
       <c r="Q56">
-        <f t="shared" ca="1" si="2"/>
-        <v>5897</v>
+        <v>9735</v>
       </c>
       <c r="R56">
-        <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="S56" t="s">
         <v>38</v>
@@ -5780,8 +5584,7 @@
         <v>1</v>
       </c>
       <c r="AC56">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD56">
         <v>1</v>
@@ -5795,12 +5598,10 @@
         <v>265</v>
       </c>
       <c r="C57">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D57">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E57" t="s">
         <v>93</v>
@@ -5814,6 +5615,9 @@
       <c r="H57" t="s">
         <v>36</v>
       </c>
+      <c r="J57">
+        <v>56</v>
+      </c>
       <c r="K57">
         <v>56</v>
       </c>
@@ -5833,12 +5637,10 @@
         <v>347</v>
       </c>
       <c r="Q57">
-        <f t="shared" ca="1" si="2"/>
-        <v>4968</v>
+        <v>3755</v>
       </c>
       <c r="R57">
-        <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="S57" t="s">
         <v>38</v>
@@ -5856,8 +5658,7 @@
         <v>1</v>
       </c>
       <c r="AC57">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD57">
         <v>1</v>
@@ -5871,12 +5672,10 @@
         <v>266</v>
       </c>
       <c r="C58">
-        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D58">
         <v>4</v>
-      </c>
-      <c r="D58">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
       </c>
       <c r="E58" t="s">
         <v>94</v>
@@ -5890,6 +5689,9 @@
       <c r="H58" t="s">
         <v>37</v>
       </c>
+      <c r="J58">
+        <v>57</v>
+      </c>
       <c r="K58">
         <v>57</v>
       </c>
@@ -5909,12 +5711,10 @@
         <v>348</v>
       </c>
       <c r="Q58">
-        <f t="shared" ca="1" si="2"/>
-        <v>1474</v>
+        <v>155</v>
       </c>
       <c r="R58">
-        <f t="shared" ca="1" si="3"/>
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="S58" t="s">
         <v>38</v>
@@ -5932,8 +5732,7 @@
         <v>1</v>
       </c>
       <c r="AC58">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD58">
         <v>1</v>
@@ -5947,12 +5746,10 @@
         <v>267</v>
       </c>
       <c r="C59">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D59">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E59" t="s">
         <v>95</v>
@@ -5966,6 +5763,9 @@
       <c r="H59" t="s">
         <v>34</v>
       </c>
+      <c r="J59">
+        <v>58</v>
+      </c>
       <c r="K59">
         <v>58</v>
       </c>
@@ -5985,12 +5785,10 @@
         <v>349</v>
       </c>
       <c r="Q59">
-        <f t="shared" ca="1" si="2"/>
-        <v>1723</v>
+        <v>9957</v>
       </c>
       <c r="R59">
-        <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="S59" t="s">
         <v>38</v>
@@ -6008,7 +5806,6 @@
         <v>1</v>
       </c>
       <c r="AC59">
-        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="AD59">
@@ -6023,12 +5820,10 @@
         <v>268</v>
       </c>
       <c r="C60">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D60">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E60" t="s">
         <v>96</v>
@@ -6042,6 +5837,9 @@
       <c r="H60" t="s">
         <v>31</v>
       </c>
+      <c r="J60">
+        <v>59</v>
+      </c>
       <c r="K60">
         <v>59</v>
       </c>
@@ -6061,12 +5859,10 @@
         <v>318</v>
       </c>
       <c r="Q60">
-        <f t="shared" ca="1" si="2"/>
-        <v>874</v>
+        <v>2679</v>
       </c>
       <c r="R60">
-        <f t="shared" ca="1" si="3"/>
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="S60" t="s">
         <v>38</v>
@@ -6084,7 +5880,6 @@
         <v>1</v>
       </c>
       <c r="AC60">
-        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="AD60">
@@ -6099,12 +5894,10 @@
         <v>269</v>
       </c>
       <c r="C61">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E61" t="s">
         <v>97</v>
@@ -6118,6 +5911,9 @@
       <c r="H61" t="s">
         <v>36</v>
       </c>
+      <c r="J61">
+        <v>60</v>
+      </c>
       <c r="K61">
         <v>60</v>
       </c>
@@ -6137,12 +5933,10 @@
         <v>319</v>
       </c>
       <c r="Q61">
-        <f t="shared" ca="1" si="2"/>
-        <v>652</v>
+        <v>8418</v>
       </c>
       <c r="R61">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>139</v>
       </c>
       <c r="S61" t="s">
         <v>38</v>
@@ -6160,7 +5954,6 @@
         <v>1</v>
       </c>
       <c r="AC61">
-        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="AD61">
@@ -6175,12 +5968,10 @@
         <v>270</v>
       </c>
       <c r="C62">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D62">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E62" t="s">
         <v>98</v>
@@ -6194,6 +5985,9 @@
       <c r="H62" t="s">
         <v>34</v>
       </c>
+      <c r="J62">
+        <v>61</v>
+      </c>
       <c r="K62">
         <v>61</v>
       </c>
@@ -6213,12 +6007,10 @@
         <v>320</v>
       </c>
       <c r="Q62">
-        <f t="shared" ca="1" si="2"/>
-        <v>5101</v>
+        <v>1717</v>
       </c>
       <c r="R62">
-        <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="S62" t="s">
         <v>38</v>
@@ -6236,8 +6028,7 @@
         <v>1</v>
       </c>
       <c r="AC62">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD62">
         <v>1</v>
@@ -6251,12 +6042,10 @@
         <v>271</v>
       </c>
       <c r="C63">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D63">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E63" t="s">
         <v>99</v>
@@ -6270,6 +6059,9 @@
       <c r="H63" t="s">
         <v>36</v>
       </c>
+      <c r="J63">
+        <v>62</v>
+      </c>
       <c r="K63">
         <v>62</v>
       </c>
@@ -6289,12 +6081,10 @@
         <v>321</v>
       </c>
       <c r="Q63">
-        <f t="shared" ca="1" si="2"/>
-        <v>8339</v>
+        <v>4258</v>
       </c>
       <c r="R63">
-        <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="S63" t="s">
         <v>38</v>
@@ -6312,7 +6102,6 @@
         <v>1</v>
       </c>
       <c r="AC63">
-        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="AD63">
@@ -6327,12 +6116,10 @@
         <v>272</v>
       </c>
       <c r="C64">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D64">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64" t="s">
         <v>100</v>
@@ -6346,6 +6133,9 @@
       <c r="H64" t="s">
         <v>37</v>
       </c>
+      <c r="J64">
+        <v>63</v>
+      </c>
       <c r="K64">
         <v>63</v>
       </c>
@@ -6365,12 +6155,10 @@
         <v>322</v>
       </c>
       <c r="Q64">
-        <f t="shared" ca="1" si="2"/>
-        <v>865</v>
+        <v>8540</v>
       </c>
       <c r="R64">
-        <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="S64" t="s">
         <v>38</v>
@@ -6388,7 +6176,6 @@
         <v>1</v>
       </c>
       <c r="AC64">
-        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="AD64">
@@ -6403,12 +6190,10 @@
         <v>273</v>
       </c>
       <c r="C65">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E65" t="s">
         <v>101</v>
@@ -6422,6 +6207,9 @@
       <c r="H65" t="s">
         <v>31</v>
       </c>
+      <c r="J65">
+        <v>64</v>
+      </c>
       <c r="K65">
         <v>64</v>
       </c>
@@ -6441,12 +6229,10 @@
         <v>323</v>
       </c>
       <c r="Q65">
-        <f t="shared" ca="1" si="2"/>
-        <v>9700</v>
+        <v>3606</v>
       </c>
       <c r="R65">
-        <f t="shared" ca="1" si="3"/>
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="S65" t="s">
         <v>38</v>
@@ -6464,8 +6250,7 @@
         <v>1</v>
       </c>
       <c r="AC65">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD65">
         <v>1</v>
@@ -6479,12 +6264,10 @@
         <v>274</v>
       </c>
       <c r="C66">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66" t="s">
         <v>102</v>
@@ -6498,6 +6281,9 @@
       <c r="H66" t="s">
         <v>32</v>
       </c>
+      <c r="J66">
+        <v>65</v>
+      </c>
       <c r="K66">
         <v>65</v>
       </c>
@@ -6517,12 +6303,10 @@
         <v>324</v>
       </c>
       <c r="Q66">
-        <f t="shared" ca="1" si="2"/>
-        <v>4519</v>
+        <v>5994</v>
       </c>
       <c r="R66">
-        <f t="shared" ca="1" si="3"/>
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="S66" t="s">
         <v>38</v>
@@ -6540,7 +6324,6 @@
         <v>1</v>
       </c>
       <c r="AC66">
-        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="AD66">
@@ -6555,12 +6338,10 @@
         <v>275</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C101" ca="1" si="5">RANDBETWEEN(1,10)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D101" ca="1" si="6">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E67" t="s">
         <v>103</v>
@@ -6574,6 +6355,9 @@
       <c r="H67" t="s">
         <v>33</v>
       </c>
+      <c r="J67">
+        <v>66</v>
+      </c>
       <c r="K67">
         <v>66</v>
       </c>
@@ -6593,12 +6377,10 @@
         <v>325</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q101" ca="1" si="7">RANDBETWEEN(100,10000)</f>
-        <v>4881</v>
+        <v>1917</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R101" ca="1" si="8">RANDBETWEEN(1,153)</f>
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="S67" t="s">
         <v>38</v>
@@ -6616,7 +6398,6 @@
         <v>1</v>
       </c>
       <c r="AC67">
-        <f t="shared" ref="AC67:AC101" ca="1" si="9">RANDBETWEEN(1,2)</f>
         <v>1</v>
       </c>
       <c r="AD67">
@@ -6631,12 +6412,10 @@
         <v>276</v>
       </c>
       <c r="C68">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D68">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E68" t="s">
         <v>104</v>
@@ -6650,6 +6429,9 @@
       <c r="H68" t="s">
         <v>34</v>
       </c>
+      <c r="J68">
+        <v>67</v>
+      </c>
       <c r="K68">
         <v>67</v>
       </c>
@@ -6669,11 +6451,9 @@
         <v>326</v>
       </c>
       <c r="Q68">
-        <f t="shared" ca="1" si="7"/>
-        <v>8906</v>
+        <v>2379</v>
       </c>
       <c r="R68">
-        <f t="shared" ca="1" si="8"/>
         <v>25</v>
       </c>
       <c r="S68" t="s">
@@ -6692,8 +6472,7 @@
         <v>1</v>
       </c>
       <c r="AC68">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD68">
         <v>1</v>
@@ -6707,12 +6486,10 @@
         <v>277</v>
       </c>
       <c r="C69">
-        <f t="shared" ca="1" si="5"/>
         <v>5</v>
       </c>
       <c r="D69">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E69" t="s">
         <v>105</v>
@@ -6726,6 +6503,9 @@
       <c r="H69" t="s">
         <v>36</v>
       </c>
+      <c r="J69">
+        <v>68</v>
+      </c>
       <c r="K69">
         <v>68</v>
       </c>
@@ -6745,12 +6525,10 @@
         <v>327</v>
       </c>
       <c r="Q69">
-        <f t="shared" ca="1" si="7"/>
-        <v>2670</v>
+        <v>6618</v>
       </c>
       <c r="R69">
-        <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="S69" t="s">
         <v>38</v>
@@ -6768,8 +6546,7 @@
         <v>1</v>
       </c>
       <c r="AC69">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD69">
         <v>1</v>
@@ -6783,12 +6560,10 @@
         <v>278</v>
       </c>
       <c r="C70">
-        <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D70">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E70" t="s">
         <v>106</v>
@@ -6802,6 +6577,9 @@
       <c r="H70" t="s">
         <v>37</v>
       </c>
+      <c r="J70">
+        <v>69</v>
+      </c>
       <c r="K70">
         <v>69</v>
       </c>
@@ -6821,11 +6599,9 @@
         <v>328</v>
       </c>
       <c r="Q70">
-        <f t="shared" ca="1" si="7"/>
-        <v>9122</v>
+        <v>2665</v>
       </c>
       <c r="R70">
-        <f t="shared" ca="1" si="8"/>
         <v>101</v>
       </c>
       <c r="S70" t="s">
@@ -6844,8 +6620,7 @@
         <v>1</v>
       </c>
       <c r="AC70">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD70">
         <v>1</v>
@@ -6859,12 +6634,10 @@
         <v>279</v>
       </c>
       <c r="C71">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D71">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E71" t="s">
         <v>107</v>
@@ -6878,6 +6651,9 @@
       <c r="H71" t="s">
         <v>34</v>
       </c>
+      <c r="J71">
+        <v>70</v>
+      </c>
       <c r="K71">
         <v>70</v>
       </c>
@@ -6897,12 +6673,10 @@
         <v>329</v>
       </c>
       <c r="Q71">
-        <f t="shared" ca="1" si="7"/>
-        <v>2955</v>
+        <v>6786</v>
       </c>
       <c r="R71">
-        <f t="shared" ca="1" si="8"/>
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="S71" t="s">
         <v>38</v>
@@ -6920,8 +6694,7 @@
         <v>1</v>
       </c>
       <c r="AC71">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD71">
         <v>1</v>
@@ -6935,11 +6708,9 @@
         <v>280</v>
       </c>
       <c r="C72">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D72">
-        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="E72" t="s">
@@ -6954,6 +6725,9 @@
       <c r="H72" t="s">
         <v>31</v>
       </c>
+      <c r="J72">
+        <v>71</v>
+      </c>
       <c r="K72">
         <v>71</v>
       </c>
@@ -6973,12 +6747,10 @@
         <v>330</v>
       </c>
       <c r="Q72">
-        <f t="shared" ca="1" si="7"/>
-        <v>9059</v>
+        <v>5975</v>
       </c>
       <c r="R72">
-        <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="S72" t="s">
         <v>38</v>
@@ -6996,7 +6768,6 @@
         <v>1</v>
       </c>
       <c r="AC72">
-        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
       <c r="AD72">
@@ -7011,12 +6782,10 @@
         <v>281</v>
       </c>
       <c r="C73">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D73">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E73" t="s">
         <v>109</v>
@@ -7030,6 +6799,9 @@
       <c r="H73" t="s">
         <v>32</v>
       </c>
+      <c r="J73">
+        <v>72</v>
+      </c>
       <c r="K73">
         <v>72</v>
       </c>
@@ -7049,12 +6821,10 @@
         <v>331</v>
       </c>
       <c r="Q73">
-        <f t="shared" ca="1" si="7"/>
-        <v>4124</v>
+        <v>5507</v>
       </c>
       <c r="R73">
-        <f t="shared" ca="1" si="8"/>
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="S73" t="s">
         <v>38</v>
@@ -7072,8 +6842,7 @@
         <v>1</v>
       </c>
       <c r="AC73">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD73">
         <v>1</v>
@@ -7087,12 +6856,10 @@
         <v>282</v>
       </c>
       <c r="C74">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D74">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E74" t="s">
         <v>110</v>
@@ -7106,6 +6873,9 @@
       <c r="H74" t="s">
         <v>33</v>
       </c>
+      <c r="J74">
+        <v>73</v>
+      </c>
       <c r="K74">
         <v>73</v>
       </c>
@@ -7125,12 +6895,10 @@
         <v>332</v>
       </c>
       <c r="Q74">
-        <f t="shared" ca="1" si="7"/>
-        <v>4781</v>
+        <v>5041</v>
       </c>
       <c r="R74">
-        <f t="shared" ca="1" si="8"/>
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="S74" t="s">
         <v>38</v>
@@ -7148,7 +6916,6 @@
         <v>1</v>
       </c>
       <c r="AC74">
-        <f t="shared" ca="1" si="9"/>
         <v>2</v>
       </c>
       <c r="AD74">
@@ -7163,12 +6930,10 @@
         <v>283</v>
       </c>
       <c r="C75">
-        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="D75">
         <v>3</v>
-      </c>
-      <c r="D75">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
       </c>
       <c r="E75" t="s">
         <v>111</v>
@@ -7182,6 +6947,9 @@
       <c r="H75" t="s">
         <v>34</v>
       </c>
+      <c r="J75">
+        <v>74</v>
+      </c>
       <c r="L75" t="s">
         <v>310</v>
       </c>
@@ -7198,12 +6966,10 @@
         <v>333</v>
       </c>
       <c r="Q75">
-        <f t="shared" ca="1" si="7"/>
-        <v>6395</v>
+        <v>256</v>
       </c>
       <c r="R75">
-        <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="S75" t="s">
         <v>38</v>
@@ -7221,8 +6987,7 @@
         <v>1</v>
       </c>
       <c r="AC75">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD75">
         <v>1</v>
@@ -7236,12 +7001,10 @@
         <v>284</v>
       </c>
       <c r="C76">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D76">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E76" t="s">
         <v>112</v>
@@ -7255,6 +7018,9 @@
       <c r="H76" t="s">
         <v>36</v>
       </c>
+      <c r="J76">
+        <v>75</v>
+      </c>
       <c r="L76" t="s">
         <v>311</v>
       </c>
@@ -7271,11 +7037,9 @@
         <v>334</v>
       </c>
       <c r="Q76">
-        <f t="shared" ca="1" si="7"/>
-        <v>5966</v>
+        <v>4120</v>
       </c>
       <c r="R76">
-        <f t="shared" ca="1" si="8"/>
         <v>117</v>
       </c>
       <c r="S76" t="s">
@@ -7294,8 +7058,7 @@
         <v>1</v>
       </c>
       <c r="AC76">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD76">
         <v>1</v>
@@ -7309,12 +7072,10 @@
         <v>285</v>
       </c>
       <c r="C77">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D77">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E77" t="s">
         <v>113</v>
@@ -7328,6 +7089,9 @@
       <c r="H77" t="s">
         <v>37</v>
       </c>
+      <c r="J77">
+        <v>76</v>
+      </c>
       <c r="L77" t="s">
         <v>310</v>
       </c>
@@ -7344,12 +7108,10 @@
         <v>335</v>
       </c>
       <c r="Q77">
-        <f t="shared" ca="1" si="7"/>
-        <v>9509</v>
+        <v>8332</v>
       </c>
       <c r="R77">
-        <f t="shared" ca="1" si="8"/>
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="S77" t="s">
         <v>38</v>
@@ -7367,8 +7129,7 @@
         <v>1</v>
       </c>
       <c r="AC77">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD77">
         <v>1</v>
@@ -7382,11 +7143,9 @@
         <v>286</v>
       </c>
       <c r="C78">
-        <f t="shared" ca="1" si="5"/>
         <v>6</v>
       </c>
       <c r="D78">
-        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
       <c r="E78" t="s">
@@ -7401,6 +7160,9 @@
       <c r="H78" t="s">
         <v>34</v>
       </c>
+      <c r="J78">
+        <v>77</v>
+      </c>
       <c r="L78" t="s">
         <v>310</v>
       </c>
@@ -7417,12 +7179,10 @@
         <v>336</v>
       </c>
       <c r="Q78">
-        <f t="shared" ca="1" si="7"/>
-        <v>762</v>
+        <v>6565</v>
       </c>
       <c r="R78">
-        <f t="shared" ca="1" si="8"/>
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="S78" t="s">
         <v>38</v>
@@ -7440,8 +7200,7 @@
         <v>1</v>
       </c>
       <c r="AC78">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD78">
         <v>1</v>
@@ -7455,12 +7214,10 @@
         <v>287</v>
       </c>
       <c r="C79">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D79">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E79" t="s">
         <v>115</v>
@@ -7474,6 +7231,9 @@
       <c r="H79" t="s">
         <v>31</v>
       </c>
+      <c r="J79">
+        <v>78</v>
+      </c>
       <c r="L79" t="s">
         <v>310</v>
       </c>
@@ -7490,12 +7250,10 @@
         <v>337</v>
       </c>
       <c r="Q79">
-        <f t="shared" ca="1" si="7"/>
-        <v>6078</v>
+        <v>5821</v>
       </c>
       <c r="R79">
-        <f t="shared" ca="1" si="8"/>
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="S79" t="s">
         <v>38</v>
@@ -7513,7 +7271,6 @@
         <v>1</v>
       </c>
       <c r="AC79">
-        <f t="shared" ca="1" si="9"/>
         <v>2</v>
       </c>
       <c r="AD79">
@@ -7528,12 +7285,10 @@
         <v>288</v>
       </c>
       <c r="C80">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D80">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E80" t="s">
         <v>116</v>
@@ -7547,6 +7302,9 @@
       <c r="H80" t="s">
         <v>32</v>
       </c>
+      <c r="J80">
+        <v>79</v>
+      </c>
       <c r="L80" t="s">
         <v>310</v>
       </c>
@@ -7563,12 +7321,10 @@
         <v>338</v>
       </c>
       <c r="Q80">
-        <f t="shared" ca="1" si="7"/>
-        <v>7319</v>
+        <v>3836</v>
       </c>
       <c r="R80">
-        <f t="shared" ca="1" si="8"/>
-        <v>131</v>
+        <v>8</v>
       </c>
       <c r="S80" t="s">
         <v>38</v>
@@ -7586,7 +7342,6 @@
         <v>1</v>
       </c>
       <c r="AC80">
-        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
       <c r="AD80">
@@ -7601,12 +7356,10 @@
         <v>289</v>
       </c>
       <c r="C81">
-        <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
       <c r="D81">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E81" t="s">
         <v>117</v>
@@ -7620,6 +7373,9 @@
       <c r="H81" t="s">
         <v>33</v>
       </c>
+      <c r="J81">
+        <v>80</v>
+      </c>
       <c r="L81" t="s">
         <v>310</v>
       </c>
@@ -7636,12 +7392,10 @@
         <v>339</v>
       </c>
       <c r="Q81">
-        <f t="shared" ca="1" si="7"/>
-        <v>9788</v>
+        <v>9037</v>
       </c>
       <c r="R81">
-        <f t="shared" ca="1" si="8"/>
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="S81" t="s">
         <v>38</v>
@@ -7659,8 +7413,7 @@
         <v>1</v>
       </c>
       <c r="AC81">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD81">
         <v>1</v>
@@ -7674,12 +7427,10 @@
         <v>290</v>
       </c>
       <c r="C82">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D82">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E82" t="s">
         <v>118</v>
@@ -7693,6 +7444,9 @@
       <c r="H82" t="s">
         <v>34</v>
       </c>
+      <c r="J82">
+        <v>81</v>
+      </c>
       <c r="L82" t="s">
         <v>310</v>
       </c>
@@ -7709,12 +7463,10 @@
         <v>340</v>
       </c>
       <c r="Q82">
-        <f t="shared" ca="1" si="7"/>
-        <v>2272</v>
+        <v>4457</v>
       </c>
       <c r="R82">
-        <f t="shared" ca="1" si="8"/>
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="S82" t="s">
         <v>38</v>
@@ -7732,7 +7484,6 @@
         <v>1</v>
       </c>
       <c r="AC82">
-        <f t="shared" ca="1" si="9"/>
         <v>2</v>
       </c>
       <c r="AD82">
@@ -7747,12 +7498,10 @@
         <v>291</v>
       </c>
       <c r="C83">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D83">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E83" t="s">
         <v>119</v>
@@ -7766,6 +7515,9 @@
       <c r="H83" t="s">
         <v>36</v>
       </c>
+      <c r="J83">
+        <v>82</v>
+      </c>
       <c r="L83" t="s">
         <v>310</v>
       </c>
@@ -7782,12 +7534,10 @@
         <v>341</v>
       </c>
       <c r="Q83">
-        <f t="shared" ca="1" si="7"/>
-        <v>7723</v>
+        <v>5465</v>
       </c>
       <c r="R83">
-        <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>153</v>
       </c>
       <c r="S83" t="s">
         <v>38</v>
@@ -7805,7 +7555,6 @@
         <v>1</v>
       </c>
       <c r="AC83">
-        <f t="shared" ca="1" si="9"/>
         <v>2</v>
       </c>
       <c r="AD83">
@@ -7820,12 +7569,10 @@
         <v>292</v>
       </c>
       <c r="C84">
-        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="D84">
         <v>4</v>
-      </c>
-      <c r="D84">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
       </c>
       <c r="E84" t="s">
         <v>120</v>
@@ -7839,6 +7586,9 @@
       <c r="H84" t="s">
         <v>37</v>
       </c>
+      <c r="J84">
+        <v>83</v>
+      </c>
       <c r="L84" t="s">
         <v>310</v>
       </c>
@@ -7855,12 +7605,10 @@
         <v>342</v>
       </c>
       <c r="Q84">
-        <f t="shared" ca="1" si="7"/>
-        <v>5746</v>
+        <v>1150</v>
       </c>
       <c r="R84">
-        <f t="shared" ca="1" si="8"/>
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="S84" t="s">
         <v>38</v>
@@ -7878,7 +7626,6 @@
         <v>1</v>
       </c>
       <c r="AC84">
-        <f t="shared" ca="1" si="9"/>
         <v>2</v>
       </c>
       <c r="AD84">
@@ -7893,11 +7640,9 @@
         <v>293</v>
       </c>
       <c r="C85">
-        <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85">
-        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="E85" t="s">
@@ -7912,6 +7657,9 @@
       <c r="H85" t="s">
         <v>34</v>
       </c>
+      <c r="J85">
+        <v>84</v>
+      </c>
       <c r="L85" t="s">
         <v>316</v>
       </c>
@@ -7928,12 +7676,10 @@
         <v>343</v>
       </c>
       <c r="Q85">
-        <f t="shared" ca="1" si="7"/>
-        <v>6702</v>
+        <v>5305</v>
       </c>
       <c r="R85">
-        <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="S85" t="s">
         <v>38</v>
@@ -7951,7 +7697,6 @@
         <v>1</v>
       </c>
       <c r="AC85">
-        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
       <c r="AD85">
@@ -7966,11 +7711,9 @@
         <v>294</v>
       </c>
       <c r="C86">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D86">
-        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="E86" t="s">
@@ -7985,6 +7728,9 @@
       <c r="H86" t="s">
         <v>31</v>
       </c>
+      <c r="J86">
+        <v>85</v>
+      </c>
       <c r="L86" t="s">
         <v>310</v>
       </c>
@@ -8001,12 +7747,10 @@
         <v>344</v>
       </c>
       <c r="Q86">
-        <f t="shared" ca="1" si="7"/>
-        <v>1764</v>
+        <v>2983</v>
       </c>
       <c r="R86">
-        <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S86" t="s">
         <v>38</v>
@@ -8024,8 +7768,7 @@
         <v>1</v>
       </c>
       <c r="AC86">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD86">
         <v>1</v>
@@ -8039,12 +7782,10 @@
         <v>295</v>
       </c>
       <c r="C87">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E87" t="s">
         <v>123</v>
@@ -8058,6 +7799,9 @@
       <c r="H87" t="s">
         <v>36</v>
       </c>
+      <c r="J87">
+        <v>86</v>
+      </c>
       <c r="L87" t="s">
         <v>310</v>
       </c>
@@ -8074,12 +7818,10 @@
         <v>345</v>
       </c>
       <c r="Q87">
-        <f t="shared" ca="1" si="7"/>
-        <v>8659</v>
+        <v>4231</v>
       </c>
       <c r="R87">
-        <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="S87" t="s">
         <v>38</v>
@@ -8097,8 +7839,7 @@
         <v>1</v>
       </c>
       <c r="AC87">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD87">
         <v>1</v>
@@ -8112,12 +7853,10 @@
         <v>296</v>
       </c>
       <c r="C88">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D88">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E88" t="s">
         <v>124</v>
@@ -8131,6 +7870,9 @@
       <c r="H88" t="s">
         <v>37</v>
       </c>
+      <c r="J88">
+        <v>87</v>
+      </c>
       <c r="L88" t="s">
         <v>310</v>
       </c>
@@ -8147,12 +7889,10 @@
         <v>346</v>
       </c>
       <c r="Q88">
-        <f t="shared" ca="1" si="7"/>
-        <v>8396</v>
+        <v>5490</v>
       </c>
       <c r="R88">
-        <f t="shared" ca="1" si="8"/>
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S88" t="s">
         <v>38</v>
@@ -8170,8 +7910,7 @@
         <v>1</v>
       </c>
       <c r="AC88">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD88">
         <v>1</v>
@@ -8185,12 +7924,10 @@
         <v>297</v>
       </c>
       <c r="C89">
-        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="D89">
         <v>2</v>
-      </c>
-      <c r="D89">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
       </c>
       <c r="E89" t="s">
         <v>125</v>
@@ -8204,6 +7941,9 @@
       <c r="H89" t="s">
         <v>34</v>
       </c>
+      <c r="J89">
+        <v>88</v>
+      </c>
       <c r="L89" t="s">
         <v>312</v>
       </c>
@@ -8220,12 +7960,10 @@
         <v>347</v>
       </c>
       <c r="Q89">
-        <f t="shared" ca="1" si="7"/>
-        <v>2577</v>
+        <v>2621</v>
       </c>
       <c r="R89">
-        <f t="shared" ca="1" si="8"/>
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="S89" t="s">
         <v>38</v>
@@ -8243,7 +7981,6 @@
         <v>1</v>
       </c>
       <c r="AC89">
-        <f t="shared" ca="1" si="9"/>
         <v>2</v>
       </c>
       <c r="AD89">
@@ -8258,12 +7995,10 @@
         <v>298</v>
       </c>
       <c r="C90">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D90">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E90" t="s">
         <v>126</v>
@@ -8277,6 +8012,9 @@
       <c r="H90" t="s">
         <v>31</v>
       </c>
+      <c r="J90">
+        <v>89</v>
+      </c>
       <c r="L90" t="s">
         <v>312</v>
       </c>
@@ -8293,12 +8031,10 @@
         <v>348</v>
       </c>
       <c r="Q90">
-        <f t="shared" ca="1" si="7"/>
-        <v>3454</v>
+        <v>4112</v>
       </c>
       <c r="R90">
-        <f t="shared" ca="1" si="8"/>
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="S90" t="s">
         <v>38</v>
@@ -8316,8 +8052,7 @@
         <v>1</v>
       </c>
       <c r="AC90">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD90">
         <v>1</v>
@@ -8331,12 +8066,10 @@
         <v>299</v>
       </c>
       <c r="C91">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D91">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E91" t="s">
         <v>127</v>
@@ -8350,6 +8083,9 @@
       <c r="H91" t="s">
         <v>32</v>
       </c>
+      <c r="J91">
+        <v>90</v>
+      </c>
       <c r="L91" t="s">
         <v>310</v>
       </c>
@@ -8366,12 +8102,10 @@
         <v>349</v>
       </c>
       <c r="Q91">
-        <f t="shared" ca="1" si="7"/>
-        <v>3746</v>
+        <v>294</v>
       </c>
       <c r="R91">
-        <f t="shared" ca="1" si="8"/>
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="S91" t="s">
         <v>38</v>
@@ -8389,7 +8123,6 @@
         <v>1</v>
       </c>
       <c r="AC91">
-        <f t="shared" ca="1" si="9"/>
         <v>2</v>
       </c>
       <c r="AD91">
@@ -8404,12 +8137,10 @@
         <v>300</v>
       </c>
       <c r="C92">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D92">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E92" t="s">
         <v>128</v>
@@ -8423,6 +8154,9 @@
       <c r="H92" t="s">
         <v>33</v>
       </c>
+      <c r="J92">
+        <v>91</v>
+      </c>
       <c r="L92" t="s">
         <v>316</v>
       </c>
@@ -8439,12 +8173,10 @@
         <v>318</v>
       </c>
       <c r="Q92">
-        <f t="shared" ca="1" si="7"/>
-        <v>1750</v>
+        <v>5585</v>
       </c>
       <c r="R92">
-        <f t="shared" ca="1" si="8"/>
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="S92" t="s">
         <v>38</v>
@@ -8462,7 +8194,6 @@
         <v>1</v>
       </c>
       <c r="AC92">
-        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
       <c r="AD92">
@@ -8477,11 +8208,9 @@
         <v>301</v>
       </c>
       <c r="C93">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D93">
-        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
       <c r="E93" t="s">
@@ -8496,6 +8225,9 @@
       <c r="H93" t="s">
         <v>34</v>
       </c>
+      <c r="J93">
+        <v>92</v>
+      </c>
       <c r="L93" t="s">
         <v>310</v>
       </c>
@@ -8512,12 +8244,10 @@
         <v>319</v>
       </c>
       <c r="Q93">
-        <f t="shared" ca="1" si="7"/>
-        <v>2711</v>
+        <v>9388</v>
       </c>
       <c r="R93">
-        <f t="shared" ca="1" si="8"/>
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="S93" t="s">
         <v>38</v>
@@ -8535,7 +8265,6 @@
         <v>1</v>
       </c>
       <c r="AC93">
-        <f t="shared" ca="1" si="9"/>
         <v>2</v>
       </c>
       <c r="AD93">
@@ -8550,12 +8279,10 @@
         <v>302</v>
       </c>
       <c r="C94">
-        <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D94">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E94" t="s">
         <v>130</v>
@@ -8569,6 +8296,9 @@
       <c r="H94" t="s">
         <v>36</v>
       </c>
+      <c r="J94">
+        <v>93</v>
+      </c>
       <c r="L94" t="s">
         <v>314</v>
       </c>
@@ -8585,12 +8315,10 @@
         <v>320</v>
       </c>
       <c r="Q94">
-        <f t="shared" ca="1" si="7"/>
-        <v>6608</v>
+        <v>6858</v>
       </c>
       <c r="R94">
-        <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="S94" t="s">
         <v>38</v>
@@ -8608,8 +8336,7 @@
         <v>1</v>
       </c>
       <c r="AC94">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD94">
         <v>1</v>
@@ -8623,12 +8350,10 @@
         <v>303</v>
       </c>
       <c r="C95">
-        <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E95" t="s">
         <v>131</v>
@@ -8642,6 +8367,9 @@
       <c r="H95" t="s">
         <v>37</v>
       </c>
+      <c r="J95">
+        <v>94</v>
+      </c>
       <c r="L95" t="s">
         <v>310</v>
       </c>
@@ -8658,12 +8386,10 @@
         <v>321</v>
       </c>
       <c r="Q95">
-        <f t="shared" ca="1" si="7"/>
-        <v>9691</v>
+        <v>8073</v>
       </c>
       <c r="R95">
-        <f t="shared" ca="1" si="8"/>
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="S95" t="s">
         <v>38</v>
@@ -8681,8 +8407,7 @@
         <v>1</v>
       </c>
       <c r="AC95">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD95">
         <v>1</v>
@@ -8696,12 +8421,10 @@
         <v>304</v>
       </c>
       <c r="C96">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D96">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E96" t="s">
         <v>132</v>
@@ -8715,6 +8438,9 @@
       <c r="H96" t="s">
         <v>34</v>
       </c>
+      <c r="J96">
+        <v>95</v>
+      </c>
       <c r="L96" t="s">
         <v>310</v>
       </c>
@@ -8731,12 +8457,10 @@
         <v>322</v>
       </c>
       <c r="Q96">
-        <f t="shared" ca="1" si="7"/>
-        <v>6471</v>
+        <v>3691</v>
       </c>
       <c r="R96">
-        <f t="shared" ca="1" si="8"/>
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="S96" t="s">
         <v>38</v>
@@ -8754,8 +8478,7 @@
         <v>1</v>
       </c>
       <c r="AC96">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD96">
         <v>1</v>
@@ -8769,12 +8492,10 @@
         <v>305</v>
       </c>
       <c r="C97">
-        <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D97">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E97" t="s">
         <v>133</v>
@@ -8788,6 +8509,9 @@
       <c r="H97" t="s">
         <v>31</v>
       </c>
+      <c r="J97">
+        <v>96</v>
+      </c>
       <c r="L97" t="s">
         <v>310</v>
       </c>
@@ -8804,12 +8528,10 @@
         <v>323</v>
       </c>
       <c r="Q97">
-        <f t="shared" ca="1" si="7"/>
-        <v>793</v>
+        <v>2979</v>
       </c>
       <c r="R97">
-        <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="S97" t="s">
         <v>38</v>
@@ -8827,7 +8549,6 @@
         <v>1</v>
       </c>
       <c r="AC97">
-        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
       <c r="AD97">
@@ -8842,12 +8563,10 @@
         <v>306</v>
       </c>
       <c r="C98">
-        <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D98">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E98" t="s">
         <v>134</v>
@@ -8861,6 +8580,9 @@
       <c r="H98" t="s">
         <v>36</v>
       </c>
+      <c r="J98">
+        <v>97</v>
+      </c>
       <c r="L98" t="s">
         <v>310</v>
       </c>
@@ -8877,12 +8599,10 @@
         <v>328</v>
       </c>
       <c r="Q98">
-        <f t="shared" ca="1" si="7"/>
-        <v>5608</v>
+        <v>5528</v>
       </c>
       <c r="R98">
-        <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="S98" t="s">
         <v>38</v>
@@ -8900,8 +8620,7 @@
         <v>1</v>
       </c>
       <c r="AC98">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD98">
         <v>1</v>
@@ -8915,11 +8634,9 @@
         <v>307</v>
       </c>
       <c r="C99">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D99">
-        <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
       <c r="E99" t="s">
@@ -8934,6 +8651,9 @@
       <c r="H99" t="s">
         <v>34</v>
       </c>
+      <c r="J99">
+        <v>98</v>
+      </c>
       <c r="L99" t="s">
         <v>312</v>
       </c>
@@ -8950,12 +8670,10 @@
         <v>329</v>
       </c>
       <c r="Q99">
-        <f t="shared" ca="1" si="7"/>
-        <v>2103</v>
+        <v>3632</v>
       </c>
       <c r="R99">
-        <f t="shared" ca="1" si="8"/>
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="S99" t="s">
         <v>38</v>
@@ -8973,7 +8691,6 @@
         <v>1</v>
       </c>
       <c r="AC99">
-        <f t="shared" ca="1" si="9"/>
         <v>2</v>
       </c>
       <c r="AD99">
@@ -8988,12 +8705,10 @@
         <v>308</v>
       </c>
       <c r="C100">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D100">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E100" t="s">
         <v>136</v>
@@ -9007,6 +8722,9 @@
       <c r="H100" t="s">
         <v>36</v>
       </c>
+      <c r="J100">
+        <v>99</v>
+      </c>
       <c r="L100" t="s">
         <v>312</v>
       </c>
@@ -9023,12 +8741,10 @@
         <v>330</v>
       </c>
       <c r="Q100">
-        <f t="shared" ca="1" si="7"/>
-        <v>5168</v>
+        <v>4795</v>
       </c>
       <c r="R100">
-        <f t="shared" ca="1" si="8"/>
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="S100" t="s">
         <v>38</v>
@@ -9046,8 +8762,7 @@
         <v>1</v>
       </c>
       <c r="AC100">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD100">
         <v>1</v>
@@ -9061,11 +8776,9 @@
         <v>309</v>
       </c>
       <c r="C101">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D101">
-        <f t="shared" ca="1" si="6"/>
         <v>5</v>
       </c>
       <c r="E101" t="s">
@@ -9080,6 +8793,9 @@
       <c r="H101" t="s">
         <v>37</v>
       </c>
+      <c r="J101">
+        <v>100</v>
+      </c>
       <c r="L101" t="s">
         <v>312</v>
       </c>
@@ -9096,12 +8812,10 @@
         <v>331</v>
       </c>
       <c r="Q101">
-        <f t="shared" ca="1" si="7"/>
-        <v>5942</v>
+        <v>1296</v>
       </c>
       <c r="R101">
-        <f t="shared" ca="1" si="8"/>
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="S101" t="s">
         <v>38</v>
@@ -9119,7 +8833,6 @@
         <v>1</v>
       </c>
       <c r="AC101">
-        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
       <c r="AD101">

--- a/Excel/Carga DB Postgres/Ingreso - cargado.xlsx
+++ b/Excel/Carga DB Postgres/Ingreso - cargado.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="335">
   <si>
     <t>idingreso</t>
   </si>
@@ -693,9 +693,6 @@
     <t>2017-06-24-02:55:21</t>
   </si>
   <si>
-    <t>2017-03-16-26:31:12</t>
-  </si>
-  <si>
     <t>2017-03-19-16:55:33</t>
   </si>
   <si>
@@ -1021,6 +1018,9 @@
   </si>
   <si>
     <t>nChasis</t>
+  </si>
+  <si>
+    <t>2017-03-16-23:31:12</t>
   </si>
 </sst>
 </file>
@@ -1357,8 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2"/>
+    <sheetView tabSelected="1" topLeftCell="N71" workbookViewId="0">
+      <selection activeCell="R81" sqref="R81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1370,11 +1370,12 @@
     <col min="5" max="5" width="15.33203125" customWidth="1"/>
     <col min="6" max="6" width="14.88671875" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" customWidth="1"/>
-    <col min="10" max="12" width="21.44140625" customWidth="1"/>
-    <col min="13" max="13" width="19.5546875" customWidth="1"/>
-    <col min="14" max="14" width="25.88671875" customWidth="1"/>
-    <col min="15" max="15" width="19.88671875" customWidth="1"/>
-    <col min="16" max="17" width="20.88671875" customWidth="1"/>
+    <col min="9" max="10" width="21.44140625" customWidth="1"/>
+    <col min="11" max="11" width="19.5546875" customWidth="1"/>
+    <col min="12" max="12" width="25.88671875" customWidth="1"/>
+    <col min="13" max="13" width="19.88671875" customWidth="1"/>
+    <col min="14" max="15" width="20.88671875" customWidth="1"/>
+    <col min="18" max="18" width="21.44140625" customWidth="1"/>
     <col min="21" max="21" width="21.77734375" customWidth="1"/>
     <col min="22" max="22" width="19.6640625" customWidth="1"/>
     <col min="25" max="25" width="14" customWidth="1"/>
@@ -1406,34 +1407,34 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>323</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="R1" t="s">
         <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>324</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
       </c>
       <c r="S1" t="s">
         <v>17</v>
@@ -1442,7 +1443,7 @@
         <v>18</v>
       </c>
       <c r="U1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="V1" t="s">
         <v>19</v>
@@ -1469,10 +1470,10 @@
         <v>26</v>
       </c>
       <c r="AD1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AE1" t="s">
         <v>333</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>334</v>
       </c>
       <c r="AF1" t="s">
         <v>27</v>
@@ -1509,32 +1510,29 @@
       <c r="H2" t="s">
         <v>31</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
+      <c r="K2" t="s">
+        <v>325</v>
       </c>
       <c r="L2" t="s">
-        <v>38</v>
+        <v>291</v>
       </c>
       <c r="M2" t="s">
-        <v>326</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>298</v>
+        <v>297</v>
+      </c>
+      <c r="P2">
+        <v>2925</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>2925</v>
+        <v>1</v>
       </c>
       <c r="S2">
         <v>120</v>
@@ -1595,32 +1593,29 @@
       <c r="H3" t="s">
         <v>32</v>
       </c>
-      <c r="I3">
+      <c r="K3" t="s">
+        <v>325</v>
+      </c>
+      <c r="L3" t="s">
+        <v>292</v>
+      </c>
+      <c r="M3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" t="s">
+        <v>308</v>
+      </c>
+      <c r="O3" t="s">
+        <v>298</v>
+      </c>
+      <c r="P3">
+        <v>8079</v>
+      </c>
+      <c r="Q3">
         <v>2</v>
       </c>
-      <c r="J3">
+      <c r="R3">
         <v>2</v>
-      </c>
-      <c r="L3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" t="s">
-        <v>326</v>
-      </c>
-      <c r="N3" t="s">
-        <v>293</v>
-      </c>
-      <c r="O3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>299</v>
-      </c>
-      <c r="R3">
-        <v>8079</v>
       </c>
       <c r="S3">
         <v>131</v>
@@ -1681,29 +1676,26 @@
       <c r="H4" t="s">
         <v>33</v>
       </c>
-      <c r="I4">
+      <c r="K4" t="s">
+        <v>326</v>
+      </c>
+      <c r="L4" t="s">
+        <v>293</v>
+      </c>
+      <c r="M4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" t="s">
+        <v>309</v>
+      </c>
+      <c r="O4" t="s">
+        <v>299</v>
+      </c>
+      <c r="P4">
+        <v>4096</v>
+      </c>
+      <c r="Q4">
         <v>3</v>
-      </c>
-      <c r="L4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" t="s">
-        <v>327</v>
-      </c>
-      <c r="N4" t="s">
-        <v>294</v>
-      </c>
-      <c r="O4" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>300</v>
-      </c>
-      <c r="R4">
-        <v>4096</v>
       </c>
       <c r="S4">
         <v>50</v>
@@ -1764,32 +1756,29 @@
       <c r="H5" t="s">
         <v>34</v>
       </c>
-      <c r="I5">
+      <c r="K5" t="s">
+        <v>325</v>
+      </c>
+      <c r="L5" t="s">
+        <v>294</v>
+      </c>
+      <c r="M5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" t="s">
+        <v>310</v>
+      </c>
+      <c r="O5" t="s">
+        <v>300</v>
+      </c>
+      <c r="P5">
+        <v>9184</v>
+      </c>
+      <c r="Q5">
         <v>4</v>
       </c>
-      <c r="J5">
+      <c r="R5">
         <v>4</v>
-      </c>
-      <c r="L5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" t="s">
-        <v>326</v>
-      </c>
-      <c r="N5" t="s">
-        <v>295</v>
-      </c>
-      <c r="O5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P5" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>301</v>
-      </c>
-      <c r="R5">
-        <v>9184</v>
       </c>
       <c r="S5">
         <v>86</v>
@@ -1850,32 +1839,29 @@
       <c r="H6" t="s">
         <v>35</v>
       </c>
-      <c r="I6">
+      <c r="K6" t="s">
+        <v>325</v>
+      </c>
+      <c r="L6" t="s">
+        <v>295</v>
+      </c>
+      <c r="M6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" t="s">
+        <v>311</v>
+      </c>
+      <c r="O6" t="s">
+        <v>301</v>
+      </c>
+      <c r="P6">
+        <v>2649</v>
+      </c>
+      <c r="Q6">
         <v>5</v>
       </c>
-      <c r="J6">
+      <c r="R6">
         <v>5</v>
-      </c>
-      <c r="L6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" t="s">
-        <v>326</v>
-      </c>
-      <c r="N6" t="s">
-        <v>296</v>
-      </c>
-      <c r="O6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P6" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>302</v>
-      </c>
-      <c r="R6">
-        <v>2649</v>
       </c>
       <c r="S6">
         <v>128</v>
@@ -1936,32 +1922,29 @@
       <c r="H7" t="s">
         <v>36</v>
       </c>
-      <c r="I7">
+      <c r="K7" t="s">
+        <v>325</v>
+      </c>
+      <c r="L7" t="s">
+        <v>296</v>
+      </c>
+      <c r="M7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" t="s">
+        <v>312</v>
+      </c>
+      <c r="O7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P7">
+        <v>4478</v>
+      </c>
+      <c r="Q7">
         <v>6</v>
       </c>
-      <c r="J7">
+      <c r="R7">
         <v>6</v>
-      </c>
-      <c r="L7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7" t="s">
-        <v>326</v>
-      </c>
-      <c r="N7" t="s">
-        <v>297</v>
-      </c>
-      <c r="O7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P7" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>303</v>
-      </c>
-      <c r="R7">
-        <v>4478</v>
       </c>
       <c r="S7">
         <v>31</v>
@@ -2022,29 +2005,26 @@
       <c r="H8" t="s">
         <v>37</v>
       </c>
-      <c r="I8">
+      <c r="K8" t="s">
+        <v>326</v>
+      </c>
+      <c r="L8" t="s">
+        <v>297</v>
+      </c>
+      <c r="M8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" t="s">
+        <v>313</v>
+      </c>
+      <c r="O8" t="s">
+        <v>303</v>
+      </c>
+      <c r="P8">
+        <v>5773</v>
+      </c>
+      <c r="Q8">
         <v>7</v>
-      </c>
-      <c r="L8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8" t="s">
-        <v>327</v>
-      </c>
-      <c r="N8" t="s">
-        <v>298</v>
-      </c>
-      <c r="O8" t="s">
-        <v>38</v>
-      </c>
-      <c r="P8" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>304</v>
-      </c>
-      <c r="R8">
-        <v>5773</v>
       </c>
       <c r="S8">
         <v>41</v>
@@ -2105,32 +2085,29 @@
       <c r="H9" t="s">
         <v>31</v>
       </c>
-      <c r="I9">
+      <c r="K9" t="s">
+        <v>327</v>
+      </c>
+      <c r="L9" t="s">
+        <v>298</v>
+      </c>
+      <c r="M9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" t="s">
+        <v>314</v>
+      </c>
+      <c r="O9" t="s">
+        <v>304</v>
+      </c>
+      <c r="P9">
+        <v>3840</v>
+      </c>
+      <c r="Q9">
         <v>8</v>
       </c>
-      <c r="J9">
+      <c r="R9">
         <v>8</v>
-      </c>
-      <c r="L9" t="s">
-        <v>38</v>
-      </c>
-      <c r="M9" t="s">
-        <v>328</v>
-      </c>
-      <c r="N9" t="s">
-        <v>299</v>
-      </c>
-      <c r="O9" t="s">
-        <v>38</v>
-      </c>
-      <c r="P9" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>305</v>
-      </c>
-      <c r="R9">
-        <v>3840</v>
       </c>
       <c r="S9">
         <v>151</v>
@@ -2191,29 +2168,26 @@
       <c r="H10" t="s">
         <v>32</v>
       </c>
-      <c r="I10">
+      <c r="K10" t="s">
+        <v>326</v>
+      </c>
+      <c r="L10" t="s">
+        <v>299</v>
+      </c>
+      <c r="M10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" t="s">
+        <v>315</v>
+      </c>
+      <c r="O10" t="s">
+        <v>305</v>
+      </c>
+      <c r="P10">
+        <v>7265</v>
+      </c>
+      <c r="Q10">
         <v>9</v>
-      </c>
-      <c r="L10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" t="s">
-        <v>327</v>
-      </c>
-      <c r="N10" t="s">
-        <v>300</v>
-      </c>
-      <c r="O10" t="s">
-        <v>38</v>
-      </c>
-      <c r="P10" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>306</v>
-      </c>
-      <c r="R10">
-        <v>7265</v>
       </c>
       <c r="S10">
         <v>62</v>
@@ -2274,32 +2248,29 @@
       <c r="H11" t="s">
         <v>33</v>
       </c>
-      <c r="I11">
+      <c r="K11" t="s">
+        <v>325</v>
+      </c>
+      <c r="L11" t="s">
+        <v>300</v>
+      </c>
+      <c r="M11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" t="s">
+        <v>316</v>
+      </c>
+      <c r="O11" t="s">
+        <v>306</v>
+      </c>
+      <c r="P11">
+        <v>6502</v>
+      </c>
+      <c r="Q11">
         <v>10</v>
       </c>
-      <c r="J11">
+      <c r="R11">
         <v>10</v>
-      </c>
-      <c r="L11" t="s">
-        <v>38</v>
-      </c>
-      <c r="M11" t="s">
-        <v>326</v>
-      </c>
-      <c r="N11" t="s">
-        <v>301</v>
-      </c>
-      <c r="O11" t="s">
-        <v>38</v>
-      </c>
-      <c r="P11" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>307</v>
-      </c>
-      <c r="R11">
-        <v>6502</v>
       </c>
       <c r="S11">
         <v>89</v>
@@ -2360,29 +2331,26 @@
       <c r="H12" t="s">
         <v>34</v>
       </c>
-      <c r="I12">
+      <c r="K12" t="s">
+        <v>326</v>
+      </c>
+      <c r="L12" t="s">
+        <v>301</v>
+      </c>
+      <c r="M12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N12" t="s">
+        <v>317</v>
+      </c>
+      <c r="O12" t="s">
+        <v>307</v>
+      </c>
+      <c r="P12">
+        <v>1401</v>
+      </c>
+      <c r="Q12">
         <v>11</v>
-      </c>
-      <c r="L12" t="s">
-        <v>38</v>
-      </c>
-      <c r="M12" t="s">
-        <v>327</v>
-      </c>
-      <c r="N12" t="s">
-        <v>302</v>
-      </c>
-      <c r="O12" t="s">
-        <v>38</v>
-      </c>
-      <c r="P12" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>308</v>
-      </c>
-      <c r="R12">
-        <v>1401</v>
       </c>
       <c r="S12">
         <v>54</v>
@@ -2443,32 +2411,29 @@
       <c r="H13" t="s">
         <v>36</v>
       </c>
-      <c r="I13">
+      <c r="K13" t="s">
+        <v>325</v>
+      </c>
+      <c r="L13" t="s">
+        <v>302</v>
+      </c>
+      <c r="M13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N13" t="s">
+        <v>318</v>
+      </c>
+      <c r="O13" t="s">
+        <v>308</v>
+      </c>
+      <c r="P13">
+        <v>8971</v>
+      </c>
+      <c r="Q13">
         <v>12</v>
       </c>
-      <c r="J13">
+      <c r="R13">
         <v>12</v>
-      </c>
-      <c r="L13" t="s">
-        <v>38</v>
-      </c>
-      <c r="M13" t="s">
-        <v>326</v>
-      </c>
-      <c r="N13" t="s">
-        <v>303</v>
-      </c>
-      <c r="O13" t="s">
-        <v>38</v>
-      </c>
-      <c r="P13" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>309</v>
-      </c>
-      <c r="R13">
-        <v>8971</v>
       </c>
       <c r="S13">
         <v>19</v>
@@ -2529,32 +2494,29 @@
       <c r="H14" t="s">
         <v>37</v>
       </c>
-      <c r="I14">
+      <c r="K14" t="s">
+        <v>328</v>
+      </c>
+      <c r="L14" t="s">
+        <v>303</v>
+      </c>
+      <c r="M14" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" t="s">
+        <v>319</v>
+      </c>
+      <c r="O14" t="s">
+        <v>309</v>
+      </c>
+      <c r="P14">
+        <v>7639</v>
+      </c>
+      <c r="Q14">
         <v>13</v>
       </c>
-      <c r="J14">
+      <c r="R14">
         <v>13</v>
-      </c>
-      <c r="L14" t="s">
-        <v>38</v>
-      </c>
-      <c r="M14" t="s">
-        <v>329</v>
-      </c>
-      <c r="N14" t="s">
-        <v>304</v>
-      </c>
-      <c r="O14" t="s">
-        <v>38</v>
-      </c>
-      <c r="P14" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>310</v>
-      </c>
-      <c r="R14">
-        <v>7639</v>
       </c>
       <c r="S14">
         <v>93</v>
@@ -2615,29 +2577,26 @@
       <c r="H15" t="s">
         <v>31</v>
       </c>
-      <c r="I15">
+      <c r="K15" t="s">
+        <v>326</v>
+      </c>
+      <c r="L15" t="s">
+        <v>304</v>
+      </c>
+      <c r="M15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N15" t="s">
+        <v>320</v>
+      </c>
+      <c r="O15" t="s">
+        <v>310</v>
+      </c>
+      <c r="P15">
+        <v>8889</v>
+      </c>
+      <c r="Q15">
         <v>14</v>
-      </c>
-      <c r="L15" t="s">
-        <v>38</v>
-      </c>
-      <c r="M15" t="s">
-        <v>327</v>
-      </c>
-      <c r="N15" t="s">
-        <v>305</v>
-      </c>
-      <c r="O15" t="s">
-        <v>38</v>
-      </c>
-      <c r="P15" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>311</v>
-      </c>
-      <c r="R15">
-        <v>8889</v>
       </c>
       <c r="S15">
         <v>26</v>
@@ -2698,29 +2657,26 @@
       <c r="H16" t="s">
         <v>32</v>
       </c>
-      <c r="I16">
+      <c r="K16" t="s">
+        <v>326</v>
+      </c>
+      <c r="L16" t="s">
+        <v>305</v>
+      </c>
+      <c r="M16" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" t="s">
+        <v>321</v>
+      </c>
+      <c r="O16" t="s">
+        <v>311</v>
+      </c>
+      <c r="P16">
+        <v>1805</v>
+      </c>
+      <c r="Q16">
         <v>15</v>
-      </c>
-      <c r="L16" t="s">
-        <v>38</v>
-      </c>
-      <c r="M16" t="s">
-        <v>327</v>
-      </c>
-      <c r="N16" t="s">
-        <v>306</v>
-      </c>
-      <c r="O16" t="s">
-        <v>38</v>
-      </c>
-      <c r="P16" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>312</v>
-      </c>
-      <c r="R16">
-        <v>1805</v>
       </c>
       <c r="S16">
         <v>32</v>
@@ -2781,29 +2737,26 @@
       <c r="H17" t="s">
         <v>33</v>
       </c>
-      <c r="I17">
+      <c r="K17" t="s">
+        <v>326</v>
+      </c>
+      <c r="L17" t="s">
+        <v>306</v>
+      </c>
+      <c r="M17" t="s">
+        <v>38</v>
+      </c>
+      <c r="N17" t="s">
+        <v>322</v>
+      </c>
+      <c r="O17" t="s">
+        <v>312</v>
+      </c>
+      <c r="P17">
+        <v>4770</v>
+      </c>
+      <c r="Q17">
         <v>16</v>
-      </c>
-      <c r="L17" t="s">
-        <v>38</v>
-      </c>
-      <c r="M17" t="s">
-        <v>327</v>
-      </c>
-      <c r="N17" t="s">
-        <v>307</v>
-      </c>
-      <c r="O17" t="s">
-        <v>38</v>
-      </c>
-      <c r="P17" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>313</v>
-      </c>
-      <c r="R17">
-        <v>4770</v>
       </c>
       <c r="S17">
         <v>4</v>
@@ -2864,32 +2817,29 @@
       <c r="H18" t="s">
         <v>34</v>
       </c>
-      <c r="I18">
+      <c r="K18" t="s">
+        <v>325</v>
+      </c>
+      <c r="L18" t="s">
+        <v>307</v>
+      </c>
+      <c r="M18" t="s">
+        <v>38</v>
+      </c>
+      <c r="N18" t="s">
+        <v>291</v>
+      </c>
+      <c r="O18" t="s">
+        <v>313</v>
+      </c>
+      <c r="P18">
+        <v>9056</v>
+      </c>
+      <c r="Q18">
         <v>17</v>
       </c>
-      <c r="J18">
+      <c r="R18">
         <v>17</v>
-      </c>
-      <c r="L18" t="s">
-        <v>38</v>
-      </c>
-      <c r="M18" t="s">
-        <v>326</v>
-      </c>
-      <c r="N18" t="s">
-        <v>308</v>
-      </c>
-      <c r="O18" t="s">
-        <v>38</v>
-      </c>
-      <c r="P18" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>314</v>
-      </c>
-      <c r="R18">
-        <v>9056</v>
       </c>
       <c r="S18">
         <v>135</v>
@@ -2950,32 +2900,29 @@
       <c r="H19" t="s">
         <v>36</v>
       </c>
-      <c r="I19">
+      <c r="K19" t="s">
+        <v>327</v>
+      </c>
+      <c r="L19" t="s">
+        <v>308</v>
+      </c>
+      <c r="M19" t="s">
+        <v>38</v>
+      </c>
+      <c r="N19" t="s">
+        <v>292</v>
+      </c>
+      <c r="O19" t="s">
+        <v>314</v>
+      </c>
+      <c r="P19">
+        <v>8312</v>
+      </c>
+      <c r="Q19">
         <v>18</v>
       </c>
-      <c r="J19">
+      <c r="R19">
         <v>18</v>
-      </c>
-      <c r="L19" t="s">
-        <v>38</v>
-      </c>
-      <c r="M19" t="s">
-        <v>328</v>
-      </c>
-      <c r="N19" t="s">
-        <v>309</v>
-      </c>
-      <c r="O19" t="s">
-        <v>38</v>
-      </c>
-      <c r="P19" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>315</v>
-      </c>
-      <c r="R19">
-        <v>8312</v>
       </c>
       <c r="S19">
         <v>5</v>
@@ -3036,32 +2983,29 @@
       <c r="H20" t="s">
         <v>37</v>
       </c>
-      <c r="I20">
+      <c r="K20" t="s">
+        <v>329</v>
+      </c>
+      <c r="L20" t="s">
+        <v>309</v>
+      </c>
+      <c r="M20" t="s">
+        <v>38</v>
+      </c>
+      <c r="N20" t="s">
+        <v>293</v>
+      </c>
+      <c r="O20" t="s">
+        <v>315</v>
+      </c>
+      <c r="P20">
+        <v>3234</v>
+      </c>
+      <c r="Q20">
         <v>19</v>
       </c>
-      <c r="J20">
+      <c r="R20">
         <v>19</v>
-      </c>
-      <c r="L20" t="s">
-        <v>38</v>
-      </c>
-      <c r="M20" t="s">
-        <v>330</v>
-      </c>
-      <c r="N20" t="s">
-        <v>310</v>
-      </c>
-      <c r="O20" t="s">
-        <v>38</v>
-      </c>
-      <c r="P20" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>316</v>
-      </c>
-      <c r="R20">
-        <v>3234</v>
       </c>
       <c r="S20">
         <v>107</v>
@@ -3122,32 +3066,29 @@
       <c r="H21" t="s">
         <v>34</v>
       </c>
-      <c r="I21">
+      <c r="K21" t="s">
+        <v>325</v>
+      </c>
+      <c r="L21" t="s">
+        <v>310</v>
+      </c>
+      <c r="M21" t="s">
+        <v>38</v>
+      </c>
+      <c r="N21" t="s">
+        <v>294</v>
+      </c>
+      <c r="O21" t="s">
+        <v>316</v>
+      </c>
+      <c r="P21">
+        <v>5335</v>
+      </c>
+      <c r="Q21">
         <v>20</v>
       </c>
-      <c r="J21">
+      <c r="R21">
         <v>20</v>
-      </c>
-      <c r="L21" t="s">
-        <v>38</v>
-      </c>
-      <c r="M21" t="s">
-        <v>326</v>
-      </c>
-      <c r="N21" t="s">
-        <v>311</v>
-      </c>
-      <c r="O21" t="s">
-        <v>38</v>
-      </c>
-      <c r="P21" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>317</v>
-      </c>
-      <c r="R21">
-        <v>5335</v>
       </c>
       <c r="S21">
         <v>146</v>
@@ -3208,29 +3149,26 @@
       <c r="H22" t="s">
         <v>31</v>
       </c>
-      <c r="I22">
+      <c r="K22" t="s">
+        <v>326</v>
+      </c>
+      <c r="L22" t="s">
+        <v>311</v>
+      </c>
+      <c r="M22" t="s">
+        <v>38</v>
+      </c>
+      <c r="N22" t="s">
+        <v>295</v>
+      </c>
+      <c r="O22" t="s">
+        <v>317</v>
+      </c>
+      <c r="P22">
+        <v>9505</v>
+      </c>
+      <c r="Q22">
         <v>21</v>
-      </c>
-      <c r="L22" t="s">
-        <v>38</v>
-      </c>
-      <c r="M22" t="s">
-        <v>327</v>
-      </c>
-      <c r="N22" t="s">
-        <v>312</v>
-      </c>
-      <c r="O22" t="s">
-        <v>38</v>
-      </c>
-      <c r="P22" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>318</v>
-      </c>
-      <c r="R22">
-        <v>9505</v>
       </c>
       <c r="S22">
         <v>81</v>
@@ -3291,29 +3229,26 @@
       <c r="H23" t="s">
         <v>32</v>
       </c>
-      <c r="I23">
+      <c r="K23" t="s">
+        <v>326</v>
+      </c>
+      <c r="L23" t="s">
+        <v>312</v>
+      </c>
+      <c r="M23" t="s">
+        <v>38</v>
+      </c>
+      <c r="N23" t="s">
+        <v>296</v>
+      </c>
+      <c r="O23" t="s">
+        <v>318</v>
+      </c>
+      <c r="P23">
+        <v>8804</v>
+      </c>
+      <c r="Q23">
         <v>22</v>
-      </c>
-      <c r="L23" t="s">
-        <v>38</v>
-      </c>
-      <c r="M23" t="s">
-        <v>327</v>
-      </c>
-      <c r="N23" t="s">
-        <v>313</v>
-      </c>
-      <c r="O23" t="s">
-        <v>38</v>
-      </c>
-      <c r="P23" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>319</v>
-      </c>
-      <c r="R23">
-        <v>8804</v>
       </c>
       <c r="S23">
         <v>151</v>
@@ -3374,32 +3309,29 @@
       <c r="H24" t="s">
         <v>33</v>
       </c>
-      <c r="I24">
+      <c r="K24" t="s">
+        <v>327</v>
+      </c>
+      <c r="L24" t="s">
+        <v>313</v>
+      </c>
+      <c r="M24" t="s">
+        <v>38</v>
+      </c>
+      <c r="N24" t="s">
+        <v>297</v>
+      </c>
+      <c r="O24" t="s">
+        <v>319</v>
+      </c>
+      <c r="P24">
+        <v>5582</v>
+      </c>
+      <c r="Q24">
         <v>23</v>
       </c>
-      <c r="J24">
+      <c r="R24">
         <v>23</v>
-      </c>
-      <c r="L24" t="s">
-        <v>38</v>
-      </c>
-      <c r="M24" t="s">
-        <v>328</v>
-      </c>
-      <c r="N24" t="s">
-        <v>314</v>
-      </c>
-      <c r="O24" t="s">
-        <v>38</v>
-      </c>
-      <c r="P24" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>320</v>
-      </c>
-      <c r="R24">
-        <v>5582</v>
       </c>
       <c r="S24">
         <v>110</v>
@@ -3460,29 +3392,26 @@
       <c r="H25" t="s">
         <v>34</v>
       </c>
-      <c r="I25">
+      <c r="K25" t="s">
+        <v>326</v>
+      </c>
+      <c r="L25" t="s">
+        <v>314</v>
+      </c>
+      <c r="M25" t="s">
+        <v>38</v>
+      </c>
+      <c r="N25" t="s">
+        <v>298</v>
+      </c>
+      <c r="O25" t="s">
+        <v>320</v>
+      </c>
+      <c r="P25">
+        <v>6722</v>
+      </c>
+      <c r="Q25">
         <v>24</v>
-      </c>
-      <c r="L25" t="s">
-        <v>38</v>
-      </c>
-      <c r="M25" t="s">
-        <v>327</v>
-      </c>
-      <c r="N25" t="s">
-        <v>315</v>
-      </c>
-      <c r="O25" t="s">
-        <v>38</v>
-      </c>
-      <c r="P25" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>321</v>
-      </c>
-      <c r="R25">
-        <v>6722</v>
       </c>
       <c r="S25">
         <v>41</v>
@@ -3543,32 +3472,29 @@
       <c r="H26" t="s">
         <v>36</v>
       </c>
-      <c r="I26">
+      <c r="K26" t="s">
+        <v>330</v>
+      </c>
+      <c r="L26" t="s">
+        <v>315</v>
+      </c>
+      <c r="M26" t="s">
+        <v>38</v>
+      </c>
+      <c r="N26" t="s">
+        <v>299</v>
+      </c>
+      <c r="O26" t="s">
+        <v>321</v>
+      </c>
+      <c r="P26">
+        <v>1520</v>
+      </c>
+      <c r="Q26">
         <v>25</v>
       </c>
-      <c r="J26">
+      <c r="R26">
         <v>25</v>
-      </c>
-      <c r="L26" t="s">
-        <v>38</v>
-      </c>
-      <c r="M26" t="s">
-        <v>331</v>
-      </c>
-      <c r="N26" t="s">
-        <v>316</v>
-      </c>
-      <c r="O26" t="s">
-        <v>38</v>
-      </c>
-      <c r="P26" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>322</v>
-      </c>
-      <c r="R26">
-        <v>1520</v>
       </c>
       <c r="S26">
         <v>46</v>
@@ -3629,32 +3555,29 @@
       <c r="H27" t="s">
         <v>37</v>
       </c>
-      <c r="I27">
+      <c r="K27" t="s">
+        <v>330</v>
+      </c>
+      <c r="L27" t="s">
+        <v>316</v>
+      </c>
+      <c r="M27" t="s">
+        <v>38</v>
+      </c>
+      <c r="N27" t="s">
+        <v>300</v>
+      </c>
+      <c r="O27" t="s">
+        <v>322</v>
+      </c>
+      <c r="P27">
+        <v>6821</v>
+      </c>
+      <c r="Q27">
         <v>26</v>
       </c>
-      <c r="J27">
+      <c r="R27">
         <v>26</v>
-      </c>
-      <c r="L27" t="s">
-        <v>38</v>
-      </c>
-      <c r="M27" t="s">
-        <v>331</v>
-      </c>
-      <c r="N27" t="s">
-        <v>317</v>
-      </c>
-      <c r="O27" t="s">
-        <v>38</v>
-      </c>
-      <c r="P27" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>323</v>
-      </c>
-      <c r="R27">
-        <v>6821</v>
       </c>
       <c r="S27">
         <v>126</v>
@@ -3715,32 +3638,29 @@
       <c r="H28" t="s">
         <v>31</v>
       </c>
-      <c r="I28">
+      <c r="K28" t="s">
+        <v>325</v>
+      </c>
+      <c r="L28" t="s">
+        <v>317</v>
+      </c>
+      <c r="M28" t="s">
+        <v>38</v>
+      </c>
+      <c r="N28" t="s">
+        <v>301</v>
+      </c>
+      <c r="O28" t="s">
+        <v>291</v>
+      </c>
+      <c r="P28">
+        <v>1544</v>
+      </c>
+      <c r="Q28">
         <v>27</v>
       </c>
-      <c r="J28">
+      <c r="R28">
         <v>27</v>
-      </c>
-      <c r="L28" t="s">
-        <v>38</v>
-      </c>
-      <c r="M28" t="s">
-        <v>326</v>
-      </c>
-      <c r="N28" t="s">
-        <v>318</v>
-      </c>
-      <c r="O28" t="s">
-        <v>38</v>
-      </c>
-      <c r="P28" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>292</v>
-      </c>
-      <c r="R28">
-        <v>1544</v>
       </c>
       <c r="S28">
         <v>18</v>
@@ -3801,32 +3721,29 @@
       <c r="H29" t="s">
         <v>32</v>
       </c>
-      <c r="I29">
+      <c r="K29" t="s">
+        <v>325</v>
+      </c>
+      <c r="L29" t="s">
+        <v>318</v>
+      </c>
+      <c r="M29" t="s">
+        <v>38</v>
+      </c>
+      <c r="N29" t="s">
+        <v>302</v>
+      </c>
+      <c r="O29" t="s">
+        <v>292</v>
+      </c>
+      <c r="P29">
+        <v>8355</v>
+      </c>
+      <c r="Q29">
         <v>28</v>
       </c>
-      <c r="J29">
+      <c r="R29">
         <v>28</v>
-      </c>
-      <c r="L29" t="s">
-        <v>38</v>
-      </c>
-      <c r="M29" t="s">
-        <v>326</v>
-      </c>
-      <c r="N29" t="s">
-        <v>319</v>
-      </c>
-      <c r="O29" t="s">
-        <v>38</v>
-      </c>
-      <c r="P29" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>293</v>
-      </c>
-      <c r="R29">
-        <v>8355</v>
       </c>
       <c r="S29">
         <v>121</v>
@@ -3887,32 +3804,29 @@
       <c r="H30" t="s">
         <v>33</v>
       </c>
-      <c r="I30">
+      <c r="K30" t="s">
+        <v>329</v>
+      </c>
+      <c r="L30" t="s">
+        <v>319</v>
+      </c>
+      <c r="M30" t="s">
+        <v>38</v>
+      </c>
+      <c r="N30" t="s">
+        <v>303</v>
+      </c>
+      <c r="O30" t="s">
+        <v>293</v>
+      </c>
+      <c r="P30">
+        <v>666</v>
+      </c>
+      <c r="Q30">
         <v>29</v>
       </c>
-      <c r="J30">
+      <c r="R30">
         <v>29</v>
-      </c>
-      <c r="L30" t="s">
-        <v>38</v>
-      </c>
-      <c r="M30" t="s">
-        <v>330</v>
-      </c>
-      <c r="N30" t="s">
-        <v>320</v>
-      </c>
-      <c r="O30" t="s">
-        <v>38</v>
-      </c>
-      <c r="P30" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>294</v>
-      </c>
-      <c r="R30">
-        <v>666</v>
       </c>
       <c r="S30">
         <v>71</v>
@@ -3973,32 +3887,29 @@
       <c r="H31" t="s">
         <v>34</v>
       </c>
-      <c r="I31">
+      <c r="K31" t="s">
+        <v>329</v>
+      </c>
+      <c r="L31" t="s">
+        <v>320</v>
+      </c>
+      <c r="M31" t="s">
+        <v>38</v>
+      </c>
+      <c r="N31" t="s">
+        <v>304</v>
+      </c>
+      <c r="O31" t="s">
+        <v>294</v>
+      </c>
+      <c r="P31">
+        <v>2393</v>
+      </c>
+      <c r="Q31">
         <v>30</v>
       </c>
-      <c r="J31">
+      <c r="R31">
         <v>30</v>
-      </c>
-      <c r="L31" t="s">
-        <v>38</v>
-      </c>
-      <c r="M31" t="s">
-        <v>330</v>
-      </c>
-      <c r="N31" t="s">
-        <v>321</v>
-      </c>
-      <c r="O31" t="s">
-        <v>38</v>
-      </c>
-      <c r="P31" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>295</v>
-      </c>
-      <c r="R31">
-        <v>2393</v>
       </c>
       <c r="S31">
         <v>6</v>
@@ -4059,29 +3970,26 @@
       <c r="H32" t="s">
         <v>36</v>
       </c>
-      <c r="I32">
+      <c r="K32" t="s">
+        <v>326</v>
+      </c>
+      <c r="L32" t="s">
+        <v>321</v>
+      </c>
+      <c r="M32" t="s">
+        <v>38</v>
+      </c>
+      <c r="N32" t="s">
+        <v>305</v>
+      </c>
+      <c r="O32" t="s">
+        <v>295</v>
+      </c>
+      <c r="P32">
+        <v>1571</v>
+      </c>
+      <c r="Q32">
         <v>31</v>
-      </c>
-      <c r="L32" t="s">
-        <v>38</v>
-      </c>
-      <c r="M32" t="s">
-        <v>327</v>
-      </c>
-      <c r="N32" t="s">
-        <v>322</v>
-      </c>
-      <c r="O32" t="s">
-        <v>38</v>
-      </c>
-      <c r="P32" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>296</v>
-      </c>
-      <c r="R32">
-        <v>1571</v>
       </c>
       <c r="S32">
         <v>92</v>
@@ -4142,32 +4050,29 @@
       <c r="H33" t="s">
         <v>37</v>
       </c>
-      <c r="I33">
+      <c r="K33" t="s">
+        <v>328</v>
+      </c>
+      <c r="L33" t="s">
+        <v>322</v>
+      </c>
+      <c r="M33" t="s">
+        <v>38</v>
+      </c>
+      <c r="N33" t="s">
+        <v>306</v>
+      </c>
+      <c r="O33" t="s">
+        <v>296</v>
+      </c>
+      <c r="P33">
+        <v>4615</v>
+      </c>
+      <c r="Q33">
         <v>32</v>
       </c>
-      <c r="J33">
+      <c r="R33">
         <v>32</v>
-      </c>
-      <c r="L33" t="s">
-        <v>38</v>
-      </c>
-      <c r="M33" t="s">
-        <v>329</v>
-      </c>
-      <c r="N33" t="s">
-        <v>323</v>
-      </c>
-      <c r="O33" t="s">
-        <v>38</v>
-      </c>
-      <c r="P33" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>297</v>
-      </c>
-      <c r="R33">
-        <v>4615</v>
       </c>
       <c r="S33">
         <v>67</v>
@@ -4228,32 +4133,29 @@
       <c r="H34" t="s">
         <v>34</v>
       </c>
-      <c r="I34">
+      <c r="K34" t="s">
+        <v>327</v>
+      </c>
+      <c r="L34" t="s">
+        <v>291</v>
+      </c>
+      <c r="M34" t="s">
+        <v>38</v>
+      </c>
+      <c r="N34" t="s">
+        <v>307</v>
+      </c>
+      <c r="O34" t="s">
+        <v>297</v>
+      </c>
+      <c r="P34">
+        <v>6033</v>
+      </c>
+      <c r="Q34">
         <v>33</v>
       </c>
-      <c r="J34">
+      <c r="R34">
         <v>33</v>
-      </c>
-      <c r="L34" t="s">
-        <v>38</v>
-      </c>
-      <c r="M34" t="s">
-        <v>328</v>
-      </c>
-      <c r="N34" t="s">
-        <v>292</v>
-      </c>
-      <c r="O34" t="s">
-        <v>38</v>
-      </c>
-      <c r="P34" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>298</v>
-      </c>
-      <c r="R34">
-        <v>6033</v>
       </c>
       <c r="S34">
         <v>121</v>
@@ -4294,7 +4196,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>225</v>
+        <v>334</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -4314,32 +4216,29 @@
       <c r="H35" t="s">
         <v>31</v>
       </c>
-      <c r="I35">
+      <c r="K35" t="s">
+        <v>325</v>
+      </c>
+      <c r="L35" t="s">
+        <v>292</v>
+      </c>
+      <c r="M35" t="s">
+        <v>38</v>
+      </c>
+      <c r="N35" t="s">
+        <v>308</v>
+      </c>
+      <c r="O35" t="s">
+        <v>298</v>
+      </c>
+      <c r="P35">
+        <v>3322</v>
+      </c>
+      <c r="Q35">
         <v>34</v>
       </c>
-      <c r="J35">
+      <c r="R35">
         <v>34</v>
-      </c>
-      <c r="L35" t="s">
-        <v>38</v>
-      </c>
-      <c r="M35" t="s">
-        <v>326</v>
-      </c>
-      <c r="N35" t="s">
-        <v>293</v>
-      </c>
-      <c r="O35" t="s">
-        <v>38</v>
-      </c>
-      <c r="P35" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>299</v>
-      </c>
-      <c r="R35">
-        <v>3322</v>
       </c>
       <c r="S35">
         <v>146</v>
@@ -4380,7 +4279,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -4400,32 +4299,29 @@
       <c r="H36" t="s">
         <v>32</v>
       </c>
-      <c r="I36">
+      <c r="K36" t="s">
+        <v>327</v>
+      </c>
+      <c r="L36" t="s">
+        <v>293</v>
+      </c>
+      <c r="M36" t="s">
+        <v>38</v>
+      </c>
+      <c r="N36" t="s">
+        <v>309</v>
+      </c>
+      <c r="O36" t="s">
+        <v>299</v>
+      </c>
+      <c r="P36">
+        <v>2250</v>
+      </c>
+      <c r="Q36">
         <v>35</v>
       </c>
-      <c r="J36">
+      <c r="R36">
         <v>35</v>
-      </c>
-      <c r="L36" t="s">
-        <v>38</v>
-      </c>
-      <c r="M36" t="s">
-        <v>328</v>
-      </c>
-      <c r="N36" t="s">
-        <v>294</v>
-      </c>
-      <c r="O36" t="s">
-        <v>38</v>
-      </c>
-      <c r="P36" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>300</v>
-      </c>
-      <c r="R36">
-        <v>2250</v>
       </c>
       <c r="S36">
         <v>58</v>
@@ -4466,7 +4362,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -4486,32 +4382,29 @@
       <c r="H37" t="s">
         <v>33</v>
       </c>
-      <c r="I37">
+      <c r="K37" t="s">
+        <v>327</v>
+      </c>
+      <c r="L37" t="s">
+        <v>294</v>
+      </c>
+      <c r="M37" t="s">
+        <v>38</v>
+      </c>
+      <c r="N37" t="s">
+        <v>310</v>
+      </c>
+      <c r="O37" t="s">
+        <v>300</v>
+      </c>
+      <c r="P37">
+        <v>1348</v>
+      </c>
+      <c r="Q37">
         <v>36</v>
       </c>
-      <c r="J37">
+      <c r="R37">
         <v>36</v>
-      </c>
-      <c r="L37" t="s">
-        <v>38</v>
-      </c>
-      <c r="M37" t="s">
-        <v>328</v>
-      </c>
-      <c r="N37" t="s">
-        <v>295</v>
-      </c>
-      <c r="O37" t="s">
-        <v>38</v>
-      </c>
-      <c r="P37" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>301</v>
-      </c>
-      <c r="R37">
-        <v>1348</v>
       </c>
       <c r="S37">
         <v>29</v>
@@ -4552,7 +4445,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -4572,32 +4465,29 @@
       <c r="H38" t="s">
         <v>34</v>
       </c>
-      <c r="I38">
+      <c r="K38" t="s">
+        <v>327</v>
+      </c>
+      <c r="L38" t="s">
+        <v>295</v>
+      </c>
+      <c r="M38" t="s">
+        <v>38</v>
+      </c>
+      <c r="N38" t="s">
+        <v>311</v>
+      </c>
+      <c r="O38" t="s">
+        <v>301</v>
+      </c>
+      <c r="P38">
+        <v>6378</v>
+      </c>
+      <c r="Q38">
         <v>37</v>
       </c>
-      <c r="J38">
+      <c r="R38">
         <v>37</v>
-      </c>
-      <c r="L38" t="s">
-        <v>38</v>
-      </c>
-      <c r="M38" t="s">
-        <v>328</v>
-      </c>
-      <c r="N38" t="s">
-        <v>296</v>
-      </c>
-      <c r="O38" t="s">
-        <v>38</v>
-      </c>
-      <c r="P38" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>302</v>
-      </c>
-      <c r="R38">
-        <v>6378</v>
       </c>
       <c r="S38">
         <v>54</v>
@@ -4638,7 +4528,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -4658,32 +4548,29 @@
       <c r="H39" t="s">
         <v>36</v>
       </c>
-      <c r="I39">
-        <v>38</v>
-      </c>
-      <c r="J39">
-        <v>38</v>
+      <c r="K39" t="s">
+        <v>325</v>
       </c>
       <c r="L39" t="s">
-        <v>38</v>
+        <v>296</v>
       </c>
       <c r="M39" t="s">
-        <v>326</v>
+        <v>38</v>
       </c>
       <c r="N39" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="O39" t="s">
-        <v>38</v>
-      </c>
-      <c r="P39" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>303</v>
+        <v>302</v>
+      </c>
+      <c r="P39">
+        <v>146</v>
+      </c>
+      <c r="Q39">
+        <v>38</v>
       </c>
       <c r="R39">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="S39">
         <v>52</v>
@@ -4724,7 +4611,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -4744,32 +4631,29 @@
       <c r="H40" t="s">
         <v>37</v>
       </c>
-      <c r="I40">
+      <c r="K40" t="s">
+        <v>325</v>
+      </c>
+      <c r="L40" t="s">
+        <v>297</v>
+      </c>
+      <c r="M40" t="s">
+        <v>38</v>
+      </c>
+      <c r="N40" t="s">
+        <v>313</v>
+      </c>
+      <c r="O40" t="s">
+        <v>303</v>
+      </c>
+      <c r="P40">
+        <v>8087</v>
+      </c>
+      <c r="Q40">
         <v>39</v>
       </c>
-      <c r="J40">
+      <c r="R40">
         <v>39</v>
-      </c>
-      <c r="L40" t="s">
-        <v>38</v>
-      </c>
-      <c r="M40" t="s">
-        <v>326</v>
-      </c>
-      <c r="N40" t="s">
-        <v>298</v>
-      </c>
-      <c r="O40" t="s">
-        <v>38</v>
-      </c>
-      <c r="P40" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>304</v>
-      </c>
-      <c r="R40">
-        <v>8087</v>
       </c>
       <c r="S40">
         <v>64</v>
@@ -4810,7 +4694,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -4830,32 +4714,29 @@
       <c r="H41" t="s">
         <v>34</v>
       </c>
-      <c r="I41">
+      <c r="K41" t="s">
+        <v>325</v>
+      </c>
+      <c r="L41" t="s">
+        <v>298</v>
+      </c>
+      <c r="M41" t="s">
+        <v>38</v>
+      </c>
+      <c r="N41" t="s">
+        <v>314</v>
+      </c>
+      <c r="O41" t="s">
+        <v>304</v>
+      </c>
+      <c r="P41">
+        <v>9558</v>
+      </c>
+      <c r="Q41">
         <v>40</v>
       </c>
-      <c r="J41">
+      <c r="R41">
         <v>40</v>
-      </c>
-      <c r="L41" t="s">
-        <v>38</v>
-      </c>
-      <c r="M41" t="s">
-        <v>326</v>
-      </c>
-      <c r="N41" t="s">
-        <v>299</v>
-      </c>
-      <c r="O41" t="s">
-        <v>38</v>
-      </c>
-      <c r="P41" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>305</v>
-      </c>
-      <c r="R41">
-        <v>9558</v>
       </c>
       <c r="S41">
         <v>122</v>
@@ -4896,7 +4777,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -4916,32 +4797,29 @@
       <c r="H42" t="s">
         <v>31</v>
       </c>
-      <c r="I42">
+      <c r="K42" t="s">
+        <v>327</v>
+      </c>
+      <c r="L42" t="s">
+        <v>299</v>
+      </c>
+      <c r="M42" t="s">
+        <v>38</v>
+      </c>
+      <c r="N42" t="s">
+        <v>315</v>
+      </c>
+      <c r="O42" t="s">
+        <v>305</v>
+      </c>
+      <c r="P42">
+        <v>1343</v>
+      </c>
+      <c r="Q42">
         <v>41</v>
       </c>
-      <c r="J42">
+      <c r="R42">
         <v>41</v>
-      </c>
-      <c r="L42" t="s">
-        <v>38</v>
-      </c>
-      <c r="M42" t="s">
-        <v>328</v>
-      </c>
-      <c r="N42" t="s">
-        <v>300</v>
-      </c>
-      <c r="O42" t="s">
-        <v>38</v>
-      </c>
-      <c r="P42" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>306</v>
-      </c>
-      <c r="R42">
-        <v>1343</v>
       </c>
       <c r="S42">
         <v>21</v>
@@ -4982,7 +4860,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -5002,32 +4880,29 @@
       <c r="H43" t="s">
         <v>32</v>
       </c>
-      <c r="I43">
+      <c r="K43" t="s">
+        <v>325</v>
+      </c>
+      <c r="L43" t="s">
+        <v>300</v>
+      </c>
+      <c r="M43" t="s">
+        <v>38</v>
+      </c>
+      <c r="N43" t="s">
+        <v>316</v>
+      </c>
+      <c r="O43" t="s">
+        <v>306</v>
+      </c>
+      <c r="P43">
+        <v>6174</v>
+      </c>
+      <c r="Q43">
         <v>42</v>
       </c>
-      <c r="J43">
+      <c r="R43">
         <v>42</v>
-      </c>
-      <c r="L43" t="s">
-        <v>38</v>
-      </c>
-      <c r="M43" t="s">
-        <v>326</v>
-      </c>
-      <c r="N43" t="s">
-        <v>301</v>
-      </c>
-      <c r="O43" t="s">
-        <v>38</v>
-      </c>
-      <c r="P43" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>307</v>
-      </c>
-      <c r="R43">
-        <v>6174</v>
       </c>
       <c r="S43">
         <v>73</v>
@@ -5068,7 +4943,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -5088,29 +4963,26 @@
       <c r="H44" t="s">
         <v>33</v>
       </c>
-      <c r="I44">
+      <c r="K44" t="s">
+        <v>326</v>
+      </c>
+      <c r="L44" t="s">
+        <v>301</v>
+      </c>
+      <c r="M44" t="s">
+        <v>38</v>
+      </c>
+      <c r="N44" t="s">
+        <v>317</v>
+      </c>
+      <c r="O44" t="s">
+        <v>307</v>
+      </c>
+      <c r="P44">
+        <v>7850</v>
+      </c>
+      <c r="Q44">
         <v>43</v>
-      </c>
-      <c r="L44" t="s">
-        <v>38</v>
-      </c>
-      <c r="M44" t="s">
-        <v>327</v>
-      </c>
-      <c r="N44" t="s">
-        <v>302</v>
-      </c>
-      <c r="O44" t="s">
-        <v>38</v>
-      </c>
-      <c r="P44" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>308</v>
-      </c>
-      <c r="R44">
-        <v>7850</v>
       </c>
       <c r="S44">
         <v>1</v>
@@ -5151,7 +5023,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -5171,32 +5043,29 @@
       <c r="H45" t="s">
         <v>34</v>
       </c>
-      <c r="I45">
+      <c r="K45" t="s">
+        <v>325</v>
+      </c>
+      <c r="L45" t="s">
+        <v>302</v>
+      </c>
+      <c r="M45" t="s">
+        <v>38</v>
+      </c>
+      <c r="N45" t="s">
+        <v>318</v>
+      </c>
+      <c r="O45" t="s">
+        <v>308</v>
+      </c>
+      <c r="P45">
+        <v>9940</v>
+      </c>
+      <c r="Q45">
         <v>44</v>
       </c>
-      <c r="J45">
+      <c r="R45">
         <v>44</v>
-      </c>
-      <c r="L45" t="s">
-        <v>38</v>
-      </c>
-      <c r="M45" t="s">
-        <v>326</v>
-      </c>
-      <c r="N45" t="s">
-        <v>303</v>
-      </c>
-      <c r="O45" t="s">
-        <v>38</v>
-      </c>
-      <c r="P45" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>309</v>
-      </c>
-      <c r="R45">
-        <v>9940</v>
       </c>
       <c r="S45">
         <v>123</v>
@@ -5237,7 +5106,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -5257,29 +5126,26 @@
       <c r="H46" t="s">
         <v>36</v>
       </c>
-      <c r="I46">
+      <c r="K46" t="s">
+        <v>326</v>
+      </c>
+      <c r="L46" t="s">
+        <v>303</v>
+      </c>
+      <c r="M46" t="s">
+        <v>38</v>
+      </c>
+      <c r="N46" t="s">
+        <v>319</v>
+      </c>
+      <c r="O46" t="s">
+        <v>309</v>
+      </c>
+      <c r="P46">
+        <v>6399</v>
+      </c>
+      <c r="Q46">
         <v>45</v>
-      </c>
-      <c r="L46" t="s">
-        <v>38</v>
-      </c>
-      <c r="M46" t="s">
-        <v>327</v>
-      </c>
-      <c r="N46" t="s">
-        <v>304</v>
-      </c>
-      <c r="O46" t="s">
-        <v>38</v>
-      </c>
-      <c r="P46" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>310</v>
-      </c>
-      <c r="R46">
-        <v>6399</v>
       </c>
       <c r="S46">
         <v>78</v>
@@ -5320,7 +5186,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -5340,29 +5206,26 @@
       <c r="H47" t="s">
         <v>37</v>
       </c>
-      <c r="I47">
+      <c r="K47" t="s">
+        <v>326</v>
+      </c>
+      <c r="L47" t="s">
+        <v>304</v>
+      </c>
+      <c r="M47" t="s">
+        <v>38</v>
+      </c>
+      <c r="N47" t="s">
+        <v>320</v>
+      </c>
+      <c r="O47" t="s">
+        <v>310</v>
+      </c>
+      <c r="P47">
+        <v>5143</v>
+      </c>
+      <c r="Q47">
         <v>46</v>
-      </c>
-      <c r="L47" t="s">
-        <v>38</v>
-      </c>
-      <c r="M47" t="s">
-        <v>327</v>
-      </c>
-      <c r="N47" t="s">
-        <v>305</v>
-      </c>
-      <c r="O47" t="s">
-        <v>38</v>
-      </c>
-      <c r="P47" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>311</v>
-      </c>
-      <c r="R47">
-        <v>5143</v>
       </c>
       <c r="S47">
         <v>80</v>
@@ -5403,7 +5266,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -5423,32 +5286,29 @@
       <c r="H48" t="s">
         <v>34</v>
       </c>
-      <c r="I48">
+      <c r="K48" t="s">
+        <v>325</v>
+      </c>
+      <c r="L48" t="s">
+        <v>305</v>
+      </c>
+      <c r="M48" t="s">
+        <v>38</v>
+      </c>
+      <c r="N48" t="s">
+        <v>321</v>
+      </c>
+      <c r="O48" t="s">
+        <v>311</v>
+      </c>
+      <c r="P48">
+        <v>2240</v>
+      </c>
+      <c r="Q48">
         <v>47</v>
       </c>
-      <c r="J48">
+      <c r="R48">
         <v>47</v>
-      </c>
-      <c r="L48" t="s">
-        <v>38</v>
-      </c>
-      <c r="M48" t="s">
-        <v>326</v>
-      </c>
-      <c r="N48" t="s">
-        <v>306</v>
-      </c>
-      <c r="O48" t="s">
-        <v>38</v>
-      </c>
-      <c r="P48" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>312</v>
-      </c>
-      <c r="R48">
-        <v>2240</v>
       </c>
       <c r="S48">
         <v>148</v>
@@ -5489,7 +5349,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -5509,32 +5369,29 @@
       <c r="H49" t="s">
         <v>31</v>
       </c>
-      <c r="I49">
+      <c r="K49" t="s">
+        <v>325</v>
+      </c>
+      <c r="L49" t="s">
+        <v>306</v>
+      </c>
+      <c r="M49" t="s">
+        <v>38</v>
+      </c>
+      <c r="N49" t="s">
+        <v>322</v>
+      </c>
+      <c r="O49" t="s">
+        <v>312</v>
+      </c>
+      <c r="P49">
+        <v>7674</v>
+      </c>
+      <c r="Q49">
         <v>48</v>
       </c>
-      <c r="J49">
+      <c r="R49">
         <v>48</v>
-      </c>
-      <c r="L49" t="s">
-        <v>38</v>
-      </c>
-      <c r="M49" t="s">
-        <v>326</v>
-      </c>
-      <c r="N49" t="s">
-        <v>307</v>
-      </c>
-      <c r="O49" t="s">
-        <v>38</v>
-      </c>
-      <c r="P49" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>313</v>
-      </c>
-      <c r="R49">
-        <v>7674</v>
       </c>
       <c r="S49">
         <v>29</v>
@@ -5575,7 +5432,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -5595,32 +5452,29 @@
       <c r="H50" t="s">
         <v>36</v>
       </c>
-      <c r="I50">
+      <c r="K50" t="s">
+        <v>325</v>
+      </c>
+      <c r="L50" t="s">
+        <v>307</v>
+      </c>
+      <c r="M50" t="s">
+        <v>38</v>
+      </c>
+      <c r="N50" t="s">
+        <v>291</v>
+      </c>
+      <c r="O50" t="s">
+        <v>313</v>
+      </c>
+      <c r="P50">
+        <v>4405</v>
+      </c>
+      <c r="Q50">
         <v>49</v>
       </c>
-      <c r="J50">
+      <c r="R50">
         <v>49</v>
-      </c>
-      <c r="L50" t="s">
-        <v>38</v>
-      </c>
-      <c r="M50" t="s">
-        <v>326</v>
-      </c>
-      <c r="N50" t="s">
-        <v>308</v>
-      </c>
-      <c r="O50" t="s">
-        <v>38</v>
-      </c>
-      <c r="P50" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>314</v>
-      </c>
-      <c r="R50">
-        <v>4405</v>
       </c>
       <c r="S50">
         <v>98</v>
@@ -5661,7 +5515,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -5681,32 +5535,29 @@
       <c r="H51" t="s">
         <v>37</v>
       </c>
-      <c r="I51">
+      <c r="K51" t="s">
+        <v>325</v>
+      </c>
+      <c r="L51" t="s">
+        <v>308</v>
+      </c>
+      <c r="M51" t="s">
+        <v>38</v>
+      </c>
+      <c r="N51" t="s">
+        <v>292</v>
+      </c>
+      <c r="O51" t="s">
+        <v>314</v>
+      </c>
+      <c r="P51">
+        <v>865</v>
+      </c>
+      <c r="Q51">
         <v>50</v>
       </c>
-      <c r="J51">
+      <c r="R51">
         <v>50</v>
-      </c>
-      <c r="L51" t="s">
-        <v>38</v>
-      </c>
-      <c r="M51" t="s">
-        <v>326</v>
-      </c>
-      <c r="N51" t="s">
-        <v>309</v>
-      </c>
-      <c r="O51" t="s">
-        <v>38</v>
-      </c>
-      <c r="P51" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>315</v>
-      </c>
-      <c r="R51">
-        <v>865</v>
       </c>
       <c r="S51">
         <v>1</v>
@@ -5747,7 +5598,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -5767,32 +5618,29 @@
       <c r="H52" t="s">
         <v>34</v>
       </c>
-      <c r="I52">
+      <c r="K52" t="s">
+        <v>325</v>
+      </c>
+      <c r="L52" t="s">
+        <v>309</v>
+      </c>
+      <c r="M52" t="s">
+        <v>38</v>
+      </c>
+      <c r="N52" t="s">
+        <v>293</v>
+      </c>
+      <c r="O52" t="s">
+        <v>315</v>
+      </c>
+      <c r="P52">
+        <v>4925</v>
+      </c>
+      <c r="Q52">
         <v>51</v>
       </c>
-      <c r="J52">
+      <c r="R52">
         <v>51</v>
-      </c>
-      <c r="L52" t="s">
-        <v>38</v>
-      </c>
-      <c r="M52" t="s">
-        <v>326</v>
-      </c>
-      <c r="N52" t="s">
-        <v>310</v>
-      </c>
-      <c r="O52" t="s">
-        <v>38</v>
-      </c>
-      <c r="P52" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>316</v>
-      </c>
-      <c r="R52">
-        <v>4925</v>
       </c>
       <c r="S52">
         <v>126</v>
@@ -5833,7 +5681,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C53">
         <v>6</v>
@@ -5853,32 +5701,29 @@
       <c r="H53" t="s">
         <v>31</v>
       </c>
-      <c r="I53">
+      <c r="K53" t="s">
+        <v>327</v>
+      </c>
+      <c r="L53" t="s">
+        <v>310</v>
+      </c>
+      <c r="M53" t="s">
+        <v>38</v>
+      </c>
+      <c r="N53" t="s">
+        <v>294</v>
+      </c>
+      <c r="O53" t="s">
+        <v>316</v>
+      </c>
+      <c r="P53">
+        <v>2482</v>
+      </c>
+      <c r="Q53">
         <v>52</v>
       </c>
-      <c r="J53">
+      <c r="R53">
         <v>52</v>
-      </c>
-      <c r="L53" t="s">
-        <v>38</v>
-      </c>
-      <c r="M53" t="s">
-        <v>328</v>
-      </c>
-      <c r="N53" t="s">
-        <v>311</v>
-      </c>
-      <c r="O53" t="s">
-        <v>38</v>
-      </c>
-      <c r="P53" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>317</v>
-      </c>
-      <c r="R53">
-        <v>2482</v>
       </c>
       <c r="S53">
         <v>41</v>
@@ -5919,7 +5764,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C54">
         <v>6</v>
@@ -5939,32 +5784,29 @@
       <c r="H54" t="s">
         <v>32</v>
       </c>
-      <c r="I54">
+      <c r="K54" t="s">
+        <v>325</v>
+      </c>
+      <c r="L54" t="s">
+        <v>311</v>
+      </c>
+      <c r="M54" t="s">
+        <v>38</v>
+      </c>
+      <c r="N54" t="s">
+        <v>295</v>
+      </c>
+      <c r="O54" t="s">
+        <v>317</v>
+      </c>
+      <c r="P54">
+        <v>9413</v>
+      </c>
+      <c r="Q54">
         <v>53</v>
       </c>
-      <c r="J54">
+      <c r="R54">
         <v>53</v>
-      </c>
-      <c r="L54" t="s">
-        <v>38</v>
-      </c>
-      <c r="M54" t="s">
-        <v>326</v>
-      </c>
-      <c r="N54" t="s">
-        <v>312</v>
-      </c>
-      <c r="O54" t="s">
-        <v>38</v>
-      </c>
-      <c r="P54" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>318</v>
-      </c>
-      <c r="R54">
-        <v>9413</v>
       </c>
       <c r="S54">
         <v>90</v>
@@ -6005,7 +5847,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C55">
         <v>6</v>
@@ -6025,29 +5867,26 @@
       <c r="H55" t="s">
         <v>33</v>
       </c>
-      <c r="I55">
+      <c r="K55" t="s">
+        <v>326</v>
+      </c>
+      <c r="L55" t="s">
+        <v>312</v>
+      </c>
+      <c r="M55" t="s">
+        <v>38</v>
+      </c>
+      <c r="N55" t="s">
+        <v>296</v>
+      </c>
+      <c r="O55" t="s">
+        <v>318</v>
+      </c>
+      <c r="P55">
+        <v>9559</v>
+      </c>
+      <c r="Q55">
         <v>54</v>
-      </c>
-      <c r="L55" t="s">
-        <v>38</v>
-      </c>
-      <c r="M55" t="s">
-        <v>327</v>
-      </c>
-      <c r="N55" t="s">
-        <v>313</v>
-      </c>
-      <c r="O55" t="s">
-        <v>38</v>
-      </c>
-      <c r="P55" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>319</v>
-      </c>
-      <c r="R55">
-        <v>9559</v>
       </c>
       <c r="S55">
         <v>138</v>
@@ -6088,7 +5927,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C56">
         <v>6</v>
@@ -6108,32 +5947,29 @@
       <c r="H56" t="s">
         <v>34</v>
       </c>
-      <c r="I56">
+      <c r="K56" t="s">
+        <v>325</v>
+      </c>
+      <c r="L56" t="s">
+        <v>313</v>
+      </c>
+      <c r="M56" t="s">
+        <v>38</v>
+      </c>
+      <c r="N56" t="s">
+        <v>297</v>
+      </c>
+      <c r="O56" t="s">
+        <v>319</v>
+      </c>
+      <c r="P56">
+        <v>9735</v>
+      </c>
+      <c r="Q56">
         <v>55</v>
       </c>
-      <c r="J56">
+      <c r="R56">
         <v>55</v>
-      </c>
-      <c r="L56" t="s">
-        <v>38</v>
-      </c>
-      <c r="M56" t="s">
-        <v>326</v>
-      </c>
-      <c r="N56" t="s">
-        <v>314</v>
-      </c>
-      <c r="O56" t="s">
-        <v>38</v>
-      </c>
-      <c r="P56" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>320</v>
-      </c>
-      <c r="R56">
-        <v>9735</v>
       </c>
       <c r="S56">
         <v>91</v>
@@ -6174,7 +6010,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C57">
         <v>6</v>
@@ -6194,32 +6030,29 @@
       <c r="H57" t="s">
         <v>36</v>
       </c>
-      <c r="I57">
+      <c r="K57" t="s">
+        <v>328</v>
+      </c>
+      <c r="L57" t="s">
+        <v>314</v>
+      </c>
+      <c r="M57" t="s">
+        <v>38</v>
+      </c>
+      <c r="N57" t="s">
+        <v>298</v>
+      </c>
+      <c r="O57" t="s">
+        <v>320</v>
+      </c>
+      <c r="P57">
+        <v>3755</v>
+      </c>
+      <c r="Q57">
         <v>56</v>
       </c>
-      <c r="J57">
+      <c r="R57">
         <v>56</v>
-      </c>
-      <c r="L57" t="s">
-        <v>38</v>
-      </c>
-      <c r="M57" t="s">
-        <v>329</v>
-      </c>
-      <c r="N57" t="s">
-        <v>315</v>
-      </c>
-      <c r="O57" t="s">
-        <v>38</v>
-      </c>
-      <c r="P57" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>321</v>
-      </c>
-      <c r="R57">
-        <v>3755</v>
       </c>
       <c r="S57">
         <v>64</v>
@@ -6260,7 +6093,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C58">
         <v>6</v>
@@ -6280,32 +6113,29 @@
       <c r="H58" t="s">
         <v>37</v>
       </c>
-      <c r="I58">
+      <c r="K58" t="s">
+        <v>325</v>
+      </c>
+      <c r="L58" t="s">
+        <v>315</v>
+      </c>
+      <c r="M58" t="s">
+        <v>38</v>
+      </c>
+      <c r="N58" t="s">
+        <v>299</v>
+      </c>
+      <c r="O58" t="s">
+        <v>321</v>
+      </c>
+      <c r="P58">
+        <v>155</v>
+      </c>
+      <c r="Q58">
         <v>57</v>
       </c>
-      <c r="J58">
+      <c r="R58">
         <v>57</v>
-      </c>
-      <c r="L58" t="s">
-        <v>38</v>
-      </c>
-      <c r="M58" t="s">
-        <v>326</v>
-      </c>
-      <c r="N58" t="s">
-        <v>316</v>
-      </c>
-      <c r="O58" t="s">
-        <v>38</v>
-      </c>
-      <c r="P58" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>322</v>
-      </c>
-      <c r="R58">
-        <v>155</v>
       </c>
       <c r="S58">
         <v>106</v>
@@ -6346,7 +6176,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C59">
         <v>6</v>
@@ -6366,32 +6196,29 @@
       <c r="H59" t="s">
         <v>34</v>
       </c>
-      <c r="I59">
+      <c r="K59" t="s">
+        <v>325</v>
+      </c>
+      <c r="L59" t="s">
+        <v>316</v>
+      </c>
+      <c r="M59" t="s">
+        <v>38</v>
+      </c>
+      <c r="N59" t="s">
+        <v>300</v>
+      </c>
+      <c r="O59" t="s">
+        <v>322</v>
+      </c>
+      <c r="P59">
+        <v>9957</v>
+      </c>
+      <c r="Q59">
         <v>58</v>
       </c>
-      <c r="J59">
+      <c r="R59">
         <v>58</v>
-      </c>
-      <c r="L59" t="s">
-        <v>38</v>
-      </c>
-      <c r="M59" t="s">
-        <v>326</v>
-      </c>
-      <c r="N59" t="s">
-        <v>317</v>
-      </c>
-      <c r="O59" t="s">
-        <v>38</v>
-      </c>
-      <c r="P59" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>323</v>
-      </c>
-      <c r="R59">
-        <v>9957</v>
       </c>
       <c r="S59">
         <v>55</v>
@@ -6432,7 +6259,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C60">
         <v>6</v>
@@ -6452,29 +6279,26 @@
       <c r="H60" t="s">
         <v>31</v>
       </c>
-      <c r="I60">
+      <c r="K60" t="s">
+        <v>326</v>
+      </c>
+      <c r="L60" t="s">
+        <v>317</v>
+      </c>
+      <c r="M60" t="s">
+        <v>38</v>
+      </c>
+      <c r="N60" t="s">
+        <v>301</v>
+      </c>
+      <c r="O60" t="s">
+        <v>291</v>
+      </c>
+      <c r="P60">
+        <v>2679</v>
+      </c>
+      <c r="Q60">
         <v>59</v>
-      </c>
-      <c r="L60" t="s">
-        <v>38</v>
-      </c>
-      <c r="M60" t="s">
-        <v>327</v>
-      </c>
-      <c r="N60" t="s">
-        <v>318</v>
-      </c>
-      <c r="O60" t="s">
-        <v>38</v>
-      </c>
-      <c r="P60" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>292</v>
-      </c>
-      <c r="R60">
-        <v>2679</v>
       </c>
       <c r="S60">
         <v>67</v>
@@ -6515,7 +6339,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C61">
         <v>6</v>
@@ -6535,32 +6359,29 @@
       <c r="H61" t="s">
         <v>36</v>
       </c>
-      <c r="I61">
+      <c r="K61" t="s">
+        <v>325</v>
+      </c>
+      <c r="L61" t="s">
+        <v>318</v>
+      </c>
+      <c r="M61" t="s">
+        <v>38</v>
+      </c>
+      <c r="N61" t="s">
+        <v>302</v>
+      </c>
+      <c r="O61" t="s">
+        <v>292</v>
+      </c>
+      <c r="P61">
+        <v>8418</v>
+      </c>
+      <c r="Q61">
         <v>60</v>
       </c>
-      <c r="J61">
+      <c r="R61">
         <v>60</v>
-      </c>
-      <c r="L61" t="s">
-        <v>38</v>
-      </c>
-      <c r="M61" t="s">
-        <v>326</v>
-      </c>
-      <c r="N61" t="s">
-        <v>319</v>
-      </c>
-      <c r="O61" t="s">
-        <v>38</v>
-      </c>
-      <c r="P61" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>293</v>
-      </c>
-      <c r="R61">
-        <v>8418</v>
       </c>
       <c r="S61">
         <v>139</v>
@@ -6601,7 +6422,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C62">
         <v>7</v>
@@ -6622,34 +6443,31 @@
         <v>34</v>
       </c>
       <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="K62" t="s">
+        <v>325</v>
+      </c>
+      <c r="L62" t="s">
+        <v>319</v>
+      </c>
+      <c r="M62" t="s">
+        <v>38</v>
+      </c>
+      <c r="N62" t="s">
+        <v>303</v>
+      </c>
+      <c r="O62" t="s">
+        <v>293</v>
+      </c>
+      <c r="P62">
+        <v>1717</v>
+      </c>
+      <c r="Q62">
         <v>61</v>
       </c>
-      <c r="J62">
+      <c r="R62">
         <v>61</v>
-      </c>
-      <c r="K62">
-        <v>1</v>
-      </c>
-      <c r="L62">
-        <v>1550</v>
-      </c>
-      <c r="M62" t="s">
-        <v>326</v>
-      </c>
-      <c r="N62" t="s">
-        <v>320</v>
-      </c>
-      <c r="O62" t="s">
-        <v>38</v>
-      </c>
-      <c r="P62" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>294</v>
-      </c>
-      <c r="R62">
-        <v>1717</v>
       </c>
       <c r="S62">
         <v>2</v>
@@ -6690,7 +6508,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C63">
         <v>7</v>
@@ -6711,34 +6529,31 @@
         <v>36</v>
       </c>
       <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="K63" t="s">
+        <v>327</v>
+      </c>
+      <c r="L63" t="s">
+        <v>320</v>
+      </c>
+      <c r="M63" t="s">
+        <v>38</v>
+      </c>
+      <c r="N63" t="s">
+        <v>304</v>
+      </c>
+      <c r="O63" t="s">
+        <v>294</v>
+      </c>
+      <c r="P63">
+        <v>4258</v>
+      </c>
+      <c r="Q63">
         <v>62</v>
       </c>
-      <c r="J63">
+      <c r="R63">
         <v>62</v>
-      </c>
-      <c r="K63">
-        <v>2</v>
-      </c>
-      <c r="L63">
-        <v>1551</v>
-      </c>
-      <c r="M63" t="s">
-        <v>328</v>
-      </c>
-      <c r="N63" t="s">
-        <v>321</v>
-      </c>
-      <c r="O63" t="s">
-        <v>38</v>
-      </c>
-      <c r="P63" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>295</v>
-      </c>
-      <c r="R63">
-        <v>4258</v>
       </c>
       <c r="S63">
         <v>120</v>
@@ -6779,7 +6594,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C64">
         <v>7</v>
@@ -6800,34 +6615,31 @@
         <v>37</v>
       </c>
       <c r="I64">
+        <v>4</v>
+      </c>
+      <c r="K64" t="s">
+        <v>325</v>
+      </c>
+      <c r="L64" t="s">
+        <v>321</v>
+      </c>
+      <c r="M64" t="s">
+        <v>38</v>
+      </c>
+      <c r="N64" t="s">
+        <v>305</v>
+      </c>
+      <c r="O64" t="s">
+        <v>295</v>
+      </c>
+      <c r="P64">
+        <v>8540</v>
+      </c>
+      <c r="Q64">
         <v>63</v>
       </c>
-      <c r="J64">
+      <c r="R64">
         <v>63</v>
-      </c>
-      <c r="K64">
-        <v>3</v>
-      </c>
-      <c r="L64">
-        <v>1552</v>
-      </c>
-      <c r="M64" t="s">
-        <v>326</v>
-      </c>
-      <c r="N64" t="s">
-        <v>322</v>
-      </c>
-      <c r="O64" t="s">
-        <v>38</v>
-      </c>
-      <c r="P64" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>296</v>
-      </c>
-      <c r="R64">
-        <v>8540</v>
       </c>
       <c r="S64">
         <v>120</v>
@@ -6868,7 +6680,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C65">
         <v>7</v>
@@ -6889,31 +6701,28 @@
         <v>31</v>
       </c>
       <c r="I65">
+        <v>5</v>
+      </c>
+      <c r="K65" t="s">
+        <v>326</v>
+      </c>
+      <c r="L65" t="s">
+        <v>322</v>
+      </c>
+      <c r="M65" t="s">
+        <v>38</v>
+      </c>
+      <c r="N65" t="s">
+        <v>306</v>
+      </c>
+      <c r="O65" t="s">
+        <v>296</v>
+      </c>
+      <c r="P65">
+        <v>3606</v>
+      </c>
+      <c r="Q65">
         <v>64</v>
-      </c>
-      <c r="K65">
-        <v>4</v>
-      </c>
-      <c r="L65">
-        <v>1553</v>
-      </c>
-      <c r="M65" t="s">
-        <v>327</v>
-      </c>
-      <c r="N65" t="s">
-        <v>323</v>
-      </c>
-      <c r="O65" t="s">
-        <v>38</v>
-      </c>
-      <c r="P65" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>297</v>
-      </c>
-      <c r="R65">
-        <v>3606</v>
       </c>
       <c r="S65">
         <v>98</v>
@@ -6954,7 +6763,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C66">
         <v>7</v>
@@ -6975,34 +6784,31 @@
         <v>32</v>
       </c>
       <c r="I66">
+        <v>6</v>
+      </c>
+      <c r="K66" t="s">
+        <v>325</v>
+      </c>
+      <c r="L66" t="s">
+        <v>291</v>
+      </c>
+      <c r="M66" t="s">
+        <v>38</v>
+      </c>
+      <c r="N66" t="s">
+        <v>307</v>
+      </c>
+      <c r="O66" t="s">
+        <v>297</v>
+      </c>
+      <c r="P66">
+        <v>5994</v>
+      </c>
+      <c r="Q66">
         <v>65</v>
       </c>
-      <c r="J66">
+      <c r="R66">
         <v>65</v>
-      </c>
-      <c r="K66">
-        <v>5</v>
-      </c>
-      <c r="L66">
-        <v>1554</v>
-      </c>
-      <c r="M66" t="s">
-        <v>326</v>
-      </c>
-      <c r="N66" t="s">
-        <v>292</v>
-      </c>
-      <c r="O66" t="s">
-        <v>38</v>
-      </c>
-      <c r="P66" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>298</v>
-      </c>
-      <c r="R66">
-        <v>5994</v>
       </c>
       <c r="S66">
         <v>38</v>
@@ -7043,7 +6849,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C67">
         <v>7</v>
@@ -7064,34 +6870,31 @@
         <v>33</v>
       </c>
       <c r="I67">
+        <v>7</v>
+      </c>
+      <c r="K67" t="s">
+        <v>325</v>
+      </c>
+      <c r="L67" t="s">
+        <v>292</v>
+      </c>
+      <c r="M67" t="s">
+        <v>38</v>
+      </c>
+      <c r="N67" t="s">
+        <v>308</v>
+      </c>
+      <c r="O67" t="s">
+        <v>298</v>
+      </c>
+      <c r="P67">
+        <v>1917</v>
+      </c>
+      <c r="Q67">
         <v>66</v>
       </c>
-      <c r="J67">
+      <c r="R67">
         <v>66</v>
-      </c>
-      <c r="K67">
-        <v>6</v>
-      </c>
-      <c r="L67">
-        <v>1555</v>
-      </c>
-      <c r="M67" t="s">
-        <v>326</v>
-      </c>
-      <c r="N67" t="s">
-        <v>293</v>
-      </c>
-      <c r="O67" t="s">
-        <v>38</v>
-      </c>
-      <c r="P67" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>299</v>
-      </c>
-      <c r="R67">
-        <v>1917</v>
       </c>
       <c r="S67">
         <v>36</v>
@@ -7132,7 +6935,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C68">
         <v>7</v>
@@ -7153,34 +6956,31 @@
         <v>34</v>
       </c>
       <c r="I68">
+        <v>8</v>
+      </c>
+      <c r="K68" t="s">
+        <v>325</v>
+      </c>
+      <c r="L68" t="s">
+        <v>293</v>
+      </c>
+      <c r="M68" t="s">
+        <v>38</v>
+      </c>
+      <c r="N68" t="s">
+        <v>309</v>
+      </c>
+      <c r="O68" t="s">
+        <v>299</v>
+      </c>
+      <c r="P68">
+        <v>2379</v>
+      </c>
+      <c r="Q68">
         <v>67</v>
       </c>
-      <c r="J68">
+      <c r="R68">
         <v>67</v>
-      </c>
-      <c r="K68">
-        <v>7</v>
-      </c>
-      <c r="L68">
-        <v>1556</v>
-      </c>
-      <c r="M68" t="s">
-        <v>326</v>
-      </c>
-      <c r="N68" t="s">
-        <v>294</v>
-      </c>
-      <c r="O68" t="s">
-        <v>38</v>
-      </c>
-      <c r="P68" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>300</v>
-      </c>
-      <c r="R68">
-        <v>2379</v>
       </c>
       <c r="S68">
         <v>25</v>
@@ -7221,7 +7021,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C69">
         <v>7</v>
@@ -7242,34 +7042,31 @@
         <v>36</v>
       </c>
       <c r="I69">
+        <v>9</v>
+      </c>
+      <c r="K69" t="s">
+        <v>325</v>
+      </c>
+      <c r="L69" t="s">
+        <v>294</v>
+      </c>
+      <c r="M69" t="s">
+        <v>38</v>
+      </c>
+      <c r="N69" t="s">
+        <v>310</v>
+      </c>
+      <c r="O69" t="s">
+        <v>300</v>
+      </c>
+      <c r="P69">
+        <v>6618</v>
+      </c>
+      <c r="Q69">
         <v>68</v>
       </c>
-      <c r="J69">
+      <c r="R69">
         <v>68</v>
-      </c>
-      <c r="K69">
-        <v>8</v>
-      </c>
-      <c r="L69">
-        <v>1557</v>
-      </c>
-      <c r="M69" t="s">
-        <v>326</v>
-      </c>
-      <c r="N69" t="s">
-        <v>295</v>
-      </c>
-      <c r="O69" t="s">
-        <v>38</v>
-      </c>
-      <c r="P69" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>301</v>
-      </c>
-      <c r="R69">
-        <v>6618</v>
       </c>
       <c r="S69">
         <v>146</v>
@@ -7310,7 +7107,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C70">
         <v>7</v>
@@ -7331,31 +7128,28 @@
         <v>37</v>
       </c>
       <c r="I70">
+        <v>10</v>
+      </c>
+      <c r="K70" t="s">
+        <v>326</v>
+      </c>
+      <c r="L70" t="s">
+        <v>295</v>
+      </c>
+      <c r="M70" t="s">
+        <v>38</v>
+      </c>
+      <c r="N70" t="s">
+        <v>311</v>
+      </c>
+      <c r="O70" t="s">
+        <v>301</v>
+      </c>
+      <c r="P70">
+        <v>2665</v>
+      </c>
+      <c r="Q70">
         <v>69</v>
-      </c>
-      <c r="K70">
-        <v>9</v>
-      </c>
-      <c r="L70">
-        <v>1558</v>
-      </c>
-      <c r="M70" t="s">
-        <v>327</v>
-      </c>
-      <c r="N70" t="s">
-        <v>296</v>
-      </c>
-      <c r="O70" t="s">
-        <v>38</v>
-      </c>
-      <c r="P70" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>302</v>
-      </c>
-      <c r="R70">
-        <v>2665</v>
       </c>
       <c r="S70">
         <v>101</v>
@@ -7396,7 +7190,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C71">
         <v>7</v>
@@ -7417,34 +7211,31 @@
         <v>34</v>
       </c>
       <c r="I71">
+        <v>12</v>
+      </c>
+      <c r="K71" t="s">
+        <v>325</v>
+      </c>
+      <c r="L71" t="s">
+        <v>296</v>
+      </c>
+      <c r="M71" t="s">
+        <v>38</v>
+      </c>
+      <c r="N71" t="s">
+        <v>312</v>
+      </c>
+      <c r="O71" t="s">
+        <v>302</v>
+      </c>
+      <c r="P71">
+        <v>6786</v>
+      </c>
+      <c r="Q71">
         <v>70</v>
       </c>
-      <c r="J71">
+      <c r="R71">
         <v>70</v>
-      </c>
-      <c r="K71">
-        <v>10</v>
-      </c>
-      <c r="L71">
-        <v>1559</v>
-      </c>
-      <c r="M71" t="s">
-        <v>326</v>
-      </c>
-      <c r="N71" t="s">
-        <v>297</v>
-      </c>
-      <c r="O71" t="s">
-        <v>38</v>
-      </c>
-      <c r="P71" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>303</v>
-      </c>
-      <c r="R71">
-        <v>6786</v>
       </c>
       <c r="S71">
         <v>90</v>
@@ -7485,7 +7276,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C72">
         <v>8</v>
@@ -7505,32 +7296,29 @@
       <c r="H72" t="s">
         <v>31</v>
       </c>
-      <c r="I72">
+      <c r="K72" t="s">
+        <v>327</v>
+      </c>
+      <c r="L72" t="s">
+        <v>297</v>
+      </c>
+      <c r="M72" t="s">
+        <v>38</v>
+      </c>
+      <c r="N72" t="s">
+        <v>313</v>
+      </c>
+      <c r="O72" t="s">
+        <v>303</v>
+      </c>
+      <c r="P72">
+        <v>5975</v>
+      </c>
+      <c r="Q72">
         <v>71</v>
       </c>
-      <c r="J72">
+      <c r="R72">
         <v>71</v>
-      </c>
-      <c r="L72" t="s">
-        <v>38</v>
-      </c>
-      <c r="M72" t="s">
-        <v>328</v>
-      </c>
-      <c r="N72" t="s">
-        <v>298</v>
-      </c>
-      <c r="O72" t="s">
-        <v>38</v>
-      </c>
-      <c r="P72" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>304</v>
-      </c>
-      <c r="R72">
-        <v>5975</v>
       </c>
       <c r="S72">
         <v>47</v>
@@ -7571,7 +7359,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C73">
         <v>8</v>
@@ -7591,32 +7379,29 @@
       <c r="H73" t="s">
         <v>32</v>
       </c>
-      <c r="I73">
+      <c r="K73" t="s">
+        <v>328</v>
+      </c>
+      <c r="L73" t="s">
+        <v>298</v>
+      </c>
+      <c r="M73" t="s">
+        <v>38</v>
+      </c>
+      <c r="N73" t="s">
+        <v>314</v>
+      </c>
+      <c r="O73" t="s">
+        <v>304</v>
+      </c>
+      <c r="P73">
+        <v>5507</v>
+      </c>
+      <c r="Q73">
         <v>72</v>
       </c>
-      <c r="J73">
+      <c r="R73">
         <v>72</v>
-      </c>
-      <c r="L73" t="s">
-        <v>38</v>
-      </c>
-      <c r="M73" t="s">
-        <v>329</v>
-      </c>
-      <c r="N73" t="s">
-        <v>299</v>
-      </c>
-      <c r="O73" t="s">
-        <v>38</v>
-      </c>
-      <c r="P73" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>305</v>
-      </c>
-      <c r="R73">
-        <v>5507</v>
       </c>
       <c r="S73">
         <v>104</v>
@@ -7657,7 +7442,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C74">
         <v>8</v>
@@ -7677,32 +7462,29 @@
       <c r="H74" t="s">
         <v>33</v>
       </c>
-      <c r="I74">
+      <c r="K74" t="s">
+        <v>325</v>
+      </c>
+      <c r="L74" t="s">
+        <v>299</v>
+      </c>
+      <c r="M74" t="s">
+        <v>38</v>
+      </c>
+      <c r="N74" t="s">
+        <v>315</v>
+      </c>
+      <c r="O74" t="s">
+        <v>305</v>
+      </c>
+      <c r="P74">
+        <v>5041</v>
+      </c>
+      <c r="Q74">
         <v>73</v>
       </c>
-      <c r="J74">
+      <c r="R74">
         <v>73</v>
-      </c>
-      <c r="L74" t="s">
-        <v>38</v>
-      </c>
-      <c r="M74" t="s">
-        <v>326</v>
-      </c>
-      <c r="N74" t="s">
-        <v>300</v>
-      </c>
-      <c r="O74" t="s">
-        <v>38</v>
-      </c>
-      <c r="P74" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>306</v>
-      </c>
-      <c r="R74">
-        <v>5041</v>
       </c>
       <c r="S74">
         <v>136</v>
@@ -7743,7 +7525,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C75">
         <v>8</v>
@@ -7763,32 +7545,29 @@
       <c r="H75" t="s">
         <v>34</v>
       </c>
-      <c r="I75">
+      <c r="K75" t="s">
+        <v>327</v>
+      </c>
+      <c r="L75" t="s">
+        <v>300</v>
+      </c>
+      <c r="M75" t="s">
+        <v>38</v>
+      </c>
+      <c r="N75" t="s">
+        <v>316</v>
+      </c>
+      <c r="O75" t="s">
+        <v>306</v>
+      </c>
+      <c r="P75">
+        <v>256</v>
+      </c>
+      <c r="Q75">
         <v>74</v>
       </c>
-      <c r="J75">
-        <v>74</v>
-      </c>
-      <c r="L75" t="s">
-        <v>38</v>
-      </c>
-      <c r="M75" t="s">
-        <v>328</v>
-      </c>
-      <c r="N75" t="s">
-        <v>301</v>
-      </c>
-      <c r="O75" t="s">
-        <v>38</v>
-      </c>
-      <c r="P75" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>307</v>
-      </c>
       <c r="R75">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="S75">
         <v>33</v>
@@ -7829,7 +7608,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C76">
         <v>8</v>
@@ -7849,29 +7628,26 @@
       <c r="H76" t="s">
         <v>36</v>
       </c>
-      <c r="I76">
+      <c r="K76" t="s">
+        <v>326</v>
+      </c>
+      <c r="L76" t="s">
+        <v>301</v>
+      </c>
+      <c r="M76" t="s">
+        <v>38</v>
+      </c>
+      <c r="N76" t="s">
+        <v>317</v>
+      </c>
+      <c r="O76" t="s">
+        <v>307</v>
+      </c>
+      <c r="P76">
+        <v>4120</v>
+      </c>
+      <c r="Q76">
         <v>75</v>
-      </c>
-      <c r="L76" t="s">
-        <v>38</v>
-      </c>
-      <c r="M76" t="s">
-        <v>327</v>
-      </c>
-      <c r="N76" t="s">
-        <v>302</v>
-      </c>
-      <c r="O76" t="s">
-        <v>38</v>
-      </c>
-      <c r="P76" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>308</v>
-      </c>
-      <c r="R76">
-        <v>4120</v>
       </c>
       <c r="S76">
         <v>117</v>
@@ -7912,7 +7688,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C77">
         <v>8</v>
@@ -7932,32 +7708,29 @@
       <c r="H77" t="s">
         <v>37</v>
       </c>
-      <c r="I77">
+      <c r="K77" t="s">
+        <v>325</v>
+      </c>
+      <c r="L77" t="s">
+        <v>302</v>
+      </c>
+      <c r="M77" t="s">
+        <v>38</v>
+      </c>
+      <c r="N77" t="s">
+        <v>318</v>
+      </c>
+      <c r="O77" t="s">
+        <v>308</v>
+      </c>
+      <c r="P77">
+        <v>8332</v>
+      </c>
+      <c r="Q77">
         <v>76</v>
       </c>
-      <c r="J77">
-        <v>76</v>
-      </c>
-      <c r="L77" t="s">
-        <v>38</v>
-      </c>
-      <c r="M77" t="s">
-        <v>326</v>
-      </c>
-      <c r="N77" t="s">
-        <v>303</v>
-      </c>
-      <c r="O77" t="s">
-        <v>38</v>
-      </c>
-      <c r="P77" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>309</v>
-      </c>
       <c r="R77">
-        <v>8332</v>
+        <v>2</v>
       </c>
       <c r="S77">
         <v>14</v>
@@ -7998,7 +7771,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C78">
         <v>8</v>
@@ -8018,32 +7791,29 @@
       <c r="H78" t="s">
         <v>34</v>
       </c>
-      <c r="I78">
+      <c r="K78" t="s">
+        <v>325</v>
+      </c>
+      <c r="L78" t="s">
+        <v>303</v>
+      </c>
+      <c r="M78" t="s">
+        <v>38</v>
+      </c>
+      <c r="N78" t="s">
+        <v>319</v>
+      </c>
+      <c r="O78" t="s">
+        <v>309</v>
+      </c>
+      <c r="P78">
+        <v>6565</v>
+      </c>
+      <c r="Q78">
         <v>77</v>
       </c>
-      <c r="J78">
-        <v>77</v>
-      </c>
-      <c r="L78" t="s">
-        <v>38</v>
-      </c>
-      <c r="M78" t="s">
-        <v>326</v>
-      </c>
-      <c r="N78" t="s">
-        <v>304</v>
-      </c>
-      <c r="O78" t="s">
-        <v>38</v>
-      </c>
-      <c r="P78" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>310</v>
-      </c>
       <c r="R78">
-        <v>6565</v>
+        <v>3</v>
       </c>
       <c r="S78">
         <v>10</v>
@@ -8084,7 +7854,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C79">
         <v>8</v>
@@ -8104,32 +7874,29 @@
       <c r="H79" t="s">
         <v>31</v>
       </c>
-      <c r="I79">
+      <c r="K79" t="s">
+        <v>325</v>
+      </c>
+      <c r="L79" t="s">
+        <v>304</v>
+      </c>
+      <c r="M79" t="s">
+        <v>38</v>
+      </c>
+      <c r="N79" t="s">
+        <v>320</v>
+      </c>
+      <c r="O79" t="s">
+        <v>310</v>
+      </c>
+      <c r="P79">
+        <v>5821</v>
+      </c>
+      <c r="Q79">
         <v>78</v>
       </c>
-      <c r="J79">
-        <v>78</v>
-      </c>
-      <c r="L79" t="s">
-        <v>38</v>
-      </c>
-      <c r="M79" t="s">
-        <v>326</v>
-      </c>
-      <c r="N79" t="s">
-        <v>305</v>
-      </c>
-      <c r="O79" t="s">
-        <v>38</v>
-      </c>
-      <c r="P79" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>311</v>
-      </c>
       <c r="R79">
-        <v>5821</v>
+        <v>4</v>
       </c>
       <c r="S79">
         <v>136</v>
@@ -8170,7 +7937,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C80">
         <v>8</v>
@@ -8190,32 +7957,29 @@
       <c r="H80" t="s">
         <v>32</v>
       </c>
-      <c r="I80">
+      <c r="K80" t="s">
+        <v>325</v>
+      </c>
+      <c r="L80" t="s">
+        <v>305</v>
+      </c>
+      <c r="M80" t="s">
+        <v>38</v>
+      </c>
+      <c r="N80" t="s">
+        <v>321</v>
+      </c>
+      <c r="O80" t="s">
+        <v>311</v>
+      </c>
+      <c r="P80">
+        <v>3836</v>
+      </c>
+      <c r="Q80">
         <v>79</v>
       </c>
-      <c r="J80">
-        <v>79</v>
-      </c>
-      <c r="L80" t="s">
-        <v>38</v>
-      </c>
-      <c r="M80" t="s">
-        <v>326</v>
-      </c>
-      <c r="N80" t="s">
-        <v>306</v>
-      </c>
-      <c r="O80" t="s">
-        <v>38</v>
-      </c>
-      <c r="P80" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>312</v>
-      </c>
       <c r="R80">
-        <v>3836</v>
+        <v>5</v>
       </c>
       <c r="S80">
         <v>8</v>
@@ -8256,7 +8020,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C81">
         <v>8</v>
@@ -8276,32 +8040,29 @@
       <c r="H81" t="s">
         <v>33</v>
       </c>
-      <c r="I81">
+      <c r="K81" t="s">
+        <v>325</v>
+      </c>
+      <c r="L81" t="s">
+        <v>306</v>
+      </c>
+      <c r="M81" t="s">
+        <v>38</v>
+      </c>
+      <c r="N81" t="s">
+        <v>322</v>
+      </c>
+      <c r="O81" t="s">
+        <v>312</v>
+      </c>
+      <c r="P81">
+        <v>9037</v>
+      </c>
+      <c r="Q81">
         <v>80</v>
       </c>
-      <c r="J81">
-        <v>80</v>
-      </c>
-      <c r="L81" t="s">
-        <v>38</v>
-      </c>
-      <c r="M81" t="s">
-        <v>326</v>
-      </c>
-      <c r="N81" t="s">
-        <v>307</v>
-      </c>
-      <c r="O81" t="s">
-        <v>38</v>
-      </c>
-      <c r="P81" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>313</v>
-      </c>
       <c r="R81">
-        <v>9037</v>
+        <v>6</v>
       </c>
       <c r="S81">
         <v>149</v>
@@ -8342,7 +8103,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C82">
         <v>9</v>
@@ -8362,32 +8123,29 @@
       <c r="H82" t="s">
         <v>34</v>
       </c>
-      <c r="I82">
+      <c r="K82" t="s">
+        <v>325</v>
+      </c>
+      <c r="L82" t="s">
+        <v>307</v>
+      </c>
+      <c r="M82" t="s">
+        <v>38</v>
+      </c>
+      <c r="N82" t="s">
+        <v>291</v>
+      </c>
+      <c r="O82" t="s">
+        <v>313</v>
+      </c>
+      <c r="P82">
+        <v>4457</v>
+      </c>
+      <c r="Q82">
         <v>81</v>
       </c>
-      <c r="J82">
-        <v>81</v>
-      </c>
-      <c r="L82" t="s">
-        <v>38</v>
-      </c>
-      <c r="M82" t="s">
-        <v>326</v>
-      </c>
-      <c r="N82" t="s">
-        <v>308</v>
-      </c>
-      <c r="O82" t="s">
-        <v>38</v>
-      </c>
-      <c r="P82" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>314</v>
-      </c>
       <c r="R82">
-        <v>4457</v>
+        <v>7</v>
       </c>
       <c r="S82">
         <v>97</v>
@@ -8428,7 +8186,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C83">
         <v>9</v>
@@ -8448,32 +8206,29 @@
       <c r="H83" t="s">
         <v>36</v>
       </c>
-      <c r="I83">
+      <c r="K83" t="s">
+        <v>325</v>
+      </c>
+      <c r="L83" t="s">
+        <v>308</v>
+      </c>
+      <c r="M83" t="s">
+        <v>38</v>
+      </c>
+      <c r="N83" t="s">
+        <v>292</v>
+      </c>
+      <c r="O83" t="s">
+        <v>314</v>
+      </c>
+      <c r="P83">
+        <v>5465</v>
+      </c>
+      <c r="Q83">
         <v>82</v>
       </c>
-      <c r="J83">
-        <v>82</v>
-      </c>
-      <c r="L83" t="s">
-        <v>38</v>
-      </c>
-      <c r="M83" t="s">
-        <v>326</v>
-      </c>
-      <c r="N83" t="s">
-        <v>309</v>
-      </c>
-      <c r="O83" t="s">
-        <v>38</v>
-      </c>
-      <c r="P83" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>315</v>
-      </c>
       <c r="R83">
-        <v>5465</v>
+        <v>8</v>
       </c>
       <c r="S83">
         <v>153</v>
@@ -8514,7 +8269,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C84">
         <v>9</v>
@@ -8534,32 +8289,29 @@
       <c r="H84" t="s">
         <v>37</v>
       </c>
-      <c r="I84">
+      <c r="K84" t="s">
+        <v>327</v>
+      </c>
+      <c r="L84" t="s">
+        <v>309</v>
+      </c>
+      <c r="M84" t="s">
+        <v>38</v>
+      </c>
+      <c r="N84" t="s">
+        <v>293</v>
+      </c>
+      <c r="O84" t="s">
+        <v>315</v>
+      </c>
+      <c r="P84">
+        <v>1150</v>
+      </c>
+      <c r="Q84">
         <v>83</v>
       </c>
-      <c r="J84">
-        <v>83</v>
-      </c>
-      <c r="L84" t="s">
-        <v>38</v>
-      </c>
-      <c r="M84" t="s">
-        <v>328</v>
-      </c>
-      <c r="N84" t="s">
-        <v>310</v>
-      </c>
-      <c r="O84" t="s">
-        <v>38</v>
-      </c>
-      <c r="P84" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>316</v>
-      </c>
       <c r="R84">
-        <v>1150</v>
+        <v>9</v>
       </c>
       <c r="S84">
         <v>100</v>
@@ -8600,7 +8352,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C85">
         <v>9</v>
@@ -8620,32 +8372,29 @@
       <c r="H85" t="s">
         <v>34</v>
       </c>
-      <c r="I85">
+      <c r="K85" t="s">
+        <v>331</v>
+      </c>
+      <c r="L85" t="s">
+        <v>310</v>
+      </c>
+      <c r="M85" t="s">
+        <v>38</v>
+      </c>
+      <c r="N85" t="s">
+        <v>294</v>
+      </c>
+      <c r="O85" t="s">
+        <v>316</v>
+      </c>
+      <c r="P85">
+        <v>5305</v>
+      </c>
+      <c r="Q85">
         <v>84</v>
       </c>
-      <c r="J85">
-        <v>84</v>
-      </c>
-      <c r="L85" t="s">
-        <v>38</v>
-      </c>
-      <c r="M85" t="s">
-        <v>332</v>
-      </c>
-      <c r="N85" t="s">
-        <v>311</v>
-      </c>
-      <c r="O85" t="s">
-        <v>38</v>
-      </c>
-      <c r="P85" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>317</v>
-      </c>
       <c r="R85">
-        <v>5305</v>
+        <v>10</v>
       </c>
       <c r="S85">
         <v>147</v>
@@ -8686,7 +8435,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C86">
         <v>9</v>
@@ -8706,32 +8455,29 @@
       <c r="H86" t="s">
         <v>31</v>
       </c>
-      <c r="I86">
+      <c r="K86" t="s">
+        <v>325</v>
+      </c>
+      <c r="L86" t="s">
+        <v>311</v>
+      </c>
+      <c r="M86" t="s">
+        <v>38</v>
+      </c>
+      <c r="N86" t="s">
+        <v>295</v>
+      </c>
+      <c r="O86" t="s">
+        <v>317</v>
+      </c>
+      <c r="P86">
+        <v>2983</v>
+      </c>
+      <c r="Q86">
         <v>85</v>
       </c>
-      <c r="J86">
-        <v>85</v>
-      </c>
-      <c r="L86" t="s">
-        <v>38</v>
-      </c>
-      <c r="M86" t="s">
-        <v>326</v>
-      </c>
-      <c r="N86" t="s">
-        <v>312</v>
-      </c>
-      <c r="O86" t="s">
-        <v>38</v>
-      </c>
-      <c r="P86" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>318</v>
-      </c>
       <c r="R86">
-        <v>2983</v>
+        <v>11</v>
       </c>
       <c r="S86">
         <v>69</v>
@@ -8772,7 +8518,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C87">
         <v>9</v>
@@ -8792,32 +8538,29 @@
       <c r="H87" t="s">
         <v>36</v>
       </c>
-      <c r="I87">
+      <c r="K87" t="s">
+        <v>325</v>
+      </c>
+      <c r="L87" t="s">
+        <v>312</v>
+      </c>
+      <c r="M87" t="s">
+        <v>38</v>
+      </c>
+      <c r="N87" t="s">
+        <v>296</v>
+      </c>
+      <c r="O87" t="s">
+        <v>318</v>
+      </c>
+      <c r="P87">
+        <v>4231</v>
+      </c>
+      <c r="Q87">
         <v>86</v>
       </c>
-      <c r="J87">
-        <v>86</v>
-      </c>
-      <c r="L87" t="s">
-        <v>38</v>
-      </c>
-      <c r="M87" t="s">
-        <v>326</v>
-      </c>
-      <c r="N87" t="s">
-        <v>313</v>
-      </c>
-      <c r="O87" t="s">
-        <v>38</v>
-      </c>
-      <c r="P87" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>319</v>
-      </c>
       <c r="R87">
-        <v>4231</v>
+        <v>12</v>
       </c>
       <c r="S87">
         <v>48</v>
@@ -8858,7 +8601,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C88">
         <v>9</v>
@@ -8878,29 +8621,26 @@
       <c r="H88" t="s">
         <v>37</v>
       </c>
-      <c r="I88">
+      <c r="K88" t="s">
+        <v>326</v>
+      </c>
+      <c r="L88" t="s">
+        <v>313</v>
+      </c>
+      <c r="M88" t="s">
+        <v>38</v>
+      </c>
+      <c r="N88" t="s">
+        <v>297</v>
+      </c>
+      <c r="O88" t="s">
+        <v>319</v>
+      </c>
+      <c r="P88">
+        <v>5490</v>
+      </c>
+      <c r="Q88">
         <v>87</v>
-      </c>
-      <c r="L88" t="s">
-        <v>38</v>
-      </c>
-      <c r="M88" t="s">
-        <v>327</v>
-      </c>
-      <c r="N88" t="s">
-        <v>314</v>
-      </c>
-      <c r="O88" t="s">
-        <v>38</v>
-      </c>
-      <c r="P88" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>320</v>
-      </c>
-      <c r="R88">
-        <v>5490</v>
       </c>
       <c r="S88">
         <v>71</v>
@@ -8941,7 +8681,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C89">
         <v>9</v>
@@ -8961,32 +8701,29 @@
       <c r="H89" t="s">
         <v>34</v>
       </c>
-      <c r="I89">
+      <c r="K89" t="s">
+        <v>328</v>
+      </c>
+      <c r="L89" t="s">
+        <v>314</v>
+      </c>
+      <c r="M89" t="s">
+        <v>38</v>
+      </c>
+      <c r="N89" t="s">
+        <v>298</v>
+      </c>
+      <c r="O89" t="s">
+        <v>320</v>
+      </c>
+      <c r="P89">
+        <v>2621</v>
+      </c>
+      <c r="Q89">
         <v>88</v>
       </c>
-      <c r="J89">
-        <v>88</v>
-      </c>
-      <c r="L89" t="s">
-        <v>38</v>
-      </c>
-      <c r="M89" t="s">
-        <v>329</v>
-      </c>
-      <c r="N89" t="s">
-        <v>315</v>
-      </c>
-      <c r="O89" t="s">
-        <v>38</v>
-      </c>
-      <c r="P89" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>321</v>
-      </c>
       <c r="R89">
-        <v>2621</v>
+        <v>13</v>
       </c>
       <c r="S89">
         <v>44</v>
@@ -9027,7 +8764,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C90">
         <v>9</v>
@@ -9047,32 +8784,29 @@
       <c r="H90" t="s">
         <v>31</v>
       </c>
-      <c r="I90">
+      <c r="K90" t="s">
+        <v>328</v>
+      </c>
+      <c r="L90" t="s">
+        <v>315</v>
+      </c>
+      <c r="M90" t="s">
+        <v>38</v>
+      </c>
+      <c r="N90" t="s">
+        <v>299</v>
+      </c>
+      <c r="O90" t="s">
+        <v>321</v>
+      </c>
+      <c r="P90">
+        <v>4112</v>
+      </c>
+      <c r="Q90">
         <v>89</v>
       </c>
-      <c r="J90">
-        <v>89</v>
-      </c>
-      <c r="L90" t="s">
-        <v>38</v>
-      </c>
-      <c r="M90" t="s">
-        <v>329</v>
-      </c>
-      <c r="N90" t="s">
-        <v>316</v>
-      </c>
-      <c r="O90" t="s">
-        <v>38</v>
-      </c>
-      <c r="P90" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>322</v>
-      </c>
       <c r="R90">
-        <v>4112</v>
+        <v>14</v>
       </c>
       <c r="S90">
         <v>147</v>
@@ -9113,7 +8847,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C91">
         <v>9</v>
@@ -9133,32 +8867,29 @@
       <c r="H91" t="s">
         <v>32</v>
       </c>
-      <c r="I91">
+      <c r="K91" t="s">
+        <v>325</v>
+      </c>
+      <c r="L91" t="s">
+        <v>316</v>
+      </c>
+      <c r="M91" t="s">
+        <v>38</v>
+      </c>
+      <c r="N91" t="s">
+        <v>300</v>
+      </c>
+      <c r="O91" t="s">
+        <v>322</v>
+      </c>
+      <c r="P91">
+        <v>294</v>
+      </c>
+      <c r="Q91">
         <v>90</v>
       </c>
-      <c r="J91">
-        <v>90</v>
-      </c>
-      <c r="L91" t="s">
-        <v>38</v>
-      </c>
-      <c r="M91" t="s">
-        <v>326</v>
-      </c>
-      <c r="N91" t="s">
-        <v>317</v>
-      </c>
-      <c r="O91" t="s">
-        <v>38</v>
-      </c>
-      <c r="P91" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>323</v>
-      </c>
       <c r="R91">
-        <v>294</v>
+        <v>15</v>
       </c>
       <c r="S91">
         <v>116</v>
@@ -9199,7 +8930,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C92">
         <v>10</v>
@@ -9219,32 +8950,29 @@
       <c r="H92" t="s">
         <v>33</v>
       </c>
-      <c r="I92">
+      <c r="K92" t="s">
+        <v>327</v>
+      </c>
+      <c r="L92" t="s">
+        <v>317</v>
+      </c>
+      <c r="M92" t="s">
+        <v>38</v>
+      </c>
+      <c r="N92" t="s">
+        <v>301</v>
+      </c>
+      <c r="O92" t="s">
+        <v>291</v>
+      </c>
+      <c r="P92">
+        <v>5585</v>
+      </c>
+      <c r="Q92">
         <v>91</v>
       </c>
-      <c r="J92">
-        <v>91</v>
-      </c>
-      <c r="L92" t="s">
-        <v>38</v>
-      </c>
-      <c r="M92" t="s">
-        <v>328</v>
-      </c>
-      <c r="N92" t="s">
-        <v>318</v>
-      </c>
-      <c r="O92" t="s">
-        <v>38</v>
-      </c>
-      <c r="P92" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q92" t="s">
-        <v>292</v>
-      </c>
       <c r="R92">
-        <v>5585</v>
+        <v>16</v>
       </c>
       <c r="S92">
         <v>57</v>
@@ -9285,7 +9013,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C93">
         <v>10</v>
@@ -9305,32 +9033,29 @@
       <c r="H93" t="s">
         <v>34</v>
       </c>
-      <c r="I93">
+      <c r="K93" t="s">
+        <v>327</v>
+      </c>
+      <c r="L93" t="s">
+        <v>318</v>
+      </c>
+      <c r="M93" t="s">
+        <v>38</v>
+      </c>
+      <c r="N93" t="s">
+        <v>302</v>
+      </c>
+      <c r="O93" t="s">
+        <v>292</v>
+      </c>
+      <c r="P93">
+        <v>9388</v>
+      </c>
+      <c r="Q93">
         <v>92</v>
       </c>
-      <c r="J93">
-        <v>92</v>
-      </c>
-      <c r="L93" t="s">
-        <v>38</v>
-      </c>
-      <c r="M93" t="s">
-        <v>328</v>
-      </c>
-      <c r="N93" t="s">
-        <v>319</v>
-      </c>
-      <c r="O93" t="s">
-        <v>38</v>
-      </c>
-      <c r="P93" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>293</v>
-      </c>
       <c r="R93">
-        <v>9388</v>
+        <v>17</v>
       </c>
       <c r="S93">
         <v>125</v>
@@ -9371,7 +9096,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C94">
         <v>10</v>
@@ -9391,32 +9116,29 @@
       <c r="H94" t="s">
         <v>36</v>
       </c>
-      <c r="I94">
+      <c r="K94" t="s">
+        <v>325</v>
+      </c>
+      <c r="L94" t="s">
+        <v>319</v>
+      </c>
+      <c r="M94" t="s">
+        <v>38</v>
+      </c>
+      <c r="N94" t="s">
+        <v>303</v>
+      </c>
+      <c r="O94" t="s">
+        <v>293</v>
+      </c>
+      <c r="P94">
+        <v>6858</v>
+      </c>
+      <c r="Q94">
         <v>93</v>
       </c>
-      <c r="J94">
-        <v>93</v>
-      </c>
-      <c r="L94" t="s">
-        <v>38</v>
-      </c>
-      <c r="M94" t="s">
-        <v>326</v>
-      </c>
-      <c r="N94" t="s">
-        <v>320</v>
-      </c>
-      <c r="O94" t="s">
-        <v>38</v>
-      </c>
-      <c r="P94" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>294</v>
-      </c>
       <c r="R94">
-        <v>6858</v>
+        <v>18</v>
       </c>
       <c r="S94">
         <v>72</v>
@@ -9457,7 +9179,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C95">
         <v>10</v>
@@ -9477,29 +9199,26 @@
       <c r="H95" t="s">
         <v>37</v>
       </c>
-      <c r="I95">
+      <c r="K95" t="s">
+        <v>326</v>
+      </c>
+      <c r="L95" t="s">
+        <v>320</v>
+      </c>
+      <c r="M95" t="s">
+        <v>38</v>
+      </c>
+      <c r="N95" t="s">
+        <v>304</v>
+      </c>
+      <c r="O95" t="s">
+        <v>294</v>
+      </c>
+      <c r="P95">
+        <v>8073</v>
+      </c>
+      <c r="Q95">
         <v>94</v>
-      </c>
-      <c r="L95" t="s">
-        <v>38</v>
-      </c>
-      <c r="M95" t="s">
-        <v>327</v>
-      </c>
-      <c r="N95" t="s">
-        <v>321</v>
-      </c>
-      <c r="O95" t="s">
-        <v>38</v>
-      </c>
-      <c r="P95" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>295</v>
-      </c>
-      <c r="R95">
-        <v>8073</v>
       </c>
       <c r="S95">
         <v>118</v>
@@ -9540,7 +9259,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C96">
         <v>10</v>
@@ -9560,29 +9279,26 @@
       <c r="H96" t="s">
         <v>34</v>
       </c>
-      <c r="I96">
+      <c r="K96" t="s">
+        <v>326</v>
+      </c>
+      <c r="L96" t="s">
+        <v>321</v>
+      </c>
+      <c r="M96" t="s">
+        <v>38</v>
+      </c>
+      <c r="N96" t="s">
+        <v>305</v>
+      </c>
+      <c r="O96" t="s">
+        <v>295</v>
+      </c>
+      <c r="P96">
+        <v>3691</v>
+      </c>
+      <c r="Q96">
         <v>95</v>
-      </c>
-      <c r="L96" t="s">
-        <v>38</v>
-      </c>
-      <c r="M96" t="s">
-        <v>327</v>
-      </c>
-      <c r="N96" t="s">
-        <v>322</v>
-      </c>
-      <c r="O96" t="s">
-        <v>38</v>
-      </c>
-      <c r="P96" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>296</v>
-      </c>
-      <c r="R96">
-        <v>3691</v>
       </c>
       <c r="S96">
         <v>80</v>
@@ -9623,7 +9339,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C97">
         <v>10</v>
@@ -9643,32 +9359,29 @@
       <c r="H97" t="s">
         <v>31</v>
       </c>
-      <c r="I97">
+      <c r="K97" t="s">
+        <v>327</v>
+      </c>
+      <c r="L97" t="s">
+        <v>322</v>
+      </c>
+      <c r="M97" t="s">
+        <v>38</v>
+      </c>
+      <c r="N97" t="s">
+        <v>306</v>
+      </c>
+      <c r="O97" t="s">
+        <v>296</v>
+      </c>
+      <c r="P97">
+        <v>2979</v>
+      </c>
+      <c r="Q97">
         <v>96</v>
       </c>
-      <c r="J97">
-        <v>96</v>
-      </c>
-      <c r="L97" t="s">
-        <v>38</v>
-      </c>
-      <c r="M97" t="s">
-        <v>328</v>
-      </c>
-      <c r="N97" t="s">
-        <v>323</v>
-      </c>
-      <c r="O97" t="s">
-        <v>38</v>
-      </c>
-      <c r="P97" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>297</v>
-      </c>
       <c r="R97">
-        <v>2979</v>
+        <v>19</v>
       </c>
       <c r="S97">
         <v>40</v>
@@ -9709,7 +9422,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C98">
         <v>10</v>
@@ -9729,32 +9442,29 @@
       <c r="H98" t="s">
         <v>36</v>
       </c>
-      <c r="I98">
+      <c r="K98" t="s">
+        <v>325</v>
+      </c>
+      <c r="L98" t="s">
+        <v>307</v>
+      </c>
+      <c r="M98" t="s">
+        <v>38</v>
+      </c>
+      <c r="N98" t="s">
+        <v>310</v>
+      </c>
+      <c r="O98" t="s">
+        <v>301</v>
+      </c>
+      <c r="P98">
+        <v>5528</v>
+      </c>
+      <c r="Q98">
         <v>97</v>
       </c>
-      <c r="J98">
-        <v>97</v>
-      </c>
-      <c r="L98" t="s">
-        <v>38</v>
-      </c>
-      <c r="M98" t="s">
-        <v>326</v>
-      </c>
-      <c r="N98" t="s">
-        <v>308</v>
-      </c>
-      <c r="O98" t="s">
-        <v>38</v>
-      </c>
-      <c r="P98" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q98" t="s">
-        <v>302</v>
-      </c>
       <c r="R98">
-        <v>5528</v>
+        <v>20</v>
       </c>
       <c r="S98">
         <v>138</v>
@@ -9795,7 +9505,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C99">
         <v>10</v>
@@ -9815,32 +9525,29 @@
       <c r="H99" t="s">
         <v>34</v>
       </c>
-      <c r="I99">
+      <c r="K99" t="s">
+        <v>328</v>
+      </c>
+      <c r="L99" t="s">
+        <v>308</v>
+      </c>
+      <c r="M99" t="s">
+        <v>38</v>
+      </c>
+      <c r="N99" t="s">
+        <v>311</v>
+      </c>
+      <c r="O99" t="s">
+        <v>302</v>
+      </c>
+      <c r="P99">
+        <v>3632</v>
+      </c>
+      <c r="Q99">
         <v>98</v>
       </c>
-      <c r="J99">
-        <v>98</v>
-      </c>
-      <c r="L99" t="s">
-        <v>38</v>
-      </c>
-      <c r="M99" t="s">
-        <v>329</v>
-      </c>
-      <c r="N99" t="s">
-        <v>309</v>
-      </c>
-      <c r="O99" t="s">
-        <v>38</v>
-      </c>
-      <c r="P99" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>303</v>
-      </c>
       <c r="R99">
-        <v>3632</v>
+        <v>21</v>
       </c>
       <c r="S99">
         <v>137</v>
@@ -9881,7 +9588,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C100">
         <v>10</v>
@@ -9901,32 +9608,29 @@
       <c r="H100" t="s">
         <v>36</v>
       </c>
-      <c r="I100">
+      <c r="K100" t="s">
+        <v>328</v>
+      </c>
+      <c r="L100" t="s">
+        <v>309</v>
+      </c>
+      <c r="M100" t="s">
+        <v>38</v>
+      </c>
+      <c r="N100" t="s">
+        <v>312</v>
+      </c>
+      <c r="O100" t="s">
+        <v>303</v>
+      </c>
+      <c r="P100">
+        <v>4795</v>
+      </c>
+      <c r="Q100">
         <v>99</v>
       </c>
-      <c r="J100">
-        <v>99</v>
-      </c>
-      <c r="L100" t="s">
-        <v>38</v>
-      </c>
-      <c r="M100" t="s">
-        <v>329</v>
-      </c>
-      <c r="N100" t="s">
-        <v>310</v>
-      </c>
-      <c r="O100" t="s">
-        <v>38</v>
-      </c>
-      <c r="P100" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q100" t="s">
-        <v>304</v>
-      </c>
       <c r="R100">
-        <v>4795</v>
+        <v>22</v>
       </c>
       <c r="S100">
         <v>10</v>
@@ -9967,7 +9671,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C101">
         <v>10</v>
@@ -9987,32 +9691,29 @@
       <c r="H101" t="s">
         <v>37</v>
       </c>
-      <c r="I101">
+      <c r="K101" t="s">
+        <v>325</v>
+      </c>
+      <c r="L101" t="s">
+        <v>300</v>
+      </c>
+      <c r="M101" t="s">
+        <v>38</v>
+      </c>
+      <c r="N101" t="s">
+        <v>313</v>
+      </c>
+      <c r="O101" t="s">
+        <v>304</v>
+      </c>
+      <c r="P101">
+        <v>1296</v>
+      </c>
+      <c r="Q101">
         <v>100</v>
       </c>
-      <c r="J101">
-        <v>100</v>
-      </c>
-      <c r="L101" t="s">
-        <v>38</v>
-      </c>
-      <c r="M101" t="s">
-        <v>326</v>
-      </c>
-      <c r="N101" t="s">
-        <v>301</v>
-      </c>
-      <c r="O101" t="s">
-        <v>38</v>
-      </c>
-      <c r="P101" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q101" t="s">
-        <v>305</v>
-      </c>
       <c r="R101">
-        <v>1296</v>
+        <v>23</v>
       </c>
       <c r="S101">
         <v>77</v>

--- a/Excel/Carga DB Postgres/Ingreso - cargado.xlsx
+++ b/Excel/Carga DB Postgres/Ingreso - cargado.xlsx
@@ -1357,8 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N71" workbookViewId="0">
-      <selection activeCell="R81" sqref="R81"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AH21" sqref="AH21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1565,7 +1565,7 @@
         <v>2</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -1648,7 +1648,7 @@
         <v>1</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -1728,7 +1728,7 @@
         <v>1</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -1811,7 +1811,7 @@
         <v>1</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -1894,7 +1894,7 @@
         <v>2</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1977,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="AH7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -2057,7 +2057,7 @@
         <v>1</v>
       </c>
       <c r="AH8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -2140,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="AH9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -2220,7 +2220,7 @@
         <v>1</v>
       </c>
       <c r="AH10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -2303,7 +2303,7 @@
         <v>2</v>
       </c>
       <c r="AH11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -2383,7 +2383,7 @@
         <v>1</v>
       </c>
       <c r="AH12">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -2466,7 +2466,7 @@
         <v>1</v>
       </c>
       <c r="AH13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -2549,7 +2549,7 @@
         <v>1</v>
       </c>
       <c r="AH14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -2629,7 +2629,7 @@
         <v>1</v>
       </c>
       <c r="AH15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2709,7 +2709,7 @@
         <v>1</v>
       </c>
       <c r="AH16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:34">
@@ -2789,7 +2789,7 @@
         <v>2</v>
       </c>
       <c r="AH17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:34">
@@ -2872,7 +2872,7 @@
         <v>2</v>
       </c>
       <c r="AH18">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:34">
@@ -2955,7 +2955,7 @@
         <v>1</v>
       </c>
       <c r="AH19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:34">
@@ -3038,7 +3038,7 @@
         <v>2</v>
       </c>
       <c r="AH20">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:34">
@@ -3121,7 +3121,7 @@
         <v>2</v>
       </c>
       <c r="AH21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:34">

--- a/Excel/Carga DB Postgres/Ingreso - cargado.xlsx
+++ b/Excel/Carga DB Postgres/Ingreso - cargado.xlsx
@@ -1357,8 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AH21" sqref="AH21"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q96" sqref="Q96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1857,9 +1857,6 @@
       <c r="P6">
         <v>2649</v>
       </c>
-      <c r="Q6">
-        <v>5</v>
-      </c>
       <c r="R6">
         <v>5</v>
       </c>
@@ -2675,9 +2672,6 @@
       <c r="P16">
         <v>1805</v>
       </c>
-      <c r="Q16">
-        <v>15</v>
-      </c>
       <c r="S16">
         <v>32</v>
       </c>
@@ -3490,9 +3484,6 @@
       <c r="P26">
         <v>1520</v>
       </c>
-      <c r="Q26">
-        <v>25</v>
-      </c>
       <c r="R26">
         <v>25</v>
       </c>
@@ -4317,9 +4308,6 @@
       <c r="P36">
         <v>2250</v>
       </c>
-      <c r="Q36">
-        <v>35</v>
-      </c>
       <c r="R36">
         <v>35</v>
       </c>
@@ -5144,9 +5132,6 @@
       <c r="P46">
         <v>6399</v>
       </c>
-      <c r="Q46">
-        <v>45</v>
-      </c>
       <c r="S46">
         <v>78</v>
       </c>
@@ -5965,9 +5950,6 @@
       <c r="P56">
         <v>9735</v>
       </c>
-      <c r="Q56">
-        <v>55</v>
-      </c>
       <c r="R56">
         <v>55</v>
       </c>
@@ -6445,6 +6427,9 @@
       <c r="I62">
         <v>1</v>
       </c>
+      <c r="J62">
+        <v>56</v>
+      </c>
       <c r="K62" t="s">
         <v>325</v>
       </c>
@@ -6531,6 +6516,9 @@
       <c r="I63">
         <v>2</v>
       </c>
+      <c r="J63">
+        <v>78</v>
+      </c>
       <c r="K63" t="s">
         <v>327</v>
       </c>
@@ -6617,6 +6605,9 @@
       <c r="I64">
         <v>4</v>
       </c>
+      <c r="J64">
+        <v>95</v>
+      </c>
       <c r="K64" t="s">
         <v>325</v>
       </c>
@@ -6703,6 +6694,9 @@
       <c r="I65">
         <v>5</v>
       </c>
+      <c r="J65">
+        <v>65</v>
+      </c>
       <c r="K65" t="s">
         <v>326</v>
       </c>
@@ -6786,6 +6780,9 @@
       <c r="I66">
         <v>6</v>
       </c>
+      <c r="J66">
+        <v>62</v>
+      </c>
       <c r="K66" t="s">
         <v>325</v>
       </c>
@@ -6803,9 +6800,6 @@
       </c>
       <c r="P66">
         <v>5994</v>
-      </c>
-      <c r="Q66">
-        <v>65</v>
       </c>
       <c r="R66">
         <v>65</v>
@@ -6872,6 +6866,9 @@
       <c r="I67">
         <v>7</v>
       </c>
+      <c r="J67">
+        <v>16</v>
+      </c>
       <c r="K67" t="s">
         <v>325</v>
       </c>
@@ -6958,6 +6955,9 @@
       <c r="I68">
         <v>8</v>
       </c>
+      <c r="J68">
+        <v>42</v>
+      </c>
       <c r="K68" t="s">
         <v>325</v>
       </c>
@@ -7044,6 +7044,9 @@
       <c r="I69">
         <v>9</v>
       </c>
+      <c r="J69">
+        <v>46</v>
+      </c>
       <c r="K69" t="s">
         <v>325</v>
       </c>
@@ -7130,6 +7133,9 @@
       <c r="I70">
         <v>10</v>
       </c>
+      <c r="J70">
+        <v>73</v>
+      </c>
       <c r="K70" t="s">
         <v>326</v>
       </c>
@@ -7213,6 +7219,9 @@
       <c r="I71">
         <v>12</v>
       </c>
+      <c r="J71">
+        <v>33</v>
+      </c>
       <c r="K71" t="s">
         <v>325</v>
       </c>
@@ -7646,9 +7655,6 @@
       <c r="P76">
         <v>4120</v>
       </c>
-      <c r="Q76">
-        <v>75</v>
-      </c>
       <c r="S76">
         <v>117</v>
       </c>
@@ -8473,9 +8479,6 @@
       <c r="P86">
         <v>2983</v>
       </c>
-      <c r="Q86">
-        <v>85</v>
-      </c>
       <c r="R86">
         <v>11</v>
       </c>
@@ -9296,9 +9299,6 @@
       </c>
       <c r="P96">
         <v>3691</v>
-      </c>
-      <c r="Q96">
-        <v>95</v>
       </c>
       <c r="S96">
         <v>80</v>

--- a/Excel/Carga DB Postgres/Ingreso - cargado.xlsx
+++ b/Excel/Carga DB Postgres/Ingreso - cargado.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="362">
   <si>
     <t>idingreso</t>
   </si>
@@ -1021,6 +1021,87 @@
   </si>
   <si>
     <t>2017-03-16-23:31:12</t>
+  </si>
+  <si>
+    <t>2017-08-15-14:20:30</t>
+  </si>
+  <si>
+    <t>2017-08-16-15:10:00</t>
+  </si>
+  <si>
+    <t>2017-08-17-13:30:20</t>
+  </si>
+  <si>
+    <t>2017-08-18-16:50:10</t>
+  </si>
+  <si>
+    <t>2017-08-19-17:40:15</t>
+  </si>
+  <si>
+    <t>2017-08-20-18:20:25</t>
+  </si>
+  <si>
+    <t>2017-08-21-13:05:35</t>
+  </si>
+  <si>
+    <t>2017-08-22-15:08:45</t>
+  </si>
+  <si>
+    <t>2017-08-23-16:06:55</t>
+  </si>
+  <si>
+    <t>2017-08-24-18:09:58</t>
+  </si>
+  <si>
+    <t>2017-07-14-11:00:00</t>
+  </si>
+  <si>
+    <t>2017-07-15-13:05:01</t>
+  </si>
+  <si>
+    <t>2017-07-16-12:20:02</t>
+  </si>
+  <si>
+    <t>2017-07-17-15:06:03</t>
+  </si>
+  <si>
+    <t>2017-07-18-17:04:04</t>
+  </si>
+  <si>
+    <t>2017-07-19-19:50:05</t>
+  </si>
+  <si>
+    <t>2017-07-20-18:30:06</t>
+  </si>
+  <si>
+    <t>2017-07-21-13:09:07</t>
+  </si>
+  <si>
+    <t>2017-07-22-15:40:08</t>
+  </si>
+  <si>
+    <t>2017-07-23-17:55:09</t>
+  </si>
+  <si>
+    <t>BNF279</t>
+  </si>
+  <si>
+    <t>NGG341</t>
+  </si>
+  <si>
+    <t>JKI946</t>
+  </si>
+  <si>
+    <t>GGT991</t>
+  </si>
+  <si>
+    <t>EHL673</t>
+  </si>
+  <si>
+    <t>IUG962</t>
+  </si>
+  <si>
+    <t>BMF687</t>
   </si>
 </sst>
 </file>
@@ -1355,10 +1436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH101"/>
+  <dimension ref="A1:AH121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Q96" sqref="Q96"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="Q121" sqref="Q121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -9746,6 +9827,1666 @@
         <v>1</v>
       </c>
       <c r="AH101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:34">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>335</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>4</v>
+      </c>
+      <c r="E102" t="s">
+        <v>355</v>
+      </c>
+      <c r="F102" t="s">
+        <v>120</v>
+      </c>
+      <c r="G102" s="1">
+        <v>405</v>
+      </c>
+      <c r="H102" t="s">
+        <v>31</v>
+      </c>
+      <c r="K102" t="s">
+        <v>326</v>
+      </c>
+      <c r="L102" t="s">
+        <v>314</v>
+      </c>
+      <c r="M102" t="s">
+        <v>38</v>
+      </c>
+      <c r="N102" t="s">
+        <v>297</v>
+      </c>
+      <c r="O102" t="s">
+        <v>299</v>
+      </c>
+      <c r="P102">
+        <v>7674</v>
+      </c>
+      <c r="Q102">
+        <v>6</v>
+      </c>
+      <c r="R102">
+        <v>24</v>
+      </c>
+      <c r="S102">
+        <v>41</v>
+      </c>
+      <c r="T102" t="s">
+        <v>38</v>
+      </c>
+      <c r="U102">
+        <v>1</v>
+      </c>
+      <c r="V102" s="1">
+        <v>16855456</v>
+      </c>
+      <c r="AB102">
+        <v>16017888</v>
+      </c>
+      <c r="AC102">
+        <v>16085667</v>
+      </c>
+      <c r="AD102">
+        <v>565699</v>
+      </c>
+      <c r="AE102">
+        <v>680669</v>
+      </c>
+      <c r="AF102">
+        <v>1</v>
+      </c>
+      <c r="AG102">
+        <v>1</v>
+      </c>
+      <c r="AH102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:34">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>336</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="E103" t="s">
+        <v>356</v>
+      </c>
+      <c r="F103" t="s">
+        <v>121</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H103" t="s">
+        <v>32</v>
+      </c>
+      <c r="K103" t="s">
+        <v>330</v>
+      </c>
+      <c r="L103" t="s">
+        <v>315</v>
+      </c>
+      <c r="M103" t="s">
+        <v>38</v>
+      </c>
+      <c r="N103" t="s">
+        <v>298</v>
+      </c>
+      <c r="O103" t="s">
+        <v>300</v>
+      </c>
+      <c r="P103">
+        <v>4405</v>
+      </c>
+      <c r="Q103">
+        <v>7</v>
+      </c>
+      <c r="R103">
+        <v>25</v>
+      </c>
+      <c r="S103">
+        <v>90</v>
+      </c>
+      <c r="T103" t="s">
+        <v>38</v>
+      </c>
+      <c r="U103">
+        <v>1</v>
+      </c>
+      <c r="V103" s="1">
+        <v>16855456</v>
+      </c>
+      <c r="AB103">
+        <v>16017888</v>
+      </c>
+      <c r="AC103">
+        <v>16085667</v>
+      </c>
+      <c r="AD103">
+        <v>565699</v>
+      </c>
+      <c r="AE103">
+        <v>680669</v>
+      </c>
+      <c r="AF103">
+        <v>1</v>
+      </c>
+      <c r="AG103">
+        <v>1</v>
+      </c>
+      <c r="AH103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:34">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>337</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104" t="s">
+        <v>357</v>
+      </c>
+      <c r="F104" t="s">
+        <v>122</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H104" t="s">
+        <v>33</v>
+      </c>
+      <c r="K104" t="s">
+        <v>330</v>
+      </c>
+      <c r="L104" t="s">
+        <v>316</v>
+      </c>
+      <c r="M104" t="s">
+        <v>38</v>
+      </c>
+      <c r="N104" t="s">
+        <v>299</v>
+      </c>
+      <c r="O104" t="s">
+        <v>301</v>
+      </c>
+      <c r="P104">
+        <v>865</v>
+      </c>
+      <c r="Q104">
+        <v>8</v>
+      </c>
+      <c r="R104">
+        <v>26</v>
+      </c>
+      <c r="S104">
+        <v>138</v>
+      </c>
+      <c r="T104" t="s">
+        <v>38</v>
+      </c>
+      <c r="U104">
+        <v>1</v>
+      </c>
+      <c r="V104" s="1">
+        <v>16855456</v>
+      </c>
+      <c r="AB104">
+        <v>16017888</v>
+      </c>
+      <c r="AC104">
+        <v>16085667</v>
+      </c>
+      <c r="AD104">
+        <v>565699</v>
+      </c>
+      <c r="AE104">
+        <v>680669</v>
+      </c>
+      <c r="AF104">
+        <v>1</v>
+      </c>
+      <c r="AG104">
+        <v>1</v>
+      </c>
+      <c r="AH104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:34">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>338</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>5</v>
+      </c>
+      <c r="E105" t="s">
+        <v>58</v>
+      </c>
+      <c r="F105" t="s">
+        <v>123</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H105" t="s">
+        <v>34</v>
+      </c>
+      <c r="K105" t="s">
+        <v>325</v>
+      </c>
+      <c r="L105" t="s">
+        <v>317</v>
+      </c>
+      <c r="M105" t="s">
+        <v>38</v>
+      </c>
+      <c r="N105" t="s">
+        <v>300</v>
+      </c>
+      <c r="O105" t="s">
+        <v>302</v>
+      </c>
+      <c r="P105">
+        <v>4925</v>
+      </c>
+      <c r="Q105">
+        <v>9</v>
+      </c>
+      <c r="R105">
+        <v>27</v>
+      </c>
+      <c r="S105">
+        <v>91</v>
+      </c>
+      <c r="T105" t="s">
+        <v>38</v>
+      </c>
+      <c r="U105">
+        <v>1</v>
+      </c>
+      <c r="V105" s="1">
+        <v>16855456</v>
+      </c>
+      <c r="AB105">
+        <v>16017888</v>
+      </c>
+      <c r="AC105">
+        <v>16085667</v>
+      </c>
+      <c r="AD105">
+        <v>565699</v>
+      </c>
+      <c r="AE105">
+        <v>680669</v>
+      </c>
+      <c r="AF105">
+        <v>1</v>
+      </c>
+      <c r="AG105">
+        <v>1</v>
+      </c>
+      <c r="AH105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:34">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>339</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>4</v>
+      </c>
+      <c r="E106" t="s">
+        <v>358</v>
+      </c>
+      <c r="F106" t="s">
+        <v>122</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H106" t="s">
+        <v>36</v>
+      </c>
+      <c r="K106" t="s">
+        <v>325</v>
+      </c>
+      <c r="L106" t="s">
+        <v>318</v>
+      </c>
+      <c r="M106" t="s">
+        <v>38</v>
+      </c>
+      <c r="N106" t="s">
+        <v>301</v>
+      </c>
+      <c r="O106" t="s">
+        <v>303</v>
+      </c>
+      <c r="P106">
+        <v>2482</v>
+      </c>
+      <c r="Q106">
+        <v>10</v>
+      </c>
+      <c r="R106">
+        <v>28</v>
+      </c>
+      <c r="S106">
+        <v>64</v>
+      </c>
+      <c r="T106" t="s">
+        <v>38</v>
+      </c>
+      <c r="U106">
+        <v>1</v>
+      </c>
+      <c r="V106" s="1">
+        <v>16855456</v>
+      </c>
+      <c r="AB106">
+        <v>16017888</v>
+      </c>
+      <c r="AC106">
+        <v>16085667</v>
+      </c>
+      <c r="AD106">
+        <v>565699</v>
+      </c>
+      <c r="AE106">
+        <v>680669</v>
+      </c>
+      <c r="AF106">
+        <v>1</v>
+      </c>
+      <c r="AG106">
+        <v>1</v>
+      </c>
+      <c r="AH106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:34">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>340</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>4</v>
+      </c>
+      <c r="E107" t="s">
+        <v>359</v>
+      </c>
+      <c r="F107" t="s">
+        <v>122</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H107" t="s">
+        <v>37</v>
+      </c>
+      <c r="K107" t="s">
+        <v>329</v>
+      </c>
+      <c r="L107" t="s">
+        <v>319</v>
+      </c>
+      <c r="M107" t="s">
+        <v>38</v>
+      </c>
+      <c r="N107" t="s">
+        <v>302</v>
+      </c>
+      <c r="O107" t="s">
+        <v>304</v>
+      </c>
+      <c r="P107">
+        <v>9413</v>
+      </c>
+      <c r="Q107">
+        <v>11</v>
+      </c>
+      <c r="R107">
+        <v>29</v>
+      </c>
+      <c r="S107">
+        <v>106</v>
+      </c>
+      <c r="T107" t="s">
+        <v>38</v>
+      </c>
+      <c r="U107">
+        <v>1</v>
+      </c>
+      <c r="V107" s="1">
+        <v>16855456</v>
+      </c>
+      <c r="AB107">
+        <v>16017888</v>
+      </c>
+      <c r="AC107">
+        <v>16085667</v>
+      </c>
+      <c r="AD107">
+        <v>565699</v>
+      </c>
+      <c r="AE107">
+        <v>680669</v>
+      </c>
+      <c r="AF107">
+        <v>1</v>
+      </c>
+      <c r="AG107">
+        <v>1</v>
+      </c>
+      <c r="AH107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:34">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>341</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>3</v>
+      </c>
+      <c r="E108" t="s">
+        <v>360</v>
+      </c>
+      <c r="F108" t="s">
+        <v>124</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H108" t="s">
+        <v>34</v>
+      </c>
+      <c r="K108" t="s">
+        <v>329</v>
+      </c>
+      <c r="L108" t="s">
+        <v>320</v>
+      </c>
+      <c r="M108" t="s">
+        <v>38</v>
+      </c>
+      <c r="N108" t="s">
+        <v>303</v>
+      </c>
+      <c r="O108" t="s">
+        <v>305</v>
+      </c>
+      <c r="P108">
+        <v>9559</v>
+      </c>
+      <c r="Q108">
+        <v>12</v>
+      </c>
+      <c r="R108">
+        <v>30</v>
+      </c>
+      <c r="S108">
+        <v>55</v>
+      </c>
+      <c r="T108" t="s">
+        <v>38</v>
+      </c>
+      <c r="U108">
+        <v>1</v>
+      </c>
+      <c r="V108" s="1">
+        <v>16855456</v>
+      </c>
+      <c r="AB108">
+        <v>16017888</v>
+      </c>
+      <c r="AC108">
+        <v>16085667</v>
+      </c>
+      <c r="AD108">
+        <v>565699</v>
+      </c>
+      <c r="AE108">
+        <v>680669</v>
+      </c>
+      <c r="AF108">
+        <v>1</v>
+      </c>
+      <c r="AG108">
+        <v>1</v>
+      </c>
+      <c r="AH108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:34">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>342</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>5</v>
+      </c>
+      <c r="E109" t="s">
+        <v>58</v>
+      </c>
+      <c r="F109" t="s">
+        <v>125</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H109" t="s">
+        <v>31</v>
+      </c>
+      <c r="K109" t="s">
+        <v>326</v>
+      </c>
+      <c r="L109" t="s">
+        <v>321</v>
+      </c>
+      <c r="M109" t="s">
+        <v>38</v>
+      </c>
+      <c r="N109" t="s">
+        <v>304</v>
+      </c>
+      <c r="O109" t="s">
+        <v>306</v>
+      </c>
+      <c r="P109">
+        <v>9735</v>
+      </c>
+      <c r="Q109">
+        <v>13</v>
+      </c>
+      <c r="R109">
+        <v>31</v>
+      </c>
+      <c r="S109">
+        <v>67</v>
+      </c>
+      <c r="T109" t="s">
+        <v>38</v>
+      </c>
+      <c r="U109">
+        <v>4</v>
+      </c>
+      <c r="V109" s="1">
+        <v>16855456</v>
+      </c>
+      <c r="AB109">
+        <v>16017888</v>
+      </c>
+      <c r="AC109">
+        <v>16085667</v>
+      </c>
+      <c r="AD109">
+        <v>565699</v>
+      </c>
+      <c r="AE109">
+        <v>680669</v>
+      </c>
+      <c r="AF109">
+        <v>1</v>
+      </c>
+      <c r="AG109">
+        <v>1</v>
+      </c>
+      <c r="AH109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:34">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>343</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>3</v>
+      </c>
+      <c r="E110" t="s">
+        <v>361</v>
+      </c>
+      <c r="F110" t="s">
+        <v>120</v>
+      </c>
+      <c r="G110" s="1">
+        <v>504</v>
+      </c>
+      <c r="H110" t="s">
+        <v>36</v>
+      </c>
+      <c r="K110" t="s">
+        <v>328</v>
+      </c>
+      <c r="L110" t="s">
+        <v>322</v>
+      </c>
+      <c r="M110" t="s">
+        <v>38</v>
+      </c>
+      <c r="N110" t="s">
+        <v>305</v>
+      </c>
+      <c r="O110" t="s">
+        <v>307</v>
+      </c>
+      <c r="P110">
+        <v>3755</v>
+      </c>
+      <c r="Q110">
+        <v>14</v>
+      </c>
+      <c r="R110">
+        <v>32</v>
+      </c>
+      <c r="S110">
+        <v>139</v>
+      </c>
+      <c r="T110" t="s">
+        <v>38</v>
+      </c>
+      <c r="U110">
+        <v>4</v>
+      </c>
+      <c r="V110" s="1">
+        <v>16855456</v>
+      </c>
+      <c r="AB110">
+        <v>16017888</v>
+      </c>
+      <c r="AC110">
+        <v>16085667</v>
+      </c>
+      <c r="AD110">
+        <v>565699</v>
+      </c>
+      <c r="AE110">
+        <v>680669</v>
+      </c>
+      <c r="AF110">
+        <v>1</v>
+      </c>
+      <c r="AG110">
+        <v>1</v>
+      </c>
+      <c r="AH110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:34">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>344</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>5</v>
+      </c>
+      <c r="E111" t="s">
+        <v>58</v>
+      </c>
+      <c r="F111" t="s">
+        <v>124</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H111" t="s">
+        <v>33</v>
+      </c>
+      <c r="K111" t="s">
+        <v>327</v>
+      </c>
+      <c r="L111" t="s">
+        <v>291</v>
+      </c>
+      <c r="M111" t="s">
+        <v>38</v>
+      </c>
+      <c r="N111" t="s">
+        <v>306</v>
+      </c>
+      <c r="O111" t="s">
+        <v>308</v>
+      </c>
+      <c r="P111">
+        <v>155</v>
+      </c>
+      <c r="Q111">
+        <v>15</v>
+      </c>
+      <c r="R111">
+        <v>33</v>
+      </c>
+      <c r="S111">
+        <v>2</v>
+      </c>
+      <c r="T111" t="s">
+        <v>38</v>
+      </c>
+      <c r="U111">
+        <v>1</v>
+      </c>
+      <c r="V111" s="1">
+        <v>16855456</v>
+      </c>
+      <c r="AB111">
+        <v>16017888</v>
+      </c>
+      <c r="AC111">
+        <v>16085667</v>
+      </c>
+      <c r="AD111">
+        <v>565699</v>
+      </c>
+      <c r="AE111">
+        <v>680669</v>
+      </c>
+      <c r="AF111">
+        <v>1</v>
+      </c>
+      <c r="AG111">
+        <v>1</v>
+      </c>
+      <c r="AH111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:34">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>345</v>
+      </c>
+      <c r="C112">
+        <v>3</v>
+      </c>
+      <c r="D112">
+        <v>3</v>
+      </c>
+      <c r="E112" t="s">
+        <v>53</v>
+      </c>
+      <c r="F112" t="s">
+        <v>129</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H112" t="s">
+        <v>36</v>
+      </c>
+      <c r="K112" t="s">
+        <v>325</v>
+      </c>
+      <c r="L112" t="s">
+        <v>292</v>
+      </c>
+      <c r="M112" t="s">
+        <v>38</v>
+      </c>
+      <c r="N112" t="s">
+        <v>307</v>
+      </c>
+      <c r="O112" t="s">
+        <v>309</v>
+      </c>
+      <c r="P112">
+        <v>9957</v>
+      </c>
+      <c r="Q112">
+        <v>16</v>
+      </c>
+      <c r="R112">
+        <v>34</v>
+      </c>
+      <c r="S112">
+        <v>120</v>
+      </c>
+      <c r="T112" t="s">
+        <v>38</v>
+      </c>
+      <c r="U112">
+        <v>4</v>
+      </c>
+      <c r="V112" s="1">
+        <v>16855456</v>
+      </c>
+      <c r="AB112">
+        <v>16017888</v>
+      </c>
+      <c r="AC112">
+        <v>16085667</v>
+      </c>
+      <c r="AD112">
+        <v>565699</v>
+      </c>
+      <c r="AE112">
+        <v>680669</v>
+      </c>
+      <c r="AF112">
+        <v>1</v>
+      </c>
+      <c r="AG112">
+        <v>1</v>
+      </c>
+      <c r="AH112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:34">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>346</v>
+      </c>
+      <c r="C113">
+        <v>3</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113" t="s">
+        <v>54</v>
+      </c>
+      <c r="F113" t="s">
+        <v>130</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H113" t="s">
+        <v>37</v>
+      </c>
+      <c r="K113" t="s">
+        <v>327</v>
+      </c>
+      <c r="L113" t="s">
+        <v>293</v>
+      </c>
+      <c r="M113" t="s">
+        <v>38</v>
+      </c>
+      <c r="N113" t="s">
+        <v>308</v>
+      </c>
+      <c r="O113" t="s">
+        <v>310</v>
+      </c>
+      <c r="P113">
+        <v>2679</v>
+      </c>
+      <c r="Q113">
+        <v>17</v>
+      </c>
+      <c r="R113">
+        <v>35</v>
+      </c>
+      <c r="S113">
+        <v>120</v>
+      </c>
+      <c r="T113" t="s">
+        <v>38</v>
+      </c>
+      <c r="U113">
+        <v>1</v>
+      </c>
+      <c r="V113" s="1">
+        <v>16855456</v>
+      </c>
+      <c r="AB113">
+        <v>16017888</v>
+      </c>
+      <c r="AC113">
+        <v>16085667</v>
+      </c>
+      <c r="AD113">
+        <v>565699</v>
+      </c>
+      <c r="AE113">
+        <v>680669</v>
+      </c>
+      <c r="AF113">
+        <v>1</v>
+      </c>
+      <c r="AG113">
+        <v>1</v>
+      </c>
+      <c r="AH113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:34">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>347</v>
+      </c>
+      <c r="C114">
+        <v>3</v>
+      </c>
+      <c r="D114">
+        <v>3</v>
+      </c>
+      <c r="E114" t="s">
+        <v>55</v>
+      </c>
+      <c r="F114" t="s">
+        <v>127</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H114" t="s">
+        <v>31</v>
+      </c>
+      <c r="K114" t="s">
+        <v>326</v>
+      </c>
+      <c r="L114" t="s">
+        <v>294</v>
+      </c>
+      <c r="M114" t="s">
+        <v>38</v>
+      </c>
+      <c r="N114" t="s">
+        <v>309</v>
+      </c>
+      <c r="O114" t="s">
+        <v>311</v>
+      </c>
+      <c r="P114">
+        <v>8418</v>
+      </c>
+      <c r="Q114">
+        <v>18</v>
+      </c>
+      <c r="R114">
+        <v>36</v>
+      </c>
+      <c r="S114">
+        <v>98</v>
+      </c>
+      <c r="T114" t="s">
+        <v>38</v>
+      </c>
+      <c r="U114">
+        <v>4</v>
+      </c>
+      <c r="V114" s="1">
+        <v>16855456</v>
+      </c>
+      <c r="AB114">
+        <v>16017888</v>
+      </c>
+      <c r="AC114">
+        <v>16085667</v>
+      </c>
+      <c r="AD114">
+        <v>565699</v>
+      </c>
+      <c r="AE114">
+        <v>680669</v>
+      </c>
+      <c r="AF114">
+        <v>1</v>
+      </c>
+      <c r="AG114">
+        <v>1</v>
+      </c>
+      <c r="AH114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:34">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>348</v>
+      </c>
+      <c r="C115">
+        <v>3</v>
+      </c>
+      <c r="D115">
+        <v>4</v>
+      </c>
+      <c r="E115" t="s">
+        <v>56</v>
+      </c>
+      <c r="F115" t="s">
+        <v>121</v>
+      </c>
+      <c r="G115" s="1">
+        <v>600</v>
+      </c>
+      <c r="H115" t="s">
+        <v>32</v>
+      </c>
+      <c r="K115" t="s">
+        <v>327</v>
+      </c>
+      <c r="L115" t="s">
+        <v>295</v>
+      </c>
+      <c r="M115" t="s">
+        <v>38</v>
+      </c>
+      <c r="N115" t="s">
+        <v>310</v>
+      </c>
+      <c r="O115" t="s">
+        <v>312</v>
+      </c>
+      <c r="P115">
+        <v>1717</v>
+      </c>
+      <c r="Q115">
+        <v>19</v>
+      </c>
+      <c r="R115">
+        <v>37</v>
+      </c>
+      <c r="S115">
+        <v>38</v>
+      </c>
+      <c r="T115" t="s">
+        <v>38</v>
+      </c>
+      <c r="U115">
+        <v>1</v>
+      </c>
+      <c r="V115" s="1">
+        <v>16855456</v>
+      </c>
+      <c r="AB115">
+        <v>16017888</v>
+      </c>
+      <c r="AC115">
+        <v>16085667</v>
+      </c>
+      <c r="AD115">
+        <v>565699</v>
+      </c>
+      <c r="AE115">
+        <v>680669</v>
+      </c>
+      <c r="AF115">
+        <v>1</v>
+      </c>
+      <c r="AG115">
+        <v>1</v>
+      </c>
+      <c r="AH115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:34">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>349</v>
+      </c>
+      <c r="C116">
+        <v>3</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116" t="s">
+        <v>57</v>
+      </c>
+      <c r="F116" t="s">
+        <v>121</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H116" t="s">
+        <v>33</v>
+      </c>
+      <c r="K116" t="s">
+        <v>325</v>
+      </c>
+      <c r="L116" t="s">
+        <v>296</v>
+      </c>
+      <c r="M116" t="s">
+        <v>38</v>
+      </c>
+      <c r="N116" t="s">
+        <v>311</v>
+      </c>
+      <c r="O116" t="s">
+        <v>313</v>
+      </c>
+      <c r="P116">
+        <v>4258</v>
+      </c>
+      <c r="Q116">
+        <v>20</v>
+      </c>
+      <c r="R116">
+        <v>38</v>
+      </c>
+      <c r="S116">
+        <v>36</v>
+      </c>
+      <c r="T116" t="s">
+        <v>38</v>
+      </c>
+      <c r="U116">
+        <v>4</v>
+      </c>
+      <c r="V116" s="1">
+        <v>16855456</v>
+      </c>
+      <c r="AB116">
+        <v>16017888</v>
+      </c>
+      <c r="AC116">
+        <v>16085667</v>
+      </c>
+      <c r="AD116">
+        <v>565699</v>
+      </c>
+      <c r="AE116">
+        <v>680669</v>
+      </c>
+      <c r="AF116">
+        <v>1</v>
+      </c>
+      <c r="AG116">
+        <v>1</v>
+      </c>
+      <c r="AH116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:34">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>350</v>
+      </c>
+      <c r="C117">
+        <v>3</v>
+      </c>
+      <c r="D117">
+        <v>5</v>
+      </c>
+      <c r="E117" t="s">
+        <v>58</v>
+      </c>
+      <c r="F117" t="s">
+        <v>127</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H117" t="s">
+        <v>34</v>
+      </c>
+      <c r="K117" t="s">
+        <v>328</v>
+      </c>
+      <c r="L117" t="s">
+        <v>297</v>
+      </c>
+      <c r="M117" t="s">
+        <v>38</v>
+      </c>
+      <c r="N117" t="s">
+        <v>312</v>
+      </c>
+      <c r="O117" t="s">
+        <v>314</v>
+      </c>
+      <c r="P117">
+        <v>8540</v>
+      </c>
+      <c r="Q117">
+        <v>21</v>
+      </c>
+      <c r="R117">
+        <v>39</v>
+      </c>
+      <c r="S117">
+        <v>25</v>
+      </c>
+      <c r="T117" t="s">
+        <v>38</v>
+      </c>
+      <c r="U117">
+        <v>1</v>
+      </c>
+      <c r="V117" s="1">
+        <v>16855456</v>
+      </c>
+      <c r="AB117">
+        <v>16017888</v>
+      </c>
+      <c r="AC117">
+        <v>16085667</v>
+      </c>
+      <c r="AD117">
+        <v>565699</v>
+      </c>
+      <c r="AE117">
+        <v>680669</v>
+      </c>
+      <c r="AF117">
+        <v>1</v>
+      </c>
+      <c r="AG117">
+        <v>1</v>
+      </c>
+      <c r="AH117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:34">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>351</v>
+      </c>
+      <c r="C118">
+        <v>3</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118" t="s">
+        <v>59</v>
+      </c>
+      <c r="F118" t="s">
+        <v>124</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H118" t="s">
+        <v>36</v>
+      </c>
+      <c r="K118" t="s">
+        <v>328</v>
+      </c>
+      <c r="L118" t="s">
+        <v>298</v>
+      </c>
+      <c r="M118" t="s">
+        <v>38</v>
+      </c>
+      <c r="N118" t="s">
+        <v>313</v>
+      </c>
+      <c r="O118" t="s">
+        <v>315</v>
+      </c>
+      <c r="P118">
+        <v>3606</v>
+      </c>
+      <c r="Q118">
+        <v>22</v>
+      </c>
+      <c r="R118">
+        <v>40</v>
+      </c>
+      <c r="S118">
+        <v>146</v>
+      </c>
+      <c r="T118" t="s">
+        <v>38</v>
+      </c>
+      <c r="U118">
+        <v>1</v>
+      </c>
+      <c r="V118" s="1">
+        <v>16855456</v>
+      </c>
+      <c r="AB118">
+        <v>16017888</v>
+      </c>
+      <c r="AC118">
+        <v>16085667</v>
+      </c>
+      <c r="AD118">
+        <v>565699</v>
+      </c>
+      <c r="AE118">
+        <v>680669</v>
+      </c>
+      <c r="AF118">
+        <v>1</v>
+      </c>
+      <c r="AG118">
+        <v>1</v>
+      </c>
+      <c r="AH118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:34">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>352</v>
+      </c>
+      <c r="C119">
+        <v>3</v>
+      </c>
+      <c r="D119">
+        <v>4</v>
+      </c>
+      <c r="E119" t="s">
+        <v>60</v>
+      </c>
+      <c r="F119" t="s">
+        <v>131</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H119" t="s">
+        <v>37</v>
+      </c>
+      <c r="K119" t="s">
+        <v>325</v>
+      </c>
+      <c r="L119" t="s">
+        <v>299</v>
+      </c>
+      <c r="M119" t="s">
+        <v>38</v>
+      </c>
+      <c r="N119" t="s">
+        <v>314</v>
+      </c>
+      <c r="O119" t="s">
+        <v>316</v>
+      </c>
+      <c r="P119">
+        <v>5994</v>
+      </c>
+      <c r="Q119">
+        <v>23</v>
+      </c>
+      <c r="R119">
+        <v>41</v>
+      </c>
+      <c r="S119">
+        <v>101</v>
+      </c>
+      <c r="T119" t="s">
+        <v>38</v>
+      </c>
+      <c r="U119">
+        <v>1</v>
+      </c>
+      <c r="V119" s="1">
+        <v>16855456</v>
+      </c>
+      <c r="AB119">
+        <v>16017888</v>
+      </c>
+      <c r="AC119">
+        <v>16085667</v>
+      </c>
+      <c r="AD119">
+        <v>565699</v>
+      </c>
+      <c r="AE119">
+        <v>680669</v>
+      </c>
+      <c r="AF119">
+        <v>1</v>
+      </c>
+      <c r="AG119">
+        <v>1</v>
+      </c>
+      <c r="AH119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:34">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>353</v>
+      </c>
+      <c r="C120">
+        <v>3</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120" t="s">
+        <v>61</v>
+      </c>
+      <c r="F120" t="s">
+        <v>120</v>
+      </c>
+      <c r="G120" s="1">
+        <v>504</v>
+      </c>
+      <c r="H120" t="s">
+        <v>34</v>
+      </c>
+      <c r="K120" t="s">
+        <v>329</v>
+      </c>
+      <c r="L120" t="s">
+        <v>300</v>
+      </c>
+      <c r="M120" t="s">
+        <v>38</v>
+      </c>
+      <c r="N120" t="s">
+        <v>315</v>
+      </c>
+      <c r="O120" t="s">
+        <v>317</v>
+      </c>
+      <c r="P120">
+        <v>1917</v>
+      </c>
+      <c r="Q120">
+        <v>24</v>
+      </c>
+      <c r="R120">
+        <v>42</v>
+      </c>
+      <c r="S120">
+        <v>90</v>
+      </c>
+      <c r="T120" t="s">
+        <v>38</v>
+      </c>
+      <c r="U120">
+        <v>1</v>
+      </c>
+      <c r="V120" s="1">
+        <v>16855456</v>
+      </c>
+      <c r="AB120">
+        <v>16017888</v>
+      </c>
+      <c r="AC120">
+        <v>16085667</v>
+      </c>
+      <c r="AD120">
+        <v>565699</v>
+      </c>
+      <c r="AE120">
+        <v>680669</v>
+      </c>
+      <c r="AF120">
+        <v>1</v>
+      </c>
+      <c r="AG120">
+        <v>2</v>
+      </c>
+      <c r="AH120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:34">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>354</v>
+      </c>
+      <c r="C121">
+        <v>3</v>
+      </c>
+      <c r="D121">
+        <v>5</v>
+      </c>
+      <c r="E121" t="s">
+        <v>58</v>
+      </c>
+      <c r="F121" t="s">
+        <v>124</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H121" t="s">
+        <v>31</v>
+      </c>
+      <c r="K121" t="s">
+        <v>329</v>
+      </c>
+      <c r="L121" t="s">
+        <v>301</v>
+      </c>
+      <c r="M121" t="s">
+        <v>38</v>
+      </c>
+      <c r="N121" t="s">
+        <v>316</v>
+      </c>
+      <c r="O121" t="s">
+        <v>318</v>
+      </c>
+      <c r="P121">
+        <v>2379</v>
+      </c>
+      <c r="Q121">
+        <v>25</v>
+      </c>
+      <c r="R121">
+        <v>43</v>
+      </c>
+      <c r="S121">
+        <v>47</v>
+      </c>
+      <c r="T121" t="s">
+        <v>38</v>
+      </c>
+      <c r="U121">
+        <v>1</v>
+      </c>
+      <c r="V121" s="1">
+        <v>16855456</v>
+      </c>
+      <c r="AB121">
+        <v>16017888</v>
+      </c>
+      <c r="AC121">
+        <v>16085667</v>
+      </c>
+      <c r="AD121">
+        <v>565699</v>
+      </c>
+      <c r="AE121">
+        <v>680669</v>
+      </c>
+      <c r="AF121">
+        <v>1</v>
+      </c>
+      <c r="AG121">
+        <v>2</v>
+      </c>
+      <c r="AH121">
         <v>1</v>
       </c>
     </row>

--- a/Excel/Carga DB Postgres/Ingreso - cargado.xlsx
+++ b/Excel/Carga DB Postgres/Ingreso - cargado.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="363">
   <si>
     <t>fechahora</t>
   </si>
@@ -1099,6 +1099,12 @@
   </si>
   <si>
     <t>BMF687</t>
+  </si>
+  <si>
+    <t>estitular</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
 </sst>
 </file>
@@ -1433,10 +1439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG121"/>
+  <dimension ref="A1:AH121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AH96" sqref="AH96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1458,7 +1464,7 @@
     <col min="24" max="24" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:34">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1558,8 +1564,11 @@
       <c r="AG1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:33">
+      <c r="AH1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1638,8 +1647,11 @@
       <c r="AG2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:33">
+      <c r="AH2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
       <c r="A3" t="s">
         <v>192</v>
       </c>
@@ -1718,8 +1730,11 @@
       <c r="AG3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:33">
+      <c r="AH3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
       <c r="A4" t="s">
         <v>193</v>
       </c>
@@ -1795,8 +1810,11 @@
       <c r="AG4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:33">
+      <c r="AH4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
       <c r="A5" t="s">
         <v>194</v>
       </c>
@@ -1875,8 +1893,11 @@
       <c r="AG5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:33">
+      <c r="AH5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
       <c r="A6" t="s">
         <v>195</v>
       </c>
@@ -1953,7 +1974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:34">
       <c r="A7" t="s">
         <v>196</v>
       </c>
@@ -2032,8 +2053,11 @@
       <c r="AG7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:33">
+      <c r="AH7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
       <c r="A8" t="s">
         <v>197</v>
       </c>
@@ -2109,8 +2133,11 @@
       <c r="AG8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:33">
+      <c r="AH8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
       <c r="A9" t="s">
         <v>198</v>
       </c>
@@ -2189,8 +2216,11 @@
       <c r="AG9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:33">
+      <c r="AH9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34">
       <c r="A10" t="s">
         <v>199</v>
       </c>
@@ -2266,8 +2296,11 @@
       <c r="AG10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:33">
+      <c r="AH10" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
       <c r="A11" t="s">
         <v>200</v>
       </c>
@@ -2346,8 +2379,11 @@
       <c r="AG11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:33">
+      <c r="AH11" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
       <c r="A12" t="s">
         <v>201</v>
       </c>
@@ -2423,8 +2459,11 @@
       <c r="AG12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:33">
+      <c r="AH12" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34">
       <c r="A13" t="s">
         <v>202</v>
       </c>
@@ -2503,8 +2542,11 @@
       <c r="AG13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:33">
+      <c r="AH13" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34">
       <c r="A14" t="s">
         <v>203</v>
       </c>
@@ -2583,8 +2625,11 @@
       <c r="AG14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:33">
+      <c r="AH14" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34">
       <c r="A15" t="s">
         <v>204</v>
       </c>
@@ -2660,8 +2705,11 @@
       <c r="AG15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:33">
+      <c r="AH15" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34">
       <c r="A16" t="s">
         <v>205</v>
       </c>
@@ -2735,7 +2783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:34">
       <c r="A17" t="s">
         <v>206</v>
       </c>
@@ -2811,8 +2859,11 @@
       <c r="AG17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:33">
+      <c r="AH17" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34">
       <c r="A18" t="s">
         <v>207</v>
       </c>
@@ -2891,8 +2942,11 @@
       <c r="AG18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:33">
+      <c r="AH18" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34">
       <c r="A19" t="s">
         <v>208</v>
       </c>
@@ -2971,8 +3025,11 @@
       <c r="AG19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:33">
+      <c r="AH19" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34">
       <c r="A20" t="s">
         <v>209</v>
       </c>
@@ -3051,8 +3108,11 @@
       <c r="AG20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:33">
+      <c r="AH20" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34">
       <c r="A21" t="s">
         <v>210</v>
       </c>
@@ -3131,8 +3191,11 @@
       <c r="AG21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:33">
+      <c r="AH21" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34">
       <c r="A22" t="s">
         <v>211</v>
       </c>
@@ -3208,8 +3271,11 @@
       <c r="AG22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:33">
+      <c r="AH22" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34">
       <c r="A23" t="s">
         <v>212</v>
       </c>
@@ -3285,8 +3351,11 @@
       <c r="AG23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:33">
+      <c r="AH23" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34">
       <c r="A24" t="s">
         <v>213</v>
       </c>
@@ -3365,8 +3434,11 @@
       <c r="AG24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:33">
+      <c r="AH24" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34">
       <c r="A25" t="s">
         <v>214</v>
       </c>
@@ -3442,8 +3514,11 @@
       <c r="AG25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:33">
+      <c r="AH25" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34">
       <c r="A26" t="s">
         <v>215</v>
       </c>
@@ -3520,7 +3595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:33">
+    <row r="27" spans="1:34">
       <c r="A27" t="s">
         <v>216</v>
       </c>
@@ -3599,8 +3674,11 @@
       <c r="AG27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:33">
+      <c r="AH27" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34">
       <c r="A28" t="s">
         <v>217</v>
       </c>
@@ -3679,8 +3757,11 @@
       <c r="AG28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:33">
+      <c r="AH28" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34">
       <c r="A29" t="s">
         <v>218</v>
       </c>
@@ -3759,8 +3840,11 @@
       <c r="AG29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:33">
+      <c r="AH29" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34">
       <c r="A30" t="s">
         <v>219</v>
       </c>
@@ -3839,8 +3923,11 @@
       <c r="AG30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:33">
+      <c r="AH30" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34">
       <c r="A31" t="s">
         <v>220</v>
       </c>
@@ -3919,8 +4006,11 @@
       <c r="AG31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:33">
+      <c r="AH31" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34">
       <c r="A32" t="s">
         <v>221</v>
       </c>
@@ -3996,8 +4086,11 @@
       <c r="AG32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:33">
+      <c r="AH32" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34">
       <c r="A33" t="s">
         <v>222</v>
       </c>
@@ -4076,8 +4169,11 @@
       <c r="AG33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:33">
+      <c r="AH33" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34">
       <c r="A34" t="s">
         <v>223</v>
       </c>
@@ -4156,8 +4252,11 @@
       <c r="AG34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:33">
+      <c r="AH34" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34">
       <c r="A35" t="s">
         <v>333</v>
       </c>
@@ -4236,8 +4335,11 @@
       <c r="AG35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:33">
+      <c r="AH35" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34">
       <c r="A36" t="s">
         <v>224</v>
       </c>
@@ -4314,7 +4416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:33">
+    <row r="37" spans="1:34">
       <c r="A37" t="s">
         <v>225</v>
       </c>
@@ -4393,8 +4495,11 @@
       <c r="AG37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:33">
+      <c r="AH37" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34">
       <c r="A38" t="s">
         <v>226</v>
       </c>
@@ -4473,8 +4578,11 @@
       <c r="AG38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:33">
+      <c r="AH38" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34">
       <c r="A39" t="s">
         <v>227</v>
       </c>
@@ -4553,8 +4661,11 @@
       <c r="AG39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:33">
+      <c r="AH39" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34">
       <c r="A40" t="s">
         <v>228</v>
       </c>
@@ -4633,8 +4744,11 @@
       <c r="AG40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:33">
+      <c r="AH40" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34">
       <c r="A41" t="s">
         <v>229</v>
       </c>
@@ -4713,8 +4827,11 @@
       <c r="AG41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:33">
+      <c r="AH41" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34">
       <c r="A42" t="s">
         <v>230</v>
       </c>
@@ -4793,8 +4910,11 @@
       <c r="AG42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:33">
+      <c r="AH42" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34">
       <c r="A43" t="s">
         <v>231</v>
       </c>
@@ -4873,8 +4993,11 @@
       <c r="AG43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:33">
+      <c r="AH43" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34">
       <c r="A44" t="s">
         <v>232</v>
       </c>
@@ -4950,8 +5073,11 @@
       <c r="AG44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:33">
+      <c r="AH44" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34">
       <c r="A45" t="s">
         <v>233</v>
       </c>
@@ -5030,8 +5156,11 @@
       <c r="AG45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:33">
+      <c r="AH45" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34">
       <c r="A46" t="s">
         <v>234</v>
       </c>
@@ -5105,7 +5234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:33">
+    <row r="47" spans="1:34">
       <c r="A47" t="s">
         <v>235</v>
       </c>
@@ -5181,8 +5310,11 @@
       <c r="AG47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:33">
+      <c r="AH47" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34">
       <c r="A48" t="s">
         <v>236</v>
       </c>
@@ -5261,8 +5393,11 @@
       <c r="AG48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:33">
+      <c r="AH48" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34">
       <c r="A49" t="s">
         <v>237</v>
       </c>
@@ -5341,8 +5476,11 @@
       <c r="AG49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:33">
+      <c r="AH49" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34">
       <c r="A50" t="s">
         <v>238</v>
       </c>
@@ -5421,8 +5559,11 @@
       <c r="AG50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:33">
+      <c r="AH50" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34">
       <c r="A51" t="s">
         <v>239</v>
       </c>
@@ -5501,8 +5642,11 @@
       <c r="AG51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:33">
+      <c r="AH51" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34">
       <c r="A52" t="s">
         <v>240</v>
       </c>
@@ -5581,8 +5725,11 @@
       <c r="AG52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:33">
+      <c r="AH52" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34">
       <c r="A53" t="s">
         <v>241</v>
       </c>
@@ -5661,8 +5808,11 @@
       <c r="AG53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:33">
+      <c r="AH53" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34">
       <c r="A54" t="s">
         <v>242</v>
       </c>
@@ -5741,8 +5891,11 @@
       <c r="AG54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:33">
+      <c r="AH54" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34">
       <c r="A55" t="s">
         <v>243</v>
       </c>
@@ -5818,8 +5971,11 @@
       <c r="AG55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:33">
+      <c r="AH55" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34">
       <c r="A56" t="s">
         <v>244</v>
       </c>
@@ -5896,7 +6052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:33">
+    <row r="57" spans="1:34">
       <c r="A57" t="s">
         <v>245</v>
       </c>
@@ -5975,8 +6131,11 @@
       <c r="AG57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:33">
+      <c r="AH57" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34">
       <c r="A58" t="s">
         <v>246</v>
       </c>
@@ -6055,8 +6214,11 @@
       <c r="AG58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:33">
+      <c r="AH58" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34">
       <c r="A59" t="s">
         <v>247</v>
       </c>
@@ -6135,8 +6297,11 @@
       <c r="AG59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:33">
+      <c r="AH59" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34">
       <c r="A60" t="s">
         <v>248</v>
       </c>
@@ -6212,8 +6377,11 @@
       <c r="AG60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:33">
+      <c r="AH60" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34">
       <c r="A61" t="s">
         <v>249</v>
       </c>
@@ -6292,8 +6460,11 @@
       <c r="AG61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:33">
+      <c r="AH61" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34">
       <c r="A62" t="s">
         <v>250</v>
       </c>
@@ -6378,8 +6549,11 @@
       <c r="AG62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:33">
+      <c r="AH62" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34">
       <c r="A63" t="s">
         <v>251</v>
       </c>
@@ -6464,8 +6638,11 @@
       <c r="AG63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:33">
+      <c r="AH63" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34">
       <c r="A64" t="s">
         <v>252</v>
       </c>
@@ -6550,8 +6727,11 @@
       <c r="AG64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:33">
+      <c r="AH64" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34">
       <c r="A65" t="s">
         <v>253</v>
       </c>
@@ -6633,8 +6813,11 @@
       <c r="AG65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:33">
+      <c r="AH65" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34">
       <c r="A66" t="s">
         <v>254</v>
       </c>
@@ -6717,7 +6900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:33">
+    <row r="67" spans="1:34">
       <c r="A67" t="s">
         <v>255</v>
       </c>
@@ -6802,8 +6985,11 @@
       <c r="AG67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:33">
+      <c r="AH67" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34">
       <c r="A68" t="s">
         <v>256</v>
       </c>
@@ -6888,8 +7074,11 @@
       <c r="AG68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:33">
+      <c r="AH68" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34">
       <c r="A69" t="s">
         <v>257</v>
       </c>
@@ -6974,8 +7163,11 @@
       <c r="AG69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:33">
+      <c r="AH69" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34">
       <c r="A70" t="s">
         <v>258</v>
       </c>
@@ -7057,8 +7249,11 @@
       <c r="AG70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:33">
+      <c r="AH70" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34">
       <c r="A71" t="s">
         <v>259</v>
       </c>
@@ -7143,8 +7338,11 @@
       <c r="AG71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:33">
+      <c r="AH71" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="72" spans="1:34">
       <c r="A72" t="s">
         <v>260</v>
       </c>
@@ -7223,8 +7421,11 @@
       <c r="AG72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:33">
+      <c r="AH72" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="73" spans="1:34">
       <c r="A73" t="s">
         <v>261</v>
       </c>
@@ -7303,8 +7504,11 @@
       <c r="AG73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:33">
+      <c r="AH73" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="74" spans="1:34">
       <c r="A74" t="s">
         <v>262</v>
       </c>
@@ -7383,8 +7587,11 @@
       <c r="AG74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:33">
+      <c r="AH74" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="75" spans="1:34">
       <c r="A75" t="s">
         <v>263</v>
       </c>
@@ -7463,8 +7670,11 @@
       <c r="AG75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:33">
+      <c r="AH75" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="76" spans="1:34">
       <c r="A76" t="s">
         <v>264</v>
       </c>
@@ -7538,7 +7748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:33">
+    <row r="77" spans="1:34">
       <c r="A77" t="s">
         <v>265</v>
       </c>
@@ -7617,8 +7827,11 @@
       <c r="AG77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:33">
+      <c r="AH77" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="78" spans="1:34">
       <c r="A78" t="s">
         <v>266</v>
       </c>
@@ -7697,8 +7910,11 @@
       <c r="AG78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:33">
+      <c r="AH78" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="79" spans="1:34">
       <c r="A79" t="s">
         <v>267</v>
       </c>
@@ -7777,8 +7993,11 @@
       <c r="AG79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:33">
+      <c r="AH79" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="80" spans="1:34">
       <c r="A80" t="s">
         <v>268</v>
       </c>
@@ -7857,8 +8076,11 @@
       <c r="AG80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:33">
+      <c r="AH80" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="81" spans="1:34">
       <c r="A81" t="s">
         <v>269</v>
       </c>
@@ -7937,8 +8159,11 @@
       <c r="AG81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:33">
+      <c r="AH81" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="82" spans="1:34">
       <c r="A82" t="s">
         <v>270</v>
       </c>
@@ -8017,8 +8242,11 @@
       <c r="AG82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:33">
+      <c r="AH82" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="83" spans="1:34">
       <c r="A83" t="s">
         <v>271</v>
       </c>
@@ -8097,8 +8325,11 @@
       <c r="AG83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:33">
+      <c r="AH83" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="84" spans="1:34">
       <c r="A84" t="s">
         <v>272</v>
       </c>
@@ -8177,8 +8408,11 @@
       <c r="AG84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:33">
+      <c r="AH84" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="85" spans="1:34">
       <c r="A85" t="s">
         <v>273</v>
       </c>
@@ -8257,8 +8491,11 @@
       <c r="AG85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:33">
+      <c r="AH85" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="86" spans="1:34">
       <c r="A86" t="s">
         <v>274</v>
       </c>
@@ -8335,7 +8572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:33">
+    <row r="87" spans="1:34">
       <c r="A87" t="s">
         <v>275</v>
       </c>
@@ -8414,8 +8651,11 @@
       <c r="AG87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:33">
+      <c r="AH87" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="88" spans="1:34">
       <c r="A88" t="s">
         <v>276</v>
       </c>
@@ -8491,8 +8731,11 @@
       <c r="AG88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:33">
+      <c r="AH88" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="89" spans="1:34">
       <c r="A89" t="s">
         <v>277</v>
       </c>
@@ -8571,8 +8814,11 @@
       <c r="AG89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:33">
+      <c r="AH89" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="90" spans="1:34">
       <c r="A90" t="s">
         <v>278</v>
       </c>
@@ -8651,8 +8897,11 @@
       <c r="AG90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:33">
+      <c r="AH90" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="91" spans="1:34">
       <c r="A91" t="s">
         <v>279</v>
       </c>
@@ -8731,8 +8980,11 @@
       <c r="AG91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:33">
+      <c r="AH91" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="92" spans="1:34">
       <c r="A92" t="s">
         <v>280</v>
       </c>
@@ -8811,8 +9063,11 @@
       <c r="AG92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:33">
+      <c r="AH92" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="93" spans="1:34">
       <c r="A93" t="s">
         <v>281</v>
       </c>
@@ -8891,8 +9146,11 @@
       <c r="AG93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:33">
+      <c r="AH93" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="94" spans="1:34">
       <c r="A94" t="s">
         <v>282</v>
       </c>
@@ -8971,8 +9229,11 @@
       <c r="AG94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:33">
+      <c r="AH94" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="95" spans="1:34">
       <c r="A95" t="s">
         <v>283</v>
       </c>
@@ -9048,8 +9309,11 @@
       <c r="AG95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:33">
+      <c r="AH95" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="96" spans="1:34">
       <c r="A96" t="s">
         <v>284</v>
       </c>
@@ -9123,7 +9387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:33">
+    <row r="97" spans="1:34">
       <c r="A97" t="s">
         <v>285</v>
       </c>
@@ -9202,8 +9466,11 @@
       <c r="AG97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:33">
+      <c r="AH97" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="98" spans="1:34">
       <c r="A98" t="s">
         <v>286</v>
       </c>
@@ -9282,8 +9549,11 @@
       <c r="AG98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:33">
+      <c r="AH98" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="99" spans="1:34">
       <c r="A99" t="s">
         <v>287</v>
       </c>
@@ -9362,8 +9632,11 @@
       <c r="AG99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:33">
+      <c r="AH99" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="100" spans="1:34">
       <c r="A100" t="s">
         <v>288</v>
       </c>
@@ -9442,8 +9715,11 @@
       <c r="AG100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:33">
+      <c r="AH100" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="101" spans="1:34">
       <c r="A101" t="s">
         <v>289</v>
       </c>
@@ -9522,8 +9798,11 @@
       <c r="AG101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:33">
+      <c r="AH101" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="102" spans="1:34">
       <c r="A102" t="s">
         <v>334</v>
       </c>
@@ -9602,8 +9881,11 @@
       <c r="AG102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:33">
+      <c r="AH102" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="103" spans="1:34">
       <c r="A103" t="s">
         <v>335</v>
       </c>
@@ -9682,8 +9964,11 @@
       <c r="AG103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:33">
+      <c r="AH103" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="104" spans="1:34">
       <c r="A104" t="s">
         <v>336</v>
       </c>
@@ -9762,8 +10047,11 @@
       <c r="AG104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:33">
+      <c r="AH104" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="105" spans="1:34">
       <c r="A105" t="s">
         <v>337</v>
       </c>
@@ -9842,8 +10130,11 @@
       <c r="AG105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:33">
+      <c r="AH105" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="106" spans="1:34">
       <c r="A106" t="s">
         <v>338</v>
       </c>
@@ -9922,8 +10213,11 @@
       <c r="AG106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:33">
+      <c r="AH106" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="107" spans="1:34">
       <c r="A107" t="s">
         <v>339</v>
       </c>
@@ -10002,8 +10296,11 @@
       <c r="AG107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:33">
+      <c r="AH107" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="108" spans="1:34">
       <c r="A108" t="s">
         <v>340</v>
       </c>
@@ -10082,8 +10379,11 @@
       <c r="AG108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:33">
+      <c r="AH108" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="109" spans="1:34">
       <c r="A109" t="s">
         <v>341</v>
       </c>
@@ -10162,8 +10462,11 @@
       <c r="AG109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:33">
+      <c r="AH109" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="110" spans="1:34">
       <c r="A110" t="s">
         <v>342</v>
       </c>
@@ -10242,8 +10545,11 @@
       <c r="AG110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:33">
+      <c r="AH110" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="111" spans="1:34">
       <c r="A111" t="s">
         <v>343</v>
       </c>
@@ -10322,8 +10628,11 @@
       <c r="AG111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:33">
+      <c r="AH111" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="112" spans="1:34">
       <c r="A112" t="s">
         <v>344</v>
       </c>
@@ -10402,8 +10711,11 @@
       <c r="AG112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:33">
+      <c r="AH112" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="113" spans="1:34">
       <c r="A113" t="s">
         <v>345</v>
       </c>
@@ -10482,8 +10794,11 @@
       <c r="AG113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:33">
+      <c r="AH113" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="114" spans="1:34">
       <c r="A114" t="s">
         <v>346</v>
       </c>
@@ -10562,8 +10877,11 @@
       <c r="AG114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:33">
+      <c r="AH114" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="115" spans="1:34">
       <c r="A115" t="s">
         <v>347</v>
       </c>
@@ -10642,8 +10960,11 @@
       <c r="AG115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:33">
+      <c r="AH115" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="116" spans="1:34">
       <c r="A116" t="s">
         <v>348</v>
       </c>
@@ -10722,8 +11043,11 @@
       <c r="AG116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:33">
+      <c r="AH116" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="117" spans="1:34">
       <c r="A117" t="s">
         <v>349</v>
       </c>
@@ -10802,8 +11126,11 @@
       <c r="AG117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:33">
+      <c r="AH117" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="118" spans="1:34">
       <c r="A118" t="s">
         <v>350</v>
       </c>
@@ -10882,8 +11209,11 @@
       <c r="AG118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:33">
+      <c r="AH118" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="119" spans="1:34">
       <c r="A119" t="s">
         <v>351</v>
       </c>
@@ -10962,8 +11292,11 @@
       <c r="AG119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:33">
+      <c r="AH119" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="120" spans="1:34">
       <c r="A120" t="s">
         <v>352</v>
       </c>
@@ -11042,8 +11375,11 @@
       <c r="AG120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:33">
+      <c r="AH120" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="121" spans="1:34">
       <c r="A121" t="s">
         <v>353</v>
       </c>
@@ -11121,6 +11457,9 @@
       </c>
       <c r="AG121">
         <v>1</v>
+      </c>
+      <c r="AH121" t="s">
+        <v>362</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Carga DB Postgres/Ingreso - cargado.xlsx
+++ b/Excel/Carga DB Postgres/Ingreso - cargado.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" calcMode="manual"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="366">
   <si>
     <t>fechahora</t>
   </si>
@@ -1105,6 +1105,15 @@
   </si>
   <si>
     <t>true</t>
+  </si>
+  <si>
+    <t>2017-08-25-20:09:58</t>
+  </si>
+  <si>
+    <t>2017-07-30-13:22:46</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
 </sst>
 </file>
@@ -1439,9 +1448,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH121"/>
+  <dimension ref="A1:AH123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="T93" workbookViewId="0">
       <selection activeCell="AH96" sqref="AH96"/>
     </sheetView>
   </sheetViews>
@@ -1973,6 +1982,9 @@
       <c r="AG6">
         <v>2</v>
       </c>
+      <c r="AH6" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="7" spans="1:34">
       <c r="A7" t="s">
@@ -2782,6 +2794,9 @@
       <c r="AG16">
         <v>2</v>
       </c>
+      <c r="AH16" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="17" spans="1:34">
       <c r="A17" t="s">
@@ -3594,6 +3609,9 @@
       <c r="AG26">
         <v>1</v>
       </c>
+      <c r="AH26" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="27" spans="1:34">
       <c r="A27" t="s">
@@ -3736,6 +3754,9 @@
       <c r="U28" s="1">
         <v>16301323</v>
       </c>
+      <c r="V28">
+        <v>1000</v>
+      </c>
       <c r="AA28">
         <v>16626249</v>
       </c>
@@ -3819,6 +3840,9 @@
       <c r="U29" s="1">
         <v>16133930</v>
       </c>
+      <c r="V29">
+        <v>1001</v>
+      </c>
       <c r="AA29">
         <v>16450251</v>
       </c>
@@ -4415,6 +4439,9 @@
       <c r="AG36">
         <v>1</v>
       </c>
+      <c r="AH36" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="37" spans="1:34">
       <c r="A37" t="s">
@@ -5233,6 +5260,9 @@
       <c r="AG46">
         <v>1</v>
       </c>
+      <c r="AH46" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="47" spans="1:34">
       <c r="A47" t="s">
@@ -6051,6 +6081,9 @@
       <c r="AG56">
         <v>1</v>
       </c>
+      <c r="AH56" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="57" spans="1:34">
       <c r="A57" t="s">
@@ -6899,6 +6932,9 @@
       <c r="AG66">
         <v>1</v>
       </c>
+      <c r="AH66" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="67" spans="1:34">
       <c r="A67" t="s">
@@ -7747,6 +7783,9 @@
       <c r="AG76">
         <v>1</v>
       </c>
+      <c r="AH76" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="77" spans="1:34">
       <c r="A77" t="s">
@@ -8571,6 +8610,9 @@
       <c r="AG86">
         <v>1</v>
       </c>
+      <c r="AH86" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="87" spans="1:34">
       <c r="A87" t="s">
@@ -9386,6 +9428,9 @@
       <c r="AG96">
         <v>1</v>
       </c>
+      <c r="AH96" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="97" spans="1:34">
       <c r="A97" t="s">
@@ -11459,6 +11504,172 @@
         <v>1</v>
       </c>
       <c r="AH121" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="122" spans="1:34">
+      <c r="A122" t="s">
+        <v>363</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>5</v>
+      </c>
+      <c r="D122" t="s">
+        <v>57</v>
+      </c>
+      <c r="E122" t="s">
+        <v>123</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G122" t="s">
+        <v>32</v>
+      </c>
+      <c r="J122" t="s">
+        <v>326</v>
+      </c>
+      <c r="K122" t="s">
+        <v>290</v>
+      </c>
+      <c r="L122" t="s">
+        <v>37</v>
+      </c>
+      <c r="M122" t="s">
+        <v>305</v>
+      </c>
+      <c r="N122" t="s">
+        <v>307</v>
+      </c>
+      <c r="O122">
+        <v>155</v>
+      </c>
+      <c r="P122">
+        <v>15</v>
+      </c>
+      <c r="Q122">
+        <v>33</v>
+      </c>
+      <c r="R122">
+        <v>2</v>
+      </c>
+      <c r="S122" t="s">
+        <v>37</v>
+      </c>
+      <c r="T122">
+        <v>1</v>
+      </c>
+      <c r="U122" s="1">
+        <v>16855456</v>
+      </c>
+      <c r="AA122">
+        <v>16017888</v>
+      </c>
+      <c r="AB122">
+        <v>16085667</v>
+      </c>
+      <c r="AC122">
+        <v>565699</v>
+      </c>
+      <c r="AD122">
+        <v>680669</v>
+      </c>
+      <c r="AE122">
+        <v>1</v>
+      </c>
+      <c r="AF122">
+        <v>1</v>
+      </c>
+      <c r="AG122">
+        <v>4</v>
+      </c>
+      <c r="AH122" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="123" spans="1:34">
+      <c r="A123" t="s">
+        <v>364</v>
+      </c>
+      <c r="B123">
+        <v>10</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+      <c r="D123" t="s">
+        <v>117</v>
+      </c>
+      <c r="E123" t="s">
+        <v>130</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G123" t="s">
+        <v>35</v>
+      </c>
+      <c r="J123" t="s">
+        <v>324</v>
+      </c>
+      <c r="K123" t="s">
+        <v>306</v>
+      </c>
+      <c r="L123" t="s">
+        <v>37</v>
+      </c>
+      <c r="M123" t="s">
+        <v>309</v>
+      </c>
+      <c r="N123" t="s">
+        <v>300</v>
+      </c>
+      <c r="O123">
+        <v>5528</v>
+      </c>
+      <c r="P123">
+        <v>97</v>
+      </c>
+      <c r="Q123">
+        <v>20</v>
+      </c>
+      <c r="R123">
+        <v>138</v>
+      </c>
+      <c r="S123" t="s">
+        <v>37</v>
+      </c>
+      <c r="T123">
+        <v>4</v>
+      </c>
+      <c r="U123" s="1">
+        <v>16333632</v>
+      </c>
+      <c r="AA123">
+        <v>16360796</v>
+      </c>
+      <c r="AB123">
+        <v>16013863</v>
+      </c>
+      <c r="AC123">
+        <v>249972</v>
+      </c>
+      <c r="AD123">
+        <v>616436</v>
+      </c>
+      <c r="AE123">
+        <v>1</v>
+      </c>
+      <c r="AF123">
+        <v>1</v>
+      </c>
+      <c r="AG123">
+        <v>5</v>
+      </c>
+      <c r="AH123" t="s">
         <v>362</v>
       </c>
     </row>

--- a/Excel/Carga DB Postgres/Ingreso - cargado.xlsx
+++ b/Excel/Carga DB Postgres/Ingreso - cargado.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="366">
   <si>
     <t>fechahora</t>
   </si>
@@ -1450,8 +1450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T93" workbookViewId="0">
-      <selection activeCell="AH96" sqref="AH96"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AE116" sqref="AE116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1647,8 +1647,8 @@
       <c r="AD2">
         <v>791049</v>
       </c>
-      <c r="AE2">
-        <v>1</v>
+      <c r="AE2" t="s">
+        <v>365</v>
       </c>
       <c r="AF2">
         <v>2</v>
@@ -1730,8 +1730,8 @@
       <c r="AD3">
         <v>451693</v>
       </c>
-      <c r="AE3">
-        <v>1</v>
+      <c r="AE3" t="s">
+        <v>365</v>
       </c>
       <c r="AF3">
         <v>1</v>
@@ -1810,8 +1810,8 @@
       <c r="AD4">
         <v>913540</v>
       </c>
-      <c r="AE4">
-        <v>1</v>
+      <c r="AE4" t="s">
+        <v>365</v>
       </c>
       <c r="AF4">
         <v>1</v>
@@ -1893,8 +1893,8 @@
       <c r="AD5">
         <v>905517</v>
       </c>
-      <c r="AE5">
-        <v>1</v>
+      <c r="AE5" t="s">
+        <v>365</v>
       </c>
       <c r="AF5">
         <v>1</v>
@@ -1973,8 +1973,8 @@
       <c r="AD6">
         <v>396409</v>
       </c>
-      <c r="AE6">
-        <v>1</v>
+      <c r="AE6" t="s">
+        <v>365</v>
       </c>
       <c r="AF6">
         <v>2</v>
@@ -2056,8 +2056,8 @@
       <c r="AD7">
         <v>610018</v>
       </c>
-      <c r="AE7">
-        <v>1</v>
+      <c r="AE7" t="s">
+        <v>365</v>
       </c>
       <c r="AF7">
         <v>1</v>
@@ -2136,8 +2136,8 @@
       <c r="AD8">
         <v>182131</v>
       </c>
-      <c r="AE8">
-        <v>1</v>
+      <c r="AE8" t="s">
+        <v>365</v>
       </c>
       <c r="AF8">
         <v>1</v>
@@ -2219,8 +2219,8 @@
       <c r="AD9">
         <v>897582</v>
       </c>
-      <c r="AE9">
-        <v>1</v>
+      <c r="AE9" t="s">
+        <v>365</v>
       </c>
       <c r="AF9">
         <v>1</v>
@@ -2299,8 +2299,8 @@
       <c r="AD10">
         <v>760841</v>
       </c>
-      <c r="AE10">
-        <v>1</v>
+      <c r="AE10" t="s">
+        <v>365</v>
       </c>
       <c r="AF10">
         <v>1</v>
@@ -2382,8 +2382,8 @@
       <c r="AD11">
         <v>925884</v>
       </c>
-      <c r="AE11">
-        <v>1</v>
+      <c r="AE11" t="s">
+        <v>365</v>
       </c>
       <c r="AF11">
         <v>2</v>
@@ -2462,8 +2462,8 @@
       <c r="AD12">
         <v>403497</v>
       </c>
-      <c r="AE12">
-        <v>1</v>
+      <c r="AE12" t="s">
+        <v>365</v>
       </c>
       <c r="AF12">
         <v>1</v>
@@ -2545,8 +2545,8 @@
       <c r="AD13">
         <v>692594</v>
       </c>
-      <c r="AE13">
-        <v>1</v>
+      <c r="AE13" t="s">
+        <v>365</v>
       </c>
       <c r="AF13">
         <v>1</v>
@@ -2628,8 +2628,8 @@
       <c r="AD14">
         <v>293461</v>
       </c>
-      <c r="AE14">
-        <v>1</v>
+      <c r="AE14" t="s">
+        <v>365</v>
       </c>
       <c r="AF14">
         <v>1</v>
@@ -2708,8 +2708,8 @@
       <c r="AD15">
         <v>535609</v>
       </c>
-      <c r="AE15">
-        <v>1</v>
+      <c r="AE15" t="s">
+        <v>365</v>
       </c>
       <c r="AF15">
         <v>1</v>
@@ -2785,8 +2785,8 @@
       <c r="AD16">
         <v>106003</v>
       </c>
-      <c r="AE16">
-        <v>1</v>
+      <c r="AE16" t="s">
+        <v>365</v>
       </c>
       <c r="AF16">
         <v>1</v>
@@ -2865,8 +2865,8 @@
       <c r="AD17">
         <v>220518</v>
       </c>
-      <c r="AE17">
-        <v>1</v>
+      <c r="AE17" t="s">
+        <v>365</v>
       </c>
       <c r="AF17">
         <v>2</v>
@@ -2948,8 +2948,8 @@
       <c r="AD18">
         <v>813756</v>
       </c>
-      <c r="AE18">
-        <v>1</v>
+      <c r="AE18" t="s">
+        <v>365</v>
       </c>
       <c r="AF18">
         <v>2</v>
@@ -3031,8 +3031,8 @@
       <c r="AD19">
         <v>528611</v>
       </c>
-      <c r="AE19">
-        <v>1</v>
+      <c r="AE19" t="s">
+        <v>365</v>
       </c>
       <c r="AF19">
         <v>1</v>
@@ -3114,8 +3114,8 @@
       <c r="AD20">
         <v>238265</v>
       </c>
-      <c r="AE20">
-        <v>1</v>
+      <c r="AE20" t="s">
+        <v>365</v>
       </c>
       <c r="AF20">
         <v>2</v>
@@ -3197,8 +3197,8 @@
       <c r="AD21">
         <v>200914</v>
       </c>
-      <c r="AE21">
-        <v>1</v>
+      <c r="AE21" t="s">
+        <v>365</v>
       </c>
       <c r="AF21">
         <v>2</v>
@@ -3277,8 +3277,8 @@
       <c r="AD22">
         <v>372371</v>
       </c>
-      <c r="AE22">
-        <v>1</v>
+      <c r="AE22" t="s">
+        <v>362</v>
       </c>
       <c r="AF22">
         <v>1</v>
@@ -3357,8 +3357,8 @@
       <c r="AD23">
         <v>882075</v>
       </c>
-      <c r="AE23">
-        <v>1</v>
+      <c r="AE23" t="s">
+        <v>362</v>
       </c>
       <c r="AF23">
         <v>1</v>
@@ -3440,8 +3440,8 @@
       <c r="AD24">
         <v>358405</v>
       </c>
-      <c r="AE24">
-        <v>1</v>
+      <c r="AE24" t="s">
+        <v>362</v>
       </c>
       <c r="AF24">
         <v>2</v>
@@ -3520,8 +3520,8 @@
       <c r="AD25">
         <v>346023</v>
       </c>
-      <c r="AE25">
-        <v>1</v>
+      <c r="AE25" t="s">
+        <v>362</v>
       </c>
       <c r="AF25">
         <v>1</v>
@@ -3600,8 +3600,8 @@
       <c r="AD26">
         <v>607127</v>
       </c>
-      <c r="AE26">
-        <v>1</v>
+      <c r="AE26" t="s">
+        <v>362</v>
       </c>
       <c r="AF26">
         <v>1</v>
@@ -3683,8 +3683,8 @@
       <c r="AD27">
         <v>332970</v>
       </c>
-      <c r="AE27">
-        <v>1</v>
+      <c r="AE27" t="s">
+        <v>362</v>
       </c>
       <c r="AF27">
         <v>2</v>
@@ -3769,8 +3769,8 @@
       <c r="AD28">
         <v>871222</v>
       </c>
-      <c r="AE28">
-        <v>1</v>
+      <c r="AE28" t="s">
+        <v>362</v>
       </c>
       <c r="AF28">
         <v>1</v>
@@ -3855,8 +3855,8 @@
       <c r="AD29">
         <v>278273</v>
       </c>
-      <c r="AE29">
-        <v>1</v>
+      <c r="AE29" t="s">
+        <v>362</v>
       </c>
       <c r="AF29">
         <v>1</v>
@@ -3938,8 +3938,8 @@
       <c r="AD30">
         <v>993015</v>
       </c>
-      <c r="AE30">
-        <v>1</v>
+      <c r="AE30" t="s">
+        <v>362</v>
       </c>
       <c r="AF30">
         <v>1</v>
@@ -4021,8 +4021,8 @@
       <c r="AD31">
         <v>782208</v>
       </c>
-      <c r="AE31">
-        <v>1</v>
+      <c r="AE31" t="s">
+        <v>362</v>
       </c>
       <c r="AF31">
         <v>1</v>
@@ -4101,8 +4101,8 @@
       <c r="AD32">
         <v>509104</v>
       </c>
-      <c r="AE32">
-        <v>1</v>
+      <c r="AE32" t="s">
+        <v>362</v>
       </c>
       <c r="AF32">
         <v>1</v>
@@ -4184,8 +4184,8 @@
       <c r="AD33">
         <v>926907</v>
       </c>
-      <c r="AE33">
-        <v>1</v>
+      <c r="AE33" t="s">
+        <v>362</v>
       </c>
       <c r="AF33">
         <v>2</v>
@@ -4267,8 +4267,8 @@
       <c r="AD34">
         <v>553935</v>
       </c>
-      <c r="AE34">
-        <v>1</v>
+      <c r="AE34" t="s">
+        <v>362</v>
       </c>
       <c r="AF34">
         <v>1</v>
@@ -4350,8 +4350,8 @@
       <c r="AD35">
         <v>974770</v>
       </c>
-      <c r="AE35">
-        <v>1</v>
+      <c r="AE35" t="s">
+        <v>362</v>
       </c>
       <c r="AF35">
         <v>2</v>
@@ -4430,8 +4430,8 @@
       <c r="AD36">
         <v>806733</v>
       </c>
-      <c r="AE36">
-        <v>1</v>
+      <c r="AE36" t="s">
+        <v>362</v>
       </c>
       <c r="AF36">
         <v>1</v>
@@ -4513,8 +4513,8 @@
       <c r="AD37">
         <v>375174</v>
       </c>
-      <c r="AE37">
-        <v>1</v>
+      <c r="AE37" t="s">
+        <v>362</v>
       </c>
       <c r="AF37">
         <v>2</v>
@@ -4596,8 +4596,8 @@
       <c r="AD38">
         <v>681065</v>
       </c>
-      <c r="AE38">
-        <v>1</v>
+      <c r="AE38" t="s">
+        <v>362</v>
       </c>
       <c r="AF38">
         <v>2</v>
@@ -4679,8 +4679,8 @@
       <c r="AD39">
         <v>882229</v>
       </c>
-      <c r="AE39">
-        <v>1</v>
+      <c r="AE39" t="s">
+        <v>362</v>
       </c>
       <c r="AF39">
         <v>2</v>
@@ -4762,8 +4762,8 @@
       <c r="AD40">
         <v>941095</v>
       </c>
-      <c r="AE40">
-        <v>1</v>
+      <c r="AE40" t="s">
+        <v>362</v>
       </c>
       <c r="AF40">
         <v>2</v>
@@ -4845,8 +4845,8 @@
       <c r="AD41">
         <v>799703</v>
       </c>
-      <c r="AE41">
-        <v>1</v>
+      <c r="AE41" t="s">
+        <v>362</v>
       </c>
       <c r="AF41">
         <v>1</v>
@@ -4928,8 +4928,8 @@
       <c r="AD42">
         <v>485875</v>
       </c>
-      <c r="AE42">
-        <v>1</v>
+      <c r="AE42" t="s">
+        <v>362</v>
       </c>
       <c r="AF42">
         <v>1</v>
@@ -5011,8 +5011,8 @@
       <c r="AD43">
         <v>715575</v>
       </c>
-      <c r="AE43">
-        <v>1</v>
+      <c r="AE43" t="s">
+        <v>362</v>
       </c>
       <c r="AF43">
         <v>2</v>
@@ -5091,8 +5091,8 @@
       <c r="AD44">
         <v>972761</v>
       </c>
-      <c r="AE44">
-        <v>1</v>
+      <c r="AE44" t="s">
+        <v>362</v>
       </c>
       <c r="AF44">
         <v>1</v>
@@ -5174,8 +5174,8 @@
       <c r="AD45">
         <v>168913</v>
       </c>
-      <c r="AE45">
-        <v>1</v>
+      <c r="AE45" t="s">
+        <v>362</v>
       </c>
       <c r="AF45">
         <v>1</v>
@@ -5251,8 +5251,8 @@
       <c r="AD46">
         <v>496999</v>
       </c>
-      <c r="AE46">
-        <v>1</v>
+      <c r="AE46" t="s">
+        <v>362</v>
       </c>
       <c r="AF46">
         <v>1</v>
@@ -5331,8 +5331,8 @@
       <c r="AD47">
         <v>272132</v>
       </c>
-      <c r="AE47">
-        <v>1</v>
+      <c r="AE47" t="s">
+        <v>362</v>
       </c>
       <c r="AF47">
         <v>1</v>
@@ -5414,8 +5414,8 @@
       <c r="AD48">
         <v>770018</v>
       </c>
-      <c r="AE48">
-        <v>1</v>
+      <c r="AE48" t="s">
+        <v>362</v>
       </c>
       <c r="AF48">
         <v>2</v>
@@ -5497,8 +5497,8 @@
       <c r="AD49">
         <v>806862</v>
       </c>
-      <c r="AE49">
-        <v>1</v>
+      <c r="AE49" t="s">
+        <v>362</v>
       </c>
       <c r="AF49">
         <v>1</v>
@@ -5580,8 +5580,8 @@
       <c r="AD50">
         <v>241262</v>
       </c>
-      <c r="AE50">
-        <v>1</v>
+      <c r="AE50" t="s">
+        <v>362</v>
       </c>
       <c r="AF50">
         <v>1</v>
@@ -5663,8 +5663,8 @@
       <c r="AD51">
         <v>106694</v>
       </c>
-      <c r="AE51">
-        <v>1</v>
+      <c r="AE51" t="s">
+        <v>362</v>
       </c>
       <c r="AF51">
         <v>2</v>
@@ -5746,8 +5746,8 @@
       <c r="AD52">
         <v>925015</v>
       </c>
-      <c r="AE52">
-        <v>1</v>
+      <c r="AE52" t="s">
+        <v>362</v>
       </c>
       <c r="AF52">
         <v>2</v>
@@ -5829,8 +5829,8 @@
       <c r="AD53">
         <v>611082</v>
       </c>
-      <c r="AE53">
-        <v>1</v>
+      <c r="AE53" t="s">
+        <v>362</v>
       </c>
       <c r="AF53">
         <v>1</v>
@@ -5912,8 +5912,8 @@
       <c r="AD54">
         <v>420768</v>
       </c>
-      <c r="AE54">
-        <v>1</v>
+      <c r="AE54" t="s">
+        <v>362</v>
       </c>
       <c r="AF54">
         <v>2</v>
@@ -5992,8 +5992,8 @@
       <c r="AD55">
         <v>636021</v>
       </c>
-      <c r="AE55">
-        <v>1</v>
+      <c r="AE55" t="s">
+        <v>362</v>
       </c>
       <c r="AF55">
         <v>1</v>
@@ -6072,8 +6072,8 @@
       <c r="AD56">
         <v>297788</v>
       </c>
-      <c r="AE56">
-        <v>1</v>
+      <c r="AE56" t="s">
+        <v>362</v>
       </c>
       <c r="AF56">
         <v>1</v>
@@ -6155,8 +6155,8 @@
       <c r="AD57">
         <v>530385</v>
       </c>
-      <c r="AE57">
-        <v>1</v>
+      <c r="AE57" t="s">
+        <v>362</v>
       </c>
       <c r="AF57">
         <v>2</v>
@@ -6238,8 +6238,8 @@
       <c r="AD58">
         <v>152563</v>
       </c>
-      <c r="AE58">
-        <v>1</v>
+      <c r="AE58" t="s">
+        <v>362</v>
       </c>
       <c r="AF58">
         <v>2</v>
@@ -6321,8 +6321,8 @@
       <c r="AD59">
         <v>342660</v>
       </c>
-      <c r="AE59">
-        <v>1</v>
+      <c r="AE59" t="s">
+        <v>362</v>
       </c>
       <c r="AF59">
         <v>2</v>
@@ -6401,8 +6401,8 @@
       <c r="AD60">
         <v>100554</v>
       </c>
-      <c r="AE60">
-        <v>1</v>
+      <c r="AE60" t="s">
+        <v>362</v>
       </c>
       <c r="AF60">
         <v>2</v>
@@ -6484,8 +6484,8 @@
       <c r="AD61">
         <v>172249</v>
       </c>
-      <c r="AE61">
-        <v>1</v>
+      <c r="AE61" t="s">
+        <v>362</v>
       </c>
       <c r="AF61">
         <v>2</v>
@@ -6573,8 +6573,8 @@
       <c r="AD62">
         <v>230992</v>
       </c>
-      <c r="AE62">
-        <v>1</v>
+      <c r="AE62" t="s">
+        <v>362</v>
       </c>
       <c r="AF62">
         <v>2</v>
@@ -6662,8 +6662,8 @@
       <c r="AD63">
         <v>737429</v>
       </c>
-      <c r="AE63">
-        <v>1</v>
+      <c r="AE63" t="s">
+        <v>362</v>
       </c>
       <c r="AF63">
         <v>2</v>
@@ -6751,8 +6751,8 @@
       <c r="AD64">
         <v>487798</v>
       </c>
-      <c r="AE64">
-        <v>1</v>
+      <c r="AE64" t="s">
+        <v>362</v>
       </c>
       <c r="AF64">
         <v>1</v>
@@ -6837,8 +6837,8 @@
       <c r="AD65">
         <v>358465</v>
       </c>
-      <c r="AE65">
-        <v>1</v>
+      <c r="AE65" t="s">
+        <v>362</v>
       </c>
       <c r="AF65">
         <v>1</v>
@@ -6923,8 +6923,8 @@
       <c r="AD66">
         <v>464686</v>
       </c>
-      <c r="AE66">
-        <v>1</v>
+      <c r="AE66" t="s">
+        <v>362</v>
       </c>
       <c r="AF66">
         <v>2</v>
@@ -7012,8 +7012,8 @@
       <c r="AD67">
         <v>438279</v>
       </c>
-      <c r="AE67">
-        <v>1</v>
+      <c r="AE67" t="s">
+        <v>362</v>
       </c>
       <c r="AF67">
         <v>1</v>
@@ -7101,8 +7101,8 @@
       <c r="AD68">
         <v>586518</v>
       </c>
-      <c r="AE68">
-        <v>1</v>
+      <c r="AE68" t="s">
+        <v>362</v>
       </c>
       <c r="AF68">
         <v>2</v>
@@ -7190,8 +7190,8 @@
       <c r="AD69">
         <v>142736</v>
       </c>
-      <c r="AE69">
-        <v>1</v>
+      <c r="AE69" t="s">
+        <v>362</v>
       </c>
       <c r="AF69">
         <v>2</v>
@@ -7276,8 +7276,8 @@
       <c r="AD70">
         <v>696142</v>
       </c>
-      <c r="AE70">
-        <v>1</v>
+      <c r="AE70" t="s">
+        <v>362</v>
       </c>
       <c r="AF70">
         <v>1</v>
@@ -7365,8 +7365,8 @@
       <c r="AD71">
         <v>679069</v>
       </c>
-      <c r="AE71">
-        <v>1</v>
+      <c r="AE71" t="s">
+        <v>362</v>
       </c>
       <c r="AF71">
         <v>1</v>
@@ -7448,8 +7448,8 @@
       <c r="AD72">
         <v>128759</v>
       </c>
-      <c r="AE72">
-        <v>1</v>
+      <c r="AE72" t="s">
+        <v>362</v>
       </c>
       <c r="AF72">
         <v>1</v>
@@ -7531,8 +7531,8 @@
       <c r="AD73">
         <v>381664</v>
       </c>
-      <c r="AE73">
-        <v>1</v>
+      <c r="AE73" t="s">
+        <v>362</v>
       </c>
       <c r="AF73">
         <v>2</v>
@@ -7614,8 +7614,8 @@
       <c r="AD74">
         <v>684083</v>
       </c>
-      <c r="AE74">
-        <v>1</v>
+      <c r="AE74" t="s">
+        <v>362</v>
       </c>
       <c r="AF74">
         <v>2</v>
@@ -7697,8 +7697,8 @@
       <c r="AD75">
         <v>253136</v>
       </c>
-      <c r="AE75">
-        <v>1</v>
+      <c r="AE75" t="s">
+        <v>362</v>
       </c>
       <c r="AF75">
         <v>1</v>
@@ -7774,8 +7774,8 @@
       <c r="AD76">
         <v>964471</v>
       </c>
-      <c r="AE76">
-        <v>1</v>
+      <c r="AE76" t="s">
+        <v>362</v>
       </c>
       <c r="AF76">
         <v>1</v>
@@ -7857,8 +7857,8 @@
       <c r="AD77">
         <v>677014</v>
       </c>
-      <c r="AE77">
-        <v>1</v>
+      <c r="AE77" t="s">
+        <v>362</v>
       </c>
       <c r="AF77">
         <v>1</v>
@@ -7940,8 +7940,8 @@
       <c r="AD78">
         <v>720275</v>
       </c>
-      <c r="AE78">
-        <v>1</v>
+      <c r="AE78" t="s">
+        <v>362</v>
       </c>
       <c r="AF78">
         <v>1</v>
@@ -8023,8 +8023,8 @@
       <c r="AD79">
         <v>667824</v>
       </c>
-      <c r="AE79">
-        <v>1</v>
+      <c r="AE79" t="s">
+        <v>362</v>
       </c>
       <c r="AF79">
         <v>2</v>
@@ -8106,8 +8106,8 @@
       <c r="AD80">
         <v>447849</v>
       </c>
-      <c r="AE80">
-        <v>1</v>
+      <c r="AE80" t="s">
+        <v>362</v>
       </c>
       <c r="AF80">
         <v>1</v>
@@ -8189,8 +8189,8 @@
       <c r="AD81">
         <v>819250</v>
       </c>
-      <c r="AE81">
-        <v>1</v>
+      <c r="AE81" t="s">
+        <v>362</v>
       </c>
       <c r="AF81">
         <v>1</v>
@@ -8272,8 +8272,8 @@
       <c r="AD82">
         <v>399975</v>
       </c>
-      <c r="AE82">
-        <v>1</v>
+      <c r="AE82" t="s">
+        <v>362</v>
       </c>
       <c r="AF82">
         <v>2</v>
@@ -8355,8 +8355,8 @@
       <c r="AD83">
         <v>538140</v>
       </c>
-      <c r="AE83">
-        <v>1</v>
+      <c r="AE83" t="s">
+        <v>362</v>
       </c>
       <c r="AF83">
         <v>2</v>
@@ -8438,8 +8438,8 @@
       <c r="AD84">
         <v>397346</v>
       </c>
-      <c r="AE84">
-        <v>1</v>
+      <c r="AE84" t="s">
+        <v>362</v>
       </c>
       <c r="AF84">
         <v>2</v>
@@ -8521,8 +8521,8 @@
       <c r="AD85">
         <v>945951</v>
       </c>
-      <c r="AE85">
-        <v>1</v>
+      <c r="AE85" t="s">
+        <v>362</v>
       </c>
       <c r="AF85">
         <v>1</v>
@@ -8601,8 +8601,8 @@
       <c r="AD86">
         <v>503471</v>
       </c>
-      <c r="AE86">
-        <v>1</v>
+      <c r="AE86" t="s">
+        <v>362</v>
       </c>
       <c r="AF86">
         <v>1</v>
@@ -8684,8 +8684,8 @@
       <c r="AD87">
         <v>939453</v>
       </c>
-      <c r="AE87">
-        <v>1</v>
+      <c r="AE87" t="s">
+        <v>362</v>
       </c>
       <c r="AF87">
         <v>1</v>
@@ -8764,8 +8764,8 @@
       <c r="AD88">
         <v>471671</v>
       </c>
-      <c r="AE88">
-        <v>1</v>
+      <c r="AE88" t="s">
+        <v>362</v>
       </c>
       <c r="AF88">
         <v>2</v>
@@ -8847,8 +8847,8 @@
       <c r="AD89">
         <v>777615</v>
       </c>
-      <c r="AE89">
-        <v>1</v>
+      <c r="AE89" t="s">
+        <v>362</v>
       </c>
       <c r="AF89">
         <v>2</v>
@@ -8930,8 +8930,8 @@
       <c r="AD90">
         <v>834207</v>
       </c>
-      <c r="AE90">
-        <v>1</v>
+      <c r="AE90" t="s">
+        <v>362</v>
       </c>
       <c r="AF90">
         <v>1</v>
@@ -9013,8 +9013,8 @@
       <c r="AD91">
         <v>419709</v>
       </c>
-      <c r="AE91">
-        <v>1</v>
+      <c r="AE91" t="s">
+        <v>362</v>
       </c>
       <c r="AF91">
         <v>2</v>
@@ -9096,8 +9096,8 @@
       <c r="AD92">
         <v>915543</v>
       </c>
-      <c r="AE92">
-        <v>1</v>
+      <c r="AE92" t="s">
+        <v>362</v>
       </c>
       <c r="AF92">
         <v>1</v>
@@ -9179,8 +9179,8 @@
       <c r="AD93">
         <v>766238</v>
       </c>
-      <c r="AE93">
-        <v>1</v>
+      <c r="AE93" t="s">
+        <v>362</v>
       </c>
       <c r="AF93">
         <v>2</v>
@@ -9262,8 +9262,8 @@
       <c r="AD94">
         <v>620557</v>
       </c>
-      <c r="AE94">
-        <v>1</v>
+      <c r="AE94" t="s">
+        <v>362</v>
       </c>
       <c r="AF94">
         <v>1</v>
@@ -9342,8 +9342,8 @@
       <c r="AD95">
         <v>145722</v>
       </c>
-      <c r="AE95">
-        <v>1</v>
+      <c r="AE95" t="s">
+        <v>362</v>
       </c>
       <c r="AF95">
         <v>1</v>
@@ -9419,8 +9419,8 @@
       <c r="AD96">
         <v>146790</v>
       </c>
-      <c r="AE96">
-        <v>1</v>
+      <c r="AE96" t="s">
+        <v>362</v>
       </c>
       <c r="AF96">
         <v>1</v>
@@ -9502,8 +9502,8 @@
       <c r="AD97">
         <v>996960</v>
       </c>
-      <c r="AE97">
-        <v>1</v>
+      <c r="AE97" t="s">
+        <v>362</v>
       </c>
       <c r="AF97">
         <v>1</v>
@@ -9585,8 +9585,8 @@
       <c r="AD98">
         <v>616436</v>
       </c>
-      <c r="AE98">
-        <v>1</v>
+      <c r="AE98" t="s">
+        <v>362</v>
       </c>
       <c r="AF98">
         <v>1</v>
@@ -9668,8 +9668,8 @@
       <c r="AD99">
         <v>434418</v>
       </c>
-      <c r="AE99">
-        <v>1</v>
+      <c r="AE99" t="s">
+        <v>362</v>
       </c>
       <c r="AF99">
         <v>2</v>
@@ -9751,8 +9751,8 @@
       <c r="AD100">
         <v>362838</v>
       </c>
-      <c r="AE100">
-        <v>1</v>
+      <c r="AE100" t="s">
+        <v>362</v>
       </c>
       <c r="AF100">
         <v>1</v>
@@ -9834,8 +9834,8 @@
       <c r="AD101">
         <v>680638</v>
       </c>
-      <c r="AE101">
-        <v>1</v>
+      <c r="AE101" t="s">
+        <v>362</v>
       </c>
       <c r="AF101">
         <v>1</v>
@@ -9917,8 +9917,8 @@
       <c r="AD102">
         <v>680669</v>
       </c>
-      <c r="AE102">
-        <v>1</v>
+      <c r="AE102" t="s">
+        <v>362</v>
       </c>
       <c r="AF102">
         <v>1</v>
@@ -10000,8 +10000,8 @@
       <c r="AD103">
         <v>680669</v>
       </c>
-      <c r="AE103">
-        <v>1</v>
+      <c r="AE103" t="s">
+        <v>362</v>
       </c>
       <c r="AF103">
         <v>1</v>
@@ -10083,8 +10083,8 @@
       <c r="AD104">
         <v>680669</v>
       </c>
-      <c r="AE104">
-        <v>1</v>
+      <c r="AE104" t="s">
+        <v>362</v>
       </c>
       <c r="AF104">
         <v>1</v>
@@ -10166,8 +10166,8 @@
       <c r="AD105">
         <v>680669</v>
       </c>
-      <c r="AE105">
-        <v>1</v>
+      <c r="AE105" t="s">
+        <v>362</v>
       </c>
       <c r="AF105">
         <v>1</v>
@@ -10249,8 +10249,8 @@
       <c r="AD106">
         <v>680669</v>
       </c>
-      <c r="AE106">
-        <v>1</v>
+      <c r="AE106" t="s">
+        <v>362</v>
       </c>
       <c r="AF106">
         <v>1</v>
@@ -10332,8 +10332,8 @@
       <c r="AD107">
         <v>680669</v>
       </c>
-      <c r="AE107">
-        <v>1</v>
+      <c r="AE107" t="s">
+        <v>362</v>
       </c>
       <c r="AF107">
         <v>1</v>
@@ -10415,8 +10415,8 @@
       <c r="AD108">
         <v>680669</v>
       </c>
-      <c r="AE108">
-        <v>1</v>
+      <c r="AE108" t="s">
+        <v>362</v>
       </c>
       <c r="AF108">
         <v>1</v>
@@ -10498,8 +10498,8 @@
       <c r="AD109">
         <v>680669</v>
       </c>
-      <c r="AE109">
-        <v>1</v>
+      <c r="AE109" t="s">
+        <v>362</v>
       </c>
       <c r="AF109">
         <v>1</v>
@@ -10581,8 +10581,8 @@
       <c r="AD110">
         <v>680669</v>
       </c>
-      <c r="AE110">
-        <v>1</v>
+      <c r="AE110" t="s">
+        <v>362</v>
       </c>
       <c r="AF110">
         <v>1</v>
@@ -10664,8 +10664,8 @@
       <c r="AD111">
         <v>680669</v>
       </c>
-      <c r="AE111">
-        <v>1</v>
+      <c r="AE111" t="s">
+        <v>362</v>
       </c>
       <c r="AF111">
         <v>1</v>
@@ -10747,8 +10747,8 @@
       <c r="AD112">
         <v>680669</v>
       </c>
-      <c r="AE112">
-        <v>1</v>
+      <c r="AE112" t="s">
+        <v>362</v>
       </c>
       <c r="AF112">
         <v>1</v>
@@ -10830,8 +10830,8 @@
       <c r="AD113">
         <v>680669</v>
       </c>
-      <c r="AE113">
-        <v>1</v>
+      <c r="AE113" t="s">
+        <v>362</v>
       </c>
       <c r="AF113">
         <v>1</v>
@@ -10913,8 +10913,8 @@
       <c r="AD114">
         <v>680669</v>
       </c>
-      <c r="AE114">
-        <v>1</v>
+      <c r="AE114" t="s">
+        <v>362</v>
       </c>
       <c r="AF114">
         <v>1</v>
@@ -10996,8 +10996,8 @@
       <c r="AD115">
         <v>680669</v>
       </c>
-      <c r="AE115">
-        <v>1</v>
+      <c r="AE115" t="s">
+        <v>362</v>
       </c>
       <c r="AF115">
         <v>1</v>
@@ -11079,8 +11079,8 @@
       <c r="AD116">
         <v>680669</v>
       </c>
-      <c r="AE116">
-        <v>1</v>
+      <c r="AE116" t="s">
+        <v>362</v>
       </c>
       <c r="AF116">
         <v>1</v>
@@ -11162,8 +11162,8 @@
       <c r="AD117">
         <v>680669</v>
       </c>
-      <c r="AE117">
-        <v>1</v>
+      <c r="AE117" t="s">
+        <v>362</v>
       </c>
       <c r="AF117">
         <v>1</v>
@@ -11245,8 +11245,8 @@
       <c r="AD118">
         <v>680669</v>
       </c>
-      <c r="AE118">
-        <v>1</v>
+      <c r="AE118" t="s">
+        <v>362</v>
       </c>
       <c r="AF118">
         <v>1</v>
@@ -11328,8 +11328,8 @@
       <c r="AD119">
         <v>680669</v>
       </c>
-      <c r="AE119">
-        <v>1</v>
+      <c r="AE119" t="s">
+        <v>362</v>
       </c>
       <c r="AF119">
         <v>1</v>
@@ -11411,8 +11411,8 @@
       <c r="AD120">
         <v>680669</v>
       </c>
-      <c r="AE120">
-        <v>1</v>
+      <c r="AE120" t="s">
+        <v>362</v>
       </c>
       <c r="AF120">
         <v>2</v>
@@ -11494,8 +11494,8 @@
       <c r="AD121">
         <v>680669</v>
       </c>
-      <c r="AE121">
-        <v>1</v>
+      <c r="AE121" t="s">
+        <v>362</v>
       </c>
       <c r="AF121">
         <v>2</v>
@@ -11577,8 +11577,8 @@
       <c r="AD122">
         <v>680669</v>
       </c>
-      <c r="AE122">
-        <v>1</v>
+      <c r="AE122" t="s">
+        <v>365</v>
       </c>
       <c r="AF122">
         <v>1</v>
@@ -11660,8 +11660,8 @@
       <c r="AD123">
         <v>616436</v>
       </c>
-      <c r="AE123">
-        <v>1</v>
+      <c r="AE123" t="s">
+        <v>365</v>
       </c>
       <c r="AF123">
         <v>1</v>

--- a/Excel/Carga DB Postgres/Ingreso - cargado.xlsx
+++ b/Excel/Carga DB Postgres/Ingreso - cargado.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="370">
   <si>
     <t>fechahora</t>
   </si>
@@ -1114,6 +1114,18 @@
   </si>
   <si>
     <t>false</t>
+  </si>
+  <si>
+    <t>2017-09-25-20:09:58</t>
+  </si>
+  <si>
+    <t>2017-10-30-13:22:46</t>
+  </si>
+  <si>
+    <t>ESTA-DOCU</t>
+  </si>
+  <si>
+    <t>ALCO-DOCU</t>
   </si>
 </sst>
 </file>
@@ -1448,10 +1460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH123"/>
+  <dimension ref="A1:AH125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AE116" sqref="AE116"/>
+    <sheetView tabSelected="1" topLeftCell="E95" workbookViewId="0">
+      <selection activeCell="J125" sqref="J125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -11670,6 +11682,172 @@
         <v>5</v>
       </c>
       <c r="AH123" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="124" spans="1:34">
+      <c r="A124" t="s">
+        <v>366</v>
+      </c>
+      <c r="B124">
+        <v>3</v>
+      </c>
+      <c r="C124">
+        <v>5</v>
+      </c>
+      <c r="D124" t="s">
+        <v>57</v>
+      </c>
+      <c r="E124" t="s">
+        <v>126</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G124" t="s">
+        <v>33</v>
+      </c>
+      <c r="J124" t="s">
+        <v>368</v>
+      </c>
+      <c r="K124" t="s">
+        <v>296</v>
+      </c>
+      <c r="L124" t="s">
+        <v>37</v>
+      </c>
+      <c r="M124" t="s">
+        <v>311</v>
+      </c>
+      <c r="N124" t="s">
+        <v>313</v>
+      </c>
+      <c r="O124">
+        <v>8540</v>
+      </c>
+      <c r="P124">
+        <v>21</v>
+      </c>
+      <c r="Q124">
+        <v>39</v>
+      </c>
+      <c r="R124">
+        <v>25</v>
+      </c>
+      <c r="S124" t="s">
+        <v>37</v>
+      </c>
+      <c r="T124">
+        <v>1</v>
+      </c>
+      <c r="U124" s="1">
+        <v>16855456</v>
+      </c>
+      <c r="AA124">
+        <v>16017888</v>
+      </c>
+      <c r="AB124">
+        <v>16085667</v>
+      </c>
+      <c r="AC124">
+        <v>565699</v>
+      </c>
+      <c r="AD124">
+        <v>680669</v>
+      </c>
+      <c r="AE124" t="s">
+        <v>362</v>
+      </c>
+      <c r="AF124">
+        <v>1</v>
+      </c>
+      <c r="AG124">
+        <v>1</v>
+      </c>
+      <c r="AH124" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="125" spans="1:34">
+      <c r="A125" t="s">
+        <v>367</v>
+      </c>
+      <c r="B125">
+        <v>3</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125" t="s">
+        <v>58</v>
+      </c>
+      <c r="E125" t="s">
+        <v>123</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G125" t="s">
+        <v>35</v>
+      </c>
+      <c r="J125" t="s">
+        <v>369</v>
+      </c>
+      <c r="K125" t="s">
+        <v>297</v>
+      </c>
+      <c r="L125" t="s">
+        <v>37</v>
+      </c>
+      <c r="M125" t="s">
+        <v>312</v>
+      </c>
+      <c r="N125" t="s">
+        <v>314</v>
+      </c>
+      <c r="O125">
+        <v>3606</v>
+      </c>
+      <c r="P125">
+        <v>22</v>
+      </c>
+      <c r="Q125">
+        <v>40</v>
+      </c>
+      <c r="R125">
+        <v>146</v>
+      </c>
+      <c r="S125" t="s">
+        <v>37</v>
+      </c>
+      <c r="T125">
+        <v>1</v>
+      </c>
+      <c r="U125" s="1">
+        <v>16855456</v>
+      </c>
+      <c r="AA125">
+        <v>16017888</v>
+      </c>
+      <c r="AB125">
+        <v>16085667</v>
+      </c>
+      <c r="AC125">
+        <v>565699</v>
+      </c>
+      <c r="AD125">
+        <v>680669</v>
+      </c>
+      <c r="AE125" t="s">
+        <v>362</v>
+      </c>
+      <c r="AF125">
+        <v>1</v>
+      </c>
+      <c r="AG125">
+        <v>1</v>
+      </c>
+      <c r="AH125" t="s">
         <v>362</v>
       </c>
     </row>
